--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\AMOLF-SHIMIZU Dropbox\Corentin Bisot\AMF-PlateList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071B7D18-D402-4C8D-95D7-DFD96E869ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999CA43F-5AFA-4734-A00C-C6FCFF7F3538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,14 +557,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\AMOLF-SHIMIZU Dropbox\Corentin Bisot\AMF-PlateList\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776C97A-1A4D-4099-ABE8-9C031BCE5B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849375A-9BD0-4547-936C-39843C18EC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6288,603 +6288,6 @@
     <t>PNB2007A333</t>
   </si>
   <si>
-    <t>ROC202302A001</t>
-  </si>
-  <si>
-    <t>ROC202302A002</t>
-  </si>
-  <si>
-    <t>ROC202302A003</t>
-  </si>
-  <si>
-    <t>ROC202302A004</t>
-  </si>
-  <si>
-    <t>ROC202302A005</t>
-  </si>
-  <si>
-    <t>ROC202302A006</t>
-  </si>
-  <si>
-    <t>ROC202302A007</t>
-  </si>
-  <si>
-    <t>ROC202302A008</t>
-  </si>
-  <si>
-    <t>ROC202302A009</t>
-  </si>
-  <si>
-    <t>ROC202302A010</t>
-  </si>
-  <si>
-    <t>ROC202302A011</t>
-  </si>
-  <si>
-    <t>ROC202302A012</t>
-  </si>
-  <si>
-    <t>ROC202302A013</t>
-  </si>
-  <si>
-    <t>ROC202302A014</t>
-  </si>
-  <si>
-    <t>ROC202302A015</t>
-  </si>
-  <si>
-    <t>ROC202302A016</t>
-  </si>
-  <si>
-    <t>ROC202302A017</t>
-  </si>
-  <si>
-    <t>ROC202302A018</t>
-  </si>
-  <si>
-    <t>ROC202302A019</t>
-  </si>
-  <si>
-    <t>ROC202302A020</t>
-  </si>
-  <si>
-    <t>ROC202302A021</t>
-  </si>
-  <si>
-    <t>ROC202302A022</t>
-  </si>
-  <si>
-    <t>ROC202302A023</t>
-  </si>
-  <si>
-    <t>ROC202302A024</t>
-  </si>
-  <si>
-    <t>ROC202302A025</t>
-  </si>
-  <si>
-    <t>ROC202302A026</t>
-  </si>
-  <si>
-    <t>ROC202302A027</t>
-  </si>
-  <si>
-    <t>ROC202302A028</t>
-  </si>
-  <si>
-    <t>ROC202302A029</t>
-  </si>
-  <si>
-    <t>ROC202302A030</t>
-  </si>
-  <si>
-    <t>ROC202302A031</t>
-  </si>
-  <si>
-    <t>ROC202302A032</t>
-  </si>
-  <si>
-    <t>ROC202302A033</t>
-  </si>
-  <si>
-    <t>ROC202302A034</t>
-  </si>
-  <si>
-    <t>ROC202302A035</t>
-  </si>
-  <si>
-    <t>ROC202302A036</t>
-  </si>
-  <si>
-    <t>ROC202302A037</t>
-  </si>
-  <si>
-    <t>ROC202302A038</t>
-  </si>
-  <si>
-    <t>ROC202302A039</t>
-  </si>
-  <si>
-    <t>ROC202302A040</t>
-  </si>
-  <si>
-    <t>ROC202302A041</t>
-  </si>
-  <si>
-    <t>ROC202302A042</t>
-  </si>
-  <si>
-    <t>ROC202302A043</t>
-  </si>
-  <si>
-    <t>ROC202302A044</t>
-  </si>
-  <si>
-    <t>ROC202302A045</t>
-  </si>
-  <si>
-    <t>ROC202302A046</t>
-  </si>
-  <si>
-    <t>ROC202302A047</t>
-  </si>
-  <si>
-    <t>ROC202302A048</t>
-  </si>
-  <si>
-    <t>ROC202302A049</t>
-  </si>
-  <si>
-    <t>ROC202302A050</t>
-  </si>
-  <si>
-    <t>ROC202302A051</t>
-  </si>
-  <si>
-    <t>ROC202302A052</t>
-  </si>
-  <si>
-    <t>ROC202302A053</t>
-  </si>
-  <si>
-    <t>ROC202302A054</t>
-  </si>
-  <si>
-    <t>ROC202302A055</t>
-  </si>
-  <si>
-    <t>ROC202302A056</t>
-  </si>
-  <si>
-    <t>ROC202302A057</t>
-  </si>
-  <si>
-    <t>ROC202302A058</t>
-  </si>
-  <si>
-    <t>ROC202302A059</t>
-  </si>
-  <si>
-    <t>ROC202302A060</t>
-  </si>
-  <si>
-    <t>ROC202302A061</t>
-  </si>
-  <si>
-    <t>ROC202302A062</t>
-  </si>
-  <si>
-    <t>ROC202302A063</t>
-  </si>
-  <si>
-    <t>ROC202302A064</t>
-  </si>
-  <si>
-    <t>ROC202302A065</t>
-  </si>
-  <si>
-    <t>ROC202302A066</t>
-  </si>
-  <si>
-    <t>ROC202302A067</t>
-  </si>
-  <si>
-    <t>ROC202302A068</t>
-  </si>
-  <si>
-    <t>ROC202302A069</t>
-  </si>
-  <si>
-    <t>ROC202302A070</t>
-  </si>
-  <si>
-    <t>ROC202302A071</t>
-  </si>
-  <si>
-    <t>ROC202302A072</t>
-  </si>
-  <si>
-    <t>ROC202302A073</t>
-  </si>
-  <si>
-    <t>ROC202302A074</t>
-  </si>
-  <si>
-    <t>ROC202302A075</t>
-  </si>
-  <si>
-    <t>ROC202302A076</t>
-  </si>
-  <si>
-    <t>ROC202302A077</t>
-  </si>
-  <si>
-    <t>ROC202302A078</t>
-  </si>
-  <si>
-    <t>ROC202302A079</t>
-  </si>
-  <si>
-    <t>ROC202302A080</t>
-  </si>
-  <si>
-    <t>ROC202302A081</t>
-  </si>
-  <si>
-    <t>ROC202302A082</t>
-  </si>
-  <si>
-    <t>ROC202302A083</t>
-  </si>
-  <si>
-    <t>ROC202302A084</t>
-  </si>
-  <si>
-    <t>ROC202302A085</t>
-  </si>
-  <si>
-    <t>ROC202302A086</t>
-  </si>
-  <si>
-    <t>ROC202302A087</t>
-  </si>
-  <si>
-    <t>ROC202302A088</t>
-  </si>
-  <si>
-    <t>ROC202302A089</t>
-  </si>
-  <si>
-    <t>ROC202302A090</t>
-  </si>
-  <si>
-    <t>ROC202302A091</t>
-  </si>
-  <si>
-    <t>ROC202302A092</t>
-  </si>
-  <si>
-    <t>ROC202302A093</t>
-  </si>
-  <si>
-    <t>ROC202302A094</t>
-  </si>
-  <si>
-    <t>ROC202302A095</t>
-  </si>
-  <si>
-    <t>ROC202302A096</t>
-  </si>
-  <si>
-    <t>ROC202304A097</t>
-  </si>
-  <si>
-    <t>ROC202304A098</t>
-  </si>
-  <si>
-    <t>ROC202304A099</t>
-  </si>
-  <si>
-    <t>ROC202304A100</t>
-  </si>
-  <si>
-    <t>ROC202304A101</t>
-  </si>
-  <si>
-    <t>ROC202304A102</t>
-  </si>
-  <si>
-    <t>ROC202304A103</t>
-  </si>
-  <si>
-    <t>ROC202304A104</t>
-  </si>
-  <si>
-    <t>ROC202304A105</t>
-  </si>
-  <si>
-    <t>ROC202304A106</t>
-  </si>
-  <si>
-    <t>ROC202304A107</t>
-  </si>
-  <si>
-    <t>ROC202304A108</t>
-  </si>
-  <si>
-    <t>ROC202304A109</t>
-  </si>
-  <si>
-    <t>ROC202304A110</t>
-  </si>
-  <si>
-    <t>ROC202304A111</t>
-  </si>
-  <si>
-    <t>ROC202304A112</t>
-  </si>
-  <si>
-    <t>ROC202304A113</t>
-  </si>
-  <si>
-    <t>ROC202304A114</t>
-  </si>
-  <si>
-    <t>ROC202304A115</t>
-  </si>
-  <si>
-    <t>ROC202304A116</t>
-  </si>
-  <si>
-    <t>ROC202304A117</t>
-  </si>
-  <si>
-    <t>ROC202304A118</t>
-  </si>
-  <si>
-    <t>ROC202304A119</t>
-  </si>
-  <si>
-    <t>ROC202304A120</t>
-  </si>
-  <si>
-    <t>ROC202304A121</t>
-  </si>
-  <si>
-    <t>ROC202304A122</t>
-  </si>
-  <si>
-    <t>ROC202304A123</t>
-  </si>
-  <si>
-    <t>ROC202304A124</t>
-  </si>
-  <si>
-    <t>ROC202304A125</t>
-  </si>
-  <si>
-    <t>ROC202304A126</t>
-  </si>
-  <si>
-    <t>ROC202304A127</t>
-  </si>
-  <si>
-    <t>ROC202304A128</t>
-  </si>
-  <si>
-    <t>ROC202304A129</t>
-  </si>
-  <si>
-    <t>ROC202304A130</t>
-  </si>
-  <si>
-    <t>ROC202304A131</t>
-  </si>
-  <si>
-    <t>ROC202304A132</t>
-  </si>
-  <si>
-    <t>ROC202304A133</t>
-  </si>
-  <si>
-    <t>ROC202304A134</t>
-  </si>
-  <si>
-    <t>ROC202304A135</t>
-  </si>
-  <si>
-    <t>ROC202304A136</t>
-  </si>
-  <si>
-    <t>ROC202304A137</t>
-  </si>
-  <si>
-    <t>ROC202304A138</t>
-  </si>
-  <si>
-    <t>ROC202304A139</t>
-  </si>
-  <si>
-    <t>ROC202304A140</t>
-  </si>
-  <si>
-    <t>ROC202304A141</t>
-  </si>
-  <si>
-    <t>ROC202304A142</t>
-  </si>
-  <si>
-    <t>ROC202304A143</t>
-  </si>
-  <si>
-    <t>ROC202304A144</t>
-  </si>
-  <si>
-    <t>ROC202304A145</t>
-  </si>
-  <si>
-    <t>ROC202304A146</t>
-  </si>
-  <si>
-    <t>ROC202304A147</t>
-  </si>
-  <si>
-    <t>ROC202304A148</t>
-  </si>
-  <si>
-    <t>ROC202304A149</t>
-  </si>
-  <si>
-    <t>ROC202304A150</t>
-  </si>
-  <si>
-    <t>ROC202304A151</t>
-  </si>
-  <si>
-    <t>ROC202304A152</t>
-  </si>
-  <si>
-    <t>ROC202304A153</t>
-  </si>
-  <si>
-    <t>ROC202304A154</t>
-  </si>
-  <si>
-    <t>ROC202304A155</t>
-  </si>
-  <si>
-    <t>ROC202304A156</t>
-  </si>
-  <si>
-    <t>ROC202305A157</t>
-  </si>
-  <si>
-    <t>ROC202305A158</t>
-  </si>
-  <si>
-    <t>ROC202305A159</t>
-  </si>
-  <si>
-    <t>ROC202305A160</t>
-  </si>
-  <si>
-    <t>ROC202305A161</t>
-  </si>
-  <si>
-    <t>ROC202305A162</t>
-  </si>
-  <si>
-    <t>ROC202305A163</t>
-  </si>
-  <si>
-    <t>ROC202305A164</t>
-  </si>
-  <si>
-    <t>ROC202305A165</t>
-  </si>
-  <si>
-    <t>ROC202305A166</t>
-  </si>
-  <si>
-    <t>ROC202305A167</t>
-  </si>
-  <si>
-    <t>ROC202305A168</t>
-  </si>
-  <si>
-    <t>ROC202305A169</t>
-  </si>
-  <si>
-    <t>ROC202305A170</t>
-  </si>
-  <si>
-    <t>ROC202306A171</t>
-  </si>
-  <si>
-    <t>ROC202306A172</t>
-  </si>
-  <si>
-    <t>ROC202306A173</t>
-  </si>
-  <si>
-    <t>ROC202306A174</t>
-  </si>
-  <si>
-    <t>ROC202306A175</t>
-  </si>
-  <si>
-    <t>ROC202306A176</t>
-  </si>
-  <si>
-    <t>ROC202306A177</t>
-  </si>
-  <si>
-    <t>ROC202306A178</t>
-  </si>
-  <si>
-    <t>ROC202306A179</t>
-  </si>
-  <si>
-    <t>ROC202306A180</t>
-  </si>
-  <si>
-    <t>ROC202306A181</t>
-  </si>
-  <si>
-    <t>ROC202306A182</t>
-  </si>
-  <si>
-    <t>ROC202306A183</t>
-  </si>
-  <si>
-    <t>ROC202306A184</t>
-  </si>
-  <si>
-    <t>ROC202306A185</t>
-  </si>
-  <si>
-    <t>ROC202306A186</t>
-  </si>
-  <si>
-    <t>ROC202306A187</t>
-  </si>
-  <si>
-    <t>ROC202307A188</t>
-  </si>
-  <si>
-    <t>ROC202307A189</t>
-  </si>
-  <si>
-    <t>ROC202307A190</t>
-  </si>
-  <si>
-    <t>ROC202307A191</t>
-  </si>
-  <si>
-    <t>ROC202307A192</t>
-  </si>
-  <si>
-    <t>ROC202307A193</t>
-  </si>
-  <si>
-    <t>ROC202307A194</t>
-  </si>
-  <si>
-    <t>ROC202307A195</t>
-  </si>
-  <si>
-    <t>ROC202307A196</t>
-  </si>
-  <si>
-    <t>ROC202307A197</t>
-  </si>
-  <si>
-    <t>ROC202307A198</t>
-  </si>
-  <si>
-    <t>ROC202307A199</t>
-  </si>
-  <si>
     <t>CHC2402A307</t>
   </si>
   <si>
@@ -8728,13 +8131,610 @@
   </si>
   <si>
     <t>MYH2302B048</t>
+  </si>
+  <si>
+    <t>ROC2302A001</t>
+  </si>
+  <si>
+    <t>ROC2302A002</t>
+  </si>
+  <si>
+    <t>ROC2302A003</t>
+  </si>
+  <si>
+    <t>ROC2302A004</t>
+  </si>
+  <si>
+    <t>ROC2302A005</t>
+  </si>
+  <si>
+    <t>ROC2302A006</t>
+  </si>
+  <si>
+    <t>ROC2302A007</t>
+  </si>
+  <si>
+    <t>ROC2302A008</t>
+  </si>
+  <si>
+    <t>ROC2302A009</t>
+  </si>
+  <si>
+    <t>ROC2302A010</t>
+  </si>
+  <si>
+    <t>ROC2302A011</t>
+  </si>
+  <si>
+    <t>ROC2302A012</t>
+  </si>
+  <si>
+    <t>ROC2302A013</t>
+  </si>
+  <si>
+    <t>ROC2302A014</t>
+  </si>
+  <si>
+    <t>ROC2302A015</t>
+  </si>
+  <si>
+    <t>ROC2302A016</t>
+  </si>
+  <si>
+    <t>ROC2302A017</t>
+  </si>
+  <si>
+    <t>ROC2302A018</t>
+  </si>
+  <si>
+    <t>ROC2302A019</t>
+  </si>
+  <si>
+    <t>ROC2302A020</t>
+  </si>
+  <si>
+    <t>ROC2302A021</t>
+  </si>
+  <si>
+    <t>ROC2302A022</t>
+  </si>
+  <si>
+    <t>ROC2302A023</t>
+  </si>
+  <si>
+    <t>ROC2302A024</t>
+  </si>
+  <si>
+    <t>ROC2302A025</t>
+  </si>
+  <si>
+    <t>ROC2302A026</t>
+  </si>
+  <si>
+    <t>ROC2302A027</t>
+  </si>
+  <si>
+    <t>ROC2302A028</t>
+  </si>
+  <si>
+    <t>ROC2302A029</t>
+  </si>
+  <si>
+    <t>ROC2302A030</t>
+  </si>
+  <si>
+    <t>ROC2302A031</t>
+  </si>
+  <si>
+    <t>ROC2302A032</t>
+  </si>
+  <si>
+    <t>ROC2302A033</t>
+  </si>
+  <si>
+    <t>ROC2302A034</t>
+  </si>
+  <si>
+    <t>ROC2302A035</t>
+  </si>
+  <si>
+    <t>ROC2302A036</t>
+  </si>
+  <si>
+    <t>ROC2302A037</t>
+  </si>
+  <si>
+    <t>ROC2302A038</t>
+  </si>
+  <si>
+    <t>ROC2302A039</t>
+  </si>
+  <si>
+    <t>ROC2302A040</t>
+  </si>
+  <si>
+    <t>ROC2302A041</t>
+  </si>
+  <si>
+    <t>ROC2302A042</t>
+  </si>
+  <si>
+    <t>ROC2302A043</t>
+  </si>
+  <si>
+    <t>ROC2302A044</t>
+  </si>
+  <si>
+    <t>ROC2302A045</t>
+  </si>
+  <si>
+    <t>ROC2302A046</t>
+  </si>
+  <si>
+    <t>ROC2302A047</t>
+  </si>
+  <si>
+    <t>ROC2302A048</t>
+  </si>
+  <si>
+    <t>ROC2302A049</t>
+  </si>
+  <si>
+    <t>ROC2302A050</t>
+  </si>
+  <si>
+    <t>ROC2302A051</t>
+  </si>
+  <si>
+    <t>ROC2302A052</t>
+  </si>
+  <si>
+    <t>ROC2302A053</t>
+  </si>
+  <si>
+    <t>ROC2302A054</t>
+  </si>
+  <si>
+    <t>ROC2302A055</t>
+  </si>
+  <si>
+    <t>ROC2302A056</t>
+  </si>
+  <si>
+    <t>ROC2302A057</t>
+  </si>
+  <si>
+    <t>ROC2302A058</t>
+  </si>
+  <si>
+    <t>ROC2302A059</t>
+  </si>
+  <si>
+    <t>ROC2302A060</t>
+  </si>
+  <si>
+    <t>ROC2302A061</t>
+  </si>
+  <si>
+    <t>ROC2302A062</t>
+  </si>
+  <si>
+    <t>ROC2302A063</t>
+  </si>
+  <si>
+    <t>ROC2302A064</t>
+  </si>
+  <si>
+    <t>ROC2302A065</t>
+  </si>
+  <si>
+    <t>ROC2302A066</t>
+  </si>
+  <si>
+    <t>ROC2302A067</t>
+  </si>
+  <si>
+    <t>ROC2302A068</t>
+  </si>
+  <si>
+    <t>ROC2302A069</t>
+  </si>
+  <si>
+    <t>ROC2302A070</t>
+  </si>
+  <si>
+    <t>ROC2302A071</t>
+  </si>
+  <si>
+    <t>ROC2302A072</t>
+  </si>
+  <si>
+    <t>ROC2302A073</t>
+  </si>
+  <si>
+    <t>ROC2302A074</t>
+  </si>
+  <si>
+    <t>ROC2302A075</t>
+  </si>
+  <si>
+    <t>ROC2302A076</t>
+  </si>
+  <si>
+    <t>ROC2302A077</t>
+  </si>
+  <si>
+    <t>ROC2302A078</t>
+  </si>
+  <si>
+    <t>ROC2302A079</t>
+  </si>
+  <si>
+    <t>ROC2302A080</t>
+  </si>
+  <si>
+    <t>ROC2302A081</t>
+  </si>
+  <si>
+    <t>ROC2302A082</t>
+  </si>
+  <si>
+    <t>ROC2302A083</t>
+  </si>
+  <si>
+    <t>ROC2302A084</t>
+  </si>
+  <si>
+    <t>ROC2302A085</t>
+  </si>
+  <si>
+    <t>ROC2302A086</t>
+  </si>
+  <si>
+    <t>ROC2302A087</t>
+  </si>
+  <si>
+    <t>ROC2302A088</t>
+  </si>
+  <si>
+    <t>ROC2302A089</t>
+  </si>
+  <si>
+    <t>ROC2302A090</t>
+  </si>
+  <si>
+    <t>ROC2302A091</t>
+  </si>
+  <si>
+    <t>ROC2302A092</t>
+  </si>
+  <si>
+    <t>ROC2302A093</t>
+  </si>
+  <si>
+    <t>ROC2302A094</t>
+  </si>
+  <si>
+    <t>ROC2302A095</t>
+  </si>
+  <si>
+    <t>ROC2302A096</t>
+  </si>
+  <si>
+    <t>ROC2302A097</t>
+  </si>
+  <si>
+    <t>ROC2302A098</t>
+  </si>
+  <si>
+    <t>ROC2302A099</t>
+  </si>
+  <si>
+    <t>ROC2302A100</t>
+  </si>
+  <si>
+    <t>ROC2302A101</t>
+  </si>
+  <si>
+    <t>ROC2302A102</t>
+  </si>
+  <si>
+    <t>ROC2302A103</t>
+  </si>
+  <si>
+    <t>ROC2302A104</t>
+  </si>
+  <si>
+    <t>ROC2302A105</t>
+  </si>
+  <si>
+    <t>ROC2302A106</t>
+  </si>
+  <si>
+    <t>ROC2302A107</t>
+  </si>
+  <si>
+    <t>ROC2302A108</t>
+  </si>
+  <si>
+    <t>ROC2302A109</t>
+  </si>
+  <si>
+    <t>ROC2302A110</t>
+  </si>
+  <si>
+    <t>ROC2302A111</t>
+  </si>
+  <si>
+    <t>ROC2302A112</t>
+  </si>
+  <si>
+    <t>ROC2302A113</t>
+  </si>
+  <si>
+    <t>ROC2302A114</t>
+  </si>
+  <si>
+    <t>ROC2302A115</t>
+  </si>
+  <si>
+    <t>ROC2302A116</t>
+  </si>
+  <si>
+    <t>ROC2302A117</t>
+  </si>
+  <si>
+    <t>ROC2302A118</t>
+  </si>
+  <si>
+    <t>ROC2302A119</t>
+  </si>
+  <si>
+    <t>ROC2302A120</t>
+  </si>
+  <si>
+    <t>ROC2302A121</t>
+  </si>
+  <si>
+    <t>ROC2302A122</t>
+  </si>
+  <si>
+    <t>ROC2302A123</t>
+  </si>
+  <si>
+    <t>ROC2302A124</t>
+  </si>
+  <si>
+    <t>ROC2302A125</t>
+  </si>
+  <si>
+    <t>ROC2302A126</t>
+  </si>
+  <si>
+    <t>ROC2302A127</t>
+  </si>
+  <si>
+    <t>ROC2302A128</t>
+  </si>
+  <si>
+    <t>ROC2302A129</t>
+  </si>
+  <si>
+    <t>ROC2302A130</t>
+  </si>
+  <si>
+    <t>ROC2302A131</t>
+  </si>
+  <si>
+    <t>ROC2302A132</t>
+  </si>
+  <si>
+    <t>ROC2302A133</t>
+  </si>
+  <si>
+    <t>ROC2302A134</t>
+  </si>
+  <si>
+    <t>ROC2302A135</t>
+  </si>
+  <si>
+    <t>ROC2302A136</t>
+  </si>
+  <si>
+    <t>ROC2302A137</t>
+  </si>
+  <si>
+    <t>ROC2302A138</t>
+  </si>
+  <si>
+    <t>ROC2302A139</t>
+  </si>
+  <si>
+    <t>ROC2302A140</t>
+  </si>
+  <si>
+    <t>ROC2302A141</t>
+  </si>
+  <si>
+    <t>ROC2302A142</t>
+  </si>
+  <si>
+    <t>ROC2302A143</t>
+  </si>
+  <si>
+    <t>ROC2302A144</t>
+  </si>
+  <si>
+    <t>ROC2302A145</t>
+  </si>
+  <si>
+    <t>ROC2302A146</t>
+  </si>
+  <si>
+    <t>ROC2302A147</t>
+  </si>
+  <si>
+    <t>ROC2302A148</t>
+  </si>
+  <si>
+    <t>ROC2302A149</t>
+  </si>
+  <si>
+    <t>ROC2302A150</t>
+  </si>
+  <si>
+    <t>ROC2302A151</t>
+  </si>
+  <si>
+    <t>ROC2302A152</t>
+  </si>
+  <si>
+    <t>ROC2302A153</t>
+  </si>
+  <si>
+    <t>ROC2302A154</t>
+  </si>
+  <si>
+    <t>ROC2302A155</t>
+  </si>
+  <si>
+    <t>ROC2302A156</t>
+  </si>
+  <si>
+    <t>ROC2302A157</t>
+  </si>
+  <si>
+    <t>ROC2302A158</t>
+  </si>
+  <si>
+    <t>ROC2302A159</t>
+  </si>
+  <si>
+    <t>ROC2302A160</t>
+  </si>
+  <si>
+    <t>ROC2302A161</t>
+  </si>
+  <si>
+    <t>ROC2302A162</t>
+  </si>
+  <si>
+    <t>ROC2302A163</t>
+  </si>
+  <si>
+    <t>ROC2302A164</t>
+  </si>
+  <si>
+    <t>ROC2302A165</t>
+  </si>
+  <si>
+    <t>ROC2302A166</t>
+  </si>
+  <si>
+    <t>ROC2302A167</t>
+  </si>
+  <si>
+    <t>ROC2302A168</t>
+  </si>
+  <si>
+    <t>ROC2302A169</t>
+  </si>
+  <si>
+    <t>ROC2302A170</t>
+  </si>
+  <si>
+    <t>ROC2302A171</t>
+  </si>
+  <si>
+    <t>ROC2302A172</t>
+  </si>
+  <si>
+    <t>ROC2302A173</t>
+  </si>
+  <si>
+    <t>ROC2302A174</t>
+  </si>
+  <si>
+    <t>ROC2302A175</t>
+  </si>
+  <si>
+    <t>ROC2302A176</t>
+  </si>
+  <si>
+    <t>ROC2302A177</t>
+  </si>
+  <si>
+    <t>ROC2302A178</t>
+  </si>
+  <si>
+    <t>ROC2302A179</t>
+  </si>
+  <si>
+    <t>ROC2302A180</t>
+  </si>
+  <si>
+    <t>ROC2302A181</t>
+  </si>
+  <si>
+    <t>ROC2302A182</t>
+  </si>
+  <si>
+    <t>ROC2302A183</t>
+  </si>
+  <si>
+    <t>ROC2302A184</t>
+  </si>
+  <si>
+    <t>ROC2302A185</t>
+  </si>
+  <si>
+    <t>ROC2302A186</t>
+  </si>
+  <si>
+    <t>ROC2302A187</t>
+  </si>
+  <si>
+    <t>ROC2302A188</t>
+  </si>
+  <si>
+    <t>ROC2302A189</t>
+  </si>
+  <si>
+    <t>ROC2302A190</t>
+  </si>
+  <si>
+    <t>ROC2302A191</t>
+  </si>
+  <si>
+    <t>ROC2302A192</t>
+  </si>
+  <si>
+    <t>ROC2302A193</t>
+  </si>
+  <si>
+    <t>ROC2302A194</t>
+  </si>
+  <si>
+    <t>ROC2302A195</t>
+  </si>
+  <si>
+    <t>ROC2302A196</t>
+  </si>
+  <si>
+    <t>ROC2302A197</t>
+  </si>
+  <si>
+    <t>ROC2302A198</t>
+  </si>
+  <si>
+    <t>ROC2302A199</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59">
+  <fonts count="60">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9132,6 +9132,12 @@
       <sz val="11"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="37">
@@ -10434,8 +10440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2837"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2750" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2770" sqref="F2770"/>
+    <sheetView tabSelected="1" topLeftCell="A2216" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2025" sqref="C2025:C2223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -42943,7 +42949,7 @@
         <v>45027</v>
       </c>
       <c r="C2025" s="4" t="s">
-        <v>2083</v>
+        <v>2698</v>
       </c>
       <c r="D2025" s="4" t="str">
         <f t="shared" si="31"/>
@@ -42958,7 +42964,7 @@
         <v>45002</v>
       </c>
       <c r="C2026" s="4" t="s">
-        <v>2084</v>
+        <v>2699</v>
       </c>
       <c r="D2026" s="4" t="str">
         <f t="shared" si="31"/>
@@ -42973,7 +42979,7 @@
         <v>45012</v>
       </c>
       <c r="C2027" s="4" t="s">
-        <v>2085</v>
+        <v>2700</v>
       </c>
       <c r="D2027" s="4" t="str">
         <f t="shared" si="31"/>
@@ -42988,7 +42994,7 @@
         <v>45022</v>
       </c>
       <c r="C2028" s="4" t="s">
-        <v>2086</v>
+        <v>2701</v>
       </c>
       <c r="D2028" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43003,7 +43009,7 @@
         <v>45017</v>
       </c>
       <c r="C2029" s="4" t="s">
-        <v>2087</v>
+        <v>2702</v>
       </c>
       <c r="D2029" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43018,7 +43024,7 @@
         <v>45012</v>
       </c>
       <c r="C2030" s="4" t="s">
-        <v>2088</v>
+        <v>2703</v>
       </c>
       <c r="D2030" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43033,7 +43039,7 @@
         <v>45013</v>
       </c>
       <c r="C2031" s="4" t="s">
-        <v>2089</v>
+        <v>2704</v>
       </c>
       <c r="D2031" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43048,7 +43054,7 @@
         <v>45033</v>
       </c>
       <c r="C2032" s="4" t="s">
-        <v>2090</v>
+        <v>2705</v>
       </c>
       <c r="D2032" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43063,7 +43069,7 @@
         <v>45027</v>
       </c>
       <c r="C2033" s="4" t="s">
-        <v>2091</v>
+        <v>2706</v>
       </c>
       <c r="D2033" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43076,7 +43082,7 @@
       </c>
       <c r="B2034" s="5"/>
       <c r="C2034" s="4" t="s">
-        <v>2092</v>
+        <v>2707</v>
       </c>
       <c r="D2034" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43091,7 +43097,7 @@
         <v>45005</v>
       </c>
       <c r="C2035" s="4" t="s">
-        <v>2093</v>
+        <v>2708</v>
       </c>
       <c r="D2035" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43106,7 +43112,7 @@
         <v>45022</v>
       </c>
       <c r="C2036" s="4" t="s">
-        <v>2094</v>
+        <v>2709</v>
       </c>
       <c r="D2036" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43118,7 +43124,7 @@
         <v>783</v>
       </c>
       <c r="C2037" s="4" t="s">
-        <v>2095</v>
+        <v>2710</v>
       </c>
       <c r="D2037" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43133,7 +43139,7 @@
         <v>45009</v>
       </c>
       <c r="C2038" s="4" t="s">
-        <v>2096</v>
+        <v>2711</v>
       </c>
       <c r="D2038" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43146,7 +43152,7 @@
       </c>
       <c r="B2039" s="5"/>
       <c r="C2039" s="4" t="s">
-        <v>2097</v>
+        <v>2712</v>
       </c>
       <c r="D2039" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43159,7 +43165,7 @@
       </c>
       <c r="B2040" s="5"/>
       <c r="C2040" s="4" t="s">
-        <v>2098</v>
+        <v>2713</v>
       </c>
       <c r="D2040" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43174,7 +43180,7 @@
         <v>45037</v>
       </c>
       <c r="C2041" s="4" t="s">
-        <v>2099</v>
+        <v>2714</v>
       </c>
       <c r="D2041" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43189,7 +43195,7 @@
         <v>45002</v>
       </c>
       <c r="C2042" s="4" t="s">
-        <v>2100</v>
+        <v>2715</v>
       </c>
       <c r="D2042" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43204,7 +43210,7 @@
         <v>45029</v>
       </c>
       <c r="C2043" s="4" t="s">
-        <v>2101</v>
+        <v>2716</v>
       </c>
       <c r="D2043" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43219,7 +43225,7 @@
         <v>45037</v>
       </c>
       <c r="C2044" s="4" t="s">
-        <v>2102</v>
+        <v>2717</v>
       </c>
       <c r="D2044" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43234,7 +43240,7 @@
         <v>44998</v>
       </c>
       <c r="C2045" s="4" t="s">
-        <v>2103</v>
+        <v>2718</v>
       </c>
       <c r="D2045" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43249,7 +43255,7 @@
         <v>45009</v>
       </c>
       <c r="C2046" s="4" t="s">
-        <v>2104</v>
+        <v>2719</v>
       </c>
       <c r="D2046" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43264,7 +43270,7 @@
         <v>45002</v>
       </c>
       <c r="C2047" s="4" t="s">
-        <v>2105</v>
+        <v>2720</v>
       </c>
       <c r="D2047" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43279,7 +43285,7 @@
         <v>45012</v>
       </c>
       <c r="C2048" s="4" t="s">
-        <v>2106</v>
+        <v>2721</v>
       </c>
       <c r="D2048" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43294,7 +43300,7 @@
         <v>45019</v>
       </c>
       <c r="C2049" s="4" t="s">
-        <v>2107</v>
+        <v>2722</v>
       </c>
       <c r="D2049" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43309,7 +43315,7 @@
         <v>45035</v>
       </c>
       <c r="C2050" s="4" t="s">
-        <v>2108</v>
+        <v>2723</v>
       </c>
       <c r="D2050" s="4" t="str">
         <f t="shared" si="31"/>
@@ -43324,7 +43330,7 @@
         <v>45037</v>
       </c>
       <c r="C2051" s="4" t="s">
-        <v>2109</v>
+        <v>2724</v>
       </c>
       <c r="D2051" s="4" t="str">
         <f t="shared" ref="D2051:D2114" si="32">A2051&amp;"_"&amp;TEXT(B2051,"aaaammjj")</f>
@@ -43339,7 +43345,7 @@
         <v>44999</v>
       </c>
       <c r="C2052" s="4" t="s">
-        <v>2110</v>
+        <v>2725</v>
       </c>
       <c r="D2052" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43354,7 +43360,7 @@
         <v>44999</v>
       </c>
       <c r="C2053" s="4" t="s">
-        <v>2111</v>
+        <v>2726</v>
       </c>
       <c r="D2053" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43367,7 +43373,7 @@
       </c>
       <c r="B2054" s="5"/>
       <c r="C2054" s="4" t="s">
-        <v>2112</v>
+        <v>2727</v>
       </c>
       <c r="D2054" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43380,7 +43386,7 @@
       </c>
       <c r="B2055" s="5"/>
       <c r="C2055" s="4" t="s">
-        <v>2113</v>
+        <v>2728</v>
       </c>
       <c r="D2055" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43395,7 +43401,7 @@
         <v>45050</v>
       </c>
       <c r="C2056" s="4" t="s">
-        <v>2114</v>
+        <v>2729</v>
       </c>
       <c r="D2056" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43407,7 +43413,7 @@
         <v>803</v>
       </c>
       <c r="C2057" s="4" t="s">
-        <v>2115</v>
+        <v>2730</v>
       </c>
       <c r="D2057" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43420,7 +43426,7 @@
       </c>
       <c r="B2058" s="5"/>
       <c r="C2058" s="4" t="s">
-        <v>2116</v>
+        <v>2731</v>
       </c>
       <c r="D2058" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43435,7 +43441,7 @@
         <v>44997</v>
       </c>
       <c r="C2059" s="4" t="s">
-        <v>2117</v>
+        <v>2732</v>
       </c>
       <c r="D2059" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43450,7 +43456,7 @@
         <v>45005</v>
       </c>
       <c r="C2060" s="4" t="s">
-        <v>2118</v>
+        <v>2733</v>
       </c>
       <c r="D2060" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43462,7 +43468,7 @@
         <v>807</v>
       </c>
       <c r="C2061" s="4" t="s">
-        <v>2119</v>
+        <v>2734</v>
       </c>
       <c r="D2061" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43474,7 +43480,7 @@
         <v>808</v>
       </c>
       <c r="C2062" s="4" t="s">
-        <v>2120</v>
+        <v>2735</v>
       </c>
       <c r="D2062" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43486,7 +43492,7 @@
         <v>809</v>
       </c>
       <c r="C2063" s="4" t="s">
-        <v>2121</v>
+        <v>2736</v>
       </c>
       <c r="D2063" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43501,7 +43507,7 @@
         <v>45017</v>
       </c>
       <c r="C2064" s="4" t="s">
-        <v>2122</v>
+        <v>2737</v>
       </c>
       <c r="D2064" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43514,7 +43520,7 @@
       </c>
       <c r="B2065" s="5"/>
       <c r="C2065" s="4" t="s">
-        <v>2123</v>
+        <v>2738</v>
       </c>
       <c r="D2065" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43529,7 +43535,7 @@
         <v>45020</v>
       </c>
       <c r="C2066" s="4" t="s">
-        <v>2124</v>
+        <v>2739</v>
       </c>
       <c r="D2066" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43542,7 +43548,7 @@
       </c>
       <c r="B2067" s="5"/>
       <c r="C2067" s="4" t="s">
-        <v>2125</v>
+        <v>2740</v>
       </c>
       <c r="D2067" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43555,7 +43561,7 @@
       </c>
       <c r="B2068" s="5"/>
       <c r="C2068" s="4" t="s">
-        <v>2126</v>
+        <v>2741</v>
       </c>
       <c r="D2068" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43568,7 +43574,7 @@
       </c>
       <c r="B2069" s="5"/>
       <c r="C2069" s="4" t="s">
-        <v>2127</v>
+        <v>2742</v>
       </c>
       <c r="D2069" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43581,7 +43587,7 @@
       </c>
       <c r="B2070" s="5"/>
       <c r="C2070" s="4" t="s">
-        <v>2128</v>
+        <v>2743</v>
       </c>
       <c r="D2070" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43594,7 +43600,7 @@
       </c>
       <c r="B2071" s="5"/>
       <c r="C2071" s="4" t="s">
-        <v>2129</v>
+        <v>2744</v>
       </c>
       <c r="D2071" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43607,7 +43613,7 @@
       </c>
       <c r="B2072" s="5"/>
       <c r="C2072" s="4" t="s">
-        <v>2130</v>
+        <v>2745</v>
       </c>
       <c r="D2072" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43620,7 +43626,7 @@
       </c>
       <c r="B2073" s="5"/>
       <c r="C2073" s="4" t="s">
-        <v>2131</v>
+        <v>2746</v>
       </c>
       <c r="D2073" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43633,7 +43639,7 @@
       </c>
       <c r="B2074" s="5"/>
       <c r="C2074" s="4" t="s">
-        <v>2132</v>
+        <v>2747</v>
       </c>
       <c r="D2074" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43646,7 +43652,7 @@
       </c>
       <c r="B2075" s="5"/>
       <c r="C2075" s="4" t="s">
-        <v>2133</v>
+        <v>2748</v>
       </c>
       <c r="D2075" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43661,7 +43667,7 @@
         <v>45017</v>
       </c>
       <c r="C2076" s="4" t="s">
-        <v>2134</v>
+        <v>2749</v>
       </c>
       <c r="D2076" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43676,7 +43682,7 @@
         <v>45041</v>
       </c>
       <c r="C2077" s="4" t="s">
-        <v>2135</v>
+        <v>2750</v>
       </c>
       <c r="D2077" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43689,7 +43695,7 @@
       </c>
       <c r="B2078" s="5"/>
       <c r="C2078" s="4" t="s">
-        <v>2136</v>
+        <v>2751</v>
       </c>
       <c r="D2078" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43701,7 +43707,7 @@
         <v>825</v>
       </c>
       <c r="C2079" s="4" t="s">
-        <v>2137</v>
+        <v>2752</v>
       </c>
       <c r="D2079" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43714,7 +43720,7 @@
       </c>
       <c r="B2080" s="5"/>
       <c r="C2080" s="4" t="s">
-        <v>2138</v>
+        <v>2753</v>
       </c>
       <c r="D2080" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43727,7 +43733,7 @@
       </c>
       <c r="B2081" s="5"/>
       <c r="C2081" s="4" t="s">
-        <v>2139</v>
+        <v>2754</v>
       </c>
       <c r="D2081" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43742,7 +43748,7 @@
         <v>45015</v>
       </c>
       <c r="C2082" s="4" t="s">
-        <v>2140</v>
+        <v>2755</v>
       </c>
       <c r="D2082" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43757,7 +43763,7 @@
         <v>45027</v>
       </c>
       <c r="C2083" s="4" t="s">
-        <v>2141</v>
+        <v>2756</v>
       </c>
       <c r="D2083" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43772,7 +43778,7 @@
         <v>45013</v>
       </c>
       <c r="C2084" s="4" t="s">
-        <v>2142</v>
+        <v>2757</v>
       </c>
       <c r="D2084" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43787,7 +43793,7 @@
         <v>44995</v>
       </c>
       <c r="C2085" s="4" t="s">
-        <v>2143</v>
+        <v>2758</v>
       </c>
       <c r="D2085" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43800,7 +43806,7 @@
       </c>
       <c r="B2086" s="5"/>
       <c r="C2086" s="4" t="s">
-        <v>2144</v>
+        <v>2759</v>
       </c>
       <c r="D2086" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43815,7 +43821,7 @@
         <v>45006</v>
       </c>
       <c r="C2087" s="4" t="s">
-        <v>2145</v>
+        <v>2760</v>
       </c>
       <c r="D2087" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43830,7 +43836,7 @@
         <v>45054</v>
       </c>
       <c r="C2088" s="4" t="s">
-        <v>2146</v>
+        <v>2761</v>
       </c>
       <c r="D2088" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43843,7 +43849,7 @@
       </c>
       <c r="B2089" s="5"/>
       <c r="C2089" s="4" t="s">
-        <v>2147</v>
+        <v>2762</v>
       </c>
       <c r="D2089" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43858,7 +43864,7 @@
         <v>45012</v>
       </c>
       <c r="C2090" s="4" t="s">
-        <v>2148</v>
+        <v>2763</v>
       </c>
       <c r="D2090" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43871,7 +43877,7 @@
       </c>
       <c r="B2091" s="5"/>
       <c r="C2091" s="4" t="s">
-        <v>2149</v>
+        <v>2764</v>
       </c>
       <c r="D2091" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43884,7 +43890,7 @@
       </c>
       <c r="B2092" s="5"/>
       <c r="C2092" s="4" t="s">
-        <v>2150</v>
+        <v>2765</v>
       </c>
       <c r="D2092" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43899,7 +43905,7 @@
         <v>45020</v>
       </c>
       <c r="C2093" s="4" t="s">
-        <v>2151</v>
+        <v>2766</v>
       </c>
       <c r="D2093" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43914,7 +43920,7 @@
         <v>45020</v>
       </c>
       <c r="C2094" s="4" t="s">
-        <v>2152</v>
+        <v>2767</v>
       </c>
       <c r="D2094" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43929,7 +43935,7 @@
         <v>45012</v>
       </c>
       <c r="C2095" s="4" t="s">
-        <v>2153</v>
+        <v>2768</v>
       </c>
       <c r="D2095" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43944,7 +43950,7 @@
         <v>45005</v>
       </c>
       <c r="C2096" s="4" t="s">
-        <v>2154</v>
+        <v>2769</v>
       </c>
       <c r="D2096" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43959,7 +43965,7 @@
         <v>45012</v>
       </c>
       <c r="C2097" s="4" t="s">
-        <v>2155</v>
+        <v>2770</v>
       </c>
       <c r="D2097" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43974,7 +43980,7 @@
         <v>45020</v>
       </c>
       <c r="C2098" s="4" t="s">
-        <v>2156</v>
+        <v>2771</v>
       </c>
       <c r="D2098" s="4" t="str">
         <f t="shared" si="32"/>
@@ -43989,7 +43995,7 @@
         <v>45005</v>
       </c>
       <c r="C2099" s="4" t="s">
-        <v>2157</v>
+        <v>2772</v>
       </c>
       <c r="D2099" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44002,7 +44008,7 @@
       </c>
       <c r="B2100" s="5"/>
       <c r="C2100" s="4" t="s">
-        <v>2158</v>
+        <v>2773</v>
       </c>
       <c r="D2100" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44017,7 +44023,7 @@
         <v>45022</v>
       </c>
       <c r="C2101" s="4" t="s">
-        <v>2159</v>
+        <v>2774</v>
       </c>
       <c r="D2101" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44032,7 +44038,7 @@
         <v>45012</v>
       </c>
       <c r="C2102" s="4" t="s">
-        <v>2160</v>
+        <v>2775</v>
       </c>
       <c r="D2102" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44047,7 +44053,7 @@
         <v>45033</v>
       </c>
       <c r="C2103" s="4" t="s">
-        <v>2161</v>
+        <v>2776</v>
       </c>
       <c r="D2103" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44062,7 +44068,7 @@
         <v>45057</v>
       </c>
       <c r="C2104" s="4" t="s">
-        <v>2162</v>
+        <v>2777</v>
       </c>
       <c r="D2104" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44075,7 +44081,7 @@
       </c>
       <c r="B2105" s="5"/>
       <c r="C2105" s="4" t="s">
-        <v>2163</v>
+        <v>2778</v>
       </c>
       <c r="D2105" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44090,7 +44096,7 @@
         <v>45062</v>
       </c>
       <c r="C2106" s="4" t="s">
-        <v>2164</v>
+        <v>2779</v>
       </c>
       <c r="D2106" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44105,7 +44111,7 @@
         <v>45043</v>
       </c>
       <c r="C2107" s="4" t="s">
-        <v>2165</v>
+        <v>2780</v>
       </c>
       <c r="D2107" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44118,7 +44124,7 @@
       </c>
       <c r="B2108" s="5"/>
       <c r="C2108" s="4" t="s">
-        <v>2166</v>
+        <v>2781</v>
       </c>
       <c r="D2108" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44133,7 +44139,7 @@
         <v>45009</v>
       </c>
       <c r="C2109" s="4" t="s">
-        <v>2167</v>
+        <v>2782</v>
       </c>
       <c r="D2109" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44148,7 +44154,7 @@
         <v>45015</v>
       </c>
       <c r="C2110" s="4" t="s">
-        <v>2168</v>
+        <v>2783</v>
       </c>
       <c r="D2110" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44161,7 +44167,7 @@
       </c>
       <c r="B2111" s="5"/>
       <c r="C2111" s="4" t="s">
-        <v>2169</v>
+        <v>2784</v>
       </c>
       <c r="D2111" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44176,7 +44182,7 @@
         <v>45029</v>
       </c>
       <c r="C2112" s="4" t="s">
-        <v>2170</v>
+        <v>2785</v>
       </c>
       <c r="D2112" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44191,7 +44197,7 @@
         <v>45017</v>
       </c>
       <c r="C2113" s="4" t="s">
-        <v>2171</v>
+        <v>2786</v>
       </c>
       <c r="D2113" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44206,7 +44212,7 @@
         <v>45038</v>
       </c>
       <c r="C2114" s="4" t="s">
-        <v>2172</v>
+        <v>2787</v>
       </c>
       <c r="D2114" s="4" t="str">
         <f t="shared" si="32"/>
@@ -44221,7 +44227,7 @@
         <v>45027</v>
       </c>
       <c r="C2115" s="4" t="s">
-        <v>2173</v>
+        <v>2788</v>
       </c>
       <c r="D2115" s="4" t="str">
         <f t="shared" ref="D2115:D2178" si="33">A2115&amp;"_"&amp;TEXT(B2115,"aaaammjj")</f>
@@ -44236,7 +44242,7 @@
         <v>45019</v>
       </c>
       <c r="C2116" s="4" t="s">
-        <v>2174</v>
+        <v>2789</v>
       </c>
       <c r="D2116" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44251,7 +44257,7 @@
         <v>45034</v>
       </c>
       <c r="C2117" s="4" t="s">
-        <v>2175</v>
+        <v>2790</v>
       </c>
       <c r="D2117" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44264,7 +44270,7 @@
       </c>
       <c r="B2118" s="5"/>
       <c r="C2118" s="4" t="s">
-        <v>2176</v>
+        <v>2791</v>
       </c>
       <c r="D2118" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44279,7 +44285,7 @@
         <v>45025</v>
       </c>
       <c r="C2119" s="4" t="s">
-        <v>2177</v>
+        <v>2792</v>
       </c>
       <c r="D2119" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44294,7 +44300,7 @@
         <v>45031</v>
       </c>
       <c r="C2120" s="4" t="s">
-        <v>2178</v>
+        <v>2793</v>
       </c>
       <c r="D2120" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44309,7 +44315,7 @@
         <v>45062</v>
       </c>
       <c r="C2121" s="4" t="s">
-        <v>2179</v>
+        <v>2794</v>
       </c>
       <c r="D2121" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44324,7 +44330,7 @@
         <v>45050</v>
       </c>
       <c r="C2122" s="4" t="s">
-        <v>2180</v>
+        <v>2795</v>
       </c>
       <c r="D2122" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44339,7 +44345,7 @@
         <v>45050</v>
       </c>
       <c r="C2123" s="4" t="s">
-        <v>2181</v>
+        <v>2796</v>
       </c>
       <c r="D2123" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44354,7 +44360,7 @@
         <v>45043</v>
       </c>
       <c r="C2124" s="4" t="s">
-        <v>2182</v>
+        <v>2797</v>
       </c>
       <c r="D2124" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44367,7 +44373,7 @@
       </c>
       <c r="B2125" s="5"/>
       <c r="C2125" s="4" t="s">
-        <v>2183</v>
+        <v>2798</v>
       </c>
       <c r="D2125" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44382,7 +44388,7 @@
         <v>45082</v>
       </c>
       <c r="C2126" s="4" t="s">
-        <v>2184</v>
+        <v>2799</v>
       </c>
       <c r="D2126" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44397,7 +44403,7 @@
         <v>45082</v>
       </c>
       <c r="C2127" s="4" t="s">
-        <v>2185</v>
+        <v>2800</v>
       </c>
       <c r="D2127" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44412,7 +44418,7 @@
         <v>45055</v>
       </c>
       <c r="C2128" s="4" t="s">
-        <v>2186</v>
+        <v>2801</v>
       </c>
       <c r="D2128" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44427,7 +44433,7 @@
         <v>45048</v>
       </c>
       <c r="C2129" s="4" t="s">
-        <v>2187</v>
+        <v>2802</v>
       </c>
       <c r="D2129" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44442,7 +44448,7 @@
         <v>45043</v>
       </c>
       <c r="C2130" s="4" t="s">
-        <v>2188</v>
+        <v>2803</v>
       </c>
       <c r="D2130" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44455,7 +44461,7 @@
       </c>
       <c r="B2131" s="5"/>
       <c r="C2131" s="4" t="s">
-        <v>2189</v>
+        <v>2804</v>
       </c>
       <c r="D2131" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44470,7 +44476,7 @@
         <v>45047</v>
       </c>
       <c r="C2132" s="4" t="s">
-        <v>2190</v>
+        <v>2805</v>
       </c>
       <c r="D2132" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44485,7 +44491,7 @@
         <v>45065</v>
       </c>
       <c r="C2133" s="4" t="s">
-        <v>2191</v>
+        <v>2806</v>
       </c>
       <c r="D2133" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44497,7 +44503,7 @@
         <v>880</v>
       </c>
       <c r="C2134" s="4" t="s">
-        <v>2192</v>
+        <v>2807</v>
       </c>
       <c r="D2134" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44512,7 +44518,7 @@
         <v>45054</v>
       </c>
       <c r="C2135" s="4" t="s">
-        <v>2193</v>
+        <v>2808</v>
       </c>
       <c r="D2135" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44527,7 +44533,7 @@
         <v>45055</v>
       </c>
       <c r="C2136" s="4" t="s">
-        <v>2194</v>
+        <v>2809</v>
       </c>
       <c r="D2136" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44539,7 +44545,7 @@
         <v>883</v>
       </c>
       <c r="C2137" s="4" t="s">
-        <v>2195</v>
+        <v>2810</v>
       </c>
       <c r="D2137" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44554,7 +44560,7 @@
         <v>45068</v>
       </c>
       <c r="C2138" s="4" t="s">
-        <v>2196</v>
+        <v>2811</v>
       </c>
       <c r="D2138" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44567,7 +44573,7 @@
       </c>
       <c r="B2139" s="5"/>
       <c r="C2139" s="4" t="s">
-        <v>2197</v>
+        <v>2812</v>
       </c>
       <c r="D2139" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44582,7 +44588,7 @@
         <v>45062</v>
       </c>
       <c r="C2140" s="4" t="s">
-        <v>2198</v>
+        <v>2813</v>
       </c>
       <c r="D2140" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44597,7 +44603,7 @@
         <v>45047</v>
       </c>
       <c r="C2141" s="4" t="s">
-        <v>2199</v>
+        <v>2814</v>
       </c>
       <c r="D2141" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44612,7 +44618,7 @@
         <v>45048</v>
       </c>
       <c r="C2142" s="4" t="s">
-        <v>2200</v>
+        <v>2815</v>
       </c>
       <c r="D2142" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44627,7 +44633,7 @@
         <v>45050</v>
       </c>
       <c r="C2143" s="4" t="s">
-        <v>2201</v>
+        <v>2816</v>
       </c>
       <c r="D2143" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44640,7 +44646,7 @@
       </c>
       <c r="B2144" s="5"/>
       <c r="C2144" s="4" t="s">
-        <v>2202</v>
+        <v>2817</v>
       </c>
       <c r="D2144" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44655,7 +44661,7 @@
         <v>45065</v>
       </c>
       <c r="C2145" s="4" t="s">
-        <v>2203</v>
+        <v>2818</v>
       </c>
       <c r="D2145" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44668,7 +44674,7 @@
       </c>
       <c r="B2146" s="5"/>
       <c r="C2146" s="4" t="s">
-        <v>2204</v>
+        <v>2819</v>
       </c>
       <c r="D2146" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44681,7 +44687,7 @@
       </c>
       <c r="B2147" s="5"/>
       <c r="C2147" s="4" t="s">
-        <v>2205</v>
+        <v>2820</v>
       </c>
       <c r="D2147" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44695,8 +44701,8 @@
       <c r="B2148" s="9">
         <v>45062</v>
       </c>
-      <c r="C2148" s="7" t="s">
-        <v>2206</v>
+      <c r="C2148" s="4" t="s">
+        <v>2821</v>
       </c>
       <c r="D2148" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44710,8 +44716,8 @@
       <c r="B2149" s="9">
         <v>45062</v>
       </c>
-      <c r="C2149" s="7" t="s">
-        <v>2207</v>
+      <c r="C2149" s="4" t="s">
+        <v>2822</v>
       </c>
       <c r="D2149" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44725,8 +44731,8 @@
       <c r="B2150" s="9">
         <v>45040</v>
       </c>
-      <c r="C2150" s="7" t="s">
-        <v>2208</v>
+      <c r="C2150" s="4" t="s">
+        <v>2823</v>
       </c>
       <c r="D2150" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44740,8 +44746,8 @@
       <c r="B2151" s="9">
         <v>45089</v>
       </c>
-      <c r="C2151" s="7" t="s">
-        <v>2209</v>
+      <c r="C2151" s="4" t="s">
+        <v>2824</v>
       </c>
       <c r="D2151" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44753,8 +44759,8 @@
         <v>898</v>
       </c>
       <c r="B2152" s="10"/>
-      <c r="C2152" s="7" t="s">
-        <v>2210</v>
+      <c r="C2152" s="4" t="s">
+        <v>2825</v>
       </c>
       <c r="D2152" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44768,8 +44774,8 @@
       <c r="B2153" s="9">
         <v>45089</v>
       </c>
-      <c r="C2153" s="7" t="s">
-        <v>2211</v>
+      <c r="C2153" s="4" t="s">
+        <v>2826</v>
       </c>
       <c r="D2153" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44783,8 +44789,8 @@
       <c r="B2154" s="9">
         <v>45062</v>
       </c>
-      <c r="C2154" s="7" t="s">
-        <v>2212</v>
+      <c r="C2154" s="4" t="s">
+        <v>2827</v>
       </c>
       <c r="D2154" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44798,8 +44804,8 @@
       <c r="B2155" s="9">
         <v>45068</v>
       </c>
-      <c r="C2155" s="7" t="s">
-        <v>2213</v>
+      <c r="C2155" s="4" t="s">
+        <v>2828</v>
       </c>
       <c r="D2155" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44813,8 +44819,8 @@
       <c r="B2156" s="9">
         <v>45082</v>
       </c>
-      <c r="C2156" s="7" t="s">
-        <v>2214</v>
+      <c r="C2156" s="4" t="s">
+        <v>2829</v>
       </c>
       <c r="D2156" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44826,8 +44832,8 @@
         <v>903</v>
       </c>
       <c r="B2157" s="9"/>
-      <c r="C2157" s="7" t="s">
-        <v>2215</v>
+      <c r="C2157" s="4" t="s">
+        <v>2830</v>
       </c>
       <c r="D2157" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44841,8 +44847,8 @@
       <c r="B2158" s="9">
         <v>45076</v>
       </c>
-      <c r="C2158" s="7" t="s">
-        <v>2216</v>
+      <c r="C2158" s="4" t="s">
+        <v>2831</v>
       </c>
       <c r="D2158" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44856,8 +44862,8 @@
       <c r="B2159" s="9">
         <v>45071</v>
       </c>
-      <c r="C2159" s="7" t="s">
-        <v>2217</v>
+      <c r="C2159" s="4" t="s">
+        <v>2832</v>
       </c>
       <c r="D2159" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44869,8 +44875,8 @@
         <v>906</v>
       </c>
       <c r="B2160" s="9"/>
-      <c r="C2160" s="7" t="s">
-        <v>2218</v>
+      <c r="C2160" s="4" t="s">
+        <v>2833</v>
       </c>
       <c r="D2160" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44884,8 +44890,8 @@
       <c r="B2161" s="9">
         <v>45071</v>
       </c>
-      <c r="C2161" s="7" t="s">
-        <v>2219</v>
+      <c r="C2161" s="4" t="s">
+        <v>2834</v>
       </c>
       <c r="D2161" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44899,8 +44905,8 @@
       <c r="B2162" s="9">
         <v>45062</v>
       </c>
-      <c r="C2162" s="7" t="s">
-        <v>2220</v>
+      <c r="C2162" s="4" t="s">
+        <v>2835</v>
       </c>
       <c r="D2162" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44914,8 +44920,8 @@
       <c r="B2163" s="9">
         <v>45062</v>
       </c>
-      <c r="C2163" s="7" t="s">
-        <v>2221</v>
+      <c r="C2163" s="4" t="s">
+        <v>2836</v>
       </c>
       <c r="D2163" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44929,8 +44935,8 @@
       <c r="B2164" s="9">
         <v>45062</v>
       </c>
-      <c r="C2164" s="7" t="s">
-        <v>2222</v>
+      <c r="C2164" s="4" t="s">
+        <v>2837</v>
       </c>
       <c r="D2164" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44944,8 +44950,8 @@
       <c r="B2165" s="9">
         <v>45082</v>
       </c>
-      <c r="C2165" s="7" t="s">
-        <v>2223</v>
+      <c r="C2165" s="4" t="s">
+        <v>2838</v>
       </c>
       <c r="D2165" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44957,8 +44963,8 @@
         <v>912</v>
       </c>
       <c r="B2166" s="9"/>
-      <c r="C2166" s="7" t="s">
-        <v>2224</v>
+      <c r="C2166" s="4" t="s">
+        <v>2839</v>
       </c>
       <c r="D2166" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44972,8 +44978,8 @@
       <c r="B2167" s="9">
         <v>45092</v>
       </c>
-      <c r="C2167" s="7" t="s">
-        <v>2225</v>
+      <c r="C2167" s="4" t="s">
+        <v>2840</v>
       </c>
       <c r="D2167" s="4" t="str">
         <f t="shared" si="33"/>
@@ -44987,8 +44993,8 @@
       <c r="B2168" s="9">
         <v>45068</v>
       </c>
-      <c r="C2168" s="7" t="s">
-        <v>2226</v>
+      <c r="C2168" s="4" t="s">
+        <v>2841</v>
       </c>
       <c r="D2168" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45002,8 +45008,8 @@
       <c r="B2169" s="9">
         <v>45097</v>
       </c>
-      <c r="C2169" s="7" t="s">
-        <v>2227</v>
+      <c r="C2169" s="4" t="s">
+        <v>2842</v>
       </c>
       <c r="D2169" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45017,8 +45023,8 @@
       <c r="B2170" s="9">
         <v>45076</v>
       </c>
-      <c r="C2170" s="7" t="s">
-        <v>2228</v>
+      <c r="C2170" s="4" t="s">
+        <v>2843</v>
       </c>
       <c r="D2170" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45030,8 +45036,8 @@
         <v>917</v>
       </c>
       <c r="B2171" s="9"/>
-      <c r="C2171" s="7" t="s">
-        <v>2229</v>
+      <c r="C2171" s="4" t="s">
+        <v>2844</v>
       </c>
       <c r="D2171" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45045,8 +45051,8 @@
       <c r="B2172" s="9">
         <v>45082</v>
       </c>
-      <c r="C2172" s="7" t="s">
-        <v>2230</v>
+      <c r="C2172" s="4" t="s">
+        <v>2845</v>
       </c>
       <c r="D2172" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45058,8 +45064,8 @@
         <v>919</v>
       </c>
       <c r="B2173" s="7"/>
-      <c r="C2173" s="7" t="s">
-        <v>2231</v>
+      <c r="C2173" s="4" t="s">
+        <v>2846</v>
       </c>
       <c r="D2173" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45073,8 +45079,8 @@
       <c r="B2174" s="9">
         <v>45086</v>
       </c>
-      <c r="C2174" s="7" t="s">
-        <v>2232</v>
+      <c r="C2174" s="4" t="s">
+        <v>2847</v>
       </c>
       <c r="D2174" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45086,8 +45092,8 @@
         <v>921</v>
       </c>
       <c r="B2175" s="9"/>
-      <c r="C2175" s="7" t="s">
-        <v>2233</v>
+      <c r="C2175" s="4" t="s">
+        <v>2848</v>
       </c>
       <c r="D2175" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45101,8 +45107,8 @@
       <c r="B2176" s="9">
         <v>45076</v>
       </c>
-      <c r="C2176" s="7" t="s">
-        <v>2234</v>
+      <c r="C2176" s="4" t="s">
+        <v>2849</v>
       </c>
       <c r="D2176" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45114,8 +45120,8 @@
         <v>923</v>
       </c>
       <c r="B2177" s="9"/>
-      <c r="C2177" s="7" t="s">
-        <v>2235</v>
+      <c r="C2177" s="4" t="s">
+        <v>2850</v>
       </c>
       <c r="D2177" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45129,8 +45135,8 @@
       <c r="B2178" s="9">
         <v>45082</v>
       </c>
-      <c r="C2178" s="7" t="s">
-        <v>2236</v>
+      <c r="C2178" s="4" t="s">
+        <v>2851</v>
       </c>
       <c r="D2178" s="4" t="str">
         <f t="shared" si="33"/>
@@ -45142,8 +45148,8 @@
         <v>925</v>
       </c>
       <c r="B2179" s="9"/>
-      <c r="C2179" s="7" t="s">
-        <v>2237</v>
+      <c r="C2179" s="4" t="s">
+        <v>2852</v>
       </c>
       <c r="D2179" s="4" t="str">
         <f t="shared" ref="D2179:D2242" si="34">A2179&amp;"_"&amp;TEXT(B2179,"aaaammjj")</f>
@@ -45157,8 +45163,8 @@
       <c r="B2180" s="9">
         <v>45056</v>
       </c>
-      <c r="C2180" s="7" t="s">
-        <v>2238</v>
+      <c r="C2180" s="4" t="s">
+        <v>2853</v>
       </c>
       <c r="D2180" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45172,8 +45178,8 @@
       <c r="B2181" s="9">
         <v>45092</v>
       </c>
-      <c r="C2181" s="7" t="s">
-        <v>2239</v>
+      <c r="C2181" s="4" t="s">
+        <v>2854</v>
       </c>
       <c r="D2181" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45187,8 +45193,8 @@
       <c r="B2182" s="9">
         <v>45114</v>
       </c>
-      <c r="C2182" s="7" t="s">
-        <v>2240</v>
+      <c r="C2182" s="4" t="s">
+        <v>2855</v>
       </c>
       <c r="D2182" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45202,8 +45208,8 @@
       <c r="B2183" s="9">
         <v>45097</v>
       </c>
-      <c r="C2183" s="7" t="s">
-        <v>2241</v>
+      <c r="C2183" s="4" t="s">
+        <v>2856</v>
       </c>
       <c r="D2183" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45217,8 +45223,8 @@
       <c r="B2184" s="9">
         <v>45103</v>
       </c>
-      <c r="C2184" s="7" t="s">
-        <v>2242</v>
+      <c r="C2184" s="4" t="s">
+        <v>2857</v>
       </c>
       <c r="D2184" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45232,8 +45238,8 @@
       <c r="B2185" s="9">
         <v>45097</v>
       </c>
-      <c r="C2185" s="7" t="s">
-        <v>2243</v>
+      <c r="C2185" s="4" t="s">
+        <v>2858</v>
       </c>
       <c r="D2185" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45247,8 +45253,8 @@
       <c r="B2186" s="9">
         <v>45089</v>
       </c>
-      <c r="C2186" s="7" t="s">
-        <v>2244</v>
+      <c r="C2186" s="4" t="s">
+        <v>2859</v>
       </c>
       <c r="D2186" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45262,8 +45268,8 @@
       <c r="B2187" s="9">
         <v>45100</v>
       </c>
-      <c r="C2187" s="7" t="s">
-        <v>2245</v>
+      <c r="C2187" s="4" t="s">
+        <v>2860</v>
       </c>
       <c r="D2187" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45277,8 +45283,8 @@
       <c r="B2188" s="9">
         <v>45092</v>
       </c>
-      <c r="C2188" s="7" t="s">
-        <v>2246</v>
+      <c r="C2188" s="4" t="s">
+        <v>2861</v>
       </c>
       <c r="D2188" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45292,8 +45298,8 @@
       <c r="B2189" s="9">
         <v>45097</v>
       </c>
-      <c r="C2189" s="7" t="s">
-        <v>2247</v>
+      <c r="C2189" s="4" t="s">
+        <v>2862</v>
       </c>
       <c r="D2189" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45307,8 +45313,8 @@
       <c r="B2190" s="9">
         <v>45079</v>
       </c>
-      <c r="C2190" s="7" t="s">
-        <v>2248</v>
+      <c r="C2190" s="4" t="s">
+        <v>2863</v>
       </c>
       <c r="D2190" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45322,8 +45328,8 @@
       <c r="B2191" s="9">
         <v>45089</v>
       </c>
-      <c r="C2191" s="7" t="s">
-        <v>2249</v>
+      <c r="C2191" s="4" t="s">
+        <v>2864</v>
       </c>
       <c r="D2191" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45337,8 +45343,8 @@
       <c r="B2192" s="9">
         <v>45118</v>
       </c>
-      <c r="C2192" s="7" t="s">
-        <v>2250</v>
+      <c r="C2192" s="4" t="s">
+        <v>2865</v>
       </c>
       <c r="D2192" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45352,8 +45358,8 @@
       <c r="B2193" s="9">
         <v>45100</v>
       </c>
-      <c r="C2193" s="7" t="s">
-        <v>2251</v>
+      <c r="C2193" s="4" t="s">
+        <v>2866</v>
       </c>
       <c r="D2193" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45367,8 +45373,8 @@
       <c r="B2194" s="9">
         <v>45082</v>
       </c>
-      <c r="C2194" s="7" t="s">
-        <v>2252</v>
+      <c r="C2194" s="4" t="s">
+        <v>2867</v>
       </c>
       <c r="D2194" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45380,8 +45386,8 @@
         <v>941</v>
       </c>
       <c r="B2195" s="9"/>
-      <c r="C2195" s="7" t="s">
-        <v>2253</v>
+      <c r="C2195" s="4" t="s">
+        <v>2868</v>
       </c>
       <c r="D2195" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45393,8 +45399,8 @@
         <v>942</v>
       </c>
       <c r="B2196" s="7"/>
-      <c r="C2196" s="7" t="s">
-        <v>2254</v>
+      <c r="C2196" s="4" t="s">
+        <v>2869</v>
       </c>
       <c r="D2196" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45406,8 +45412,8 @@
         <v>943</v>
       </c>
       <c r="B2197" s="9"/>
-      <c r="C2197" s="7" t="s">
-        <v>2255</v>
+      <c r="C2197" s="4" t="s">
+        <v>2870</v>
       </c>
       <c r="D2197" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45421,8 +45427,8 @@
       <c r="B2198" s="9">
         <v>45125</v>
       </c>
-      <c r="C2198" s="7" t="s">
-        <v>2256</v>
+      <c r="C2198" s="4" t="s">
+        <v>2871</v>
       </c>
       <c r="D2198" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45436,8 +45442,8 @@
       <c r="B2199" s="9">
         <v>45121</v>
       </c>
-      <c r="C2199" s="7" t="s">
-        <v>2257</v>
+      <c r="C2199" s="4" t="s">
+        <v>2872</v>
       </c>
       <c r="D2199" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45451,8 +45457,8 @@
       <c r="B2200" s="9">
         <v>45110</v>
       </c>
-      <c r="C2200" s="7" t="s">
-        <v>2258</v>
+      <c r="C2200" s="4" t="s">
+        <v>2873</v>
       </c>
       <c r="D2200" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45466,8 +45472,8 @@
       <c r="B2201" s="9">
         <v>45113</v>
       </c>
-      <c r="C2201" s="7" t="s">
-        <v>2259</v>
+      <c r="C2201" s="4" t="s">
+        <v>2874</v>
       </c>
       <c r="D2201" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45479,8 +45485,8 @@
         <v>948</v>
       </c>
       <c r="B2202" s="9"/>
-      <c r="C2202" s="7" t="s">
-        <v>2260</v>
+      <c r="C2202" s="4" t="s">
+        <v>2875</v>
       </c>
       <c r="D2202" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45494,8 +45500,8 @@
       <c r="B2203" s="9">
         <v>45121</v>
       </c>
-      <c r="C2203" s="7" t="s">
-        <v>2261</v>
+      <c r="C2203" s="4" t="s">
+        <v>2876</v>
       </c>
       <c r="D2203" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45509,8 +45515,8 @@
       <c r="B2204" s="9">
         <v>45130</v>
       </c>
-      <c r="C2204" s="7" t="s">
-        <v>2262</v>
+      <c r="C2204" s="4" t="s">
+        <v>2877</v>
       </c>
       <c r="D2204" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45522,8 +45528,8 @@
         <v>951</v>
       </c>
       <c r="B2205" s="7"/>
-      <c r="C2205" s="7" t="s">
-        <v>2263</v>
+      <c r="C2205" s="4" t="s">
+        <v>2878</v>
       </c>
       <c r="D2205" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45535,8 +45541,8 @@
         <v>952</v>
       </c>
       <c r="B2206" s="7"/>
-      <c r="C2206" s="7" t="s">
-        <v>2264</v>
+      <c r="C2206" s="4" t="s">
+        <v>2879</v>
       </c>
       <c r="D2206" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45548,8 +45554,8 @@
         <v>953</v>
       </c>
       <c r="B2207" s="7"/>
-      <c r="C2207" s="7" t="s">
-        <v>2265</v>
+      <c r="C2207" s="4" t="s">
+        <v>2880</v>
       </c>
       <c r="D2207" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45563,8 +45569,8 @@
       <c r="B2208" s="9">
         <v>45124</v>
       </c>
-      <c r="C2208" s="7" t="s">
-        <v>2266</v>
+      <c r="C2208" s="4" t="s">
+        <v>2881</v>
       </c>
       <c r="D2208" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45576,8 +45582,8 @@
         <v>955</v>
       </c>
       <c r="B2209" s="9"/>
-      <c r="C2209" s="7" t="s">
-        <v>2267</v>
+      <c r="C2209" s="4" t="s">
+        <v>2882</v>
       </c>
       <c r="D2209" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45591,8 +45597,8 @@
       <c r="B2210" s="9">
         <v>45118</v>
       </c>
-      <c r="C2210" s="7" t="s">
-        <v>2268</v>
+      <c r="C2210" s="4" t="s">
+        <v>2883</v>
       </c>
       <c r="D2210" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45606,8 +45612,8 @@
       <c r="B2211" s="9">
         <v>45130</v>
       </c>
-      <c r="C2211" s="7" t="s">
-        <v>2269</v>
+      <c r="C2211" s="4" t="s">
+        <v>2884</v>
       </c>
       <c r="D2211" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45621,8 +45627,8 @@
       <c r="B2212" s="37">
         <v>45159</v>
       </c>
-      <c r="C2212" s="7" t="s">
-        <v>2270</v>
+      <c r="C2212" s="4" t="s">
+        <v>2885</v>
       </c>
       <c r="D2212" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45636,8 +45642,8 @@
       <c r="B2213" s="9">
         <v>45148</v>
       </c>
-      <c r="C2213" s="7" t="s">
-        <v>2271</v>
+      <c r="C2213" s="4" t="s">
+        <v>2886</v>
       </c>
       <c r="D2213" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45649,8 +45655,8 @@
         <v>960</v>
       </c>
       <c r="B2214" s="9"/>
-      <c r="C2214" s="7" t="s">
-        <v>2272</v>
+      <c r="C2214" s="4" t="s">
+        <v>2887</v>
       </c>
       <c r="D2214" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45664,8 +45670,8 @@
       <c r="B2215" s="9">
         <v>45143</v>
       </c>
-      <c r="C2215" s="7" t="s">
-        <v>2273</v>
+      <c r="C2215" s="4" t="s">
+        <v>2888</v>
       </c>
       <c r="D2215" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45679,8 +45685,8 @@
       <c r="B2216" s="9">
         <v>45150</v>
       </c>
-      <c r="C2216" s="7" t="s">
-        <v>2274</v>
+      <c r="C2216" s="4" t="s">
+        <v>2889</v>
       </c>
       <c r="D2216" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45694,8 +45700,8 @@
       <c r="B2217" s="9">
         <v>45147</v>
       </c>
-      <c r="C2217" s="7" t="s">
-        <v>2275</v>
+      <c r="C2217" s="4" t="s">
+        <v>2890</v>
       </c>
       <c r="D2217" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45709,8 +45715,8 @@
       <c r="B2218" s="9">
         <v>45148</v>
       </c>
-      <c r="C2218" s="7" t="s">
-        <v>2276</v>
+      <c r="C2218" s="4" t="s">
+        <v>2891</v>
       </c>
       <c r="D2218" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45724,8 +45730,8 @@
       <c r="B2219" s="9">
         <v>45160</v>
       </c>
-      <c r="C2219" s="7" t="s">
-        <v>2277</v>
+      <c r="C2219" s="4" t="s">
+        <v>2892</v>
       </c>
       <c r="D2219" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45739,8 +45745,8 @@
       <c r="B2220" s="9">
         <v>45150</v>
       </c>
-      <c r="C2220" s="7" t="s">
-        <v>2278</v>
+      <c r="C2220" s="4" t="s">
+        <v>2893</v>
       </c>
       <c r="D2220" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45754,8 +45760,8 @@
       <c r="B2221" s="9">
         <v>45135</v>
       </c>
-      <c r="C2221" s="7" t="s">
-        <v>2279</v>
+      <c r="C2221" s="4" t="s">
+        <v>2894</v>
       </c>
       <c r="D2221" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45767,8 +45773,8 @@
         <v>968</v>
       </c>
       <c r="B2222" s="9"/>
-      <c r="C2222" s="7" t="s">
-        <v>2280</v>
+      <c r="C2222" s="4" t="s">
+        <v>2895</v>
       </c>
       <c r="D2222" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45782,8 +45788,8 @@
       <c r="B2223" s="15">
         <v>45139</v>
       </c>
-      <c r="C2223" s="14" t="s">
-        <v>2281</v>
+      <c r="C2223" s="4" t="s">
+        <v>2896</v>
       </c>
       <c r="D2223" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45798,7 +45804,7 @@
         <v>45378</v>
       </c>
       <c r="C2224" s="1" t="s">
-        <v>2282</v>
+        <v>2083</v>
       </c>
       <c r="D2224" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45811,7 +45817,7 @@
       </c>
       <c r="B2225"/>
       <c r="C2225" s="1" t="s">
-        <v>2283</v>
+        <v>2084</v>
       </c>
       <c r="D2225" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45824,7 +45830,7 @@
       </c>
       <c r="B2226" s="43"/>
       <c r="C2226" s="1" t="s">
-        <v>2284</v>
+        <v>2085</v>
       </c>
       <c r="D2226" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45839,7 +45845,7 @@
         <v>45390</v>
       </c>
       <c r="C2227" s="1" t="s">
-        <v>2285</v>
+        <v>2086</v>
       </c>
       <c r="D2227" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45854,7 +45860,7 @@
         <v>45378</v>
       </c>
       <c r="C2228" s="1" t="s">
-        <v>2286</v>
+        <v>2087</v>
       </c>
       <c r="D2228" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45869,7 +45875,7 @@
         <v>45390</v>
       </c>
       <c r="C2229" s="1" t="s">
-        <v>2287</v>
+        <v>2088</v>
       </c>
       <c r="D2229" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45882,7 +45888,7 @@
       </c>
       <c r="B2230" s="45"/>
       <c r="C2230" s="1" t="s">
-        <v>2288</v>
+        <v>2089</v>
       </c>
       <c r="D2230" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45897,7 +45903,7 @@
         <v>45376</v>
       </c>
       <c r="C2231" s="1" t="s">
-        <v>2289</v>
+        <v>2090</v>
       </c>
       <c r="D2231" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45912,7 +45918,7 @@
         <v>45390</v>
       </c>
       <c r="C2232" s="1" t="s">
-        <v>2290</v>
+        <v>2091</v>
       </c>
       <c r="D2232" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45927,7 +45933,7 @@
         <v>45369</v>
       </c>
       <c r="C2233" s="1" t="s">
-        <v>2291</v>
+        <v>2092</v>
       </c>
       <c r="D2233" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45942,7 +45948,7 @@
         <v>45370</v>
       </c>
       <c r="C2234" s="1" t="s">
-        <v>2292</v>
+        <v>2093</v>
       </c>
       <c r="D2234" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45957,7 +45963,7 @@
         <v>45381</v>
       </c>
       <c r="C2235" s="1" t="s">
-        <v>2293</v>
+        <v>2094</v>
       </c>
       <c r="D2235" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45972,7 +45978,7 @@
         <v>45378</v>
       </c>
       <c r="C2236" s="1" t="s">
-        <v>2294</v>
+        <v>2095</v>
       </c>
       <c r="D2236" s="4" t="str">
         <f t="shared" si="34"/>
@@ -45987,7 +45993,7 @@
         <v>45387</v>
       </c>
       <c r="C2237" s="1" t="s">
-        <v>2295</v>
+        <v>2096</v>
       </c>
       <c r="D2237" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46002,7 +46008,7 @@
         <v>45381</v>
       </c>
       <c r="C2238" s="1" t="s">
-        <v>2296</v>
+        <v>2097</v>
       </c>
       <c r="D2238" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46017,7 +46023,7 @@
         <v>45398</v>
       </c>
       <c r="C2239" s="1" t="s">
-        <v>2297</v>
+        <v>2098</v>
       </c>
       <c r="D2239" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46032,7 +46038,7 @@
         <v>45397</v>
       </c>
       <c r="C2240" s="1" t="s">
-        <v>2298</v>
+        <v>2099</v>
       </c>
       <c r="D2240" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46047,7 +46053,7 @@
         <v>45404</v>
       </c>
       <c r="C2241" s="1" t="s">
-        <v>2299</v>
+        <v>2100</v>
       </c>
       <c r="D2241" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46062,7 +46068,7 @@
         <v>45391</v>
       </c>
       <c r="C2242" s="1" t="s">
-        <v>2300</v>
+        <v>2101</v>
       </c>
       <c r="D2242" s="4" t="str">
         <f t="shared" si="34"/>
@@ -46077,7 +46083,7 @@
         <v>45381</v>
       </c>
       <c r="C2243" s="1" t="s">
-        <v>2301</v>
+        <v>2102</v>
       </c>
       <c r="D2243" s="4" t="str">
         <f t="shared" ref="D2243:D2306" si="35">A2243&amp;"_"&amp;TEXT(B2243,"aaaammjj")</f>
@@ -46092,7 +46098,7 @@
         <v>45404</v>
       </c>
       <c r="C2244" s="1" t="s">
-        <v>2302</v>
+        <v>2103</v>
       </c>
       <c r="D2244" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46107,7 +46113,7 @@
         <v>45370</v>
       </c>
       <c r="C2245" s="1" t="s">
-        <v>2303</v>
+        <v>2104</v>
       </c>
       <c r="D2245" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46120,7 +46126,7 @@
       </c>
       <c r="B2246" s="45"/>
       <c r="C2246" s="1" t="s">
-        <v>2304</v>
+        <v>2105</v>
       </c>
       <c r="D2246" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46133,7 +46139,7 @@
       </c>
       <c r="B2247" s="46"/>
       <c r="C2247" s="1" t="s">
-        <v>2305</v>
+        <v>2106</v>
       </c>
       <c r="D2247" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46146,7 +46152,7 @@
       </c>
       <c r="B2248" s="43"/>
       <c r="C2248" s="1" t="s">
-        <v>2306</v>
+        <v>2107</v>
       </c>
       <c r="D2248" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46159,7 +46165,7 @@
       </c>
       <c r="B2249" s="43"/>
       <c r="C2249" s="1" t="s">
-        <v>2307</v>
+        <v>2108</v>
       </c>
       <c r="D2249" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46172,7 +46178,7 @@
       </c>
       <c r="B2250"/>
       <c r="C2250" s="1" t="s">
-        <v>2308</v>
+        <v>2109</v>
       </c>
       <c r="D2250" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46187,7 +46193,7 @@
         <v>45394</v>
       </c>
       <c r="C2251" s="1" t="s">
-        <v>2309</v>
+        <v>2110</v>
       </c>
       <c r="D2251" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46202,7 +46208,7 @@
         <v>45365</v>
       </c>
       <c r="C2252" s="1" t="s">
-        <v>2310</v>
+        <v>2111</v>
       </c>
       <c r="D2252" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46217,7 +46223,7 @@
         <v>45392</v>
       </c>
       <c r="C2253" s="1" t="s">
-        <v>2311</v>
+        <v>2112</v>
       </c>
       <c r="D2253" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46232,7 +46238,7 @@
         <v>45373</v>
       </c>
       <c r="C2254" s="1" t="s">
-        <v>2312</v>
+        <v>2113</v>
       </c>
       <c r="D2254" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46247,7 +46253,7 @@
         <v>45376</v>
       </c>
       <c r="C2255" s="1" t="s">
-        <v>2313</v>
+        <v>2114</v>
       </c>
       <c r="D2255" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46262,7 +46268,7 @@
         <v>45376</v>
       </c>
       <c r="C2256" s="1" t="s">
-        <v>2314</v>
+        <v>2115</v>
       </c>
       <c r="D2256" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46277,7 +46283,7 @@
         <v>45381</v>
       </c>
       <c r="C2257" s="1" t="s">
-        <v>2315</v>
+        <v>2116</v>
       </c>
       <c r="D2257" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46290,7 +46296,7 @@
       </c>
       <c r="B2258" s="43"/>
       <c r="C2258" s="1" t="s">
-        <v>2316</v>
+        <v>2117</v>
       </c>
       <c r="D2258" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46305,7 +46311,7 @@
         <v>45445</v>
       </c>
       <c r="C2259" s="1" t="s">
-        <v>2413</v>
+        <v>2214</v>
       </c>
       <c r="D2259" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46320,7 +46326,7 @@
         <v>45455</v>
       </c>
       <c r="C2260" s="1" t="s">
-        <v>2414</v>
+        <v>2215</v>
       </c>
       <c r="D2260" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46335,7 +46341,7 @@
         <v>45439</v>
       </c>
       <c r="C2261" s="1" t="s">
-        <v>2415</v>
+        <v>2216</v>
       </c>
       <c r="D2261" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46350,7 +46356,7 @@
         <v>45464</v>
       </c>
       <c r="C2262" s="1" t="s">
-        <v>2416</v>
+        <v>2217</v>
       </c>
       <c r="D2262" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46365,7 +46371,7 @@
         <v>45433</v>
       </c>
       <c r="C2263" s="1" t="s">
-        <v>2417</v>
+        <v>2218</v>
       </c>
       <c r="D2263" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46380,7 +46386,7 @@
         <v>45464</v>
       </c>
       <c r="C2264" s="1" t="s">
-        <v>2418</v>
+        <v>2219</v>
       </c>
       <c r="D2264" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46395,7 +46401,7 @@
         <v>45433</v>
       </c>
       <c r="C2265" s="1" t="s">
-        <v>2419</v>
+        <v>2220</v>
       </c>
       <c r="D2265" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46410,7 +46416,7 @@
         <v>45443</v>
       </c>
       <c r="C2266" s="1" t="s">
-        <v>2420</v>
+        <v>2221</v>
       </c>
       <c r="D2266" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46425,7 +46431,7 @@
         <v>45433</v>
       </c>
       <c r="C2267" s="1" t="s">
-        <v>2421</v>
+        <v>2222</v>
       </c>
       <c r="D2267" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46440,7 +46446,7 @@
         <v>45436</v>
       </c>
       <c r="C2268" s="1" t="s">
-        <v>2422</v>
+        <v>2223</v>
       </c>
       <c r="D2268" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46455,7 +46461,7 @@
         <v>45443</v>
       </c>
       <c r="C2269" s="1" t="s">
-        <v>2423</v>
+        <v>2224</v>
       </c>
       <c r="D2269" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46470,7 +46476,7 @@
         <v>45433</v>
       </c>
       <c r="C2270" s="48" t="s">
-        <v>2424</v>
+        <v>2225</v>
       </c>
       <c r="D2270" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46483,7 +46489,7 @@
       </c>
       <c r="B2271" s="74"/>
       <c r="C2271" s="75" t="s">
-        <v>2317</v>
+        <v>2118</v>
       </c>
       <c r="D2271" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46496,7 +46502,7 @@
       </c>
       <c r="B2272" s="50"/>
       <c r="C2272" s="69" t="s">
-        <v>2318</v>
+        <v>2119</v>
       </c>
       <c r="D2272" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46511,7 +46517,7 @@
         <v>45159</v>
       </c>
       <c r="C2273" s="69" t="s">
-        <v>2319</v>
+        <v>2120</v>
       </c>
       <c r="D2273" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46526,7 +46532,7 @@
         <v>45103</v>
       </c>
       <c r="C2274" s="69" t="s">
-        <v>2320</v>
+        <v>2121</v>
       </c>
       <c r="D2274" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46539,7 +46545,7 @@
       </c>
       <c r="B2275" s="49"/>
       <c r="C2275" s="69" t="s">
-        <v>2321</v>
+        <v>2122</v>
       </c>
       <c r="D2275" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46554,7 +46560,7 @@
         <v>45121</v>
       </c>
       <c r="C2276" s="69" t="s">
-        <v>2322</v>
+        <v>2123</v>
       </c>
       <c r="D2276" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46569,7 +46575,7 @@
         <v>45111</v>
       </c>
       <c r="C2277" s="69" t="s">
-        <v>2323</v>
+        <v>2124</v>
       </c>
       <c r="D2277" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46582,7 +46588,7 @@
       </c>
       <c r="B2278" s="50"/>
       <c r="C2278" s="69" t="s">
-        <v>2324</v>
+        <v>2125</v>
       </c>
       <c r="D2278" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46597,7 +46603,7 @@
         <v>45103</v>
       </c>
       <c r="C2279" s="69" t="s">
-        <v>2325</v>
+        <v>2126</v>
       </c>
       <c r="D2279" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46612,7 +46618,7 @@
         <v>45118</v>
       </c>
       <c r="C2280" s="69" t="s">
-        <v>2326</v>
+        <v>2127</v>
       </c>
       <c r="D2280" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46627,7 +46633,7 @@
         <v>45118</v>
       </c>
       <c r="C2281" s="69" t="s">
-        <v>2327</v>
+        <v>2128</v>
       </c>
       <c r="D2281" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46642,7 +46648,7 @@
         <v>45125</v>
       </c>
       <c r="C2282" s="69" t="s">
-        <v>2328</v>
+        <v>2129</v>
       </c>
       <c r="D2282" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46657,7 +46663,7 @@
         <v>45127</v>
       </c>
       <c r="C2283" s="69" t="s">
-        <v>2329</v>
+        <v>2130</v>
       </c>
       <c r="D2283" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46670,7 +46676,7 @@
       </c>
       <c r="B2284" s="49"/>
       <c r="C2284" s="69" t="s">
-        <v>2330</v>
+        <v>2131</v>
       </c>
       <c r="D2284" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46685,7 +46691,7 @@
         <v>45152</v>
       </c>
       <c r="C2285" s="69" t="s">
-        <v>2331</v>
+        <v>2132</v>
       </c>
       <c r="D2285" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46698,7 +46704,7 @@
       </c>
       <c r="B2286" s="49"/>
       <c r="C2286" s="69" t="s">
-        <v>2332</v>
+        <v>2133</v>
       </c>
       <c r="D2286" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46713,7 +46719,7 @@
         <v>45112</v>
       </c>
       <c r="C2287" s="69" t="s">
-        <v>2333</v>
+        <v>2134</v>
       </c>
       <c r="D2287" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46728,7 +46734,7 @@
         <v>45103</v>
       </c>
       <c r="C2288" s="69" t="s">
-        <v>2334</v>
+        <v>2135</v>
       </c>
       <c r="D2288" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46743,7 +46749,7 @@
         <v>45103</v>
       </c>
       <c r="C2289" s="69" t="s">
-        <v>2335</v>
+        <v>2136</v>
       </c>
       <c r="D2289" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46758,7 +46764,7 @@
         <v>45125</v>
       </c>
       <c r="C2290" s="69" t="s">
-        <v>2336</v>
+        <v>2137</v>
       </c>
       <c r="D2290" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46773,7 +46779,7 @@
         <v>45112</v>
       </c>
       <c r="C2291" s="69" t="s">
-        <v>2337</v>
+        <v>2138</v>
       </c>
       <c r="D2291" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46788,7 +46794,7 @@
         <v>45124</v>
       </c>
       <c r="C2292" s="69" t="s">
-        <v>2338</v>
+        <v>2139</v>
       </c>
       <c r="D2292" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46803,7 +46809,7 @@
         <v>45112</v>
       </c>
       <c r="C2293" s="69" t="s">
-        <v>2339</v>
+        <v>2140</v>
       </c>
       <c r="D2293" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46816,7 +46822,7 @@
       </c>
       <c r="B2294" s="51"/>
       <c r="C2294" s="69" t="s">
-        <v>2340</v>
+        <v>2141</v>
       </c>
       <c r="D2294" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46831,7 +46837,7 @@
         <v>45125</v>
       </c>
       <c r="C2295" s="69" t="s">
-        <v>2341</v>
+        <v>2142</v>
       </c>
       <c r="D2295" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46846,7 +46852,7 @@
         <v>45125</v>
       </c>
       <c r="C2296" s="69" t="s">
-        <v>2342</v>
+        <v>2143</v>
       </c>
       <c r="D2296" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46861,7 +46867,7 @@
         <v>45130</v>
       </c>
       <c r="C2297" s="69" t="s">
-        <v>2343</v>
+        <v>2144</v>
       </c>
       <c r="D2297" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46876,7 +46882,7 @@
         <v>45114</v>
       </c>
       <c r="C2298" s="69" t="s">
-        <v>2344</v>
+        <v>2145</v>
       </c>
       <c r="D2298" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46891,7 +46897,7 @@
         <v>45110</v>
       </c>
       <c r="C2299" s="69" t="s">
-        <v>2345</v>
+        <v>2146</v>
       </c>
       <c r="D2299" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46906,7 +46912,7 @@
         <v>45160</v>
       </c>
       <c r="C2300" s="69" t="s">
-        <v>2346</v>
+        <v>2147</v>
       </c>
       <c r="D2300" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46921,7 +46927,7 @@
         <v>45112</v>
       </c>
       <c r="C2301" s="69" t="s">
-        <v>2347</v>
+        <v>2148</v>
       </c>
       <c r="D2301" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46936,7 +46942,7 @@
         <v>45104</v>
       </c>
       <c r="C2302" s="69" t="s">
-        <v>2348</v>
+        <v>2149</v>
       </c>
       <c r="D2302" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46951,7 +46957,7 @@
         <v>45183</v>
       </c>
       <c r="C2303" s="69" t="s">
-        <v>2349</v>
+        <v>2150</v>
       </c>
       <c r="D2303" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46966,7 +46972,7 @@
         <v>45103</v>
       </c>
       <c r="C2304" s="69" t="s">
-        <v>2350</v>
+        <v>2151</v>
       </c>
       <c r="D2304" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46981,7 +46987,7 @@
         <v>45111</v>
       </c>
       <c r="C2305" s="69" t="s">
-        <v>2351</v>
+        <v>2152</v>
       </c>
       <c r="D2305" s="4" t="str">
         <f t="shared" si="35"/>
@@ -46994,7 +47000,7 @@
       </c>
       <c r="B2306" s="56"/>
       <c r="C2306" s="69" t="s">
-        <v>2352</v>
+        <v>2153</v>
       </c>
       <c r="D2306" s="4" t="str">
         <f t="shared" si="35"/>
@@ -47009,7 +47015,7 @@
         <v>45124</v>
       </c>
       <c r="C2307" s="69" t="s">
-        <v>2353</v>
+        <v>2154</v>
       </c>
       <c r="D2307" s="4" t="str">
         <f t="shared" ref="D2307:D2370" si="36">A2307&amp;"_"&amp;TEXT(B2307,"aaaammjj")</f>
@@ -47024,7 +47030,7 @@
         <v>45132</v>
       </c>
       <c r="C2308" s="69" t="s">
-        <v>2354</v>
+        <v>2155</v>
       </c>
       <c r="D2308" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47039,7 +47045,7 @@
         <v>45130</v>
       </c>
       <c r="C2309" s="69" t="s">
-        <v>2355</v>
+        <v>2156</v>
       </c>
       <c r="D2309" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47052,7 +47058,7 @@
       </c>
       <c r="B2310" s="58"/>
       <c r="C2310" s="69" t="s">
-        <v>2356</v>
+        <v>2157</v>
       </c>
       <c r="D2310" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47067,7 +47073,7 @@
         <v>45130</v>
       </c>
       <c r="C2311" s="69" t="s">
-        <v>2357</v>
+        <v>2158</v>
       </c>
       <c r="D2311" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47082,7 +47088,7 @@
         <v>45145</v>
       </c>
       <c r="C2312" s="69" t="s">
-        <v>2358</v>
+        <v>2159</v>
       </c>
       <c r="D2312" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47097,7 +47103,7 @@
         <v>45147</v>
       </c>
       <c r="C2313" s="69" t="s">
-        <v>2359</v>
+        <v>2160</v>
       </c>
       <c r="D2313" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47112,7 +47118,7 @@
         <v>45127</v>
       </c>
       <c r="C2314" s="69" t="s">
-        <v>2360</v>
+        <v>2161</v>
       </c>
       <c r="D2314" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47125,7 +47131,7 @@
       </c>
       <c r="B2315" s="58"/>
       <c r="C2315" s="69" t="s">
-        <v>2361</v>
+        <v>2162</v>
       </c>
       <c r="D2315" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47140,7 +47146,7 @@
         <v>45150</v>
       </c>
       <c r="C2316" s="69" t="s">
-        <v>2362</v>
+        <v>2163</v>
       </c>
       <c r="D2316" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47155,7 +47161,7 @@
         <v>45159</v>
       </c>
       <c r="C2317" s="69" t="s">
-        <v>2363</v>
+        <v>2164</v>
       </c>
       <c r="D2317" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47170,7 +47176,7 @@
         <v>45159</v>
       </c>
       <c r="C2318" s="69" t="s">
-        <v>2364</v>
+        <v>2165</v>
       </c>
       <c r="D2318" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47185,7 +47191,7 @@
         <v>45139</v>
       </c>
       <c r="C2319" s="69" t="s">
-        <v>2365</v>
+        <v>2166</v>
       </c>
       <c r="D2319" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47200,7 +47206,7 @@
         <v>45145</v>
       </c>
       <c r="C2320" s="69" t="s">
-        <v>2366</v>
+        <v>2167</v>
       </c>
       <c r="D2320" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47213,7 +47219,7 @@
       </c>
       <c r="B2321" s="58"/>
       <c r="C2321" s="69" t="s">
-        <v>2367</v>
+        <v>2168</v>
       </c>
       <c r="D2321" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47228,7 +47234,7 @@
         <v>45124</v>
       </c>
       <c r="C2322" s="69" t="s">
-        <v>2368</v>
+        <v>2169</v>
       </c>
       <c r="D2322" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47241,7 +47247,7 @@
       </c>
       <c r="B2323" s="58"/>
       <c r="C2323" s="69" t="s">
-        <v>2369</v>
+        <v>2170</v>
       </c>
       <c r="D2323" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47254,7 +47260,7 @@
       </c>
       <c r="B2324" s="57"/>
       <c r="C2324" s="69" t="s">
-        <v>2370</v>
+        <v>2171</v>
       </c>
       <c r="D2324" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47267,7 +47273,7 @@
       </c>
       <c r="B2325" s="58"/>
       <c r="C2325" s="69" t="s">
-        <v>2371</v>
+        <v>2172</v>
       </c>
       <c r="D2325" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47282,7 +47288,7 @@
         <v>45124</v>
       </c>
       <c r="C2326" s="69" t="s">
-        <v>2372</v>
+        <v>2173</v>
       </c>
       <c r="D2326" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47297,7 +47303,7 @@
         <v>45125</v>
       </c>
       <c r="C2327" s="69" t="s">
-        <v>2373</v>
+        <v>2174</v>
       </c>
       <c r="D2327" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47310,7 +47316,7 @@
       </c>
       <c r="B2328" s="60"/>
       <c r="C2328" s="69" t="s">
-        <v>2374</v>
+        <v>2175</v>
       </c>
       <c r="D2328" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47325,7 +47331,7 @@
         <v>45132</v>
       </c>
       <c r="C2329" s="69" t="s">
-        <v>2375</v>
+        <v>2176</v>
       </c>
       <c r="D2329" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47338,7 +47344,7 @@
       </c>
       <c r="B2330" s="60"/>
       <c r="C2330" s="69" t="s">
-        <v>2376</v>
+        <v>2177</v>
       </c>
       <c r="D2330" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47353,7 +47359,7 @@
         <v>45145</v>
       </c>
       <c r="C2331" s="69" t="s">
-        <v>2377</v>
+        <v>2178</v>
       </c>
       <c r="D2331" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47368,7 +47374,7 @@
         <v>45125</v>
       </c>
       <c r="C2332" s="69" t="s">
-        <v>2378</v>
+        <v>2179</v>
       </c>
       <c r="D2332" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47383,7 +47389,7 @@
         <v>45162</v>
       </c>
       <c r="C2333" s="69" t="s">
-        <v>2379</v>
+        <v>2180</v>
       </c>
       <c r="D2333" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47396,7 +47402,7 @@
       </c>
       <c r="B2334" s="58"/>
       <c r="C2334" s="69" t="s">
-        <v>2380</v>
+        <v>2181</v>
       </c>
       <c r="D2334" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47411,7 +47417,7 @@
         <v>45145</v>
       </c>
       <c r="C2335" s="69" t="s">
-        <v>2381</v>
+        <v>2182</v>
       </c>
       <c r="D2335" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47426,7 +47432,7 @@
         <v>45147</v>
       </c>
       <c r="C2336" s="69" t="s">
-        <v>2382</v>
+        <v>2183</v>
       </c>
       <c r="D2336" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47441,7 +47447,7 @@
         <v>45159</v>
       </c>
       <c r="C2337" s="69" t="s">
-        <v>2383</v>
+        <v>2184</v>
       </c>
       <c r="D2337" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47454,7 +47460,7 @@
       </c>
       <c r="B2338" s="62"/>
       <c r="C2338" s="69" t="s">
-        <v>2384</v>
+        <v>2185</v>
       </c>
       <c r="D2338" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47469,7 +47475,7 @@
         <v>45147</v>
       </c>
       <c r="C2339" s="69" t="s">
-        <v>2385</v>
+        <v>2186</v>
       </c>
       <c r="D2339" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47484,7 +47490,7 @@
         <v>45159</v>
       </c>
       <c r="C2340" s="69" t="s">
-        <v>2386</v>
+        <v>2187</v>
       </c>
       <c r="D2340" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47499,7 +47505,7 @@
         <v>45140</v>
       </c>
       <c r="C2341" s="69" t="s">
-        <v>2387</v>
+        <v>2188</v>
       </c>
       <c r="D2341" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47514,7 +47520,7 @@
         <v>45159</v>
       </c>
       <c r="C2342" s="69" t="s">
-        <v>2388</v>
+        <v>2189</v>
       </c>
       <c r="D2342" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47529,7 +47535,7 @@
         <v>45146</v>
       </c>
       <c r="C2343" s="69" t="s">
-        <v>2389</v>
+        <v>2190</v>
       </c>
       <c r="D2343" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47544,7 +47550,7 @@
         <v>45160</v>
       </c>
       <c r="C2344" s="69" t="s">
-        <v>2390</v>
+        <v>2191</v>
       </c>
       <c r="D2344" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47559,7 +47565,7 @@
         <v>45145</v>
       </c>
       <c r="C2345" s="69" t="s">
-        <v>2391</v>
+        <v>2192</v>
       </c>
       <c r="D2345" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47574,7 +47580,7 @@
         <v>45152</v>
       </c>
       <c r="C2346" s="69" t="s">
-        <v>2392</v>
+        <v>2193</v>
       </c>
       <c r="D2346" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47587,7 +47593,7 @@
       </c>
       <c r="B2347" s="58"/>
       <c r="C2347" s="69" t="s">
-        <v>2393</v>
+        <v>2194</v>
       </c>
       <c r="D2347" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47602,7 +47608,7 @@
         <v>45148</v>
       </c>
       <c r="C2348" s="69" t="s">
-        <v>2394</v>
+        <v>2195</v>
       </c>
       <c r="D2348" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47617,7 +47623,7 @@
         <v>45152</v>
       </c>
       <c r="C2349" s="69" t="s">
-        <v>2395</v>
+        <v>2196</v>
       </c>
       <c r="D2349" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47632,7 +47638,7 @@
         <v>45202</v>
       </c>
       <c r="C2350" s="69" t="s">
-        <v>2396</v>
+        <v>2197</v>
       </c>
       <c r="D2350" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47645,7 +47651,7 @@
       </c>
       <c r="B2351" s="62"/>
       <c r="C2351" s="69" t="s">
-        <v>2397</v>
+        <v>2198</v>
       </c>
       <c r="D2351" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47660,7 +47666,7 @@
         <v>45204</v>
       </c>
       <c r="C2352" s="69" t="s">
-        <v>2398</v>
+        <v>2199</v>
       </c>
       <c r="D2352" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47675,7 +47681,7 @@
         <v>45177</v>
       </c>
       <c r="C2353" s="69" t="s">
-        <v>2399</v>
+        <v>2200</v>
       </c>
       <c r="D2353" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47690,7 +47696,7 @@
         <v>45204</v>
       </c>
       <c r="C2354" s="69" t="s">
-        <v>2400</v>
+        <v>2201</v>
       </c>
       <c r="D2354" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47703,7 +47709,7 @@
       </c>
       <c r="B2355" s="66"/>
       <c r="C2355" s="69" t="s">
-        <v>2401</v>
+        <v>2202</v>
       </c>
       <c r="D2355" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47718,7 +47724,7 @@
         <v>45198</v>
       </c>
       <c r="C2356" s="69" t="s">
-        <v>2402</v>
+        <v>2203</v>
       </c>
       <c r="D2356" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47733,7 +47739,7 @@
         <v>45208</v>
       </c>
       <c r="C2357" s="69" t="s">
-        <v>2403</v>
+        <v>2204</v>
       </c>
       <c r="D2357" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47748,7 +47754,7 @@
         <v>45191</v>
       </c>
       <c r="C2358" s="69" t="s">
-        <v>2404</v>
+        <v>2205</v>
       </c>
       <c r="D2358" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47763,7 +47769,7 @@
         <v>45174</v>
       </c>
       <c r="C2359" s="69" t="s">
-        <v>2405</v>
+        <v>2206</v>
       </c>
       <c r="D2359" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47778,7 +47784,7 @@
         <v>45174</v>
       </c>
       <c r="C2360" s="69" t="s">
-        <v>2406</v>
+        <v>2207</v>
       </c>
       <c r="D2360" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47793,7 +47799,7 @@
         <v>45202</v>
       </c>
       <c r="C2361" s="69" t="s">
-        <v>2407</v>
+        <v>2208</v>
       </c>
       <c r="D2361" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47806,7 +47812,7 @@
       </c>
       <c r="B2362" s="58"/>
       <c r="C2362" s="69" t="s">
-        <v>2408</v>
+        <v>2209</v>
       </c>
       <c r="D2362" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47821,7 +47827,7 @@
         <v>45170</v>
       </c>
       <c r="C2363" s="69" t="s">
-        <v>2409</v>
+        <v>2210</v>
       </c>
       <c r="D2363" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47836,7 +47842,7 @@
         <v>45181</v>
       </c>
       <c r="C2364" s="69" t="s">
-        <v>2410</v>
+        <v>2211</v>
       </c>
       <c r="D2364" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47851,7 +47857,7 @@
         <v>45177</v>
       </c>
       <c r="C2365" s="69" t="s">
-        <v>2411</v>
+        <v>2212</v>
       </c>
       <c r="D2365" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47864,7 +47870,7 @@
       </c>
       <c r="B2366" s="70"/>
       <c r="C2366" s="71" t="s">
-        <v>2412</v>
+        <v>2213</v>
       </c>
       <c r="D2366" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47877,7 +47883,7 @@
       </c>
       <c r="B2367" s="74"/>
       <c r="C2367" s="1" t="s">
-        <v>2426</v>
+        <v>2227</v>
       </c>
       <c r="D2367" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47892,7 +47898,7 @@
         <v>44999</v>
       </c>
       <c r="C2368" s="1" t="s">
-        <v>2427</v>
+        <v>2228</v>
       </c>
       <c r="D2368" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47905,7 +47911,7 @@
       </c>
       <c r="B2369" s="92"/>
       <c r="C2369" s="1" t="s">
-        <v>2428</v>
+        <v>2229</v>
       </c>
       <c r="D2369" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47920,7 +47926,7 @@
         <v>45001</v>
       </c>
       <c r="C2370" s="1" t="s">
-        <v>2429</v>
+        <v>2230</v>
       </c>
       <c r="D2370" s="4" t="str">
         <f t="shared" si="36"/>
@@ -47935,7 +47941,7 @@
         <v>45005</v>
       </c>
       <c r="C2371" s="1" t="s">
-        <v>2430</v>
+        <v>2231</v>
       </c>
       <c r="D2371" s="4" t="str">
         <f t="shared" ref="D2371:D2434" si="37">A2371&amp;"_"&amp;TEXT(B2371,"aaaammjj")</f>
@@ -47950,7 +47956,7 @@
         <v>44988</v>
       </c>
       <c r="C2372" s="1" t="s">
-        <v>2431</v>
+        <v>2232</v>
       </c>
       <c r="D2372" s="4" t="str">
         <f t="shared" si="37"/>
@@ -47965,7 +47971,7 @@
         <v>44994</v>
       </c>
       <c r="C2373" s="1" t="s">
-        <v>2432</v>
+        <v>2233</v>
       </c>
       <c r="D2373" s="4" t="str">
         <f t="shared" si="37"/>
@@ -47980,7 +47986,7 @@
         <v>44984</v>
       </c>
       <c r="C2374" s="1" t="s">
-        <v>2433</v>
+        <v>2234</v>
       </c>
       <c r="D2374" s="4" t="str">
         <f t="shared" si="37"/>
@@ -47995,7 +48001,7 @@
         <v>45056</v>
       </c>
       <c r="C2375" s="1" t="s">
-        <v>2434</v>
+        <v>2235</v>
       </c>
       <c r="D2375" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48007,10 +48013,10 @@
         <v>210</v>
       </c>
       <c r="B2376" s="51" t="s">
-        <v>2425</v>
+        <v>2226</v>
       </c>
       <c r="C2376" s="1" t="s">
-        <v>2435</v>
+        <v>2236</v>
       </c>
       <c r="D2376" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48025,7 +48031,7 @@
         <v>45038</v>
       </c>
       <c r="C2377" s="1" t="s">
-        <v>2436</v>
+        <v>2237</v>
       </c>
       <c r="D2377" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48040,7 +48046,7 @@
         <v>44985</v>
       </c>
       <c r="C2378" s="1" t="s">
-        <v>2437</v>
+        <v>2238</v>
       </c>
       <c r="D2378" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48053,7 +48059,7 @@
       </c>
       <c r="B2379" s="49"/>
       <c r="C2379" s="1" t="s">
-        <v>2438</v>
+        <v>2239</v>
       </c>
       <c r="D2379" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48068,7 +48074,7 @@
         <v>44994</v>
       </c>
       <c r="C2380" s="1" t="s">
-        <v>2439</v>
+        <v>2240</v>
       </c>
       <c r="D2380" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48081,7 +48087,7 @@
       </c>
       <c r="B2381" s="92"/>
       <c r="C2381" s="1" t="s">
-        <v>2440</v>
+        <v>2241</v>
       </c>
       <c r="D2381" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48094,7 +48100,7 @@
       </c>
       <c r="B2382" s="49"/>
       <c r="C2382" s="1" t="s">
-        <v>2441</v>
+        <v>2242</v>
       </c>
       <c r="D2382" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48109,7 +48115,7 @@
         <v>45031</v>
       </c>
       <c r="C2383" s="1" t="s">
-        <v>2442</v>
+        <v>2243</v>
       </c>
       <c r="D2383" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48124,7 +48130,7 @@
         <v>44984</v>
       </c>
       <c r="C2384" s="1" t="s">
-        <v>2443</v>
+        <v>2244</v>
       </c>
       <c r="D2384" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48139,7 +48145,7 @@
         <v>44992</v>
       </c>
       <c r="C2385" s="1" t="s">
-        <v>2444</v>
+        <v>2245</v>
       </c>
       <c r="D2385" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48154,7 +48160,7 @@
         <v>45020</v>
       </c>
       <c r="C2386" s="1" t="s">
-        <v>2445</v>
+        <v>2246</v>
       </c>
       <c r="D2386" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48169,7 +48175,7 @@
         <v>45043</v>
       </c>
       <c r="C2387" s="1" t="s">
-        <v>2446</v>
+        <v>2247</v>
       </c>
       <c r="D2387" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48184,7 +48190,7 @@
         <v>45009</v>
       </c>
       <c r="C2388" s="1" t="s">
-        <v>2447</v>
+        <v>2248</v>
       </c>
       <c r="D2388" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48197,7 +48203,7 @@
       </c>
       <c r="B2389" s="92"/>
       <c r="C2389" s="1" t="s">
-        <v>2448</v>
+        <v>2249</v>
       </c>
       <c r="D2389" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48212,7 +48218,7 @@
         <v>44984</v>
       </c>
       <c r="C2390" s="1" t="s">
-        <v>2449</v>
+        <v>2250</v>
       </c>
       <c r="D2390" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48225,7 +48231,7 @@
       </c>
       <c r="B2391" s="92"/>
       <c r="C2391" s="1" t="s">
-        <v>2450</v>
+        <v>2251</v>
       </c>
       <c r="D2391" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48240,7 +48246,7 @@
         <v>44985</v>
       </c>
       <c r="C2392" s="1" t="s">
-        <v>2451</v>
+        <v>2252</v>
       </c>
       <c r="D2392" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48255,7 +48261,7 @@
         <v>45034</v>
       </c>
       <c r="C2393" s="1" t="s">
-        <v>2452</v>
+        <v>2253</v>
       </c>
       <c r="D2393" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48270,7 +48276,7 @@
         <v>45017</v>
       </c>
       <c r="C2394" s="1" t="s">
-        <v>2453</v>
+        <v>2254</v>
       </c>
       <c r="D2394" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48285,7 +48291,7 @@
         <v>45015</v>
       </c>
       <c r="C2395" s="1" t="s">
-        <v>2454</v>
+        <v>2255</v>
       </c>
       <c r="D2395" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48300,7 +48306,7 @@
         <v>44998</v>
       </c>
       <c r="C2396" s="1" t="s">
-        <v>2455</v>
+        <v>2256</v>
       </c>
       <c r="D2396" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48313,7 +48319,7 @@
       </c>
       <c r="B2397" s="92"/>
       <c r="C2397" s="1" t="s">
-        <v>2456</v>
+        <v>2257</v>
       </c>
       <c r="D2397" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48328,7 +48334,7 @@
         <v>45006</v>
       </c>
       <c r="C2398" s="1" t="s">
-        <v>2457</v>
+        <v>2258</v>
       </c>
       <c r="D2398" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48341,7 +48347,7 @@
       </c>
       <c r="B2399" s="92"/>
       <c r="C2399" s="1" t="s">
-        <v>2458</v>
+        <v>2259</v>
       </c>
       <c r="D2399" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48354,7 +48360,7 @@
       </c>
       <c r="B2400" s="50"/>
       <c r="C2400" s="1" t="s">
-        <v>2459</v>
+        <v>2260</v>
       </c>
       <c r="D2400" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48367,7 +48373,7 @@
       </c>
       <c r="B2401" s="92"/>
       <c r="C2401" s="1" t="s">
-        <v>2460</v>
+        <v>2261</v>
       </c>
       <c r="D2401" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48382,7 +48388,7 @@
         <v>44998</v>
       </c>
       <c r="C2402" s="1" t="s">
-        <v>2461</v>
+        <v>2262</v>
       </c>
       <c r="D2402" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48397,7 +48403,7 @@
         <v>44992</v>
       </c>
       <c r="C2403" s="1" t="s">
-        <v>2462</v>
+        <v>2263</v>
       </c>
       <c r="D2403" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48410,7 +48416,7 @@
       </c>
       <c r="B2404" s="49"/>
       <c r="C2404" s="1" t="s">
-        <v>2463</v>
+        <v>2264</v>
       </c>
       <c r="D2404" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48425,7 +48431,7 @@
         <v>45027</v>
       </c>
       <c r="C2405" s="1" t="s">
-        <v>2464</v>
+        <v>2265</v>
       </c>
       <c r="D2405" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48440,7 +48446,7 @@
         <v>45013</v>
       </c>
       <c r="C2406" s="1" t="s">
-        <v>2465</v>
+        <v>2266</v>
       </c>
       <c r="D2406" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48455,7 +48461,7 @@
         <v>45019</v>
       </c>
       <c r="C2407" s="1" t="s">
-        <v>2466</v>
+        <v>2267</v>
       </c>
       <c r="D2407" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48470,7 +48476,7 @@
         <v>44992</v>
       </c>
       <c r="C2408" s="1" t="s">
-        <v>2467</v>
+        <v>2268</v>
       </c>
       <c r="D2408" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48483,7 +48489,7 @@
       </c>
       <c r="B2409" s="50"/>
       <c r="C2409" s="1" t="s">
-        <v>2468</v>
+        <v>2269</v>
       </c>
       <c r="D2409" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48496,7 +48502,7 @@
       </c>
       <c r="B2410" s="82"/>
       <c r="C2410" s="1" t="s">
-        <v>2469</v>
+        <v>2270</v>
       </c>
       <c r="D2410" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48511,7 +48517,7 @@
         <v>44986</v>
       </c>
       <c r="C2411" s="1" t="s">
-        <v>2470</v>
+        <v>2271</v>
       </c>
       <c r="D2411" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48526,7 +48532,7 @@
         <v>45001</v>
       </c>
       <c r="C2412" s="1" t="s">
-        <v>2471</v>
+        <v>2272</v>
       </c>
       <c r="D2412" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48541,7 +48547,7 @@
         <v>45038</v>
       </c>
       <c r="C2413" s="1" t="s">
-        <v>2472</v>
+        <v>2273</v>
       </c>
       <c r="D2413" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48556,7 +48562,7 @@
         <v>45005</v>
       </c>
       <c r="C2414" s="1" t="s">
-        <v>2473</v>
+        <v>2274</v>
       </c>
       <c r="D2414" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48571,7 +48577,7 @@
         <v>45009</v>
       </c>
       <c r="C2415" s="1" t="s">
-        <v>2474</v>
+        <v>2275</v>
       </c>
       <c r="D2415" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48586,7 +48592,7 @@
         <v>45054</v>
       </c>
       <c r="C2416" s="1" t="s">
-        <v>2475</v>
+        <v>2276</v>
       </c>
       <c r="D2416" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48599,7 +48605,7 @@
       </c>
       <c r="B2417" s="87"/>
       <c r="C2417" s="1" t="s">
-        <v>2476</v>
+        <v>2277</v>
       </c>
       <c r="D2417" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48614,7 +48620,7 @@
         <v>45001</v>
       </c>
       <c r="C2418" s="1" t="s">
-        <v>2477</v>
+        <v>2278</v>
       </c>
       <c r="D2418" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48627,7 +48633,7 @@
       </c>
       <c r="B2419" s="92"/>
       <c r="C2419" s="1" t="s">
-        <v>2478</v>
+        <v>2279</v>
       </c>
       <c r="D2419" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48642,7 +48648,7 @@
         <v>45012</v>
       </c>
       <c r="C2420" s="1" t="s">
-        <v>2479</v>
+        <v>2280</v>
       </c>
       <c r="D2420" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48657,7 +48663,7 @@
         <v>45041</v>
       </c>
       <c r="C2421" s="1" t="s">
-        <v>2480</v>
+        <v>2281</v>
       </c>
       <c r="D2421" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48672,7 +48678,7 @@
         <v>44992</v>
       </c>
       <c r="C2422" s="1" t="s">
-        <v>2481</v>
+        <v>2282</v>
       </c>
       <c r="D2422" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48687,7 +48693,7 @@
         <v>45037</v>
       </c>
       <c r="C2423" s="1" t="s">
-        <v>2482</v>
+        <v>2283</v>
       </c>
       <c r="D2423" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48702,7 +48708,7 @@
         <v>44995</v>
       </c>
       <c r="C2424" s="1" t="s">
-        <v>2483</v>
+        <v>2284</v>
       </c>
       <c r="D2424" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48715,7 +48721,7 @@
       </c>
       <c r="B2425" s="92"/>
       <c r="C2425" s="1" t="s">
-        <v>2484</v>
+        <v>2285</v>
       </c>
       <c r="D2425" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48728,7 +48734,7 @@
       </c>
       <c r="B2426" s="49"/>
       <c r="C2426" s="1" t="s">
-        <v>2485</v>
+        <v>2286</v>
       </c>
       <c r="D2426" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48741,7 +48747,7 @@
       </c>
       <c r="B2427" s="92"/>
       <c r="C2427" s="1" t="s">
-        <v>2486</v>
+        <v>2287</v>
       </c>
       <c r="D2427" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48754,7 +48760,7 @@
       </c>
       <c r="B2428" s="62"/>
       <c r="C2428" s="1" t="s">
-        <v>2487</v>
+        <v>2288</v>
       </c>
       <c r="D2428" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48767,7 +48773,7 @@
       </c>
       <c r="B2429" s="60"/>
       <c r="C2429" s="1" t="s">
-        <v>2488</v>
+        <v>2289</v>
       </c>
       <c r="D2429" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48780,7 +48786,7 @@
       </c>
       <c r="B2430" s="60"/>
       <c r="C2430" s="1" t="s">
-        <v>2489</v>
+        <v>2290</v>
       </c>
       <c r="D2430" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48793,7 +48799,7 @@
       </c>
       <c r="B2431" s="60"/>
       <c r="C2431" s="1" t="s">
-        <v>2490</v>
+        <v>2291</v>
       </c>
       <c r="D2431" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48806,7 +48812,7 @@
       </c>
       <c r="B2432" s="60"/>
       <c r="C2432" s="1" t="s">
-        <v>2491</v>
+        <v>2292</v>
       </c>
       <c r="D2432" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48819,7 +48825,7 @@
       </c>
       <c r="B2433" s="60"/>
       <c r="C2433" s="1" t="s">
-        <v>2492</v>
+        <v>2293</v>
       </c>
       <c r="D2433" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48832,7 +48838,7 @@
       </c>
       <c r="B2434" s="60"/>
       <c r="C2434" s="1" t="s">
-        <v>2493</v>
+        <v>2294</v>
       </c>
       <c r="D2434" s="4" t="str">
         <f t="shared" si="37"/>
@@ -48845,7 +48851,7 @@
       </c>
       <c r="B2435" s="62"/>
       <c r="C2435" s="1" t="s">
-        <v>2494</v>
+        <v>2295</v>
       </c>
       <c r="D2435" s="4" t="str">
         <f t="shared" ref="D2435:D2498" si="38">A2435&amp;"_"&amp;TEXT(B2435,"aaaammjj")</f>
@@ -48858,7 +48864,7 @@
       </c>
       <c r="B2436" s="60"/>
       <c r="C2436" s="1" t="s">
-        <v>2495</v>
+        <v>2296</v>
       </c>
       <c r="D2436" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48871,7 +48877,7 @@
       </c>
       <c r="B2437" s="60"/>
       <c r="C2437" s="1" t="s">
-        <v>2496</v>
+        <v>2297</v>
       </c>
       <c r="D2437" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48884,7 +48890,7 @@
       </c>
       <c r="B2438" s="60"/>
       <c r="C2438" s="1" t="s">
-        <v>2497</v>
+        <v>2298</v>
       </c>
       <c r="D2438" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48899,7 +48905,7 @@
         <v>45086</v>
       </c>
       <c r="C2439" s="1" t="s">
-        <v>2498</v>
+        <v>2299</v>
       </c>
       <c r="D2439" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48912,7 +48918,7 @@
       </c>
       <c r="B2440" s="104"/>
       <c r="C2440" s="1" t="s">
-        <v>2499</v>
+        <v>2300</v>
       </c>
       <c r="D2440" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48927,7 +48933,7 @@
         <v>45069</v>
       </c>
       <c r="C2441" s="1" t="s">
-        <v>2500</v>
+        <v>2301</v>
       </c>
       <c r="D2441" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48942,7 +48948,7 @@
         <v>45086</v>
       </c>
       <c r="C2442" s="1" t="s">
-        <v>2501</v>
+        <v>2302</v>
       </c>
       <c r="D2442" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48957,7 +48963,7 @@
         <v>45076</v>
       </c>
       <c r="C2443" s="1" t="s">
-        <v>2502</v>
+        <v>2303</v>
       </c>
       <c r="D2443" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48970,7 +48976,7 @@
       </c>
       <c r="B2444" s="106"/>
       <c r="C2444" s="1" t="s">
-        <v>2503</v>
+        <v>2304</v>
       </c>
       <c r="D2444" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48983,7 +48989,7 @@
       </c>
       <c r="B2445" s="68"/>
       <c r="C2445" s="1" t="s">
-        <v>2504</v>
+        <v>2305</v>
       </c>
       <c r="D2445" s="4" t="str">
         <f t="shared" si="38"/>
@@ -48996,7 +49002,7 @@
       </c>
       <c r="B2446" s="60"/>
       <c r="C2446" s="1" t="s">
-        <v>2505</v>
+        <v>2306</v>
       </c>
       <c r="D2446" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49009,7 +49015,7 @@
       </c>
       <c r="B2447" s="60"/>
       <c r="C2447" s="1" t="s">
-        <v>2506</v>
+        <v>2307</v>
       </c>
       <c r="D2447" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49022,7 +49028,7 @@
       </c>
       <c r="B2448" s="60"/>
       <c r="C2448" s="1" t="s">
-        <v>2507</v>
+        <v>2308</v>
       </c>
       <c r="D2448" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49037,7 +49043,7 @@
         <v>45078</v>
       </c>
       <c r="C2449" s="1" t="s">
-        <v>2508</v>
+        <v>2309</v>
       </c>
       <c r="D2449" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49052,7 +49058,7 @@
         <v>45097</v>
       </c>
       <c r="C2450" s="1" t="s">
-        <v>2509</v>
+        <v>2310</v>
       </c>
       <c r="D2450" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49065,7 +49071,7 @@
       </c>
       <c r="B2451" s="60"/>
       <c r="C2451" s="1" t="s">
-        <v>2510</v>
+        <v>2311</v>
       </c>
       <c r="D2451" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49078,7 +49084,7 @@
       </c>
       <c r="B2452" s="60"/>
       <c r="C2452" s="1" t="s">
-        <v>2511</v>
+        <v>2312</v>
       </c>
       <c r="D2452" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49091,7 +49097,7 @@
       </c>
       <c r="B2453" s="60"/>
       <c r="C2453" s="1" t="s">
-        <v>2512</v>
+        <v>2313</v>
       </c>
       <c r="D2453" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49104,7 +49110,7 @@
       </c>
       <c r="B2454" s="58"/>
       <c r="C2454" s="1" t="s">
-        <v>2513</v>
+        <v>2314</v>
       </c>
       <c r="D2454" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49119,7 +49125,7 @@
         <v>45078</v>
       </c>
       <c r="C2455" s="1" t="s">
-        <v>2514</v>
+        <v>2315</v>
       </c>
       <c r="D2455" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49132,7 +49138,7 @@
       </c>
       <c r="B2456" s="60"/>
       <c r="C2456" s="1" t="s">
-        <v>2515</v>
+        <v>2316</v>
       </c>
       <c r="D2456" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49145,7 +49151,7 @@
       </c>
       <c r="B2457" s="60"/>
       <c r="C2457" s="1" t="s">
-        <v>2516</v>
+        <v>2317</v>
       </c>
       <c r="D2457" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49158,7 +49164,7 @@
       </c>
       <c r="B2458" s="60"/>
       <c r="C2458" s="1" t="s">
-        <v>2517</v>
+        <v>2318</v>
       </c>
       <c r="D2458" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49171,7 +49177,7 @@
       </c>
       <c r="B2459" s="58"/>
       <c r="C2459" s="1" t="s">
-        <v>2518</v>
+        <v>2319</v>
       </c>
       <c r="D2459" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49184,7 +49190,7 @@
       </c>
       <c r="B2460" s="60"/>
       <c r="C2460" s="1" t="s">
-        <v>2519</v>
+        <v>2320</v>
       </c>
       <c r="D2460" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49199,7 +49205,7 @@
         <v>45118</v>
       </c>
       <c r="C2461" s="1" t="s">
-        <v>2520</v>
+        <v>2321</v>
       </c>
       <c r="D2461" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49214,7 +49220,7 @@
         <v>45110</v>
       </c>
       <c r="C2462" s="1" t="s">
-        <v>2521</v>
+        <v>2322</v>
       </c>
       <c r="D2462" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49227,7 +49233,7 @@
       </c>
       <c r="B2463" s="58"/>
       <c r="C2463" s="1" t="s">
-        <v>2522</v>
+        <v>2323</v>
       </c>
       <c r="D2463" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49242,7 +49248,7 @@
         <v>45121</v>
       </c>
       <c r="C2464" s="1" t="s">
-        <v>2523</v>
+        <v>2324</v>
       </c>
       <c r="D2464" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49255,7 +49261,7 @@
       </c>
       <c r="B2465" s="58"/>
       <c r="C2465" s="1" t="s">
-        <v>2524</v>
+        <v>2325</v>
       </c>
       <c r="D2465" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49268,7 +49274,7 @@
       </c>
       <c r="B2466" s="60"/>
       <c r="C2466" s="1" t="s">
-        <v>2525</v>
+        <v>2326</v>
       </c>
       <c r="D2466" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49283,7 +49289,7 @@
         <v>45124</v>
       </c>
       <c r="C2467" s="1" t="s">
-        <v>2526</v>
+        <v>2327</v>
       </c>
       <c r="D2467" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49298,7 +49304,7 @@
         <v>45121</v>
       </c>
       <c r="C2468" s="1" t="s">
-        <v>2527</v>
+        <v>2328</v>
       </c>
       <c r="D2468" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49313,7 +49319,7 @@
         <v>45118</v>
       </c>
       <c r="C2469" s="1" t="s">
-        <v>2528</v>
+        <v>2329</v>
       </c>
       <c r="D2469" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49328,7 +49334,7 @@
         <v>45121</v>
       </c>
       <c r="C2470" s="1" t="s">
-        <v>2529</v>
+        <v>2330</v>
       </c>
       <c r="D2470" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49343,7 +49349,7 @@
         <v>45113</v>
       </c>
       <c r="C2471" s="1" t="s">
-        <v>2530</v>
+        <v>2331</v>
       </c>
       <c r="D2471" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49356,7 +49362,7 @@
       </c>
       <c r="B2472" s="60"/>
       <c r="C2472" s="1" t="s">
-        <v>2531</v>
+        <v>2332</v>
       </c>
       <c r="D2472" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49371,7 +49377,7 @@
         <v>45106</v>
       </c>
       <c r="C2473" s="1" t="s">
-        <v>2532</v>
+        <v>2333</v>
       </c>
       <c r="D2473" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49384,7 +49390,7 @@
       </c>
       <c r="B2474" s="58"/>
       <c r="C2474" s="1" t="s">
-        <v>2533</v>
+        <v>2334</v>
       </c>
       <c r="D2474" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49399,7 +49405,7 @@
         <v>45124</v>
       </c>
       <c r="C2475" s="1" t="s">
-        <v>2534</v>
+        <v>2335</v>
       </c>
       <c r="D2475" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49414,7 +49420,7 @@
         <v>45111</v>
       </c>
       <c r="C2476" s="1" t="s">
-        <v>2535</v>
+        <v>2336</v>
       </c>
       <c r="D2476" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49429,7 +49435,7 @@
         <v>45124</v>
       </c>
       <c r="C2477" s="1" t="s">
-        <v>2536</v>
+        <v>2337</v>
       </c>
       <c r="D2477" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49444,7 +49450,7 @@
         <v>45168</v>
       </c>
       <c r="C2478" s="1" t="s">
-        <v>2537</v>
+        <v>2338</v>
       </c>
       <c r="D2478" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49457,7 +49463,7 @@
       </c>
       <c r="B2479" s="58"/>
       <c r="C2479" s="1" t="s">
-        <v>2538</v>
+        <v>2339</v>
       </c>
       <c r="D2479" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49472,7 +49478,7 @@
         <v>45177</v>
       </c>
       <c r="C2480" s="1" t="s">
-        <v>2539</v>
+        <v>2340</v>
       </c>
       <c r="D2480" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49487,7 +49493,7 @@
         <v>45174</v>
       </c>
       <c r="C2481" s="1" t="s">
-        <v>2540</v>
+        <v>2341</v>
       </c>
       <c r="D2481" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49502,7 +49508,7 @@
         <v>45188</v>
       </c>
       <c r="C2482" s="1" t="s">
-        <v>2541</v>
+        <v>2342</v>
       </c>
       <c r="D2482" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49517,7 +49523,7 @@
         <v>45170</v>
       </c>
       <c r="C2483" s="1" t="s">
-        <v>2542</v>
+        <v>2343</v>
       </c>
       <c r="D2483" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49532,7 +49538,7 @@
         <v>45156</v>
       </c>
       <c r="C2484" s="1" t="s">
-        <v>2543</v>
+        <v>2344</v>
       </c>
       <c r="D2484" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49547,7 +49553,7 @@
         <v>45156</v>
       </c>
       <c r="C2485" s="1" t="s">
-        <v>2544</v>
+        <v>2345</v>
       </c>
       <c r="D2485" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49562,7 +49568,7 @@
         <v>45153</v>
       </c>
       <c r="C2486" s="1" t="s">
-        <v>2545</v>
+        <v>2346</v>
       </c>
       <c r="D2486" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49575,7 +49581,7 @@
       </c>
       <c r="B2487" s="68"/>
       <c r="C2487" s="1" t="s">
-        <v>2546</v>
+        <v>2347</v>
       </c>
       <c r="D2487" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49588,7 +49594,7 @@
       </c>
       <c r="B2488" s="60"/>
       <c r="C2488" s="1" t="s">
-        <v>2547</v>
+        <v>2348</v>
       </c>
       <c r="D2488" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49601,7 +49607,7 @@
       </c>
       <c r="B2489" s="60"/>
       <c r="C2489" s="1" t="s">
-        <v>2548</v>
+        <v>2349</v>
       </c>
       <c r="D2489" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49616,7 +49622,7 @@
         <v>45166</v>
       </c>
       <c r="C2490" s="1" t="s">
-        <v>2549</v>
+        <v>2350</v>
       </c>
       <c r="D2490" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49631,7 +49637,7 @@
         <v>45145</v>
       </c>
       <c r="C2491" s="1" t="s">
-        <v>2550</v>
+        <v>2351</v>
       </c>
       <c r="D2491" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49644,7 +49650,7 @@
       </c>
       <c r="B2492" s="58"/>
       <c r="C2492" s="1" t="s">
-        <v>2551</v>
+        <v>2352</v>
       </c>
       <c r="D2492" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49657,7 +49663,7 @@
       </c>
       <c r="B2493" s="58"/>
       <c r="C2493" s="1" t="s">
-        <v>2552</v>
+        <v>2353</v>
       </c>
       <c r="D2493" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49672,7 +49678,7 @@
         <v>45195</v>
       </c>
       <c r="C2494" s="1" t="s">
-        <v>2553</v>
+        <v>2354</v>
       </c>
       <c r="D2494" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49687,7 +49693,7 @@
         <v>45166</v>
       </c>
       <c r="C2495" s="1" t="s">
-        <v>2554</v>
+        <v>2355</v>
       </c>
       <c r="D2495" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49700,7 +49706,7 @@
       </c>
       <c r="B2496" s="73"/>
       <c r="C2496" s="1" t="s">
-        <v>2555</v>
+        <v>2356</v>
       </c>
       <c r="D2496" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49715,7 +49721,7 @@
         <v>45174</v>
       </c>
       <c r="C2497" s="1" t="s">
-        <v>2556</v>
+        <v>2357</v>
       </c>
       <c r="D2497" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49728,7 +49734,7 @@
       </c>
       <c r="B2498" s="60"/>
       <c r="C2498" s="1" t="s">
-        <v>2557</v>
+        <v>2358</v>
       </c>
       <c r="D2498" s="4" t="str">
         <f t="shared" si="38"/>
@@ -49743,7 +49749,7 @@
         <v>45224</v>
       </c>
       <c r="C2499" s="1" t="s">
-        <v>2558</v>
+        <v>2359</v>
       </c>
       <c r="D2499" s="4" t="str">
         <f t="shared" ref="D2499:D2562" si="39">A2499&amp;"_"&amp;TEXT(B2499,"aaaammjj")</f>
@@ -49758,7 +49764,7 @@
         <v>45202</v>
       </c>
       <c r="C2500" s="1" t="s">
-        <v>2559</v>
+        <v>2360</v>
       </c>
       <c r="D2500" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49773,7 +49779,7 @@
         <v>45215</v>
       </c>
       <c r="C2501" s="1" t="s">
-        <v>2560</v>
+        <v>2361</v>
       </c>
       <c r="D2501" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49788,7 +49794,7 @@
         <v>45195</v>
       </c>
       <c r="C2502" s="1" t="s">
-        <v>2561</v>
+        <v>2362</v>
       </c>
       <c r="D2502" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49803,7 +49809,7 @@
         <v>45224</v>
       </c>
       <c r="C2503" s="1" t="s">
-        <v>2562</v>
+        <v>2363</v>
       </c>
       <c r="D2503" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49818,7 +49824,7 @@
         <v>45217</v>
       </c>
       <c r="C2504" s="1" t="s">
-        <v>2563</v>
+        <v>2364</v>
       </c>
       <c r="D2504" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49833,7 +49839,7 @@
         <v>45218</v>
       </c>
       <c r="C2505" s="1" t="s">
-        <v>2564</v>
+        <v>2365</v>
       </c>
       <c r="D2505" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49846,7 +49852,7 @@
       </c>
       <c r="B2506" s="108"/>
       <c r="C2506" s="1" t="s">
-        <v>2565</v>
+        <v>2366</v>
       </c>
       <c r="D2506" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49861,7 +49867,7 @@
         <v>45224</v>
       </c>
       <c r="C2507" s="1" t="s">
-        <v>2566</v>
+        <v>2367</v>
       </c>
       <c r="D2507" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49876,7 +49882,7 @@
         <v>45202</v>
       </c>
       <c r="C2508" s="1" t="s">
-        <v>2567</v>
+        <v>2368</v>
       </c>
       <c r="D2508" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49891,7 +49897,7 @@
         <v>45204</v>
       </c>
       <c r="C2509" s="1" t="s">
-        <v>2568</v>
+        <v>2369</v>
       </c>
       <c r="D2509" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49906,7 +49912,7 @@
         <v>45195</v>
       </c>
       <c r="C2510" s="1" t="s">
-        <v>2569</v>
+        <v>2370</v>
       </c>
       <c r="D2510" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49921,7 +49927,7 @@
         <v>45195</v>
       </c>
       <c r="C2511" s="1" t="s">
-        <v>2570</v>
+        <v>2371</v>
       </c>
       <c r="D2511" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49936,7 +49942,7 @@
         <v>45204</v>
       </c>
       <c r="C2512" s="1" t="s">
-        <v>2571</v>
+        <v>2372</v>
       </c>
       <c r="D2512" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49951,7 +49957,7 @@
         <v>45195</v>
       </c>
       <c r="C2513" s="1" t="s">
-        <v>2572</v>
+        <v>2373</v>
       </c>
       <c r="D2513" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49966,7 +49972,7 @@
         <v>45208</v>
       </c>
       <c r="C2514" s="1" t="s">
-        <v>2573</v>
+        <v>2374</v>
       </c>
       <c r="D2514" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49981,7 +49987,7 @@
         <v>45202</v>
       </c>
       <c r="C2515" s="1" t="s">
-        <v>2574</v>
+        <v>2375</v>
       </c>
       <c r="D2515" s="4" t="str">
         <f t="shared" si="39"/>
@@ -49996,7 +50002,7 @@
         <v>45190</v>
       </c>
       <c r="C2516" s="1" t="s">
-        <v>2575</v>
+        <v>2376</v>
       </c>
       <c r="D2516" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50011,7 +50017,7 @@
         <v>45217</v>
       </c>
       <c r="C2517" s="1" t="s">
-        <v>2576</v>
+        <v>2377</v>
       </c>
       <c r="D2517" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50026,7 +50032,7 @@
         <v>45208</v>
       </c>
       <c r="C2518" s="1" t="s">
-        <v>2577</v>
+        <v>2378</v>
       </c>
       <c r="D2518" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50041,7 +50047,7 @@
         <v>45204</v>
       </c>
       <c r="C2519" s="1" t="s">
-        <v>2578</v>
+        <v>2379</v>
       </c>
       <c r="D2519" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50056,7 +50062,7 @@
         <v>45202</v>
       </c>
       <c r="C2520" s="1" t="s">
-        <v>2579</v>
+        <v>2380</v>
       </c>
       <c r="D2520" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50071,7 +50077,7 @@
         <v>45202</v>
       </c>
       <c r="C2521" s="1" t="s">
-        <v>2580</v>
+        <v>2381</v>
       </c>
       <c r="D2521" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50086,7 +50092,7 @@
         <v>45198</v>
       </c>
       <c r="C2522" s="1" t="s">
-        <v>2581</v>
+        <v>2382</v>
       </c>
       <c r="D2522" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50101,7 +50107,7 @@
         <v>45189</v>
       </c>
       <c r="C2523" s="1" t="s">
-        <v>2582</v>
+        <v>2383</v>
       </c>
       <c r="D2523" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50116,7 +50122,7 @@
         <v>45195</v>
       </c>
       <c r="C2524" s="1" t="s">
-        <v>2583</v>
+        <v>2384</v>
       </c>
       <c r="D2524" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50129,7 +50135,7 @@
       </c>
       <c r="B2525" s="58"/>
       <c r="C2525" s="1" t="s">
-        <v>2584</v>
+        <v>2385</v>
       </c>
       <c r="D2525" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50142,7 +50148,7 @@
       </c>
       <c r="B2526" s="68"/>
       <c r="C2526" s="1" t="s">
-        <v>2585</v>
+        <v>2386</v>
       </c>
       <c r="D2526" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50157,7 +50163,7 @@
         <v>45198</v>
       </c>
       <c r="C2527" s="1" t="s">
-        <v>2586</v>
+        <v>2387</v>
       </c>
       <c r="D2527" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50170,7 +50176,7 @@
       </c>
       <c r="B2528" s="109"/>
       <c r="C2528" s="1" t="s">
-        <v>2587</v>
+        <v>2388</v>
       </c>
       <c r="D2528" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50185,7 +50191,7 @@
         <v>45202</v>
       </c>
       <c r="C2529" s="1" t="s">
-        <v>2588</v>
+        <v>2389</v>
       </c>
       <c r="D2529" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50200,7 +50206,7 @@
         <v>45205</v>
       </c>
       <c r="C2530" s="1" t="s">
-        <v>2589</v>
+        <v>2390</v>
       </c>
       <c r="D2530" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50215,7 +50221,7 @@
         <v>45237</v>
       </c>
       <c r="C2531" s="1" t="s">
-        <v>2590</v>
+        <v>2391</v>
       </c>
       <c r="D2531" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50230,7 +50236,7 @@
         <v>45222</v>
       </c>
       <c r="C2532" s="1" t="s">
-        <v>2591</v>
+        <v>2392</v>
       </c>
       <c r="D2532" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50243,7 +50249,7 @@
       </c>
       <c r="B2533" s="58"/>
       <c r="C2533" s="1" t="s">
-        <v>2592</v>
+        <v>2393</v>
       </c>
       <c r="D2533" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50258,7 +50264,7 @@
         <v>45230</v>
       </c>
       <c r="C2534" s="1" t="s">
-        <v>2593</v>
+        <v>2394</v>
       </c>
       <c r="D2534" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50271,7 +50277,7 @@
       </c>
       <c r="B2535" s="58"/>
       <c r="C2535" s="1" t="s">
-        <v>2594</v>
+        <v>2395</v>
       </c>
       <c r="D2535" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50286,7 +50292,7 @@
         <v>45222</v>
       </c>
       <c r="C2536" s="1" t="s">
-        <v>2595</v>
+        <v>2396</v>
       </c>
       <c r="D2536" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50299,7 +50305,7 @@
       </c>
       <c r="B2537" s="58"/>
       <c r="C2537" s="1" t="s">
-        <v>2596</v>
+        <v>2397</v>
       </c>
       <c r="D2537" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50312,7 +50318,7 @@
       </c>
       <c r="B2538" s="66"/>
       <c r="C2538" s="1" t="s">
-        <v>2597</v>
+        <v>2398</v>
       </c>
       <c r="D2538" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50327,7 +50333,7 @@
         <v>45204</v>
       </c>
       <c r="C2539" s="1" t="s">
-        <v>2598</v>
+        <v>2399</v>
       </c>
       <c r="D2539" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50342,7 +50348,7 @@
         <v>45185</v>
       </c>
       <c r="C2540" s="1" t="s">
-        <v>2599</v>
+        <v>2400</v>
       </c>
       <c r="D2540" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50357,7 +50363,7 @@
         <v>45218</v>
       </c>
       <c r="C2541" s="1" t="s">
-        <v>2600</v>
+        <v>2401</v>
       </c>
       <c r="D2541" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50372,7 +50378,7 @@
         <v>45236</v>
       </c>
       <c r="C2542" s="1" t="s">
-        <v>2601</v>
+        <v>2402</v>
       </c>
       <c r="D2542" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50387,7 +50393,7 @@
         <v>45259</v>
       </c>
       <c r="C2543" s="1" t="s">
-        <v>2602</v>
+        <v>2403</v>
       </c>
       <c r="D2543" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50402,7 +50408,7 @@
         <v>45281</v>
       </c>
       <c r="C2544" s="1" t="s">
-        <v>2603</v>
+        <v>2404</v>
       </c>
       <c r="D2544" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50417,7 +50423,7 @@
         <v>45261</v>
       </c>
       <c r="C2545" s="1" t="s">
-        <v>2604</v>
+        <v>2405</v>
       </c>
       <c r="D2545" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50430,7 +50436,7 @@
       </c>
       <c r="B2546" s="58"/>
       <c r="C2546" s="1" t="s">
-        <v>2605</v>
+        <v>2406</v>
       </c>
       <c r="D2546" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50445,7 +50451,7 @@
         <v>45251</v>
       </c>
       <c r="C2547" s="1" t="s">
-        <v>2606</v>
+        <v>2407</v>
       </c>
       <c r="D2547" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50460,7 +50466,7 @@
         <v>45254</v>
       </c>
       <c r="C2548" s="1" t="s">
-        <v>2607</v>
+        <v>2408</v>
       </c>
       <c r="D2548" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50475,7 +50481,7 @@
         <v>45285</v>
       </c>
       <c r="C2549" s="1" t="s">
-        <v>2608</v>
+        <v>2409</v>
       </c>
       <c r="D2549" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50490,7 +50496,7 @@
         <v>45251</v>
       </c>
       <c r="C2550" s="1" t="s">
-        <v>2609</v>
+        <v>2410</v>
       </c>
       <c r="D2550" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50505,7 +50511,7 @@
         <v>45253</v>
       </c>
       <c r="C2551" s="1" t="s">
-        <v>2610</v>
+        <v>2411</v>
       </c>
       <c r="D2551" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50520,7 +50526,7 @@
         <v>45254</v>
       </c>
       <c r="C2552" s="1" t="s">
-        <v>2611</v>
+        <v>2412</v>
       </c>
       <c r="D2552" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50535,7 +50541,7 @@
         <v>45264</v>
       </c>
       <c r="C2553" s="1" t="s">
-        <v>2612</v>
+        <v>2413</v>
       </c>
       <c r="D2553" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50550,7 +50556,7 @@
         <v>45257</v>
       </c>
       <c r="C2554" s="1" t="s">
-        <v>2613</v>
+        <v>2414</v>
       </c>
       <c r="D2554" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50565,7 +50571,7 @@
         <v>45251</v>
       </c>
       <c r="C2555" s="1" t="s">
-        <v>2614</v>
+        <v>2415</v>
       </c>
       <c r="D2555" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50580,7 +50586,7 @@
         <v>45264</v>
       </c>
       <c r="C2556" s="1" t="s">
-        <v>2615</v>
+        <v>2416</v>
       </c>
       <c r="D2556" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50595,7 +50601,7 @@
         <v>45293</v>
       </c>
       <c r="C2557" s="1" t="s">
-        <v>2616</v>
+        <v>2417</v>
       </c>
       <c r="D2557" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50610,7 +50616,7 @@
         <v>45293</v>
       </c>
       <c r="C2558" s="1" t="s">
-        <v>2617</v>
+        <v>2418</v>
       </c>
       <c r="D2558" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50625,7 +50631,7 @@
         <v>45293</v>
       </c>
       <c r="C2559" s="1" t="s">
-        <v>2618</v>
+        <v>2419</v>
       </c>
       <c r="D2559" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50638,7 +50644,7 @@
       </c>
       <c r="B2560" s="60"/>
       <c r="C2560" s="1" t="s">
-        <v>2619</v>
+        <v>2420</v>
       </c>
       <c r="D2560" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50653,7 +50659,7 @@
         <v>45299</v>
       </c>
       <c r="C2561" s="1" t="s">
-        <v>2620</v>
+        <v>2421</v>
       </c>
       <c r="D2561" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50668,7 +50674,7 @@
         <v>45279</v>
       </c>
       <c r="C2562" s="1" t="s">
-        <v>2621</v>
+        <v>2422</v>
       </c>
       <c r="D2562" s="4" t="str">
         <f t="shared" si="39"/>
@@ -50681,7 +50687,7 @@
       </c>
       <c r="B2563" s="58"/>
       <c r="C2563" s="1" t="s">
-        <v>2622</v>
+        <v>2423</v>
       </c>
       <c r="D2563" s="4" t="str">
         <f t="shared" ref="D2563:D2626" si="40">A2563&amp;"_"&amp;TEXT(B2563,"aaaammjj")</f>
@@ -50696,7 +50702,7 @@
         <v>45274</v>
       </c>
       <c r="C2564" s="1" t="s">
-        <v>2623</v>
+        <v>2424</v>
       </c>
       <c r="D2564" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50711,7 +50717,7 @@
         <v>45285</v>
       </c>
       <c r="C2565" s="1" t="s">
-        <v>2624</v>
+        <v>2425</v>
       </c>
       <c r="D2565" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50726,7 +50732,7 @@
         <v>45285</v>
       </c>
       <c r="C2566" s="1" t="s">
-        <v>2625</v>
+        <v>2426</v>
       </c>
       <c r="D2566" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50741,7 +50747,7 @@
         <v>45285</v>
       </c>
       <c r="C2567" s="1" t="s">
-        <v>2626</v>
+        <v>2427</v>
       </c>
       <c r="D2567" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50756,7 +50762,7 @@
         <v>45296</v>
       </c>
       <c r="C2568" s="1" t="s">
-        <v>2627</v>
+        <v>2428</v>
       </c>
       <c r="D2568" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50771,7 +50777,7 @@
         <v>45274</v>
       </c>
       <c r="C2569" s="1" t="s">
-        <v>2628</v>
+        <v>2429</v>
       </c>
       <c r="D2569" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50786,7 +50792,7 @@
         <v>45285</v>
       </c>
       <c r="C2570" s="1" t="s">
-        <v>2629</v>
+        <v>2430</v>
       </c>
       <c r="D2570" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50801,7 +50807,7 @@
         <v>45293</v>
       </c>
       <c r="C2571" s="1" t="s">
-        <v>2630</v>
+        <v>2431</v>
       </c>
       <c r="D2571" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50816,7 +50822,7 @@
         <v>45324</v>
       </c>
       <c r="C2572" s="1" t="s">
-        <v>2631</v>
+        <v>2432</v>
       </c>
       <c r="D2572" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50831,7 +50837,7 @@
         <v>45327</v>
       </c>
       <c r="C2573" s="1" t="s">
-        <v>2632</v>
+        <v>2433</v>
       </c>
       <c r="D2573" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50846,7 +50852,7 @@
         <v>45348</v>
       </c>
       <c r="C2574" s="1" t="s">
-        <v>2633</v>
+        <v>2434</v>
       </c>
       <c r="D2574" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50861,7 +50867,7 @@
         <v>45329</v>
       </c>
       <c r="C2575" s="1" t="s">
-        <v>2634</v>
+        <v>2435</v>
       </c>
       <c r="D2575" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50876,7 +50882,7 @@
         <v>45327</v>
       </c>
       <c r="C2576" s="1" t="s">
-        <v>2635</v>
+        <v>2436</v>
       </c>
       <c r="D2576" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50891,7 +50897,7 @@
         <v>45329</v>
       </c>
       <c r="C2577" s="1" t="s">
-        <v>2636</v>
+        <v>2437</v>
       </c>
       <c r="D2577" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50906,7 +50912,7 @@
         <v>45306</v>
       </c>
       <c r="C2578" s="1" t="s">
-        <v>2637</v>
+        <v>2438</v>
       </c>
       <c r="D2578" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50921,7 +50927,7 @@
         <v>45329</v>
       </c>
       <c r="C2579" s="1" t="s">
-        <v>2638</v>
+        <v>2439</v>
       </c>
       <c r="D2579" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50936,7 +50942,7 @@
         <v>45334</v>
       </c>
       <c r="C2580" s="1" t="s">
-        <v>2639</v>
+        <v>2440</v>
       </c>
       <c r="D2580" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50951,7 +50957,7 @@
         <v>45315</v>
       </c>
       <c r="C2581" s="1" t="s">
-        <v>2640</v>
+        <v>2441</v>
       </c>
       <c r="D2581" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50966,7 +50972,7 @@
         <v>45327</v>
       </c>
       <c r="C2582" s="1" t="s">
-        <v>2641</v>
+        <v>2442</v>
       </c>
       <c r="D2582" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50981,7 +50987,7 @@
         <v>45313</v>
       </c>
       <c r="C2583" s="1" t="s">
-        <v>2642</v>
+        <v>2443</v>
       </c>
       <c r="D2583" s="4" t="str">
         <f t="shared" si="40"/>
@@ -50996,7 +51002,7 @@
         <v>45348</v>
       </c>
       <c r="C2584" s="1" t="s">
-        <v>2643</v>
+        <v>2444</v>
       </c>
       <c r="D2584" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51011,7 +51017,7 @@
         <v>45345</v>
       </c>
       <c r="C2585" s="1" t="s">
-        <v>2644</v>
+        <v>2445</v>
       </c>
       <c r="D2585" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51026,7 +51032,7 @@
         <v>45350</v>
       </c>
       <c r="C2586" s="1" t="s">
-        <v>2645</v>
+        <v>2446</v>
       </c>
       <c r="D2586" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51039,7 +51045,7 @@
       </c>
       <c r="B2587" s="60"/>
       <c r="C2587" s="1" t="s">
-        <v>2646</v>
+        <v>2447</v>
       </c>
       <c r="D2587" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51052,7 +51058,7 @@
       </c>
       <c r="B2588" s="60"/>
       <c r="C2588" s="1" t="s">
-        <v>2647</v>
+        <v>2448</v>
       </c>
       <c r="D2588" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51065,7 +51071,7 @@
       </c>
       <c r="B2589" s="60"/>
       <c r="C2589" s="1" t="s">
-        <v>2648</v>
+        <v>2449</v>
       </c>
       <c r="D2589" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51080,7 +51086,7 @@
         <v>45357</v>
       </c>
       <c r="C2590" s="1" t="s">
-        <v>2649</v>
+        <v>2450</v>
       </c>
       <c r="D2590" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51095,7 +51101,7 @@
         <v>45380</v>
       </c>
       <c r="C2591" s="1" t="s">
-        <v>2650</v>
+        <v>2451</v>
       </c>
       <c r="D2591" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51108,7 +51114,7 @@
       </c>
       <c r="B2592" s="60"/>
       <c r="C2592" s="1" t="s">
-        <v>2651</v>
+        <v>2452</v>
       </c>
       <c r="D2592" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51123,7 +51129,7 @@
         <v>45355</v>
       </c>
       <c r="C2593" s="1" t="s">
-        <v>2652</v>
+        <v>2453</v>
       </c>
       <c r="D2593" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51138,7 +51144,7 @@
         <v>45371</v>
       </c>
       <c r="C2594" s="1" t="s">
-        <v>2653</v>
+        <v>2454</v>
       </c>
       <c r="D2594" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51151,7 +51157,7 @@
       </c>
       <c r="B2595" s="58"/>
       <c r="C2595" s="1" t="s">
-        <v>2654</v>
+        <v>2455</v>
       </c>
       <c r="D2595" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51164,7 +51170,7 @@
       </c>
       <c r="B2596" s="60"/>
       <c r="C2596" s="1" t="s">
-        <v>2655</v>
+        <v>2456</v>
       </c>
       <c r="D2596" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51177,7 +51183,7 @@
       </c>
       <c r="B2597" s="60"/>
       <c r="C2597" s="1" t="s">
-        <v>2656</v>
+        <v>2457</v>
       </c>
       <c r="D2597" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51190,7 +51196,7 @@
       </c>
       <c r="B2598" s="60"/>
       <c r="C2598" s="1" t="s">
-        <v>2657</v>
+        <v>2458</v>
       </c>
       <c r="D2598" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51203,7 +51209,7 @@
       </c>
       <c r="B2599" s="60"/>
       <c r="C2599" s="1" t="s">
-        <v>2658</v>
+        <v>2459</v>
       </c>
       <c r="D2599" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51218,7 +51224,7 @@
         <v>45376</v>
       </c>
       <c r="C2600" s="1" t="s">
-        <v>2659</v>
+        <v>2460</v>
       </c>
       <c r="D2600" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51231,7 +51237,7 @@
       </c>
       <c r="B2601" s="60"/>
       <c r="C2601" s="1" t="s">
-        <v>2660</v>
+        <v>2461</v>
       </c>
       <c r="D2601" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51244,7 +51250,7 @@
       </c>
       <c r="B2602" s="58"/>
       <c r="C2602" s="1" t="s">
-        <v>2661</v>
+        <v>2462</v>
       </c>
       <c r="D2602" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51259,7 +51265,7 @@
         <v>45383</v>
       </c>
       <c r="C2603" s="1" t="s">
-        <v>2662</v>
+        <v>2463</v>
       </c>
       <c r="D2603" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51272,7 +51278,7 @@
       </c>
       <c r="B2604" s="58"/>
       <c r="C2604" s="1" t="s">
-        <v>2663</v>
+        <v>2464</v>
       </c>
       <c r="D2604" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51287,7 +51293,7 @@
         <v>45383</v>
       </c>
       <c r="C2605" s="1" t="s">
-        <v>2664</v>
+        <v>2465</v>
       </c>
       <c r="D2605" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51300,7 +51306,7 @@
       </c>
       <c r="B2606" s="113"/>
       <c r="C2606" s="1" t="s">
-        <v>2665</v>
+        <v>2466</v>
       </c>
       <c r="D2606" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51313,7 +51319,7 @@
       </c>
       <c r="B2607" s="60"/>
       <c r="C2607" s="1" t="s">
-        <v>2666</v>
+        <v>2467</v>
       </c>
       <c r="D2607" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51326,7 +51332,7 @@
       </c>
       <c r="B2608" s="60"/>
       <c r="C2608" s="1" t="s">
-        <v>2667</v>
+        <v>2468</v>
       </c>
       <c r="D2608" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51339,7 +51345,7 @@
       </c>
       <c r="B2609" s="113"/>
       <c r="C2609" s="1" t="s">
-        <v>2668</v>
+        <v>2469</v>
       </c>
       <c r="D2609" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51354,7 +51360,7 @@
         <v>45350</v>
       </c>
       <c r="C2610" s="1" t="s">
-        <v>2669</v>
+        <v>2470</v>
       </c>
       <c r="D2610" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51367,7 +51373,7 @@
       </c>
       <c r="B2611" s="58"/>
       <c r="C2611" s="1" t="s">
-        <v>2670</v>
+        <v>2471</v>
       </c>
       <c r="D2611" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51382,7 +51388,7 @@
         <v>45381</v>
       </c>
       <c r="C2612" s="1" t="s">
-        <v>2671</v>
+        <v>2472</v>
       </c>
       <c r="D2612" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51397,7 +51403,7 @@
         <v>45425</v>
       </c>
       <c r="C2613" s="1" t="s">
-        <v>2672</v>
+        <v>2473</v>
       </c>
       <c r="D2613" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51410,7 +51416,7 @@
       </c>
       <c r="B2614" s="107"/>
       <c r="C2614" s="1" t="s">
-        <v>2673</v>
+        <v>2474</v>
       </c>
       <c r="D2614" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51425,7 +51431,7 @@
         <v>45427</v>
       </c>
       <c r="C2615" s="1" t="s">
-        <v>2674</v>
+        <v>2475</v>
       </c>
       <c r="D2615" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51438,7 +51444,7 @@
       </c>
       <c r="B2616" s="58"/>
       <c r="C2616" s="1" t="s">
-        <v>2675</v>
+        <v>2476</v>
       </c>
       <c r="D2616" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51451,7 +51457,7 @@
       </c>
       <c r="B2617" s="62"/>
       <c r="C2617" s="1" t="s">
-        <v>2676</v>
+        <v>2477</v>
       </c>
       <c r="D2617" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51464,7 +51470,7 @@
       </c>
       <c r="B2618" s="113"/>
       <c r="C2618" s="1" t="s">
-        <v>2677</v>
+        <v>2478</v>
       </c>
       <c r="D2618" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51479,7 +51485,7 @@
         <v>45397</v>
       </c>
       <c r="C2619" s="1" t="s">
-        <v>2678</v>
+        <v>2479</v>
       </c>
       <c r="D2619" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51492,7 +51498,7 @@
       </c>
       <c r="B2620" s="60"/>
       <c r="C2620" s="1" t="s">
-        <v>2679</v>
+        <v>2480</v>
       </c>
       <c r="D2620" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51505,7 +51511,7 @@
       </c>
       <c r="B2621" s="62"/>
       <c r="C2621" s="1" t="s">
-        <v>2680</v>
+        <v>2481</v>
       </c>
       <c r="D2621" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51518,7 +51524,7 @@
       </c>
       <c r="B2622" s="58"/>
       <c r="C2622" s="1" t="s">
-        <v>2681</v>
+        <v>2482</v>
       </c>
       <c r="D2622" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51531,7 +51537,7 @@
       </c>
       <c r="B2623" s="58"/>
       <c r="C2623" s="1" t="s">
-        <v>2682</v>
+        <v>2483</v>
       </c>
       <c r="D2623" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51544,7 +51550,7 @@
       </c>
       <c r="B2624" s="62"/>
       <c r="C2624" s="1" t="s">
-        <v>2683</v>
+        <v>2484</v>
       </c>
       <c r="D2624" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51557,7 +51563,7 @@
       </c>
       <c r="B2625" s="60"/>
       <c r="C2625" s="1" t="s">
-        <v>2684</v>
+        <v>2485</v>
       </c>
       <c r="D2625" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51570,7 +51576,7 @@
       </c>
       <c r="B2626" s="62"/>
       <c r="C2626" s="1" t="s">
-        <v>2685</v>
+        <v>2486</v>
       </c>
       <c r="D2626" s="4" t="str">
         <f t="shared" si="40"/>
@@ -51585,7 +51591,7 @@
         <v>45383</v>
       </c>
       <c r="C2627" s="1" t="s">
-        <v>2686</v>
+        <v>2487</v>
       </c>
       <c r="D2627" s="4" t="str">
         <f t="shared" ref="D2627:D2690" si="41">A2627&amp;"_"&amp;TEXT(B2627,"aaaammjj")</f>
@@ -51600,7 +51606,7 @@
         <v>45394</v>
       </c>
       <c r="C2628" s="1" t="s">
-        <v>2687</v>
+        <v>2488</v>
       </c>
       <c r="D2628" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51613,7 +51619,7 @@
       </c>
       <c r="B2629" s="62"/>
       <c r="C2629" s="1" t="s">
-        <v>2688</v>
+        <v>2489</v>
       </c>
       <c r="D2629" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51626,7 +51632,7 @@
       </c>
       <c r="B2630" s="62"/>
       <c r="C2630" s="1" t="s">
-        <v>2689</v>
+        <v>2490</v>
       </c>
       <c r="D2630" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51639,7 +51645,7 @@
       </c>
       <c r="B2631" s="60"/>
       <c r="C2631" s="1" t="s">
-        <v>2690</v>
+        <v>2491</v>
       </c>
       <c r="D2631" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51654,7 +51660,7 @@
         <v>45411</v>
       </c>
       <c r="C2632" s="1" t="s">
-        <v>2691</v>
+        <v>2492</v>
       </c>
       <c r="D2632" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51667,7 +51673,7 @@
       </c>
       <c r="B2633" s="62"/>
       <c r="C2633" s="1" t="s">
-        <v>2692</v>
+        <v>2493</v>
       </c>
       <c r="D2633" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51680,7 +51686,7 @@
       </c>
       <c r="B2634" s="62"/>
       <c r="C2634" s="1" t="s">
-        <v>2693</v>
+        <v>2494</v>
       </c>
       <c r="D2634" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51693,7 +51699,7 @@
       </c>
       <c r="B2635" s="62"/>
       <c r="C2635" s="1" t="s">
-        <v>2694</v>
+        <v>2495</v>
       </c>
       <c r="D2635" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51706,7 +51712,7 @@
       </c>
       <c r="B2636" s="62"/>
       <c r="C2636" s="1" t="s">
-        <v>2695</v>
+        <v>2496</v>
       </c>
       <c r="D2636" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51721,7 +51727,7 @@
         <v>45376</v>
       </c>
       <c r="C2637" s="1" t="s">
-        <v>2696</v>
+        <v>2497</v>
       </c>
       <c r="D2637" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51734,7 +51740,7 @@
       </c>
       <c r="B2638" s="58"/>
       <c r="C2638" s="1" t="s">
-        <v>2697</v>
+        <v>2498</v>
       </c>
       <c r="D2638" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51747,7 +51753,7 @@
       </c>
       <c r="B2639" s="58"/>
       <c r="C2639" s="1" t="s">
-        <v>2698</v>
+        <v>2499</v>
       </c>
       <c r="D2639" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51760,7 +51766,7 @@
       </c>
       <c r="B2640" s="58"/>
       <c r="C2640" s="1" t="s">
-        <v>2699</v>
+        <v>2500</v>
       </c>
       <c r="D2640" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51773,7 +51779,7 @@
       </c>
       <c r="B2641" s="58"/>
       <c r="C2641" s="1" t="s">
-        <v>2700</v>
+        <v>2501</v>
       </c>
       <c r="D2641" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51786,7 +51792,7 @@
       </c>
       <c r="B2642" s="70"/>
       <c r="C2642" s="48" t="s">
-        <v>2701</v>
+        <v>2502</v>
       </c>
       <c r="D2642" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51799,7 +51805,7 @@
       </c>
       <c r="B2643" s="50"/>
       <c r="C2643" s="1" t="s">
-        <v>2702</v>
+        <v>2503</v>
       </c>
       <c r="D2643" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51812,7 +51818,7 @@
       </c>
       <c r="B2644" s="50"/>
       <c r="C2644" s="1" t="s">
-        <v>2703</v>
+        <v>2504</v>
       </c>
       <c r="D2644" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51825,7 +51831,7 @@
       </c>
       <c r="B2645" s="92"/>
       <c r="C2645" s="1" t="s">
-        <v>2704</v>
+        <v>2505</v>
       </c>
       <c r="D2645" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51840,7 +51846,7 @@
         <v>44848</v>
       </c>
       <c r="C2646" s="1" t="s">
-        <v>2705</v>
+        <v>2506</v>
       </c>
       <c r="D2646" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51853,7 +51859,7 @@
       </c>
       <c r="B2647" s="51"/>
       <c r="C2647" s="1" t="s">
-        <v>2706</v>
+        <v>2507</v>
       </c>
       <c r="D2647" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51868,7 +51874,7 @@
         <v>44883</v>
       </c>
       <c r="C2648" s="1" t="s">
-        <v>2707</v>
+        <v>2508</v>
       </c>
       <c r="D2648" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51881,7 +51887,7 @@
       </c>
       <c r="B2649" s="131"/>
       <c r="C2649" s="1" t="s">
-        <v>2708</v>
+        <v>2509</v>
       </c>
       <c r="D2649" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51896,7 +51902,7 @@
         <v>44859</v>
       </c>
       <c r="C2650" s="1" t="s">
-        <v>2709</v>
+        <v>2510</v>
       </c>
       <c r="D2650" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51911,7 +51917,7 @@
         <v>44859</v>
       </c>
       <c r="C2651" s="1" t="s">
-        <v>2710</v>
+        <v>2511</v>
       </c>
       <c r="D2651" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51926,7 +51932,7 @@
         <v>44886</v>
       </c>
       <c r="C2652" s="1" t="s">
-        <v>2711</v>
+        <v>2512</v>
       </c>
       <c r="D2652" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51941,7 +51947,7 @@
         <v>44869</v>
       </c>
       <c r="C2653" s="1" t="s">
-        <v>2712</v>
+        <v>2513</v>
       </c>
       <c r="D2653" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51954,7 +51960,7 @@
       </c>
       <c r="B2654" s="50"/>
       <c r="C2654" s="1" t="s">
-        <v>2713</v>
+        <v>2514</v>
       </c>
       <c r="D2654" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51967,7 +51973,7 @@
       </c>
       <c r="B2655" s="49"/>
       <c r="C2655" s="1" t="s">
-        <v>2714</v>
+        <v>2515</v>
       </c>
       <c r="D2655" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51982,7 +51988,7 @@
         <v>44847</v>
       </c>
       <c r="C2656" s="1" t="s">
-        <v>2715</v>
+        <v>2516</v>
       </c>
       <c r="D2656" s="4" t="str">
         <f t="shared" si="41"/>
@@ -51997,7 +52003,7 @@
         <v>44873</v>
       </c>
       <c r="C2657" s="1" t="s">
-        <v>2716</v>
+        <v>2517</v>
       </c>
       <c r="D2657" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52010,7 +52016,7 @@
       </c>
       <c r="B2658" s="49"/>
       <c r="C2658" s="1" t="s">
-        <v>2717</v>
+        <v>2518</v>
       </c>
       <c r="D2658" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52023,7 +52029,7 @@
       </c>
       <c r="B2659" s="49"/>
       <c r="C2659" s="1" t="s">
-        <v>2718</v>
+        <v>2519</v>
       </c>
       <c r="D2659" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52038,7 +52044,7 @@
         <v>44837</v>
       </c>
       <c r="C2660" s="1" t="s">
-        <v>2719</v>
+        <v>2520</v>
       </c>
       <c r="D2660" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52053,7 +52059,7 @@
         <v>44875</v>
       </c>
       <c r="C2661" s="1" t="s">
-        <v>2720</v>
+        <v>2521</v>
       </c>
       <c r="D2661" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52068,7 +52074,7 @@
         <v>44834</v>
       </c>
       <c r="C2662" s="1" t="s">
-        <v>2721</v>
+        <v>2522</v>
       </c>
       <c r="D2662" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52081,7 +52087,7 @@
       </c>
       <c r="B2663" s="92"/>
       <c r="C2663" s="1" t="s">
-        <v>2722</v>
+        <v>2523</v>
       </c>
       <c r="D2663" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52096,7 +52102,7 @@
         <v>44847</v>
       </c>
       <c r="C2664" s="1" t="s">
-        <v>2723</v>
+        <v>2524</v>
       </c>
       <c r="D2664" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52111,7 +52117,7 @@
         <v>44830</v>
       </c>
       <c r="C2665" s="1" t="s">
-        <v>2724</v>
+        <v>2525</v>
       </c>
       <c r="D2665" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52126,7 +52132,7 @@
         <v>44869</v>
       </c>
       <c r="C2666" s="1" t="s">
-        <v>2725</v>
+        <v>2526</v>
       </c>
       <c r="D2666" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52141,7 +52147,7 @@
         <v>44839</v>
       </c>
       <c r="C2667" s="1" t="s">
-        <v>2726</v>
+        <v>2527</v>
       </c>
       <c r="D2667" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52156,7 +52162,7 @@
         <v>44839</v>
       </c>
       <c r="C2668" s="1" t="s">
-        <v>2727</v>
+        <v>2528</v>
       </c>
       <c r="D2668" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52171,7 +52177,7 @@
         <v>44859</v>
       </c>
       <c r="C2669" s="1" t="s">
-        <v>2728</v>
+        <v>2529</v>
       </c>
       <c r="D2669" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52184,7 +52190,7 @@
       </c>
       <c r="B2670" s="49"/>
       <c r="C2670" s="1" t="s">
-        <v>2729</v>
+        <v>2530</v>
       </c>
       <c r="D2670" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52197,7 +52203,7 @@
       </c>
       <c r="B2671" s="49"/>
       <c r="C2671" s="1" t="s">
-        <v>2730</v>
+        <v>2531</v>
       </c>
       <c r="D2671" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52212,7 +52218,7 @@
         <v>44847</v>
       </c>
       <c r="C2672" s="1" t="s">
-        <v>2731</v>
+        <v>2532</v>
       </c>
       <c r="D2672" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52225,7 +52231,7 @@
       </c>
       <c r="B2673" s="50"/>
       <c r="C2673" s="1" t="s">
-        <v>2732</v>
+        <v>2533</v>
       </c>
       <c r="D2673" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52238,7 +52244,7 @@
       </c>
       <c r="B2674" s="92"/>
       <c r="C2674" s="1" t="s">
-        <v>2733</v>
+        <v>2534</v>
       </c>
       <c r="D2674" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52253,7 +52259,7 @@
         <v>44853</v>
       </c>
       <c r="C2675" s="1" t="s">
-        <v>2734</v>
+        <v>2535</v>
       </c>
       <c r="D2675" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52266,7 +52272,7 @@
       </c>
       <c r="B2676" s="131"/>
       <c r="C2676" s="1" t="s">
-        <v>2735</v>
+        <v>2536</v>
       </c>
       <c r="D2676" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52279,7 +52285,7 @@
       </c>
       <c r="B2677" s="49"/>
       <c r="C2677" s="1" t="s">
-        <v>2736</v>
+        <v>2537</v>
       </c>
       <c r="D2677" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52294,7 +52300,7 @@
         <v>44859</v>
       </c>
       <c r="C2678" s="1" t="s">
-        <v>2737</v>
+        <v>2538</v>
       </c>
       <c r="D2678" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52307,7 +52313,7 @@
       </c>
       <c r="B2679" s="49"/>
       <c r="C2679" s="1" t="s">
-        <v>2738</v>
+        <v>2539</v>
       </c>
       <c r="D2679" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52320,7 +52326,7 @@
       </c>
       <c r="B2680" s="50"/>
       <c r="C2680" s="1" t="s">
-        <v>2739</v>
+        <v>2540</v>
       </c>
       <c r="D2680" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52333,7 +52339,7 @@
       </c>
       <c r="B2681" s="50"/>
       <c r="C2681" s="1" t="s">
-        <v>2740</v>
+        <v>2541</v>
       </c>
       <c r="D2681" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52346,7 +52352,7 @@
       </c>
       <c r="B2682" s="82"/>
       <c r="C2682" s="1" t="s">
-        <v>2741</v>
+        <v>2542</v>
       </c>
       <c r="D2682" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52359,7 +52365,7 @@
       </c>
       <c r="B2683" s="82"/>
       <c r="C2683" s="1" t="s">
-        <v>2742</v>
+        <v>2543</v>
       </c>
       <c r="D2683" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52372,7 +52378,7 @@
       </c>
       <c r="B2684" s="82"/>
       <c r="C2684" s="1" t="s">
-        <v>2743</v>
+        <v>2544</v>
       </c>
       <c r="D2684" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52385,7 +52391,7 @@
       </c>
       <c r="B2685" s="82"/>
       <c r="C2685" s="1" t="s">
-        <v>2744</v>
+        <v>2545</v>
       </c>
       <c r="D2685" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52398,7 +52404,7 @@
       </c>
       <c r="B2686" s="82"/>
       <c r="C2686" s="1" t="s">
-        <v>2745</v>
+        <v>2546</v>
       </c>
       <c r="D2686" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52411,7 +52417,7 @@
       </c>
       <c r="B2687" s="82"/>
       <c r="C2687" s="1" t="s">
-        <v>2746</v>
+        <v>2547</v>
       </c>
       <c r="D2687" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52424,7 +52430,7 @@
       </c>
       <c r="B2688" s="82"/>
       <c r="C2688" s="1" t="s">
-        <v>2747</v>
+        <v>2548</v>
       </c>
       <c r="D2688" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52437,7 +52443,7 @@
       </c>
       <c r="B2689" s="82"/>
       <c r="C2689" s="1" t="s">
-        <v>2748</v>
+        <v>2549</v>
       </c>
       <c r="D2689" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52450,7 +52456,7 @@
       </c>
       <c r="B2690" s="82"/>
       <c r="C2690" s="1" t="s">
-        <v>2749</v>
+        <v>2550</v>
       </c>
       <c r="D2690" s="4" t="str">
         <f t="shared" si="41"/>
@@ -52463,7 +52469,7 @@
       </c>
       <c r="B2691" s="82"/>
       <c r="C2691" s="1" t="s">
-        <v>2750</v>
+        <v>2551</v>
       </c>
       <c r="D2691" s="4" t="str">
         <f t="shared" ref="D2691:D2754" si="42">A2691&amp;"_"&amp;TEXT(B2691,"aaaammjj")</f>
@@ -52478,7 +52484,7 @@
         <v>44901</v>
       </c>
       <c r="C2692" s="1" t="s">
-        <v>2751</v>
+        <v>2552</v>
       </c>
       <c r="D2692" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52493,7 +52499,7 @@
         <v>44859</v>
       </c>
       <c r="C2693" s="1" t="s">
-        <v>2752</v>
+        <v>2553</v>
       </c>
       <c r="D2693" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52508,7 +52514,7 @@
         <v>44847</v>
       </c>
       <c r="C2694" s="1" t="s">
-        <v>2753</v>
+        <v>2554</v>
       </c>
       <c r="D2694" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52523,7 +52529,7 @@
         <v>44865</v>
       </c>
       <c r="C2695" s="1" t="s">
-        <v>2754</v>
+        <v>2555</v>
       </c>
       <c r="D2695" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52536,7 +52542,7 @@
       </c>
       <c r="B2696" s="134"/>
       <c r="C2696" s="1" t="s">
-        <v>2755</v>
+        <v>2556</v>
       </c>
       <c r="D2696" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52549,7 +52555,7 @@
       </c>
       <c r="B2697" s="73"/>
       <c r="C2697" s="1" t="s">
-        <v>2756</v>
+        <v>2557</v>
       </c>
       <c r="D2697" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52564,7 +52570,7 @@
         <v>44853</v>
       </c>
       <c r="C2698" s="1" t="s">
-        <v>2757</v>
+        <v>2558</v>
       </c>
       <c r="D2698" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52579,7 +52585,7 @@
         <v>44865</v>
       </c>
       <c r="C2699" s="1" t="s">
-        <v>2758</v>
+        <v>2559</v>
       </c>
       <c r="D2699" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52592,7 +52598,7 @@
       </c>
       <c r="B2700" s="50"/>
       <c r="C2700" s="1" t="s">
-        <v>2759</v>
+        <v>2560</v>
       </c>
       <c r="D2700" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52605,7 +52611,7 @@
       </c>
       <c r="B2701" s="50"/>
       <c r="C2701" s="1" t="s">
-        <v>2760</v>
+        <v>2561</v>
       </c>
       <c r="D2701" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52620,7 +52626,7 @@
         <v>44908</v>
       </c>
       <c r="C2702" s="1" t="s">
-        <v>2761</v>
+        <v>2562</v>
       </c>
       <c r="D2702" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52635,7 +52641,7 @@
         <v>44908</v>
       </c>
       <c r="C2703" s="1" t="s">
-        <v>2762</v>
+        <v>2563</v>
       </c>
       <c r="D2703" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52650,7 +52656,7 @@
         <v>44935</v>
       </c>
       <c r="C2704" s="1" t="s">
-        <v>2763</v>
+        <v>2564</v>
       </c>
       <c r="D2704" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52665,7 +52671,7 @@
         <v>44914</v>
       </c>
       <c r="C2705" s="1" t="s">
-        <v>2764</v>
+        <v>2565</v>
       </c>
       <c r="D2705" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52680,7 +52686,7 @@
         <v>44908</v>
       </c>
       <c r="C2706" s="1" t="s">
-        <v>2765</v>
+        <v>2566</v>
       </c>
       <c r="D2706" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52693,7 +52699,7 @@
       </c>
       <c r="B2707" s="50"/>
       <c r="C2707" s="1" t="s">
-        <v>2766</v>
+        <v>2567</v>
       </c>
       <c r="D2707" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52706,7 +52712,7 @@
       </c>
       <c r="B2708" s="136"/>
       <c r="C2708" s="1" t="s">
-        <v>2767</v>
+        <v>2568</v>
       </c>
       <c r="D2708" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52721,7 +52727,7 @@
         <v>44920</v>
       </c>
       <c r="C2709" s="1" t="s">
-        <v>2768</v>
+        <v>2569</v>
       </c>
       <c r="D2709" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52734,7 +52740,7 @@
       </c>
       <c r="B2710" s="49"/>
       <c r="C2710" s="1" t="s">
-        <v>2769</v>
+        <v>2570</v>
       </c>
       <c r="D2710" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52747,7 +52753,7 @@
       </c>
       <c r="B2711" s="138"/>
       <c r="C2711" s="48" t="s">
-        <v>2770</v>
+        <v>2571</v>
       </c>
       <c r="D2711" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52762,7 +52768,7 @@
         <v>45363</v>
       </c>
       <c r="C2712" s="139" t="s">
-        <v>2771</v>
+        <v>2572</v>
       </c>
       <c r="D2712" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52777,7 +52783,7 @@
         <v>45369</v>
       </c>
       <c r="C2713" s="139" t="s">
-        <v>2772</v>
+        <v>2573</v>
       </c>
       <c r="D2713" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52792,7 +52798,7 @@
         <v>45369</v>
       </c>
       <c r="C2714" s="139" t="s">
-        <v>2773</v>
+        <v>2574</v>
       </c>
       <c r="D2714" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52807,7 +52813,7 @@
         <v>45365</v>
       </c>
       <c r="C2715" s="139" t="s">
-        <v>2774</v>
+        <v>2575</v>
       </c>
       <c r="D2715" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52822,7 +52828,7 @@
         <v>45443</v>
       </c>
       <c r="C2716" s="139" t="s">
-        <v>2775</v>
+        <v>2576</v>
       </c>
       <c r="D2716" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52837,7 +52843,7 @@
         <v>45394</v>
       </c>
       <c r="C2717" s="139" t="s">
-        <v>2776</v>
+        <v>2577</v>
       </c>
       <c r="D2717" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52852,7 +52858,7 @@
         <v>45398</v>
       </c>
       <c r="C2718" s="139" t="s">
-        <v>2777</v>
+        <v>2578</v>
       </c>
       <c r="D2718" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52867,7 +52873,7 @@
         <v>45363</v>
       </c>
       <c r="C2719" s="139" t="s">
-        <v>2778</v>
+        <v>2579</v>
       </c>
       <c r="D2719" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52882,7 +52888,7 @@
         <v>45364</v>
       </c>
       <c r="C2720" s="139" t="s">
-        <v>2779</v>
+        <v>2580</v>
       </c>
       <c r="D2720" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52897,7 +52903,7 @@
         <v>45399</v>
       </c>
       <c r="C2721" s="139" t="s">
-        <v>2780</v>
+        <v>2581</v>
       </c>
       <c r="D2721" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52912,7 +52918,7 @@
         <v>45381</v>
       </c>
       <c r="C2722" s="139" t="s">
-        <v>2781</v>
+        <v>2582</v>
       </c>
       <c r="D2722" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52927,7 +52933,7 @@
         <v>45413</v>
       </c>
       <c r="C2723" s="139" t="s">
-        <v>2782</v>
+        <v>2583</v>
       </c>
       <c r="D2723" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52942,7 +52948,7 @@
         <v>45443</v>
       </c>
       <c r="C2724" s="139" t="s">
-        <v>2783</v>
+        <v>2584</v>
       </c>
       <c r="D2724" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52957,7 +52963,7 @@
         <v>45434</v>
       </c>
       <c r="C2725" s="139" t="s">
-        <v>2784</v>
+        <v>2585</v>
       </c>
       <c r="D2725" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52972,7 +52978,7 @@
         <v>45433</v>
       </c>
       <c r="C2726" s="139" t="s">
-        <v>2785</v>
+        <v>2586</v>
       </c>
       <c r="D2726" s="4" t="str">
         <f t="shared" si="42"/>
@@ -52987,7 +52993,7 @@
         <v>45406</v>
       </c>
       <c r="C2727" s="139" t="s">
-        <v>2786</v>
+        <v>2587</v>
       </c>
       <c r="D2727" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53002,7 +53008,7 @@
         <v>45414</v>
       </c>
       <c r="C2728" s="139" t="s">
-        <v>2787</v>
+        <v>2588</v>
       </c>
       <c r="D2728" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53017,7 +53023,7 @@
         <v>45470</v>
       </c>
       <c r="C2729" s="139" t="s">
-        <v>2788</v>
+        <v>2589</v>
       </c>
       <c r="D2729" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53032,7 +53038,7 @@
         <v>45408</v>
       </c>
       <c r="C2730" s="139" t="s">
-        <v>2789</v>
+        <v>2590</v>
       </c>
       <c r="D2730" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53047,7 +53053,7 @@
         <v>45412</v>
       </c>
       <c r="C2731" s="139" t="s">
-        <v>2790</v>
+        <v>2591</v>
       </c>
       <c r="D2731" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53062,7 +53068,7 @@
         <v>45427</v>
       </c>
       <c r="C2732" s="155" t="s">
-        <v>2791</v>
+        <v>2592</v>
       </c>
       <c r="D2732" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53077,7 +53083,7 @@
         <v>45355</v>
       </c>
       <c r="C2733" s="169" t="s">
-        <v>2792</v>
+        <v>2593</v>
       </c>
       <c r="D2733" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53092,7 +53098,7 @@
         <v>45378</v>
       </c>
       <c r="C2734" s="169" t="s">
-        <v>2793</v>
+        <v>2594</v>
       </c>
       <c r="D2734" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53107,7 +53113,7 @@
         <v>45373</v>
       </c>
       <c r="C2735" s="169" t="s">
-        <v>2794</v>
+        <v>2595</v>
       </c>
       <c r="D2735" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53122,7 +53128,7 @@
         <v>45376</v>
       </c>
       <c r="C2736" s="169" t="s">
-        <v>2795</v>
+        <v>2596</v>
       </c>
       <c r="D2736" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53137,7 +53143,7 @@
         <v>45376</v>
       </c>
       <c r="C2737" s="169" t="s">
-        <v>2796</v>
+        <v>2597</v>
       </c>
       <c r="D2737" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53152,7 +53158,7 @@
         <v>45344</v>
       </c>
       <c r="C2738" s="169" t="s">
-        <v>2797</v>
+        <v>2598</v>
       </c>
       <c r="D2738" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53165,7 +53171,7 @@
       </c>
       <c r="B2739" s="147"/>
       <c r="C2739" s="169" t="s">
-        <v>2798</v>
+        <v>2599</v>
       </c>
       <c r="D2739" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53178,7 +53184,7 @@
       </c>
       <c r="B2740" s="1"/>
       <c r="C2740" s="169" t="s">
-        <v>2799</v>
+        <v>2600</v>
       </c>
       <c r="D2740" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53191,7 +53197,7 @@
       </c>
       <c r="B2741" s="1"/>
       <c r="C2741" s="169" t="s">
-        <v>2800</v>
+        <v>2601</v>
       </c>
       <c r="D2741" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53206,7 +53212,7 @@
         <v>45350</v>
       </c>
       <c r="C2742" s="169" t="s">
-        <v>2801</v>
+        <v>2602</v>
       </c>
       <c r="D2742" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53221,7 +53227,7 @@
         <v>45345</v>
       </c>
       <c r="C2743" s="169" t="s">
-        <v>2802</v>
+        <v>2603</v>
       </c>
       <c r="D2743" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53236,7 +53242,7 @@
         <v>45373</v>
       </c>
       <c r="C2744" s="169" t="s">
-        <v>2803</v>
+        <v>2604</v>
       </c>
       <c r="D2744" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53251,7 +53257,7 @@
         <v>45339</v>
       </c>
       <c r="C2745" s="169" t="s">
-        <v>2804</v>
+        <v>2605</v>
       </c>
       <c r="D2745" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53266,7 +53272,7 @@
         <v>45355</v>
       </c>
       <c r="C2746" s="169" t="s">
-        <v>2805</v>
+        <v>2606</v>
       </c>
       <c r="D2746" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53281,7 +53287,7 @@
         <v>45376</v>
       </c>
       <c r="C2747" s="169" t="s">
-        <v>2806</v>
+        <v>2607</v>
       </c>
       <c r="D2747" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53296,7 +53302,7 @@
         <v>45369</v>
       </c>
       <c r="C2748" s="169" t="s">
-        <v>2807</v>
+        <v>2608</v>
       </c>
       <c r="D2748" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53311,7 +53317,7 @@
         <v>45397</v>
       </c>
       <c r="C2749" s="169" t="s">
-        <v>2808</v>
+        <v>2609</v>
       </c>
       <c r="D2749" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53324,7 +53330,7 @@
       </c>
       <c r="B2750" s="152"/>
       <c r="C2750" s="169" t="s">
-        <v>2809</v>
+        <v>2610</v>
       </c>
       <c r="D2750" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53339,7 +53345,7 @@
         <v>45373</v>
       </c>
       <c r="C2751" s="169" t="s">
-        <v>2810</v>
+        <v>2611</v>
       </c>
       <c r="D2751" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53354,7 +53360,7 @@
         <v>45344</v>
       </c>
       <c r="C2752" s="169" t="s">
-        <v>2811</v>
+        <v>2612</v>
       </c>
       <c r="D2752" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53369,7 +53375,7 @@
         <v>45469</v>
       </c>
       <c r="C2753" s="169" t="s">
-        <v>2812</v>
+        <v>2613</v>
       </c>
       <c r="D2753" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53384,7 +53390,7 @@
         <v>45373</v>
       </c>
       <c r="C2754" s="169" t="s">
-        <v>2813</v>
+        <v>2614</v>
       </c>
       <c r="D2754" s="4" t="str">
         <f t="shared" si="42"/>
@@ -53397,7 +53403,7 @@
       </c>
       <c r="B2755"/>
       <c r="C2755" s="169" t="s">
-        <v>2814</v>
+        <v>2615</v>
       </c>
       <c r="D2755" s="4" t="str">
         <f t="shared" ref="D2755:D2818" si="43">A2755&amp;"_"&amp;TEXT(B2755,"aaaammjj")</f>
@@ -53410,7 +53416,7 @@
       </c>
       <c r="B2756" s="161"/>
       <c r="C2756" s="169" t="s">
-        <v>2815</v>
+        <v>2616</v>
       </c>
       <c r="D2756" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53425,7 +53431,7 @@
         <v>45369</v>
       </c>
       <c r="C2757" s="169" t="s">
-        <v>2816</v>
+        <v>2617</v>
       </c>
       <c r="D2757" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53440,7 +53446,7 @@
         <v>45404</v>
       </c>
       <c r="C2758" s="169" t="s">
-        <v>2817</v>
+        <v>2618</v>
       </c>
       <c r="D2758" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53455,7 +53461,7 @@
         <v>45383</v>
       </c>
       <c r="C2759" s="169" t="s">
-        <v>2818</v>
+        <v>2619</v>
       </c>
       <c r="D2759" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53470,7 +53476,7 @@
         <v>45344</v>
       </c>
       <c r="C2760" s="169" t="s">
-        <v>2819</v>
+        <v>2620</v>
       </c>
       <c r="D2760" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53485,7 +53491,7 @@
         <v>45373</v>
       </c>
       <c r="C2761" s="169" t="s">
-        <v>2820</v>
+        <v>2621</v>
       </c>
       <c r="D2761" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53500,7 +53506,7 @@
         <v>45391</v>
       </c>
       <c r="C2762" s="169" t="s">
-        <v>2821</v>
+        <v>2622</v>
       </c>
       <c r="D2762" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53515,7 +53521,7 @@
         <v>45408</v>
       </c>
       <c r="C2763" s="169" t="s">
-        <v>2822</v>
+        <v>2623</v>
       </c>
       <c r="D2763" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53530,7 +53536,7 @@
         <v>45383</v>
       </c>
       <c r="C2764" s="169" t="s">
-        <v>2823</v>
+        <v>2624</v>
       </c>
       <c r="D2764" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53545,7 +53551,7 @@
         <v>45378</v>
       </c>
       <c r="C2765" s="169" t="s">
-        <v>2824</v>
+        <v>2625</v>
       </c>
       <c r="D2765" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53560,7 +53566,7 @@
         <v>45378</v>
       </c>
       <c r="C2766" s="169" t="s">
-        <v>2825</v>
+        <v>2626</v>
       </c>
       <c r="D2766" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53575,7 +53581,7 @@
         <v>45381</v>
       </c>
       <c r="C2767" s="169" t="s">
-        <v>2826</v>
+        <v>2627</v>
       </c>
       <c r="D2767" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53588,7 +53594,7 @@
       </c>
       <c r="B2768" s="161"/>
       <c r="C2768" s="169" t="s">
-        <v>2827</v>
+        <v>2628</v>
       </c>
       <c r="D2768" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53603,7 +53609,7 @@
         <v>45376</v>
       </c>
       <c r="C2769" s="169" t="s">
-        <v>2828</v>
+        <v>2629</v>
       </c>
       <c r="D2769" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53618,7 +53624,7 @@
         <v>45429</v>
       </c>
       <c r="C2770" s="169" t="s">
-        <v>2829</v>
+        <v>2630</v>
       </c>
       <c r="D2770" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53633,7 +53639,7 @@
         <v>45366</v>
       </c>
       <c r="C2771" s="169" t="s">
-        <v>2830</v>
+        <v>2631</v>
       </c>
       <c r="D2771" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53648,7 +53654,7 @@
         <v>45397</v>
       </c>
       <c r="C2772" s="169" t="s">
-        <v>2831</v>
+        <v>2632</v>
       </c>
       <c r="D2772" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53663,7 +53669,7 @@
         <v>45366</v>
       </c>
       <c r="C2773" s="169" t="s">
-        <v>2832</v>
+        <v>2633</v>
       </c>
       <c r="D2773" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53676,7 +53682,7 @@
       </c>
       <c r="B2774"/>
       <c r="C2774" s="169" t="s">
-        <v>2833</v>
+        <v>2634</v>
       </c>
       <c r="D2774" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53689,7 +53695,7 @@
       </c>
       <c r="B2775"/>
       <c r="C2775" s="169" t="s">
-        <v>2834</v>
+        <v>2635</v>
       </c>
       <c r="D2775" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53704,7 +53710,7 @@
         <v>45378</v>
       </c>
       <c r="C2776" s="169" t="s">
-        <v>2835</v>
+        <v>2636</v>
       </c>
       <c r="D2776" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53719,7 +53725,7 @@
         <v>45468</v>
       </c>
       <c r="C2777" s="169" t="s">
-        <v>2836</v>
+        <v>2637</v>
       </c>
       <c r="D2777" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53734,7 +53740,7 @@
         <v>45428</v>
       </c>
       <c r="C2778" s="169" t="s">
-        <v>2837</v>
+        <v>2638</v>
       </c>
       <c r="D2778" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53749,7 +53755,7 @@
         <v>45481</v>
       </c>
       <c r="C2779" s="169" t="s">
-        <v>2838</v>
+        <v>2639</v>
       </c>
       <c r="D2779" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53762,7 +53768,7 @@
       </c>
       <c r="B2780" s="166"/>
       <c r="C2780" s="169" t="s">
-        <v>2839</v>
+        <v>2640</v>
       </c>
       <c r="D2780" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53777,7 +53783,7 @@
         <v>45425</v>
       </c>
       <c r="C2781" s="169" t="s">
-        <v>2840</v>
+        <v>2641</v>
       </c>
       <c r="D2781" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53790,7 +53796,7 @@
       </c>
       <c r="B2782" s="167"/>
       <c r="C2782" s="169" t="s">
-        <v>2841</v>
+        <v>2642</v>
       </c>
       <c r="D2782" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53805,7 +53811,7 @@
         <v>45412</v>
       </c>
       <c r="C2783" s="169" t="s">
-        <v>2842</v>
+        <v>2643</v>
       </c>
       <c r="D2783" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53820,7 +53826,7 @@
         <v>45435</v>
       </c>
       <c r="C2784" s="169" t="s">
-        <v>2843</v>
+        <v>2644</v>
       </c>
       <c r="D2784" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53835,7 +53841,7 @@
         <v>45439</v>
       </c>
       <c r="C2785" s="169" t="s">
-        <v>2844</v>
+        <v>2645</v>
       </c>
       <c r="D2785" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53848,7 +53854,7 @@
       </c>
       <c r="B2786" s="167"/>
       <c r="C2786" s="169" t="s">
-        <v>2845</v>
+        <v>2646</v>
       </c>
       <c r="D2786" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53863,7 +53869,7 @@
         <v>45408</v>
       </c>
       <c r="C2787" s="169" t="s">
-        <v>2846</v>
+        <v>2647</v>
       </c>
       <c r="D2787" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53876,7 +53882,7 @@
       </c>
       <c r="B2788"/>
       <c r="C2788" s="169" t="s">
-        <v>2847</v>
+        <v>2648</v>
       </c>
       <c r="D2788" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53889,7 +53895,7 @@
       </c>
       <c r="B2789" s="171"/>
       <c r="C2789" s="172" t="s">
-        <v>2848</v>
+        <v>2649</v>
       </c>
       <c r="D2789" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53904,7 +53910,7 @@
         <v>44973</v>
       </c>
       <c r="C2790" t="s">
-        <v>2849</v>
+        <v>2650</v>
       </c>
       <c r="D2790" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53919,7 +53925,7 @@
         <v>44973</v>
       </c>
       <c r="C2791" t="s">
-        <v>2850</v>
+        <v>2651</v>
       </c>
       <c r="D2791" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53934,7 +53940,7 @@
         <v>44973</v>
       </c>
       <c r="C2792" t="s">
-        <v>2851</v>
+        <v>2652</v>
       </c>
       <c r="D2792" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53949,7 +53955,7 @@
         <v>44973</v>
       </c>
       <c r="C2793" t="s">
-        <v>2852</v>
+        <v>2653</v>
       </c>
       <c r="D2793" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53964,7 +53970,7 @@
         <v>44973</v>
       </c>
       <c r="C2794" t="s">
-        <v>2853</v>
+        <v>2654</v>
       </c>
       <c r="D2794" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53979,7 +53985,7 @@
         <v>44973</v>
       </c>
       <c r="C2795" t="s">
-        <v>2854</v>
+        <v>2655</v>
       </c>
       <c r="D2795" s="4" t="str">
         <f t="shared" si="43"/>
@@ -53994,7 +54000,7 @@
         <v>44974</v>
       </c>
       <c r="C2796" t="s">
-        <v>2855</v>
+        <v>2656</v>
       </c>
       <c r="D2796" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54009,7 +54015,7 @@
         <v>44974</v>
       </c>
       <c r="C2797" t="s">
-        <v>2856</v>
+        <v>2657</v>
       </c>
       <c r="D2797" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54024,7 +54030,7 @@
         <v>44974</v>
       </c>
       <c r="C2798" t="s">
-        <v>2857</v>
+        <v>2658</v>
       </c>
       <c r="D2798" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54039,7 +54045,7 @@
         <v>44974</v>
       </c>
       <c r="C2799" t="s">
-        <v>2858</v>
+        <v>2659</v>
       </c>
       <c r="D2799" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54054,7 +54060,7 @@
         <v>44974</v>
       </c>
       <c r="C2800" t="s">
-        <v>2859</v>
+        <v>2660</v>
       </c>
       <c r="D2800" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54069,7 +54075,7 @@
         <v>44974</v>
       </c>
       <c r="C2801" t="s">
-        <v>2860</v>
+        <v>2661</v>
       </c>
       <c r="D2801" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54084,7 +54090,7 @@
         <v>44973</v>
       </c>
       <c r="C2802" t="s">
-        <v>2861</v>
+        <v>2662</v>
       </c>
       <c r="D2802" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54099,7 +54105,7 @@
         <v>44973</v>
       </c>
       <c r="C2803" t="s">
-        <v>2862</v>
+        <v>2663</v>
       </c>
       <c r="D2803" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54114,7 +54120,7 @@
         <v>44973</v>
       </c>
       <c r="C2804" t="s">
-        <v>2863</v>
+        <v>2664</v>
       </c>
       <c r="D2804" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54129,7 +54135,7 @@
         <v>44973</v>
       </c>
       <c r="C2805" t="s">
-        <v>2864</v>
+        <v>2665</v>
       </c>
       <c r="D2805" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54144,7 +54150,7 @@
         <v>44973</v>
       </c>
       <c r="C2806" t="s">
-        <v>2865</v>
+        <v>2666</v>
       </c>
       <c r="D2806" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54159,7 +54165,7 @@
         <v>44973</v>
       </c>
       <c r="C2807" t="s">
-        <v>2866</v>
+        <v>2667</v>
       </c>
       <c r="D2807" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54174,7 +54180,7 @@
         <v>44974</v>
       </c>
       <c r="C2808" t="s">
-        <v>2867</v>
+        <v>2668</v>
       </c>
       <c r="D2808" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54189,7 +54195,7 @@
         <v>44974</v>
       </c>
       <c r="C2809" t="s">
-        <v>2868</v>
+        <v>2669</v>
       </c>
       <c r="D2809" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54204,7 +54210,7 @@
         <v>44974</v>
       </c>
       <c r="C2810" t="s">
-        <v>2869</v>
+        <v>2670</v>
       </c>
       <c r="D2810" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54219,7 +54225,7 @@
         <v>44974</v>
       </c>
       <c r="C2811" t="s">
-        <v>2870</v>
+        <v>2671</v>
       </c>
       <c r="D2811" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54234,7 +54240,7 @@
         <v>44974</v>
       </c>
       <c r="C2812" t="s">
-        <v>2871</v>
+        <v>2672</v>
       </c>
       <c r="D2812" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54249,7 +54255,7 @@
         <v>44974</v>
       </c>
       <c r="C2813" t="s">
-        <v>2872</v>
+        <v>2673</v>
       </c>
       <c r="D2813" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54264,7 +54270,7 @@
         <v>44973</v>
       </c>
       <c r="C2814" t="s">
-        <v>2873</v>
+        <v>2674</v>
       </c>
       <c r="D2814" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54279,7 +54285,7 @@
         <v>44973</v>
       </c>
       <c r="C2815" t="s">
-        <v>2874</v>
+        <v>2675</v>
       </c>
       <c r="D2815" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54294,7 +54300,7 @@
         <v>44973</v>
       </c>
       <c r="C2816" t="s">
-        <v>2875</v>
+        <v>2676</v>
       </c>
       <c r="D2816" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54309,7 +54315,7 @@
         <v>44973</v>
       </c>
       <c r="C2817" t="s">
-        <v>2876</v>
+        <v>2677</v>
       </c>
       <c r="D2817" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54324,7 +54330,7 @@
         <v>44973</v>
       </c>
       <c r="C2818" t="s">
-        <v>2877</v>
+        <v>2678</v>
       </c>
       <c r="D2818" s="4" t="str">
         <f t="shared" si="43"/>
@@ -54339,7 +54345,7 @@
         <v>44973</v>
       </c>
       <c r="C2819" t="s">
-        <v>2878</v>
+        <v>2679</v>
       </c>
       <c r="D2819" s="4" t="str">
         <f t="shared" ref="D2819:D2837" si="44">A2819&amp;"_"&amp;TEXT(B2819,"aaaammjj")</f>
@@ -54354,7 +54360,7 @@
         <v>44974</v>
       </c>
       <c r="C2820" t="s">
-        <v>2879</v>
+        <v>2680</v>
       </c>
       <c r="D2820" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54369,7 +54375,7 @@
         <v>44974</v>
       </c>
       <c r="C2821" t="s">
-        <v>2880</v>
+        <v>2681</v>
       </c>
       <c r="D2821" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54384,7 +54390,7 @@
         <v>44974</v>
       </c>
       <c r="C2822" t="s">
-        <v>2881</v>
+        <v>2682</v>
       </c>
       <c r="D2822" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54399,7 +54405,7 @@
         <v>44974</v>
       </c>
       <c r="C2823" t="s">
-        <v>2882</v>
+        <v>2683</v>
       </c>
       <c r="D2823" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54414,7 +54420,7 @@
         <v>44974</v>
       </c>
       <c r="C2824" t="s">
-        <v>2883</v>
+        <v>2684</v>
       </c>
       <c r="D2824" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54429,7 +54435,7 @@
         <v>44974</v>
       </c>
       <c r="C2825" t="s">
-        <v>2884</v>
+        <v>2685</v>
       </c>
       <c r="D2825" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54444,7 +54450,7 @@
         <v>44973</v>
       </c>
       <c r="C2826" t="s">
-        <v>2885</v>
+        <v>2686</v>
       </c>
       <c r="D2826" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54459,7 +54465,7 @@
         <v>44973</v>
       </c>
       <c r="C2827" t="s">
-        <v>2886</v>
+        <v>2687</v>
       </c>
       <c r="D2827" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54474,7 +54480,7 @@
         <v>44973</v>
       </c>
       <c r="C2828" t="s">
-        <v>2887</v>
+        <v>2688</v>
       </c>
       <c r="D2828" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54489,7 +54495,7 @@
         <v>44973</v>
       </c>
       <c r="C2829" t="s">
-        <v>2888</v>
+        <v>2689</v>
       </c>
       <c r="D2829" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54504,7 +54510,7 @@
         <v>44973</v>
       </c>
       <c r="C2830" t="s">
-        <v>2889</v>
+        <v>2690</v>
       </c>
       <c r="D2830" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54519,7 +54525,7 @@
         <v>44973</v>
       </c>
       <c r="C2831" t="s">
-        <v>2890</v>
+        <v>2691</v>
       </c>
       <c r="D2831" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54534,7 +54540,7 @@
         <v>44974</v>
       </c>
       <c r="C2832" t="s">
-        <v>2891</v>
+        <v>2692</v>
       </c>
       <c r="D2832" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54549,7 +54555,7 @@
         <v>44974</v>
       </c>
       <c r="C2833" t="s">
-        <v>2892</v>
+        <v>2693</v>
       </c>
       <c r="D2833" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54564,7 +54570,7 @@
         <v>44974</v>
       </c>
       <c r="C2834" t="s">
-        <v>2893</v>
+        <v>2694</v>
       </c>
       <c r="D2834" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54579,7 +54585,7 @@
         <v>44974</v>
       </c>
       <c r="C2835" t="s">
-        <v>2894</v>
+        <v>2695</v>
       </c>
       <c r="D2835" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54594,7 +54600,7 @@
         <v>44974</v>
       </c>
       <c r="C2836" t="s">
-        <v>2895</v>
+        <v>2696</v>
       </c>
       <c r="D2836" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54609,7 +54615,7 @@
         <v>44974</v>
       </c>
       <c r="C2837" t="s">
-        <v>2896</v>
+        <v>2697</v>
       </c>
       <c r="D2837" s="4" t="str">
         <f t="shared" si="44"/>
@@ -54617,6 +54623,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="59" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="313" verticalDpi="313" r:id="rId1"/>
 </worksheet>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\AMOLF-SHIMIZU Dropbox\AMF-PlateList\NOW_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FCD0B7-A5F4-4FEC-A845-AA496ACBDEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D42A5CB-E257-40DE-A017-7EAAB24C61AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6143" uniqueCount="3756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6061" uniqueCount="3756">
   <si>
     <t>Plate #</t>
   </si>
@@ -11311,8 +11311,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="60">
     <font>
@@ -12268,7 +12269,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="175">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -12699,6 +12700,9 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="18" builtinId="30" customBuiltin="1"/>
@@ -13023,8 +13027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3743"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3724" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E3740" sqref="E3740"/>
+    <sheetView tabSelected="1" topLeftCell="A3197" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3206" sqref="H3206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -62431,15 +62435,15 @@
       <c r="A3208" s="15">
         <v>458</v>
       </c>
-      <c r="B3208" s="15" t="s">
-        <v>3566</v>
+      <c r="B3208" s="174">
+        <v>44300</v>
       </c>
       <c r="C3208" s="5" t="s">
         <v>3192</v>
       </c>
       <c r="D3208" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>458_14.04.2021</v>
+        <v>458_20210414</v>
       </c>
     </row>
     <row r="3209" spans="1:4">
@@ -62459,15 +62463,15 @@
       <c r="A3210" s="15">
         <v>460</v>
       </c>
-      <c r="B3210" s="15" t="s">
-        <v>3566</v>
+      <c r="B3210" s="29">
+        <v>44300</v>
       </c>
       <c r="C3210" s="5" t="s">
         <v>3194</v>
       </c>
       <c r="D3210" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>460_14.04.2021</v>
+        <v>460_20210414</v>
       </c>
     </row>
     <row r="3211" spans="1:4">
@@ -62604,15 +62608,15 @@
       <c r="A3221" s="15">
         <v>471</v>
       </c>
-      <c r="B3221" s="15" t="s">
-        <v>3566</v>
+      <c r="B3221" s="29">
+        <v>44300</v>
       </c>
       <c r="C3221" s="5" t="s">
         <v>3205</v>
       </c>
       <c r="D3221" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>471_14.04.2021</v>
+        <v>471_20210414</v>
       </c>
     </row>
     <row r="3222" spans="1:4">
@@ -62905,15 +62909,15 @@
       <c r="A3244" s="15">
         <v>494</v>
       </c>
-      <c r="B3244" s="15" t="s">
-        <v>3567</v>
+      <c r="B3244" s="29">
+        <v>44335</v>
       </c>
       <c r="C3244" s="5" t="s">
         <v>3228</v>
       </c>
       <c r="D3244" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>494_19.05.2021</v>
+        <v>494_20210519</v>
       </c>
     </row>
     <row r="3245" spans="1:4">
@@ -62933,15 +62937,15 @@
       <c r="A3246" s="15">
         <v>496</v>
       </c>
-      <c r="B3246" s="15" t="s">
-        <v>3567</v>
+      <c r="B3246" s="29">
+        <v>44335</v>
       </c>
       <c r="C3246" s="5" t="s">
         <v>3230</v>
       </c>
       <c r="D3246" s="2" t="str">
         <f t="shared" si="50"/>
-        <v>496_19.05.2021</v>
+        <v>496_20210519</v>
       </c>
     </row>
     <row r="3247" spans="1:4">
@@ -63260,15 +63264,15 @@
       <c r="A3271" s="15">
         <v>521</v>
       </c>
-      <c r="B3271" s="15" t="s">
-        <v>3567</v>
+      <c r="B3271" s="29">
+        <v>44335</v>
       </c>
       <c r="C3271" s="5" t="s">
         <v>3255</v>
       </c>
       <c r="D3271" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>521_19.05.2021</v>
+        <v>521_20210519</v>
       </c>
     </row>
     <row r="3272" spans="1:4">
@@ -63301,15 +63305,15 @@
       <c r="A3274" s="15">
         <v>524</v>
       </c>
-      <c r="B3274" s="15" t="s">
-        <v>3567</v>
+      <c r="B3274" s="29">
+        <v>44335</v>
       </c>
       <c r="C3274" s="5" t="s">
         <v>3258</v>
       </c>
       <c r="D3274" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>524_19.05.2021</v>
+        <v>524_20210519</v>
       </c>
     </row>
     <row r="3275" spans="1:4">
@@ -63589,15 +63593,15 @@
       <c r="A3296" s="15">
         <v>546</v>
       </c>
-      <c r="B3296" s="15" t="s">
-        <v>3568</v>
+      <c r="B3296" s="29">
+        <v>44341</v>
       </c>
       <c r="C3296" s="5" t="s">
         <v>3280</v>
       </c>
       <c r="D3296" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>546_25.05.2021</v>
+        <v>546_20210525</v>
       </c>
     </row>
     <row r="3297" spans="1:4">
@@ -63656,45 +63660,45 @@
       <c r="A3301" s="15">
         <v>551</v>
       </c>
-      <c r="B3301" s="15" t="s">
-        <v>3569</v>
+      <c r="B3301" s="29">
+        <v>44354</v>
       </c>
       <c r="C3301" s="5" t="s">
         <v>3285</v>
       </c>
       <c r="D3301" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>551_07.06.2021</v>
+        <v>551_20210607</v>
       </c>
     </row>
     <row r="3302" spans="1:4">
       <c r="A3302" s="15">
         <v>552</v>
       </c>
-      <c r="B3302" s="15" t="s">
-        <v>3570</v>
+      <c r="B3302" s="29">
+        <v>44355</v>
       </c>
       <c r="C3302" s="5" t="s">
         <v>3286</v>
       </c>
       <c r="D3302" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>552_08.06.2021</v>
+        <v>552_20210608</v>
       </c>
     </row>
     <row r="3303" spans="1:4">
       <c r="A3303" s="15">
         <v>553</v>
       </c>
-      <c r="B3303" s="15" t="s">
-        <v>3570</v>
+      <c r="B3303" s="29">
+        <v>44355</v>
       </c>
       <c r="C3303" s="5" t="s">
         <v>3287</v>
       </c>
       <c r="D3303" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>553_08.06.2021</v>
+        <v>553_20210608</v>
       </c>
     </row>
     <row r="3304" spans="1:4">
@@ -63727,30 +63731,30 @@
       <c r="A3306" s="15">
         <v>556</v>
       </c>
-      <c r="B3306" s="15" t="s">
-        <v>3571</v>
+      <c r="B3306" s="29">
+        <v>44361</v>
       </c>
       <c r="C3306" s="5" t="s">
         <v>3290</v>
       </c>
       <c r="D3306" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>556_14.06.2021</v>
+        <v>556_20210614</v>
       </c>
     </row>
     <row r="3307" spans="1:4">
       <c r="A3307" s="15">
         <v>557</v>
       </c>
-      <c r="B3307" s="15" t="s">
-        <v>3572</v>
+      <c r="B3307" s="29">
+        <v>44349</v>
       </c>
       <c r="C3307" s="5" t="s">
         <v>3291</v>
       </c>
       <c r="D3307" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>557_02.06.2021</v>
+        <v>557_20210602</v>
       </c>
     </row>
     <row r="3308" spans="1:4">
@@ -63770,30 +63774,30 @@
       <c r="A3309" s="15">
         <v>559</v>
       </c>
-      <c r="B3309" s="15" t="s">
-        <v>3573</v>
+      <c r="B3309" s="29">
+        <v>44370</v>
       </c>
       <c r="C3309" s="5" t="s">
         <v>3293</v>
       </c>
       <c r="D3309" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>559_23.06.2021</v>
+        <v>559_20210623</v>
       </c>
     </row>
     <row r="3310" spans="1:4">
       <c r="A3310" s="15">
         <v>560</v>
       </c>
-      <c r="B3310" s="15" t="s">
-        <v>3571</v>
+      <c r="B3310" s="29">
+        <v>44361</v>
       </c>
       <c r="C3310" s="5" t="s">
         <v>3294</v>
       </c>
       <c r="D3310" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>560_14.06.2021</v>
+        <v>560_20210614</v>
       </c>
     </row>
     <row r="3311" spans="1:4">
@@ -63865,15 +63869,15 @@
       <c r="A3316" s="15">
         <v>566</v>
       </c>
-      <c r="B3316" s="15" t="s">
-        <v>3573</v>
+      <c r="B3316" s="29">
+        <v>44370</v>
       </c>
       <c r="C3316" s="5" t="s">
         <v>3300</v>
       </c>
       <c r="D3316" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>566_23.06.2021</v>
+        <v>566_20210623</v>
       </c>
     </row>
     <row r="3317" spans="1:4">
@@ -63945,15 +63949,15 @@
       <c r="A3322" s="15">
         <v>572</v>
       </c>
-      <c r="B3322" s="15" t="s">
-        <v>3570</v>
+      <c r="B3322" s="29">
+        <v>44355</v>
       </c>
       <c r="C3322" s="5" t="s">
         <v>3306</v>
       </c>
       <c r="D3322" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>572_08.06.2021</v>
+        <v>572_20210608</v>
       </c>
     </row>
     <row r="3323" spans="1:4">
@@ -64051,15 +64055,15 @@
       <c r="A3330" s="15">
         <v>580</v>
       </c>
-      <c r="B3330" s="15" t="s">
-        <v>3570</v>
+      <c r="B3330" s="29">
+        <v>44355</v>
       </c>
       <c r="C3330" s="5" t="s">
         <v>3314</v>
       </c>
       <c r="D3330" s="2" t="str">
         <f t="shared" si="51"/>
-        <v>580_08.06.2021</v>
+        <v>580_20210608</v>
       </c>
     </row>
     <row r="3331" spans="1:4">
@@ -64092,15 +64096,15 @@
       <c r="A3333" s="15">
         <v>583</v>
       </c>
-      <c r="B3333" s="15" t="s">
-        <v>3573</v>
+      <c r="B3333" s="29">
+        <v>44370</v>
       </c>
       <c r="C3333" s="5" t="s">
         <v>3317</v>
       </c>
       <c r="D3333" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>583_23.06.2021</v>
+        <v>583_20210623</v>
       </c>
     </row>
     <row r="3334" spans="1:4">
@@ -64289,15 +64293,15 @@
       <c r="A3348" s="15">
         <v>598</v>
       </c>
-      <c r="B3348" s="15" t="s">
-        <v>3573</v>
+      <c r="B3348" s="29">
+        <v>44370</v>
       </c>
       <c r="C3348" s="5" t="s">
         <v>3332</v>
       </c>
       <c r="D3348" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>598_23.06.2021</v>
+        <v>598_20210623</v>
       </c>
     </row>
     <row r="3349" spans="1:4">
@@ -64317,30 +64321,30 @@
       <c r="A3350" s="15">
         <v>600</v>
       </c>
-      <c r="B3350" s="15" t="s">
-        <v>3571</v>
+      <c r="B3350" s="29">
+        <v>44361</v>
       </c>
       <c r="C3350" s="5" t="s">
         <v>3334</v>
       </c>
       <c r="D3350" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>600_14.06.2021</v>
+        <v>600_20210614</v>
       </c>
     </row>
     <row r="3351" spans="1:4">
       <c r="A3351" s="15">
         <v>601</v>
       </c>
-      <c r="B3351" s="15" t="s">
-        <v>3572</v>
+      <c r="B3351" s="29">
+        <v>44349</v>
       </c>
       <c r="C3351" s="5" t="s">
         <v>3335</v>
       </c>
       <c r="D3351" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>601_02.06.2021</v>
+        <v>601_20210602</v>
       </c>
     </row>
     <row r="3352" spans="1:4">
@@ -64360,15 +64364,15 @@
       <c r="A3353" s="15">
         <v>603</v>
       </c>
-      <c r="B3353" s="15" t="s">
-        <v>3571</v>
+      <c r="B3353" s="29">
+        <v>44361</v>
       </c>
       <c r="C3353" s="5" t="s">
         <v>3337</v>
       </c>
       <c r="D3353" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>603_14.06.2021</v>
+        <v>603_20210614</v>
       </c>
     </row>
     <row r="3354" spans="1:4">
@@ -64388,15 +64392,15 @@
       <c r="A3355" s="15">
         <v>605</v>
       </c>
-      <c r="B3355" s="15" t="s">
-        <v>3571</v>
+      <c r="B3355" s="29">
+        <v>44361</v>
       </c>
       <c r="C3355" s="5" t="s">
         <v>3339</v>
       </c>
       <c r="D3355" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>605_14.06.2021</v>
+        <v>605_20210614</v>
       </c>
     </row>
     <row r="3356" spans="1:4">
@@ -64416,60 +64420,60 @@
       <c r="A3357" s="15">
         <v>607</v>
       </c>
-      <c r="B3357" s="15" t="s">
-        <v>3573</v>
+      <c r="B3357" s="29">
+        <v>44370</v>
       </c>
       <c r="C3357" s="5" t="s">
         <v>3341</v>
       </c>
       <c r="D3357" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>607_23.06.2021</v>
+        <v>607_20210623</v>
       </c>
     </row>
     <row r="3358" spans="1:4">
       <c r="A3358" s="15">
         <v>608</v>
       </c>
-      <c r="B3358" s="15" t="s">
-        <v>3573</v>
+      <c r="B3358" s="29">
+        <v>44370</v>
       </c>
       <c r="C3358" s="5" t="s">
         <v>3342</v>
       </c>
       <c r="D3358" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>608_23.06.2021</v>
+        <v>608_20210623</v>
       </c>
     </row>
     <row r="3359" spans="1:4">
       <c r="A3359" s="15">
         <v>609</v>
       </c>
-      <c r="B3359" s="15" t="s">
-        <v>3571</v>
+      <c r="B3359" s="29">
+        <v>44361</v>
       </c>
       <c r="C3359" s="5" t="s">
         <v>3343</v>
       </c>
       <c r="D3359" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>609_14.06.2021</v>
+        <v>609_20210614</v>
       </c>
     </row>
     <row r="3360" spans="1:4">
       <c r="A3360" s="15">
         <v>610</v>
       </c>
-      <c r="B3360" s="15" t="s">
-        <v>3571</v>
+      <c r="B3360" s="29">
+        <v>44361</v>
       </c>
       <c r="C3360" s="5" t="s">
         <v>3344</v>
       </c>
       <c r="D3360" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>610_14.06.2021</v>
+        <v>610_20210614</v>
       </c>
     </row>
     <row r="3361" spans="1:4">
@@ -64762,15 +64766,15 @@
       <c r="A3383" s="15">
         <v>633</v>
       </c>
-      <c r="B3383" s="15" t="s">
-        <v>3570</v>
+      <c r="B3383" s="29">
+        <v>44355</v>
       </c>
       <c r="C3383" s="5" t="s">
         <v>3367</v>
       </c>
       <c r="D3383" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>633_08.06.2021</v>
+        <v>633_20210608</v>
       </c>
     </row>
     <row r="3384" spans="1:4">
@@ -64816,15 +64820,15 @@
       <c r="A3387" s="15">
         <v>637</v>
       </c>
-      <c r="B3387" s="15" t="s">
-        <v>3569</v>
+      <c r="B3387" s="29">
+        <v>44354</v>
       </c>
       <c r="C3387" s="5" t="s">
         <v>3371</v>
       </c>
       <c r="D3387" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>637_07.06.2021</v>
+        <v>637_20210607</v>
       </c>
     </row>
     <row r="3388" spans="1:4">
@@ -64844,30 +64848,30 @@
       <c r="A3389" s="15">
         <v>639</v>
       </c>
-      <c r="B3389" s="15" t="s">
-        <v>3574</v>
+      <c r="B3389" s="29">
+        <v>44344</v>
       </c>
       <c r="C3389" s="5" t="s">
         <v>3373</v>
       </c>
       <c r="D3389" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>639_28.05.2021</v>
+        <v>639_20210528</v>
       </c>
     </row>
     <row r="3390" spans="1:4">
       <c r="A3390" s="15">
         <v>640</v>
       </c>
-      <c r="B3390" s="15" t="s">
-        <v>3570</v>
+      <c r="B3390" s="29">
+        <v>44355</v>
       </c>
       <c r="C3390" s="5" t="s">
         <v>3374</v>
       </c>
       <c r="D3390" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>640_08.06.2021</v>
+        <v>640_20210608</v>
       </c>
     </row>
     <row r="3391" spans="1:4">
@@ -64900,15 +64904,15 @@
       <c r="A3393" s="15">
         <v>643</v>
       </c>
-      <c r="B3393" s="15" t="s">
-        <v>3574</v>
+      <c r="B3393" s="29">
+        <v>44344</v>
       </c>
       <c r="C3393" s="5" t="s">
         <v>3377</v>
       </c>
       <c r="D3393" s="2" t="str">
         <f t="shared" si="52"/>
-        <v>643_28.05.2021</v>
+        <v>643_20210528</v>
       </c>
     </row>
     <row r="3394" spans="1:4">
@@ -65760,45 +65764,45 @@
       <c r="A3459" s="15">
         <v>709</v>
       </c>
-      <c r="B3459" s="15" t="s">
-        <v>3575</v>
+      <c r="B3459" s="29">
+        <v>44421</v>
       </c>
       <c r="C3459" s="5" t="s">
         <v>3443</v>
       </c>
       <c r="D3459" s="2" t="str">
         <f t="shared" ref="D3459:D3522" si="54">A3459&amp;"_"&amp;TEXT(B3459,"aaaammjj")</f>
-        <v>709_13.08.2021</v>
+        <v>709_20210813</v>
       </c>
     </row>
     <row r="3460" spans="1:4">
       <c r="A3460" s="15">
         <v>710</v>
       </c>
-      <c r="B3460" s="15" t="s">
-        <v>3576</v>
+      <c r="B3460" s="29">
+        <v>44439</v>
       </c>
       <c r="C3460" s="5" t="s">
         <v>3444</v>
       </c>
       <c r="D3460" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>710_31.08.2021</v>
+        <v>710_20210831</v>
       </c>
     </row>
     <row r="3461" spans="1:4">
       <c r="A3461" s="15">
         <v>711</v>
       </c>
-      <c r="B3461" s="15" t="s">
-        <v>3577</v>
+      <c r="B3461" s="29">
+        <v>44424</v>
       </c>
       <c r="C3461" s="5" t="s">
         <v>3445</v>
       </c>
       <c r="D3461" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>711_16.08.2021</v>
+        <v>711_20210816</v>
       </c>
     </row>
     <row r="3462" spans="1:4">
@@ -65883,30 +65887,30 @@
       <c r="A3468" s="15">
         <v>718</v>
       </c>
-      <c r="B3468" s="15" t="s">
-        <v>3578</v>
+      <c r="B3468" s="29">
+        <v>44426</v>
       </c>
       <c r="C3468" s="5" t="s">
         <v>3452</v>
       </c>
       <c r="D3468" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>718_18.08.2021</v>
+        <v>718_20210818</v>
       </c>
     </row>
     <row r="3469" spans="1:4">
       <c r="A3469" s="15">
         <v>719</v>
       </c>
-      <c r="B3469" s="15" t="s">
-        <v>3579</v>
+      <c r="B3469" s="29">
+        <v>44446</v>
       </c>
       <c r="C3469" s="5" t="s">
         <v>3453</v>
       </c>
       <c r="D3469" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>719_07.09.2021</v>
+        <v>719_20210907</v>
       </c>
     </row>
     <row r="3470" spans="1:4">
@@ -65926,30 +65930,30 @@
       <c r="A3471" s="15">
         <v>721</v>
       </c>
-      <c r="B3471" s="15" t="s">
-        <v>3578</v>
+      <c r="B3471" s="29">
+        <v>44426</v>
       </c>
       <c r="C3471" s="5" t="s">
         <v>3455</v>
       </c>
       <c r="D3471" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>721_18.08.2021</v>
+        <v>721_20210818</v>
       </c>
     </row>
     <row r="3472" spans="1:4">
       <c r="A3472" s="15">
         <v>722</v>
       </c>
-      <c r="B3472" s="15" t="s">
-        <v>3580</v>
+      <c r="B3472" s="29">
+        <v>44431</v>
       </c>
       <c r="C3472" s="5" t="s">
         <v>3456</v>
       </c>
       <c r="D3472" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>722_23.08.2021</v>
+        <v>722_20210823</v>
       </c>
     </row>
     <row r="3473" spans="1:4">
@@ -65969,30 +65973,30 @@
       <c r="A3474" s="15">
         <v>724</v>
       </c>
-      <c r="B3474" s="15" t="s">
-        <v>3578</v>
+      <c r="B3474" s="29">
+        <v>44426</v>
       </c>
       <c r="C3474" s="5" t="s">
         <v>3458</v>
       </c>
       <c r="D3474" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>724_18.08.2021</v>
+        <v>724_20210818</v>
       </c>
     </row>
     <row r="3475" spans="1:4">
       <c r="A3475" s="15">
         <v>725</v>
       </c>
-      <c r="B3475" s="15" t="s">
-        <v>3575</v>
+      <c r="B3475" s="29">
+        <v>44421</v>
       </c>
       <c r="C3475" s="5" t="s">
         <v>3459</v>
       </c>
       <c r="D3475" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>725_13.08.2021</v>
+        <v>725_20210813</v>
       </c>
     </row>
     <row r="3476" spans="1:4">
@@ -66012,45 +66016,45 @@
       <c r="A3477" s="15">
         <v>727</v>
       </c>
-      <c r="B3477" s="15" t="s">
-        <v>3580</v>
+      <c r="B3477" s="29">
+        <v>44431</v>
       </c>
       <c r="C3477" s="5" t="s">
         <v>3461</v>
       </c>
       <c r="D3477" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>727_23.08.2021</v>
+        <v>727_20210823</v>
       </c>
     </row>
     <row r="3478" spans="1:4">
       <c r="A3478" s="15">
         <v>728</v>
       </c>
-      <c r="B3478" s="15" t="s">
-        <v>3580</v>
+      <c r="B3478" s="29">
+        <v>44431</v>
       </c>
       <c r="C3478" s="5" t="s">
         <v>3462</v>
       </c>
       <c r="D3478" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>728_23.08.2021</v>
+        <v>728_20210823</v>
       </c>
     </row>
     <row r="3479" spans="1:4">
       <c r="A3479" s="15">
         <v>729</v>
       </c>
-      <c r="B3479" s="15" t="s">
-        <v>3581</v>
+      <c r="B3479" s="29">
+        <v>44435</v>
       </c>
       <c r="C3479" s="5" t="s">
         <v>3463</v>
       </c>
       <c r="D3479" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>729_27.08.2021</v>
+        <v>729_20210827</v>
       </c>
     </row>
     <row r="3480" spans="1:4">
@@ -66070,15 +66074,15 @@
       <c r="A3481" s="15">
         <v>731</v>
       </c>
-      <c r="B3481" s="15" t="s">
-        <v>3582</v>
+      <c r="B3481" s="29">
+        <v>44469</v>
       </c>
       <c r="C3481" s="5" t="s">
         <v>3465</v>
       </c>
       <c r="D3481" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>731_30.09.2021</v>
+        <v>731_20210930</v>
       </c>
     </row>
     <row r="3482" spans="1:4">
@@ -66098,30 +66102,30 @@
       <c r="A3483" s="15">
         <v>733</v>
       </c>
-      <c r="B3483" s="15" t="s">
-        <v>3581</v>
+      <c r="B3483" s="29">
+        <v>44435</v>
       </c>
       <c r="C3483" s="5" t="s">
         <v>3467</v>
       </c>
       <c r="D3483" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>733_27.08.2021</v>
+        <v>733_20210827</v>
       </c>
     </row>
     <row r="3484" spans="1:4">
       <c r="A3484" s="15">
         <v>734</v>
       </c>
-      <c r="B3484" s="15" t="s">
-        <v>3576</v>
+      <c r="B3484" s="29">
+        <v>44439</v>
       </c>
       <c r="C3484" s="5" t="s">
         <v>3468</v>
       </c>
       <c r="D3484" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>734_31.08.2021</v>
+        <v>734_20210831</v>
       </c>
     </row>
     <row r="3485" spans="1:4">
@@ -66154,45 +66158,45 @@
       <c r="A3487" s="15">
         <v>737</v>
       </c>
-      <c r="B3487" s="15" t="s">
-        <v>3583</v>
+      <c r="B3487" s="29">
+        <v>44440</v>
       </c>
       <c r="C3487" s="5" t="s">
         <v>3471</v>
       </c>
       <c r="D3487" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>737_01.09.2021</v>
+        <v>737_20210901</v>
       </c>
     </row>
     <row r="3488" spans="1:4">
       <c r="A3488" s="15">
         <v>738</v>
       </c>
-      <c r="B3488" s="15" t="s">
-        <v>3578</v>
+      <c r="B3488" s="29">
+        <v>44426</v>
       </c>
       <c r="C3488" s="5" t="s">
         <v>3472</v>
       </c>
       <c r="D3488" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>738_18.08.2021</v>
+        <v>738_20210818</v>
       </c>
     </row>
     <row r="3489" spans="1:4">
       <c r="A3489" s="15">
         <v>739</v>
       </c>
-      <c r="B3489" s="15" t="s">
-        <v>3584</v>
+      <c r="B3489" s="29">
+        <v>44428</v>
       </c>
       <c r="C3489" s="5" t="s">
         <v>3473</v>
       </c>
       <c r="D3489" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>739_20.08.2021</v>
+        <v>739_20210820</v>
       </c>
     </row>
     <row r="3490" spans="1:4">
@@ -66212,60 +66216,60 @@
       <c r="A3491" s="15">
         <v>741</v>
       </c>
-      <c r="B3491" s="15" t="s">
-        <v>3585</v>
+      <c r="B3491" s="29">
+        <v>44454</v>
       </c>
       <c r="C3491" s="5" t="s">
         <v>3475</v>
       </c>
       <c r="D3491" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>741_15.09.2021</v>
+        <v>741_20210915</v>
       </c>
     </row>
     <row r="3492" spans="1:4">
       <c r="A3492" s="15">
         <v>742</v>
       </c>
-      <c r="B3492" s="15" t="s">
-        <v>3585</v>
+      <c r="B3492" s="29">
+        <v>44454</v>
       </c>
       <c r="C3492" s="5" t="s">
         <v>3476</v>
       </c>
       <c r="D3492" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>742_15.09.2021</v>
+        <v>742_20210915</v>
       </c>
     </row>
     <row r="3493" spans="1:4">
       <c r="A3493" s="15">
         <v>743</v>
       </c>
-      <c r="B3493" s="15" t="s">
-        <v>3586</v>
+      <c r="B3493" s="29">
+        <v>44433</v>
       </c>
       <c r="C3493" s="5" t="s">
         <v>3477</v>
       </c>
       <c r="D3493" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>743_25.08.2021</v>
+        <v>743_20210825</v>
       </c>
     </row>
     <row r="3494" spans="1:4">
       <c r="A3494" s="15">
         <v>744</v>
       </c>
-      <c r="B3494" s="15" t="s">
-        <v>3583</v>
+      <c r="B3494" s="29">
+        <v>44440</v>
       </c>
       <c r="C3494" s="5" t="s">
         <v>3478</v>
       </c>
       <c r="D3494" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>744_01.09.2021</v>
+        <v>744_20210901</v>
       </c>
     </row>
     <row r="3495" spans="1:4">
@@ -66285,45 +66289,45 @@
       <c r="A3496" s="15">
         <v>746</v>
       </c>
-      <c r="B3496" s="15" t="s">
-        <v>3580</v>
+      <c r="B3496" s="29">
+        <v>44431</v>
       </c>
       <c r="C3496" s="5" t="s">
         <v>3480</v>
       </c>
       <c r="D3496" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>746_23.08.2021</v>
+        <v>746_20210823</v>
       </c>
     </row>
     <row r="3497" spans="1:4">
       <c r="A3497" s="15">
         <v>747</v>
       </c>
-      <c r="B3497" s="15" t="s">
-        <v>3587</v>
+      <c r="B3497" s="29">
+        <v>44456</v>
       </c>
       <c r="C3497" s="5" t="s">
         <v>3481</v>
       </c>
       <c r="D3497" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>747_17.09.2021</v>
+        <v>747_20210917</v>
       </c>
     </row>
     <row r="3498" spans="1:4">
       <c r="A3498" s="15">
         <v>748</v>
       </c>
-      <c r="B3498" s="15" t="s">
-        <v>3587</v>
+      <c r="B3498" s="29">
+        <v>44456</v>
       </c>
       <c r="C3498" s="5" t="s">
         <v>3482</v>
       </c>
       <c r="D3498" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>748_17.09.2021</v>
+        <v>748_20210917</v>
       </c>
     </row>
     <row r="3499" spans="1:4">
@@ -66343,15 +66347,15 @@
       <c r="A3500" s="15">
         <v>750</v>
       </c>
-      <c r="B3500" s="15" t="s">
-        <v>3581</v>
+      <c r="B3500" s="29">
+        <v>44435</v>
       </c>
       <c r="C3500" s="5" t="s">
         <v>3484</v>
       </c>
       <c r="D3500" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>750_27.08.2021</v>
+        <v>750_20210827</v>
       </c>
     </row>
     <row r="3501" spans="1:4">
@@ -66371,30 +66375,30 @@
       <c r="A3502" s="15">
         <v>752</v>
       </c>
-      <c r="B3502" s="15" t="s">
-        <v>3581</v>
+      <c r="B3502" s="29">
+        <v>44435</v>
       </c>
       <c r="C3502" s="5" t="s">
         <v>3486</v>
       </c>
       <c r="D3502" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>752_27.08.2021</v>
+        <v>752_20210827</v>
       </c>
     </row>
     <row r="3503" spans="1:4">
       <c r="A3503" s="5">
         <v>6</v>
       </c>
-      <c r="B3503" s="5" t="s">
-        <v>3587</v>
+      <c r="B3503" s="7">
+        <v>44456</v>
       </c>
       <c r="C3503" s="5" t="s">
         <v>3487</v>
       </c>
       <c r="D3503" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>6_17.09.2021</v>
+        <v>6_20210917</v>
       </c>
     </row>
     <row r="3504" spans="1:4">
@@ -66414,30 +66418,30 @@
       <c r="A3505" s="5">
         <v>11</v>
       </c>
-      <c r="B3505" s="5" t="s">
-        <v>3588</v>
+      <c r="B3505" s="7">
+        <v>44481</v>
       </c>
       <c r="C3505" s="5" t="s">
         <v>3489</v>
       </c>
       <c r="D3505" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>11_12.10.2021</v>
+        <v>11_20211012</v>
       </c>
     </row>
     <row r="3506" spans="1:4">
       <c r="A3506" s="5">
         <v>15</v>
       </c>
-      <c r="B3506" s="5" t="s">
-        <v>3589</v>
+      <c r="B3506" s="7">
+        <v>44467</v>
       </c>
       <c r="C3506" s="5" t="s">
         <v>3490</v>
       </c>
       <c r="D3506" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>15_28.09.2021</v>
+        <v>15_20210928</v>
       </c>
     </row>
     <row r="3507" spans="1:4">
@@ -66483,15 +66487,15 @@
       <c r="A3510" s="5">
         <v>35</v>
       </c>
-      <c r="B3510" s="5" t="s">
-        <v>3590</v>
+      <c r="B3510" s="7">
+        <v>44476</v>
       </c>
       <c r="C3510" s="5" t="s">
         <v>3494</v>
       </c>
       <c r="D3510" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>35_07.10.2021</v>
+        <v>35_20211007</v>
       </c>
     </row>
     <row r="3511" spans="1:4">
@@ -66511,15 +66515,15 @@
       <c r="A3512" s="5">
         <v>44</v>
       </c>
-      <c r="B3512" s="5" t="s">
-        <v>3589</v>
+      <c r="B3512" s="7">
+        <v>44467</v>
       </c>
       <c r="C3512" s="5" t="s">
         <v>3496</v>
       </c>
       <c r="D3512" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>44_28.09.2021</v>
+        <v>44_20210928</v>
       </c>
     </row>
     <row r="3513" spans="1:4">
@@ -66565,15 +66569,15 @@
       <c r="A3516" s="5">
         <v>88</v>
       </c>
-      <c r="B3516" s="5" t="s">
-        <v>3585</v>
+      <c r="B3516" s="7">
+        <v>44454</v>
       </c>
       <c r="C3516" s="5" t="s">
         <v>3500</v>
       </c>
       <c r="D3516" s="2" t="str">
         <f t="shared" si="54"/>
-        <v>88_15.09.2021</v>
+        <v>88_20210915</v>
       </c>
     </row>
     <row r="3517" spans="1:4">
@@ -66684,15 +66688,15 @@
       <c r="A3525" s="15">
         <v>756</v>
       </c>
-      <c r="B3525" s="15" t="s">
-        <v>3579</v>
+      <c r="B3525" s="29">
+        <v>44446</v>
       </c>
       <c r="C3525" s="5" t="s">
         <v>3509</v>
       </c>
       <c r="D3525" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>756_07.09.2021</v>
+        <v>756_20210907</v>
       </c>
     </row>
     <row r="3526" spans="1:4">
@@ -66712,15 +66716,15 @@
       <c r="A3527" s="15">
         <v>758</v>
       </c>
-      <c r="B3527" s="15" t="s">
-        <v>3590</v>
+      <c r="B3527" s="29">
+        <v>44476</v>
       </c>
       <c r="C3527" s="5" t="s">
         <v>3511</v>
       </c>
       <c r="D3527" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>758_07.10.2021</v>
+        <v>758_20211007</v>
       </c>
     </row>
     <row r="3528" spans="1:4">
@@ -67065,15 +67069,15 @@
       <c r="A3554" s="15">
         <v>785</v>
       </c>
-      <c r="B3554" s="15" t="s">
-        <v>3589</v>
+      <c r="B3554" s="29">
+        <v>44467</v>
       </c>
       <c r="C3554" s="5" t="s">
         <v>3538</v>
       </c>
       <c r="D3554" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>785_28.09.2021</v>
+        <v>785_20210928</v>
       </c>
     </row>
     <row r="3555" spans="1:4">
@@ -67093,60 +67097,60 @@
       <c r="A3556" s="15">
         <v>787</v>
       </c>
-      <c r="B3556" s="15" t="s">
-        <v>3591</v>
+      <c r="B3556" s="29">
+        <v>44461</v>
       </c>
       <c r="C3556" s="5" t="s">
         <v>3540</v>
       </c>
       <c r="D3556" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>787_22.09.2021</v>
+        <v>787_20210922</v>
       </c>
     </row>
     <row r="3557" spans="1:4">
       <c r="A3557" s="15">
         <v>788</v>
       </c>
-      <c r="B3557" s="15" t="s">
-        <v>3587</v>
+      <c r="B3557" s="29">
+        <v>44456</v>
       </c>
       <c r="C3557" s="5" t="s">
         <v>3541</v>
       </c>
       <c r="D3557" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>788_17.09.2021</v>
+        <v>788_20210917</v>
       </c>
     </row>
     <row r="3558" spans="1:4">
       <c r="A3558" s="15">
         <v>789</v>
       </c>
-      <c r="B3558" s="15" t="s">
-        <v>3588</v>
+      <c r="B3558" s="29">
+        <v>44481</v>
       </c>
       <c r="C3558" s="5" t="s">
         <v>3542</v>
       </c>
       <c r="D3558" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>789_12.10.2021</v>
+        <v>789_20211012</v>
       </c>
     </row>
     <row r="3559" spans="1:4">
       <c r="A3559" s="15">
         <v>790</v>
       </c>
-      <c r="B3559" s="15" t="s">
-        <v>3579</v>
+      <c r="B3559" s="29">
+        <v>44446</v>
       </c>
       <c r="C3559" s="5" t="s">
         <v>3543</v>
       </c>
       <c r="D3559" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>790_07.09.2021</v>
+        <v>790_20210907</v>
       </c>
     </row>
     <row r="3560" spans="1:4">
@@ -67166,30 +67170,30 @@
       <c r="A3561" s="15">
         <v>792</v>
       </c>
-      <c r="B3561" s="15" t="s">
-        <v>3585</v>
+      <c r="B3561" s="29">
+        <v>44454</v>
       </c>
       <c r="C3561" s="5" t="s">
         <v>3545</v>
       </c>
       <c r="D3561" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>792_15.09.2021</v>
+        <v>792_20210915</v>
       </c>
     </row>
     <row r="3562" spans="1:4">
       <c r="A3562" s="15">
         <v>793</v>
       </c>
-      <c r="B3562" s="15" t="s">
-        <v>3582</v>
+      <c r="B3562" s="29">
+        <v>44469</v>
       </c>
       <c r="C3562" s="5" t="s">
         <v>3546</v>
       </c>
       <c r="D3562" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>793_30.09.2021</v>
+        <v>793_20210930</v>
       </c>
     </row>
     <row r="3563" spans="1:4">
@@ -67261,30 +67265,30 @@
       <c r="A3568" s="15">
         <v>799</v>
       </c>
-      <c r="B3568" s="15" t="s">
-        <v>3592</v>
+      <c r="B3568" s="29">
+        <v>44470</v>
       </c>
       <c r="C3568" s="5" t="s">
         <v>3552</v>
       </c>
       <c r="D3568" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>799_01.10.2021</v>
+        <v>799_20211001</v>
       </c>
     </row>
     <row r="3569" spans="1:4">
       <c r="A3569" s="15">
         <v>800</v>
       </c>
-      <c r="B3569" s="15" t="s">
-        <v>3589</v>
+      <c r="B3569" s="29">
+        <v>44467</v>
       </c>
       <c r="C3569" s="5" t="s">
         <v>3553</v>
       </c>
       <c r="D3569" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>800_28.09.2021</v>
+        <v>800_20210928</v>
       </c>
     </row>
     <row r="3570" spans="1:4">
@@ -67317,30 +67321,30 @@
       <c r="A3572" s="15">
         <v>803</v>
       </c>
-      <c r="B3572" s="15" t="s">
-        <v>3588</v>
+      <c r="B3572" s="29">
+        <v>44481</v>
       </c>
       <c r="C3572" s="5" t="s">
         <v>3556</v>
       </c>
       <c r="D3572" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>803_12.10.2021</v>
+        <v>803_20211012</v>
       </c>
     </row>
     <row r="3573" spans="1:4">
       <c r="A3573" s="15">
         <v>804</v>
       </c>
-      <c r="B3573" s="15" t="s">
-        <v>3587</v>
+      <c r="B3573" s="29">
+        <v>44456</v>
       </c>
       <c r="C3573" s="5" t="s">
         <v>3557</v>
       </c>
       <c r="D3573" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>804_17.09.2021</v>
+        <v>804_20210917</v>
       </c>
     </row>
     <row r="3574" spans="1:4">
@@ -67386,45 +67390,45 @@
       <c r="A3577" s="15">
         <v>808</v>
       </c>
-      <c r="B3577" s="15" t="s">
-        <v>3589</v>
+      <c r="B3577" s="29">
+        <v>44467</v>
       </c>
       <c r="C3577" s="5" t="s">
         <v>3561</v>
       </c>
       <c r="D3577" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>808_28.09.2021</v>
+        <v>808_20210928</v>
       </c>
     </row>
     <row r="3578" spans="1:4">
       <c r="A3578" s="15">
         <v>809</v>
       </c>
-      <c r="B3578" s="15" t="s">
-        <v>3588</v>
+      <c r="B3578" s="29">
+        <v>44481</v>
       </c>
       <c r="C3578" s="5" t="s">
         <v>3562</v>
       </c>
       <c r="D3578" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>809_12.10.2021</v>
+        <v>809_20211012</v>
       </c>
     </row>
     <row r="3579" spans="1:4">
       <c r="A3579" s="15">
         <v>810</v>
       </c>
-      <c r="B3579" s="15" t="s">
-        <v>3593</v>
+      <c r="B3579" s="29">
+        <v>44482</v>
       </c>
       <c r="C3579" s="5" t="s">
         <v>3563</v>
       </c>
       <c r="D3579" s="2" t="str">
         <f t="shared" si="55"/>
-        <v>810_13.10.2021</v>
+        <v>810_20211013</v>
       </c>
     </row>
     <row r="3580" spans="1:4">

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\AMOLF-SHIMIZU Dropbox\AMF-PlateList\NOW_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B55CFE0-33A9-48D6-B76E-EEE0EA9BD2E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6F2E9-D24D-4BA2-8AD3-0FD436E504BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC8C4E8B-4FB7-442D-9920-551787604038}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
-  <si>
-    <t>STT2009A001</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>STT2009A002</t>
   </si>
@@ -522,6 +519,18 @@
   </si>
   <si>
     <t>STT2010A162</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>crossed</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>OLD_UI</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +549,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -554,7 +570,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -562,11 +578,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -575,6 +600,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -914,22 +945,23 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D162"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="str">
-        <f t="shared" ref="D1:D64" si="0">A1&amp;"_"&amp;TEXT(B1,"aaaammjj")</f>
-        <v>1_19000100</v>
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -940,10 +972,10 @@
         <v>44174</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D1:D64" si="0">A2&amp;"_"&amp;TEXT(B2,"aaaammjj")</f>
         <v>2_20201209</v>
       </c>
     </row>
@@ -953,7 +985,7 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
@@ -966,7 +998,7 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
@@ -981,7 +1013,7 @@
         <v>44200</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -994,7 +1026,7 @@
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1007,7 +1039,7 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1022,7 +1054,7 @@
         <v>44187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1037,7 +1069,7 @@
         <v>44211</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1052,7 +1084,7 @@
         <v>44203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1065,7 +1097,7 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1078,7 +1110,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1093,7 +1125,7 @@
         <v>44179</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1108,7 +1140,7 @@
         <v>44216</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1121,7 +1153,7 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1134,7 +1166,7 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1147,7 +1179,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1160,7 +1192,7 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1173,7 +1205,7 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1186,7 +1218,7 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1199,7 +1231,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1214,7 +1246,7 @@
         <v>44203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1229,7 +1261,7 @@
         <v>44216</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1244,7 +1276,7 @@
         <v>44187</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1257,7 +1289,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1272,7 +1304,7 @@
         <v>44200</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1285,7 +1317,7 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1300,7 +1332,7 @@
         <v>44179</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1313,7 +1345,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1326,7 +1358,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1339,7 +1371,7 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1352,7 +1384,7 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1365,7 +1397,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1378,7 +1410,7 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1391,7 +1423,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1404,7 +1436,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1417,7 +1449,7 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1432,7 +1464,7 @@
         <v>44167</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1445,7 +1477,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1460,7 +1492,7 @@
         <v>44179</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1473,7 +1505,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1488,7 +1520,7 @@
         <v>44169</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1503,7 +1535,7 @@
         <v>44187</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1518,7 +1550,7 @@
         <v>44189</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1533,7 +1565,7 @@
         <v>44195</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1546,7 +1578,7 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1559,7 +1591,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1574,7 +1606,7 @@
         <v>44172</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1587,7 +1619,7 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1600,7 +1632,7 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1613,7 +1645,7 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1626,7 +1658,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1639,7 +1671,7 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1654,7 +1686,7 @@
         <v>44209</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1669,7 +1701,7 @@
         <v>44209</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1684,7 +1716,7 @@
         <v>44216</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1697,7 +1729,7 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1710,7 +1742,7 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1725,7 +1757,7 @@
         <v>44161</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1740,7 +1772,7 @@
         <v>44169</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1785,7 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1766,7 +1798,7 @@
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1781,7 +1813,7 @@
         <v>44161</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1796,7 +1828,7 @@
         <v>44165</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -1809,7 +1841,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" ref="D65:D128" si="1">A65&amp;"_"&amp;TEXT(B65,"aaaammjj")</f>
@@ -1824,7 +1856,7 @@
         <v>44179</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1839,7 +1871,7 @@
         <v>44167</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1852,7 +1884,7 @@
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1867,7 +1899,7 @@
         <v>44154</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1882,7 +1914,7 @@
         <v>44172</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1897,7 +1929,7 @@
         <v>44169</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1910,7 +1942,7 @@
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1923,7 +1955,7 @@
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1936,7 +1968,7 @@
       </c>
       <c r="B74" s="2"/>
       <c r="C74" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1949,7 +1981,7 @@
       </c>
       <c r="B75" s="2"/>
       <c r="C75" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1964,7 +1996,7 @@
         <v>44204</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1977,7 +2009,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -1990,7 +2022,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2003,7 +2035,7 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2018,7 +2050,7 @@
         <v>44162</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2031,7 +2063,7 @@
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2044,7 +2076,7 @@
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2059,7 +2091,7 @@
         <v>44167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2074,7 +2106,7 @@
         <v>44165</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2089,7 +2121,7 @@
         <v>44179</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2104,7 +2136,7 @@
         <v>44218</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2119,7 +2151,7 @@
         <v>44179</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2132,7 +2164,7 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2145,7 +2177,7 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2160,7 +2192,7 @@
         <v>44174</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2175,7 +2207,7 @@
         <v>44182</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2190,7 +2222,7 @@
         <v>44174</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2203,7 +2235,7 @@
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2218,7 +2250,7 @@
         <v>44158</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2231,7 +2263,7 @@
       </c>
       <c r="B95" s="2"/>
       <c r="C95" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2244,7 +2276,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2257,7 +2289,7 @@
       </c>
       <c r="B97" s="2"/>
       <c r="C97" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2270,7 +2302,7 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2285,7 +2317,7 @@
         <v>44175</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2298,7 +2330,7 @@
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2311,7 +2343,7 @@
       </c>
       <c r="B101" s="2"/>
       <c r="C101" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2326,7 +2358,7 @@
         <v>44191</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2339,7 +2371,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2352,7 +2384,7 @@
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2365,7 +2397,7 @@
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2378,7 +2410,7 @@
       </c>
       <c r="B106" s="2"/>
       <c r="C106" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2391,7 +2423,7 @@
       </c>
       <c r="B107" s="2"/>
       <c r="C107" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2404,7 +2436,7 @@
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2417,7 +2449,7 @@
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2430,7 +2462,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2443,7 +2475,7 @@
       </c>
       <c r="B111" s="2"/>
       <c r="C111" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2458,7 +2490,7 @@
         <v>44174</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2471,7 +2503,7 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2484,7 +2516,7 @@
       </c>
       <c r="B114" s="2"/>
       <c r="C114" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2497,7 +2529,7 @@
       </c>
       <c r="B115" s="2"/>
       <c r="C115" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2510,7 +2542,7 @@
       </c>
       <c r="B116" s="2"/>
       <c r="C116" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2523,7 +2555,7 @@
       </c>
       <c r="B117" s="2"/>
       <c r="C117" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2536,7 +2568,7 @@
       </c>
       <c r="B118" s="2"/>
       <c r="C118" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2549,7 +2581,7 @@
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2562,7 +2594,7 @@
       </c>
       <c r="B120" s="2"/>
       <c r="C120" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2577,7 +2609,7 @@
         <v>44189</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2590,7 +2622,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2603,7 +2635,7 @@
       </c>
       <c r="B123" s="2"/>
       <c r="C123" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2618,7 +2650,7 @@
         <v>44172</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2633,7 +2665,7 @@
         <v>44187</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2648,7 +2680,7 @@
         <v>44179</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2663,7 +2695,7 @@
         <v>44174</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2676,7 +2708,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2691,7 +2723,7 @@
         <v>44169</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129" s="3" t="str">
         <f t="shared" ref="D129:D162" si="2">A129&amp;"_"&amp;TEXT(B129,"aaaammjj")</f>
@@ -2706,7 +2738,7 @@
         <v>44202</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2721,7 +2753,7 @@
         <v>44200</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2734,7 +2766,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2747,7 +2779,7 @@
       </c>
       <c r="B133" s="2"/>
       <c r="C133" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2762,7 +2794,7 @@
         <v>44162</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2777,7 +2809,7 @@
         <v>44209</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2790,7 +2822,7 @@
       </c>
       <c r="B136" s="2"/>
       <c r="C136" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2805,7 +2837,7 @@
         <v>44182</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2820,7 +2852,7 @@
         <v>44172</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2835,7 +2867,7 @@
         <v>44179</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2848,7 +2880,7 @@
       </c>
       <c r="B140" s="2"/>
       <c r="C140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2861,7 +2893,7 @@
       </c>
       <c r="B141" s="2"/>
       <c r="C141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2874,7 +2906,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2887,7 +2919,7 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2900,7 +2932,7 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2915,7 +2947,7 @@
         <v>44179</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2928,7 +2960,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2941,7 +2973,7 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2956,7 +2988,7 @@
         <v>44169</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2969,7 +3001,7 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2982,7 +3014,7 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2997,7 +3029,7 @@
         <v>44165</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3012,7 +3044,7 @@
         <v>44189</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3027,7 +3059,7 @@
         <v>44209</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3040,7 +3072,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D154" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3053,7 +3085,7 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3066,7 +3098,7 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3079,7 +3111,7 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3092,7 +3124,7 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3107,7 +3139,7 @@
         <v>44189</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3120,7 +3152,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3133,7 +3165,7 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3148,7 +3180,7 @@
         <v>44172</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162" s="3" t="str">
         <f t="shared" si="2"/>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coren\AMOLF-SHIMIZU Dropbox\AMF-PlateList\NOW_Experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF6F2E9-D24D-4BA2-8AD3-0FD436E504BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED82505-FD5D-42FE-9907-5C8CAD483EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC8C4E8B-4FB7-442D-9920-551787604038}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="557">
   <si>
     <t>STT2009A002</t>
   </si>
@@ -531,16 +531,1193 @@
   </si>
   <si>
     <t>OLD_UI</t>
+  </si>
+  <si>
+    <t>ELC2305A117</t>
+  </si>
+  <si>
+    <t>ELC2305A118</t>
+  </si>
+  <si>
+    <t>ELC2305A119</t>
+  </si>
+  <si>
+    <t>ELC2305A120</t>
+  </si>
+  <si>
+    <t>PAN2101A001</t>
+  </si>
+  <si>
+    <t>PAN2101A002</t>
+  </si>
+  <si>
+    <t>PAN2101A003</t>
+  </si>
+  <si>
+    <t>PAN2101A004</t>
+  </si>
+  <si>
+    <t>PAN2101A005</t>
+  </si>
+  <si>
+    <t>PAN2101A006</t>
+  </si>
+  <si>
+    <t>PAN2101A007</t>
+  </si>
+  <si>
+    <t>PAN2101A008</t>
+  </si>
+  <si>
+    <t>PAN2101A009</t>
+  </si>
+  <si>
+    <t>PAN2101A010</t>
+  </si>
+  <si>
+    <t>PAN2101A011</t>
+  </si>
+  <si>
+    <t>PAN2101A012</t>
+  </si>
+  <si>
+    <t>PAN2101A013</t>
+  </si>
+  <si>
+    <t>PAN2101A014</t>
+  </si>
+  <si>
+    <t>PAN2101A015</t>
+  </si>
+  <si>
+    <t>PAN2101A016</t>
+  </si>
+  <si>
+    <t>PAN2101A017</t>
+  </si>
+  <si>
+    <t>PAN2101A018</t>
+  </si>
+  <si>
+    <t>PAN2101A019</t>
+  </si>
+  <si>
+    <t>PAN2101A020</t>
+  </si>
+  <si>
+    <t>PAN2101A021</t>
+  </si>
+  <si>
+    <t>PAN2101A022</t>
+  </si>
+  <si>
+    <t>PAN2101A023</t>
+  </si>
+  <si>
+    <t>PAN2101A024</t>
+  </si>
+  <si>
+    <t>PAN2101A025</t>
+  </si>
+  <si>
+    <t>PAN2101A026</t>
+  </si>
+  <si>
+    <t>PAN2101A027</t>
+  </si>
+  <si>
+    <t>PAN2101A028</t>
+  </si>
+  <si>
+    <t>PAN2101A029</t>
+  </si>
+  <si>
+    <t>PAN2101A030</t>
+  </si>
+  <si>
+    <t>PAN2103A031</t>
+  </si>
+  <si>
+    <t>PAN2103A032</t>
+  </si>
+  <si>
+    <t>PAN2103A033</t>
+  </si>
+  <si>
+    <t>PAN2103A034</t>
+  </si>
+  <si>
+    <t>PAN2103A035</t>
+  </si>
+  <si>
+    <t>PAN2103A036</t>
+  </si>
+  <si>
+    <t>PAN2103A037</t>
+  </si>
+  <si>
+    <t>PAN2103A038</t>
+  </si>
+  <si>
+    <t>PAN2103A039</t>
+  </si>
+  <si>
+    <t>PAN2103A040</t>
+  </si>
+  <si>
+    <t>PAN2103A041</t>
+  </si>
+  <si>
+    <t>PAN2103A042</t>
+  </si>
+  <si>
+    <t>PAN2103A043</t>
+  </si>
+  <si>
+    <t>PAN2103A044</t>
+  </si>
+  <si>
+    <t>PAN2103A045</t>
+  </si>
+  <si>
+    <t>PAN2103A046</t>
+  </si>
+  <si>
+    <t>PAN2103A047</t>
+  </si>
+  <si>
+    <t>PAN2103A048</t>
+  </si>
+  <si>
+    <t>PAN2103A049</t>
+  </si>
+  <si>
+    <t>PAN2103A050</t>
+  </si>
+  <si>
+    <t>PAN2103A051</t>
+  </si>
+  <si>
+    <t>PAN2103A052</t>
+  </si>
+  <si>
+    <t>PAN2103A053</t>
+  </si>
+  <si>
+    <t>PAN2103A054</t>
+  </si>
+  <si>
+    <t>PAN2103A055</t>
+  </si>
+  <si>
+    <t>PAN2103A056</t>
+  </si>
+  <si>
+    <t>PAN2103A057</t>
+  </si>
+  <si>
+    <t>PAN2103A058</t>
+  </si>
+  <si>
+    <t>PAN2103A059</t>
+  </si>
+  <si>
+    <t>PAN2103A060</t>
+  </si>
+  <si>
+    <t>PAN2103A061</t>
+  </si>
+  <si>
+    <t>PAN2103A062</t>
+  </si>
+  <si>
+    <t>PAN2103A063</t>
+  </si>
+  <si>
+    <t>PAN2103A064</t>
+  </si>
+  <si>
+    <t>PAN2103A065</t>
+  </si>
+  <si>
+    <t>PAN2103A066</t>
+  </si>
+  <si>
+    <t>PAN2103A067</t>
+  </si>
+  <si>
+    <t>PAN2103A068</t>
+  </si>
+  <si>
+    <t>PAN2103A069</t>
+  </si>
+  <si>
+    <t>PAN2103A070</t>
+  </si>
+  <si>
+    <t>PAN2103A071</t>
+  </si>
+  <si>
+    <t>PAN2103A072</t>
+  </si>
+  <si>
+    <t>PAN2103A073</t>
+  </si>
+  <si>
+    <t>PAN2103A074</t>
+  </si>
+  <si>
+    <t>PAN2103A075</t>
+  </si>
+  <si>
+    <t>PAN2103A076</t>
+  </si>
+  <si>
+    <t>PAN2103A077</t>
+  </si>
+  <si>
+    <t>PAN2103A078</t>
+  </si>
+  <si>
+    <t>PAN2103A079</t>
+  </si>
+  <si>
+    <t>PAN2103A080</t>
+  </si>
+  <si>
+    <t>PAN2103A081</t>
+  </si>
+  <si>
+    <t>PAN2103A082</t>
+  </si>
+  <si>
+    <t>PAN2103A083</t>
+  </si>
+  <si>
+    <t>PAN2103A084</t>
+  </si>
+  <si>
+    <t>PAN2103A085</t>
+  </si>
+  <si>
+    <t>PAN2103A086</t>
+  </si>
+  <si>
+    <t>PAN2103A087</t>
+  </si>
+  <si>
+    <t>PAN2103A088</t>
+  </si>
+  <si>
+    <t>PAN2103A089</t>
+  </si>
+  <si>
+    <t>PAN2103A090</t>
+  </si>
+  <si>
+    <t>PAN2103A091</t>
+  </si>
+  <si>
+    <t>PAN2103A092</t>
+  </si>
+  <si>
+    <t>PAN2103A093</t>
+  </si>
+  <si>
+    <t>PAN2103A094</t>
+  </si>
+  <si>
+    <t>PAN2103A095</t>
+  </si>
+  <si>
+    <t>PAN2103A096</t>
+  </si>
+  <si>
+    <t>PAN2103A097</t>
+  </si>
+  <si>
+    <t>PAN2103A098</t>
+  </si>
+  <si>
+    <t>PAN2103A099</t>
+  </si>
+  <si>
+    <t>PAN2103A100</t>
+  </si>
+  <si>
+    <t>PAN2103A101</t>
+  </si>
+  <si>
+    <t>PAN2104A102</t>
+  </si>
+  <si>
+    <t>PAN2104A103</t>
+  </si>
+  <si>
+    <t>PAN2104A104</t>
+  </si>
+  <si>
+    <t>PAN2104A105</t>
+  </si>
+  <si>
+    <t>PAN2104A106</t>
+  </si>
+  <si>
+    <t>PAN2104A107</t>
+  </si>
+  <si>
+    <t>PAN2104A108</t>
+  </si>
+  <si>
+    <t>PAN2104A109</t>
+  </si>
+  <si>
+    <t>PAN2104A110</t>
+  </si>
+  <si>
+    <t>PAN2104A111</t>
+  </si>
+  <si>
+    <t>PAN2104A112</t>
+  </si>
+  <si>
+    <t>PAN2104A113</t>
+  </si>
+  <si>
+    <t>PAN2104A114</t>
+  </si>
+  <si>
+    <t>PAN2104A115</t>
+  </si>
+  <si>
+    <t>PAN2104A116</t>
+  </si>
+  <si>
+    <t>PAN2104A117</t>
+  </si>
+  <si>
+    <t>PAN2104A118</t>
+  </si>
+  <si>
+    <t>PAN2104A119</t>
+  </si>
+  <si>
+    <t>PAN2104A120</t>
+  </si>
+  <si>
+    <t>PAN2104A121</t>
+  </si>
+  <si>
+    <t>PAN2104A122</t>
+  </si>
+  <si>
+    <t>PAN2104A123</t>
+  </si>
+  <si>
+    <t>PAN2104A124</t>
+  </si>
+  <si>
+    <t>PAN2104A125</t>
+  </si>
+  <si>
+    <t>PAN2104A126</t>
+  </si>
+  <si>
+    <t>PAN2104A127</t>
+  </si>
+  <si>
+    <t>PAN2104A128</t>
+  </si>
+  <si>
+    <t>PAN2104A129</t>
+  </si>
+  <si>
+    <t>PAN2104A130</t>
+  </si>
+  <si>
+    <t>PAN2104A131</t>
+  </si>
+  <si>
+    <t>PAN2104A132</t>
+  </si>
+  <si>
+    <t>PAN2104A133</t>
+  </si>
+  <si>
+    <t>PAN2104A134</t>
+  </si>
+  <si>
+    <t>PAN2104A135</t>
+  </si>
+  <si>
+    <t>PAN2104A136</t>
+  </si>
+  <si>
+    <t>PAN2104A137</t>
+  </si>
+  <si>
+    <t>PAN2104A138</t>
+  </si>
+  <si>
+    <t>PAN2104A139</t>
+  </si>
+  <si>
+    <t>PAN2104A140</t>
+  </si>
+  <si>
+    <t>PAN2104A141</t>
+  </si>
+  <si>
+    <t>PAN2104A142</t>
+  </si>
+  <si>
+    <t>PAN2104A143</t>
+  </si>
+  <si>
+    <t>PAN2104A144</t>
+  </si>
+  <si>
+    <t>PAN2104A145</t>
+  </si>
+  <si>
+    <t>PAN2104A146</t>
+  </si>
+  <si>
+    <t>PAN2104A147</t>
+  </si>
+  <si>
+    <t>PAN2104A148</t>
+  </si>
+  <si>
+    <t>PAN2104A149</t>
+  </si>
+  <si>
+    <t>PAN2104A150</t>
+  </si>
+  <si>
+    <t>PAN2104A151</t>
+  </si>
+  <si>
+    <t>PAN2104A152</t>
+  </si>
+  <si>
+    <t>PAN2104A153</t>
+  </si>
+  <si>
+    <t>PAN2104A154</t>
+  </si>
+  <si>
+    <t>PAN2104A155</t>
+  </si>
+  <si>
+    <t>PAN2104A156</t>
+  </si>
+  <si>
+    <t>PAN2104A157</t>
+  </si>
+  <si>
+    <t>PAN2104A158</t>
+  </si>
+  <si>
+    <t>PAN2104A159</t>
+  </si>
+  <si>
+    <t>PAN2104A160</t>
+  </si>
+  <si>
+    <t>PAN2104A161</t>
+  </si>
+  <si>
+    <t>PAN2104A162</t>
+  </si>
+  <si>
+    <t>PAN2104A163</t>
+  </si>
+  <si>
+    <t>PAN2104A164</t>
+  </si>
+  <si>
+    <t>PAN2104A165</t>
+  </si>
+  <si>
+    <t>PAN2104A166</t>
+  </si>
+  <si>
+    <t>PAN2104A167</t>
+  </si>
+  <si>
+    <t>PAN2104A168</t>
+  </si>
+  <si>
+    <t>PAN2104A169</t>
+  </si>
+  <si>
+    <t>PAN2104A170</t>
+  </si>
+  <si>
+    <t>PAN2104A171</t>
+  </si>
+  <si>
+    <t>PAN2104A172</t>
+  </si>
+  <si>
+    <t>PAN2104A173</t>
+  </si>
+  <si>
+    <t>PAN2104A174</t>
+  </si>
+  <si>
+    <t>PAN2104A175</t>
+  </si>
+  <si>
+    <t>PAN2104A176</t>
+  </si>
+  <si>
+    <t>PAN2104A177</t>
+  </si>
+  <si>
+    <t>PAN2104A178</t>
+  </si>
+  <si>
+    <t>PAN2104A179</t>
+  </si>
+  <si>
+    <t>PAN2104A180</t>
+  </si>
+  <si>
+    <t>PAN2104A181</t>
+  </si>
+  <si>
+    <t>PAN2104A182</t>
+  </si>
+  <si>
+    <t>PAN2104A183</t>
+  </si>
+  <si>
+    <t>PAN2104A184</t>
+  </si>
+  <si>
+    <t>PAN2104A185</t>
+  </si>
+  <si>
+    <t>PAN2104A186</t>
+  </si>
+  <si>
+    <t>PAN2104A187</t>
+  </si>
+  <si>
+    <t>PAN2104A188</t>
+  </si>
+  <si>
+    <t>PAN2104A189</t>
+  </si>
+  <si>
+    <t>PAN2104A190</t>
+  </si>
+  <si>
+    <t>PAN2104A191</t>
+  </si>
+  <si>
+    <t>PAN2104A192</t>
+  </si>
+  <si>
+    <t>PAN2104A193</t>
+  </si>
+  <si>
+    <t>PAN2104A194</t>
+  </si>
+  <si>
+    <t>PAN2104A195</t>
+  </si>
+  <si>
+    <t>PAN2104A196</t>
+  </si>
+  <si>
+    <t>PAN2104A197</t>
+  </si>
+  <si>
+    <t>PAN2104A198</t>
+  </si>
+  <si>
+    <t>PAN2104A199</t>
+  </si>
+  <si>
+    <t>PAN2104A200</t>
+  </si>
+  <si>
+    <t>PAN2104A201</t>
+  </si>
+  <si>
+    <t>PAN2105A202</t>
+  </si>
+  <si>
+    <t>PAN2105A203</t>
+  </si>
+  <si>
+    <t>PAN2105A204</t>
+  </si>
+  <si>
+    <t>PAN2105A205</t>
+  </si>
+  <si>
+    <t>PAN2105A206</t>
+  </si>
+  <si>
+    <t>PAN2105A207</t>
+  </si>
+  <si>
+    <t>PAN2105A208</t>
+  </si>
+  <si>
+    <t>PAN2105A209</t>
+  </si>
+  <si>
+    <t>PAN2105A210</t>
+  </si>
+  <si>
+    <t>PAN2105A211</t>
+  </si>
+  <si>
+    <t>PAN2105A212</t>
+  </si>
+  <si>
+    <t>PAN2105A213</t>
+  </si>
+  <si>
+    <t>PAN2105A214</t>
+  </si>
+  <si>
+    <t>PAN2105A215</t>
+  </si>
+  <si>
+    <t>PAN2105A216</t>
+  </si>
+  <si>
+    <t>PAN2105A217</t>
+  </si>
+  <si>
+    <t>PAN2105A218</t>
+  </si>
+  <si>
+    <t>PAN2105A219</t>
+  </si>
+  <si>
+    <t>PAN2105A220</t>
+  </si>
+  <si>
+    <t>PAN2105A221</t>
+  </si>
+  <si>
+    <t>PAN2105A222</t>
+  </si>
+  <si>
+    <t>PAN2105A223</t>
+  </si>
+  <si>
+    <t>PAN2105A224</t>
+  </si>
+  <si>
+    <t>PAN2105A225</t>
+  </si>
+  <si>
+    <t>PAN2105A226</t>
+  </si>
+  <si>
+    <t>PAN2105A227</t>
+  </si>
+  <si>
+    <t>PAN2105A228</t>
+  </si>
+  <si>
+    <t>PAN2105A229</t>
+  </si>
+  <si>
+    <t>PAN2105A230</t>
+  </si>
+  <si>
+    <t>PAN2105A231</t>
+  </si>
+  <si>
+    <t>PAN2105A232</t>
+  </si>
+  <si>
+    <t>PAN2106A233</t>
+  </si>
+  <si>
+    <t>PAN2106A234</t>
+  </si>
+  <si>
+    <t>PAN2106A235</t>
+  </si>
+  <si>
+    <t>PAN2106A236</t>
+  </si>
+  <si>
+    <t>PAN2106A237</t>
+  </si>
+  <si>
+    <t>PAN2106A238</t>
+  </si>
+  <si>
+    <t>PAN2106A239</t>
+  </si>
+  <si>
+    <t>PAN2106A240</t>
+  </si>
+  <si>
+    <t>PAN2106A241</t>
+  </si>
+  <si>
+    <t>PAN2106A242</t>
+  </si>
+  <si>
+    <t>PAN2106A243</t>
+  </si>
+  <si>
+    <t>PAN2106A244</t>
+  </si>
+  <si>
+    <t>PAN2106A245</t>
+  </si>
+  <si>
+    <t>PAN2106A246</t>
+  </si>
+  <si>
+    <t>PAN2106A247</t>
+  </si>
+  <si>
+    <t>PAN2106A248</t>
+  </si>
+  <si>
+    <t>PAN2106A249</t>
+  </si>
+  <si>
+    <t>PAN2106A250</t>
+  </si>
+  <si>
+    <t>PAN2106A251</t>
+  </si>
+  <si>
+    <t>PAN2106A252</t>
+  </si>
+  <si>
+    <t>PAN2106A253</t>
+  </si>
+  <si>
+    <t>PAN2106A254</t>
+  </si>
+  <si>
+    <t>PAN2106A255</t>
+  </si>
+  <si>
+    <t>PAN2106A256</t>
+  </si>
+  <si>
+    <t>PAN2106A257</t>
+  </si>
+  <si>
+    <t>PAN2106A258</t>
+  </si>
+  <si>
+    <t>PAN2106A259</t>
+  </si>
+  <si>
+    <t>PAN2106A260</t>
+  </si>
+  <si>
+    <t>PAN2106A261</t>
+  </si>
+  <si>
+    <t>PAN2106A262</t>
+  </si>
+  <si>
+    <t>PAN2106A263</t>
+  </si>
+  <si>
+    <t>PAN2106A264</t>
+  </si>
+  <si>
+    <t>PAN2106A265</t>
+  </si>
+  <si>
+    <t>PAN2106A266</t>
+  </si>
+  <si>
+    <t>PAN2106A267</t>
+  </si>
+  <si>
+    <t>PAN2106A268</t>
+  </si>
+  <si>
+    <t>PAN2106A269</t>
+  </si>
+  <si>
+    <t>PAN2106A270</t>
+  </si>
+  <si>
+    <t>PAN2106A271</t>
+  </si>
+  <si>
+    <t>PAN2106A272</t>
+  </si>
+  <si>
+    <t>PAN2106A273</t>
+  </si>
+  <si>
+    <t>PAN2106A274</t>
+  </si>
+  <si>
+    <t>PAN2106A275</t>
+  </si>
+  <si>
+    <t>PAN2107A276</t>
+  </si>
+  <si>
+    <t>PAN2107A277</t>
+  </si>
+  <si>
+    <t>PAN2107A278</t>
+  </si>
+  <si>
+    <t>PAN2107A279</t>
+  </si>
+  <si>
+    <t>PAN2107A280</t>
+  </si>
+  <si>
+    <t>PAN2107A281</t>
+  </si>
+  <si>
+    <t>PAN2107A282</t>
+  </si>
+  <si>
+    <t>PAN2107A283</t>
+  </si>
+  <si>
+    <t>PAN2107A284</t>
+  </si>
+  <si>
+    <t>PAN2107A285</t>
+  </si>
+  <si>
+    <t>PAN2107A286</t>
+  </si>
+  <si>
+    <t>PAN2107A287</t>
+  </si>
+  <si>
+    <t>PAN2107A288</t>
+  </si>
+  <si>
+    <t>PAN2107A289</t>
+  </si>
+  <si>
+    <t>PAN2107A290</t>
+  </si>
+  <si>
+    <t>PAN2107A291</t>
+  </si>
+  <si>
+    <t>PAN2107A292</t>
+  </si>
+  <si>
+    <t>PAN2107A293</t>
+  </si>
+  <si>
+    <t>PAN2107A294</t>
+  </si>
+  <si>
+    <t>PAN2107A295</t>
+  </si>
+  <si>
+    <t>PAN2107A296</t>
+  </si>
+  <si>
+    <t>PAN2107A297</t>
+  </si>
+  <si>
+    <t>PAN2107A298</t>
+  </si>
+  <si>
+    <t>PAN2107A299</t>
+  </si>
+  <si>
+    <t>PAN2107A300</t>
+  </si>
+  <si>
+    <t>PAN2107A301</t>
+  </si>
+  <si>
+    <t>PAN2107A302</t>
+  </si>
+  <si>
+    <t>PAN2107A303</t>
+  </si>
+  <si>
+    <t>PAN2107A304</t>
+  </si>
+  <si>
+    <t>PAN2107A305</t>
+  </si>
+  <si>
+    <t>PAN2107A306</t>
+  </si>
+  <si>
+    <t>PAN2107A307</t>
+  </si>
+  <si>
+    <t>PAN2107A308</t>
+  </si>
+  <si>
+    <t>PAN2107A309</t>
+  </si>
+  <si>
+    <t>PAN2107A310</t>
+  </si>
+  <si>
+    <t>PAN2107A311</t>
+  </si>
+  <si>
+    <t>PAN2107A312</t>
+  </si>
+  <si>
+    <t>PAN2107A313</t>
+  </si>
+  <si>
+    <t>PAN2107A314</t>
+  </si>
+  <si>
+    <t>PAN2107A315</t>
+  </si>
+  <si>
+    <t>PAN2107A316</t>
+  </si>
+  <si>
+    <t>PAN2107A317</t>
+  </si>
+  <si>
+    <t>PAN2107A318</t>
+  </si>
+  <si>
+    <t>PAN2107A319</t>
+  </si>
+  <si>
+    <t>PAN2107A320</t>
+  </si>
+  <si>
+    <t>PAN2107A321</t>
+  </si>
+  <si>
+    <t>PAN2107A322</t>
+  </si>
+  <si>
+    <t>PAN2107A323</t>
+  </si>
+  <si>
+    <t>PAN2107A324</t>
+  </si>
+  <si>
+    <t>PAN2107A325</t>
+  </si>
+  <si>
+    <t>PAN2107A326</t>
+  </si>
+  <si>
+    <t>PAN2107A327</t>
+  </si>
+  <si>
+    <t>PAN2108A328</t>
+  </si>
+  <si>
+    <t>PAN2108A329</t>
+  </si>
+  <si>
+    <t>PAN2108A330</t>
+  </si>
+  <si>
+    <t>PAN2108A331</t>
+  </si>
+  <si>
+    <t>PAN2108A332</t>
+  </si>
+  <si>
+    <t>PAN2108A333</t>
+  </si>
+  <si>
+    <t>PAN2108A334</t>
+  </si>
+  <si>
+    <t>PAN2108A335</t>
+  </si>
+  <si>
+    <t>PAN2108A336</t>
+  </si>
+  <si>
+    <t>PAN2108A337</t>
+  </si>
+  <si>
+    <t>PAN2108A338</t>
+  </si>
+  <si>
+    <t>PAN2108A339</t>
+  </si>
+  <si>
+    <t>PAN2108A340</t>
+  </si>
+  <si>
+    <t>PAN2108A341</t>
+  </si>
+  <si>
+    <t>PAN2108A342</t>
+  </si>
+  <si>
+    <t>PAN2108A343</t>
+  </si>
+  <si>
+    <t>PAN2108A344</t>
+  </si>
+  <si>
+    <t>PAN2108A345</t>
+  </si>
+  <si>
+    <t>PAN2108A346</t>
+  </si>
+  <si>
+    <t>PAN2108A347</t>
+  </si>
+  <si>
+    <t>PAN2108A348</t>
+  </si>
+  <si>
+    <t>PAN2108A349</t>
+  </si>
+  <si>
+    <t>PAN2108A350</t>
+  </si>
+  <si>
+    <t>PAN2108A351</t>
+  </si>
+  <si>
+    <t>PAN2108A352</t>
+  </si>
+  <si>
+    <t>PAN2108A353</t>
+  </si>
+  <si>
+    <t>PAN2108A354</t>
+  </si>
+  <si>
+    <t>PAN2108A355</t>
+  </si>
+  <si>
+    <t>PAN2108A356</t>
+  </si>
+  <si>
+    <t>PAN2108A357</t>
+  </si>
+  <si>
+    <t>PAN2108A358</t>
+  </si>
+  <si>
+    <t>PAN2108A359</t>
+  </si>
+  <si>
+    <t>PAN2108A360</t>
+  </si>
+  <si>
+    <t>PAN2108A361</t>
+  </si>
+  <si>
+    <t>PAN2108A362</t>
+  </si>
+  <si>
+    <t>PAN2108A363</t>
+  </si>
+  <si>
+    <t>PAN2108A364</t>
+  </si>
+  <si>
+    <t>PAN2108A365</t>
+  </si>
+  <si>
+    <t>PAN2108A366</t>
+  </si>
+  <si>
+    <t>PAN2108A367</t>
+  </si>
+  <si>
+    <t>PAN2108A368</t>
+  </si>
+  <si>
+    <t>PAN2108A369</t>
+  </si>
+  <si>
+    <t>PAN2108A370</t>
+  </si>
+  <si>
+    <t>PAN2108A371</t>
+  </si>
+  <si>
+    <t>PAN2108A372</t>
+  </si>
+  <si>
+    <t>PAN2108A373</t>
+  </si>
+  <si>
+    <t>PAN2108A374</t>
+  </si>
+  <si>
+    <t>PAN2108A375</t>
+  </si>
+  <si>
+    <t>PAN2108A376</t>
+  </si>
+  <si>
+    <t>PAN2108A377</t>
+  </si>
+  <si>
+    <t>PAN2108A378</t>
+  </si>
+  <si>
+    <t>PAN2108A379</t>
+  </si>
+  <si>
+    <t>PAN2108A380</t>
+  </si>
+  <si>
+    <t>PAN2108A381</t>
+  </si>
+  <si>
+    <t>PAN2108A382</t>
+  </si>
+  <si>
+    <t>PAN2108A383</t>
+  </si>
+  <si>
+    <t>PAN2108A384</t>
+  </si>
+  <si>
+    <t>PAN2108A385</t>
+  </si>
+  <si>
+    <t>PAN2108A386</t>
+  </si>
+  <si>
+    <t>PAN2108A387</t>
+  </si>
+  <si>
+    <t>STT2009A001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,6 +1737,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -591,7 +1773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -607,6 +1789,27 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,10 +2145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBFD47E-7334-4704-AE23-E0C899B1ACF1}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D554"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" topLeftCell="A546" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D554"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -966,2224 +2169,7492 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44174</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45076</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f t="shared" ref="D1:D64" si="0">A2&amp;"_"&amp;TEXT(B2,"aaaammjj")</f>
-        <v>2_20201209</v>
+        <f t="shared" ref="D2:D65" si="0">A2&amp;"_"&amp;TEXT(B2,"aaaammjj")</f>
+        <v>116_20230530</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45065</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3_19000100</v>
+        <v>117_20230519</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45062</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4_19000100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2">
-        <v>44200</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>118_20230516</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
+        <v>119</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45076</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>5_20210104</v>
+        <v>119_20230530</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2"/>
+      <c r="A6" s="9">
+        <v>445</v>
+      </c>
+      <c r="B6" s="9"/>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>169</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6_19000100</v>
+        <v>445_19000100</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2"/>
+      <c r="A7" s="9">
+        <v>446</v>
+      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>170</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>7_19000100</v>
+        <v>446_19000100</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2">
-        <v>44187</v>
-      </c>
+      <c r="A8" s="9">
+        <v>447</v>
+      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>171</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>8_20201222</v>
+        <v>447_19000100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2">
-        <v>44211</v>
-      </c>
+      <c r="A9" s="9">
+        <v>448</v>
+      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>172</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>9_20210115</v>
+        <v>448_19000100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44203</v>
-      </c>
+      <c r="A10" s="9">
+        <v>449</v>
+      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>173</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>10_20210107</v>
+        <v>449_19000100</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2"/>
+      <c r="A11" s="9">
+        <v>450</v>
+      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>11_19000100</v>
+        <v>450_19000100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2"/>
+      <c r="A12" s="9">
+        <v>451</v>
+      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>175</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>12_19000100</v>
+        <v>451_19000100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A13" s="9">
+        <v>452</v>
+      </c>
+      <c r="B13" s="9"/>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>13_20201214</v>
+        <v>452_19000100</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2">
-        <v>44216</v>
-      </c>
+      <c r="A14" s="9">
+        <v>453</v>
+      </c>
+      <c r="B14" s="9"/>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>14_20210120</v>
+        <v>453_19000100</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2"/>
+      <c r="A15" s="9">
+        <v>454</v>
+      </c>
+      <c r="B15" s="9"/>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>15_19000100</v>
+        <v>454_19000100</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2"/>
+      <c r="A16" s="9">
+        <v>455</v>
+      </c>
+      <c r="B16" s="9"/>
       <c r="C16" s="1" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>16_19000100</v>
+        <v>455_19000100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2"/>
+      <c r="A17" s="9">
+        <v>456</v>
+      </c>
+      <c r="B17" s="9"/>
       <c r="C17" s="1" t="s">
-        <v>15</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>17_19000100</v>
+        <v>456_19000100</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2"/>
+      <c r="A18" s="9">
+        <v>457</v>
+      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>18_19000100</v>
+        <v>457_19000100</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2"/>
+      <c r="A19" s="9">
+        <v>458</v>
+      </c>
+      <c r="B19" s="10">
+        <v>44300</v>
+      </c>
       <c r="C19" s="1" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>19_19000100</v>
+        <v>458_20210414</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2"/>
+      <c r="A20" s="9">
+        <v>459</v>
+      </c>
+      <c r="B20" s="9"/>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>20_19000100</v>
+        <v>459_19000100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2"/>
+      <c r="A21" s="9">
+        <v>460</v>
+      </c>
+      <c r="B21" s="11">
+        <v>44300</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>184</v>
       </c>
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>21_19000100</v>
+        <v>460_20210414</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2">
-        <v>44203</v>
-      </c>
+      <c r="A22" s="9">
+        <v>461</v>
+      </c>
+      <c r="B22" s="9"/>
       <c r="C22" s="1" t="s">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>22_20210107</v>
+        <v>461_19000100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44216</v>
-      </c>
+      <c r="A23" s="9">
+        <v>462</v>
+      </c>
+      <c r="B23" s="9"/>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>23_20210120</v>
+        <v>462_19000100</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44187</v>
-      </c>
+      <c r="A24" s="9">
+        <v>463</v>
+      </c>
+      <c r="B24" s="9"/>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>24_20201222</v>
+        <v>463_19000100</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2"/>
+      <c r="A25" s="9">
+        <v>464</v>
+      </c>
+      <c r="B25" s="9"/>
       <c r="C25" s="1" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>25_19000100</v>
+        <v>464_19000100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2">
-        <v>44200</v>
-      </c>
+      <c r="A26" s="9">
+        <v>465</v>
+      </c>
+      <c r="B26" s="9"/>
       <c r="C26" s="1" t="s">
-        <v>24</v>
+        <v>189</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>26_20210104</v>
+        <v>465_19000100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2"/>
+      <c r="A27" s="9">
+        <v>466</v>
+      </c>
+      <c r="B27" s="9"/>
       <c r="C27" s="1" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>27_19000100</v>
+        <v>466_19000100</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A28" s="9">
+        <v>467</v>
+      </c>
+      <c r="B28" s="9"/>
       <c r="C28" s="1" t="s">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>28_20201214</v>
+        <v>467_19000100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2"/>
+      <c r="A29" s="9">
+        <v>468</v>
+      </c>
+      <c r="B29" s="9"/>
       <c r="C29" s="1" t="s">
-        <v>27</v>
+        <v>192</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>29_19000100</v>
+        <v>468_19000100</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2"/>
+      <c r="A30" s="9">
+        <v>469</v>
+      </c>
+      <c r="B30" s="9"/>
       <c r="C30" s="1" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>30_19000100</v>
+        <v>469_19000100</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2"/>
+      <c r="A31" s="9">
+        <v>470</v>
+      </c>
+      <c r="B31" s="9"/>
       <c r="C31" s="1" t="s">
-        <v>29</v>
+        <v>194</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>31_19000100</v>
+        <v>470_19000100</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="2"/>
+      <c r="A32" s="9">
+        <v>471</v>
+      </c>
+      <c r="B32" s="11">
+        <v>44300</v>
+      </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>195</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>32_19000100</v>
+        <v>471_20210414</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" s="2"/>
+      <c r="A33" s="9">
+        <v>472</v>
+      </c>
+      <c r="B33" s="9"/>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>33_19000100</v>
+        <v>472_19000100</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" s="2"/>
+      <c r="A34" s="9">
+        <v>473</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="1" t="s">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>34_19000100</v>
+        <v>473_19000100</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="2"/>
+      <c r="A35" s="9">
+        <v>474</v>
+      </c>
+      <c r="B35" s="9"/>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>35_19000100</v>
+        <v>474_19000100</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2"/>
+      <c r="A36" s="9">
+        <v>475</v>
+      </c>
+      <c r="B36" s="9"/>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>36_19000100</v>
+        <v>475_19000100</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" s="2"/>
+      <c r="A37" s="9">
+        <v>476</v>
+      </c>
+      <c r="B37" s="9"/>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>200</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>37_19000100</v>
+        <v>476_19000100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>38</v>
-      </c>
-      <c r="B38" s="2">
-        <v>44167</v>
-      </c>
+      <c r="A38" s="9">
+        <v>477</v>
+      </c>
+      <c r="B38" s="9"/>
       <c r="C38" s="1" t="s">
-        <v>36</v>
+        <v>201</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>38_20201202</v>
+        <v>477_19000100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>39</v>
-      </c>
-      <c r="B39" s="2"/>
+      <c r="A39" s="9">
+        <v>478</v>
+      </c>
+      <c r="B39" s="9"/>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>202</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>39_19000100</v>
+        <v>478_19000100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>40</v>
-      </c>
-      <c r="B40" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A40" s="9">
+        <v>479</v>
+      </c>
+      <c r="B40" s="9"/>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>203</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>40_20201214</v>
+        <v>479_19000100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" s="2"/>
+      <c r="A41" s="9">
+        <v>480</v>
+      </c>
+      <c r="B41" s="9"/>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>41_19000100</v>
+        <v>480_19000100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>42</v>
-      </c>
-      <c r="B42" s="2">
-        <v>44169</v>
-      </c>
+      <c r="A42" s="9">
+        <v>481</v>
+      </c>
+      <c r="B42" s="9"/>
       <c r="C42" s="1" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>42_20201204</v>
+        <v>481_19000100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>43</v>
-      </c>
-      <c r="B43" s="2">
-        <v>44187</v>
-      </c>
+      <c r="A43" s="9">
+        <v>482</v>
+      </c>
+      <c r="B43" s="9"/>
       <c r="C43" s="1" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>43_20201222</v>
+        <v>482_19000100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2">
-        <v>44189</v>
-      </c>
+      <c r="A44" s="9">
+        <v>483</v>
+      </c>
+      <c r="B44" s="9"/>
       <c r="C44" s="1" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>44_20201224</v>
+        <v>483_19000100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="1">
-        <v>45</v>
-      </c>
-      <c r="B45" s="2">
-        <v>44195</v>
-      </c>
+      <c r="A45" s="9">
+        <v>484</v>
+      </c>
+      <c r="B45" s="9"/>
       <c r="C45" s="1" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>45_20201230</v>
+        <v>484_19000100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>46</v>
-      </c>
-      <c r="B46" s="2"/>
+      <c r="A46" s="9">
+        <v>485</v>
+      </c>
+      <c r="B46" s="9"/>
       <c r="C46" s="1" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>46_19000100</v>
+        <v>485_19000100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="B47" s="2"/>
+      <c r="A47" s="9">
+        <v>486</v>
+      </c>
+      <c r="B47" s="9"/>
       <c r="C47" s="1" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>47_19000100</v>
+        <v>486_19000100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
-        <v>48</v>
-      </c>
-      <c r="B48" s="2">
-        <v>44172</v>
-      </c>
+      <c r="A48" s="9">
+        <v>487</v>
+      </c>
+      <c r="B48" s="9"/>
       <c r="C48" s="1" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>48_20201207</v>
+        <v>487_19000100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>49</v>
-      </c>
-      <c r="B49" s="2"/>
+      <c r="A49" s="9">
+        <v>488</v>
+      </c>
+      <c r="B49" s="9"/>
       <c r="C49" s="1" t="s">
-        <v>47</v>
+        <v>212</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>49_19000100</v>
+        <v>488_19000100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
-        <v>50</v>
-      </c>
-      <c r="B50" s="2"/>
+      <c r="A50" s="9">
+        <v>489</v>
+      </c>
+      <c r="B50" s="9"/>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>213</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>50_19000100</v>
+        <v>489_19000100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" s="2"/>
+      <c r="A51" s="9">
+        <v>490</v>
+      </c>
+      <c r="B51" s="9"/>
       <c r="C51" s="1" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>51_19000100</v>
+        <v>490_19000100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" s="2"/>
+      <c r="A52" s="9">
+        <v>491</v>
+      </c>
+      <c r="B52" s="9"/>
       <c r="C52" s="1" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>52_19000100</v>
+        <v>491_19000100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2"/>
+      <c r="A53" s="9">
+        <v>492</v>
+      </c>
+      <c r="B53" s="9"/>
       <c r="C53" s="1" t="s">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>53_19000100</v>
+        <v>492_19000100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
-        <v>54</v>
-      </c>
-      <c r="B54" s="2">
-        <v>44209</v>
-      </c>
+      <c r="A54" s="9">
+        <v>493</v>
+      </c>
+      <c r="B54" s="9"/>
       <c r="C54" s="1" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>54_20210113</v>
+        <v>493_19000100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
-        <v>55</v>
-      </c>
-      <c r="B55" s="2">
-        <v>44209</v>
+      <c r="A55" s="9">
+        <v>494</v>
+      </c>
+      <c r="B55" s="11">
+        <v>44335</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>53</v>
+        <v>218</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>55_20210113</v>
+        <v>494_20210519</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
-        <v>56</v>
-      </c>
-      <c r="B56" s="2">
-        <v>44216</v>
-      </c>
+      <c r="A56" s="9">
+        <v>495</v>
+      </c>
+      <c r="B56" s="9"/>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>219</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>56_20210120</v>
+        <v>495_19000100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2"/>
+      <c r="A57" s="9">
+        <v>496</v>
+      </c>
+      <c r="B57" s="11">
+        <v>44335</v>
+      </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
+        <v>220</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>57_19000100</v>
+        <v>496_20210519</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
-        <v>58</v>
-      </c>
-      <c r="B58" s="2"/>
+      <c r="A58" s="9">
+        <v>497</v>
+      </c>
+      <c r="B58" s="9"/>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>58_19000100</v>
+        <v>497_19000100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
-        <v>59</v>
-      </c>
-      <c r="B59" s="2">
-        <v>44161</v>
-      </c>
+      <c r="A59" s="9">
+        <v>498</v>
+      </c>
+      <c r="B59" s="9"/>
       <c r="C59" s="1" t="s">
-        <v>57</v>
+        <v>222</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>59_20201126</v>
+        <v>498_19000100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
-        <v>60</v>
-      </c>
-      <c r="B60" s="2">
-        <v>44169</v>
-      </c>
+      <c r="A60" s="9">
+        <v>499</v>
+      </c>
+      <c r="B60" s="9"/>
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>223</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>60_20201204</v>
+        <v>499_19000100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
-        <v>61</v>
-      </c>
-      <c r="B61" s="2"/>
+      <c r="A61" s="9">
+        <v>500</v>
+      </c>
+      <c r="B61" s="9"/>
       <c r="C61" s="1" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>61_19000100</v>
+        <v>500_19000100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
-        <v>62</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A62" s="9">
+        <v>501</v>
+      </c>
+      <c r="B62" s="9"/>
       <c r="C62" s="1" t="s">
-        <v>60</v>
+        <v>225</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>62_19000100</v>
+        <v>501_19000100</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
-        <v>63</v>
-      </c>
-      <c r="B63" s="2">
-        <v>44161</v>
-      </c>
+      <c r="A63" s="9">
+        <v>502</v>
+      </c>
+      <c r="B63" s="9"/>
       <c r="C63" s="1" t="s">
-        <v>61</v>
+        <v>226</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>63_20201126</v>
+        <v>502_19000100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
-        <v>64</v>
-      </c>
-      <c r="B64" s="2">
-        <v>44165</v>
-      </c>
+      <c r="A64" s="9">
+        <v>503</v>
+      </c>
+      <c r="B64" s="9"/>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>227</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>64_20201130</v>
+        <v>503_19000100</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>65</v>
-      </c>
-      <c r="B65" s="2"/>
+      <c r="A65" s="9">
+        <v>504</v>
+      </c>
+      <c r="B65" s="9"/>
       <c r="C65" s="1" t="s">
-        <v>63</v>
+        <v>228</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f t="shared" ref="D65:D128" si="1">A65&amp;"_"&amp;TEXT(B65,"aaaammjj")</f>
-        <v>65_19000100</v>
+        <f t="shared" si="0"/>
+        <v>504_19000100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>66</v>
-      </c>
-      <c r="B66" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A66" s="9">
+        <v>505</v>
+      </c>
+      <c r="B66" s="9"/>
       <c r="C66" s="1" t="s">
-        <v>64</v>
+        <v>229</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>66_20201214</v>
+        <f t="shared" ref="D66:D129" si="1">A66&amp;"_"&amp;TEXT(B66,"aaaammjj")</f>
+        <v>505_19000100</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>67</v>
-      </c>
-      <c r="B67" s="2">
-        <v>44167</v>
-      </c>
+      <c r="A67" s="9">
+        <v>506</v>
+      </c>
+      <c r="B67" s="9"/>
       <c r="C67" s="1" t="s">
-        <v>65</v>
+        <v>230</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>67_20201202</v>
+        <v>506_19000100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
-        <v>68</v>
-      </c>
-      <c r="B68" s="2"/>
+      <c r="A68" s="9">
+        <v>507</v>
+      </c>
+      <c r="B68" s="9"/>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>68_19000100</v>
+        <v>507_19000100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>69</v>
-      </c>
-      <c r="B69" s="2">
-        <v>44154</v>
-      </c>
+      <c r="A69" s="9">
+        <v>508</v>
+      </c>
+      <c r="B69" s="9"/>
       <c r="C69" s="1" t="s">
-        <v>67</v>
+        <v>232</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>69_20201119</v>
+        <v>508_19000100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
-        <v>70</v>
-      </c>
-      <c r="B70" s="2">
-        <v>44172</v>
-      </c>
+      <c r="A70" s="9">
+        <v>509</v>
+      </c>
+      <c r="B70" s="9"/>
       <c r="C70" s="1" t="s">
-        <v>68</v>
+        <v>233</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>70_20201207</v>
+        <v>509_19000100</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
-        <v>71</v>
-      </c>
-      <c r="B71" s="2">
-        <v>44169</v>
-      </c>
+      <c r="A71" s="9">
+        <v>510</v>
+      </c>
+      <c r="B71" s="9"/>
       <c r="C71" s="1" t="s">
-        <v>69</v>
+        <v>234</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>71_20201204</v>
+        <v>510_19000100</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
-        <v>72</v>
-      </c>
-      <c r="B72" s="2"/>
+      <c r="A72" s="9">
+        <v>511</v>
+      </c>
+      <c r="B72" s="9"/>
       <c r="C72" s="1" t="s">
-        <v>70</v>
+        <v>235</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>72_19000100</v>
+        <v>511_19000100</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
-        <v>73</v>
-      </c>
-      <c r="B73" s="2"/>
+      <c r="A73" s="9">
+        <v>512</v>
+      </c>
+      <c r="B73" s="9"/>
       <c r="C73" s="1" t="s">
-        <v>71</v>
+        <v>236</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>73_19000100</v>
+        <v>512_19000100</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
-        <v>74</v>
-      </c>
-      <c r="B74" s="2"/>
+      <c r="A74" s="9">
+        <v>513</v>
+      </c>
+      <c r="B74" s="9"/>
       <c r="C74" s="1" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>74_19000100</v>
+        <v>513_19000100</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
-        <v>75</v>
-      </c>
-      <c r="B75" s="2"/>
+      <c r="A75" s="9">
+        <v>514</v>
+      </c>
+      <c r="B75" s="9"/>
       <c r="C75" s="1" t="s">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>75_19000100</v>
+        <v>514_19000100</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
-        <v>76</v>
-      </c>
-      <c r="B76" s="2">
-        <v>44204</v>
-      </c>
+      <c r="A76" s="9">
+        <v>515</v>
+      </c>
+      <c r="B76" s="9"/>
       <c r="C76" s="1" t="s">
-        <v>74</v>
+        <v>239</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>76_20210108</v>
+        <v>515_19000100</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
-        <v>77</v>
-      </c>
-      <c r="B77" s="2"/>
+      <c r="A77" s="9">
+        <v>516</v>
+      </c>
+      <c r="B77" s="9"/>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>240</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>77_19000100</v>
+        <v>516_19000100</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
-        <v>78</v>
-      </c>
-      <c r="B78" s="2"/>
+      <c r="A78" s="9">
+        <v>517</v>
+      </c>
+      <c r="B78" s="9"/>
       <c r="C78" s="1" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>78_19000100</v>
+        <v>517_19000100</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
-        <v>79</v>
-      </c>
-      <c r="B79" s="2"/>
+      <c r="A79" s="9">
+        <v>518</v>
+      </c>
+      <c r="B79" s="9"/>
       <c r="C79" s="1" t="s">
-        <v>77</v>
+        <v>242</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>79_19000100</v>
+        <v>518_19000100</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
-        <v>80</v>
-      </c>
-      <c r="B80" s="2">
-        <v>44162</v>
-      </c>
+      <c r="A80" s="9">
+        <v>519</v>
+      </c>
+      <c r="B80" s="9"/>
       <c r="C80" s="1" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>80_20201127</v>
+        <v>519_19000100</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="1">
-        <v>81</v>
-      </c>
-      <c r="B81" s="2"/>
+      <c r="A81" s="9">
+        <v>520</v>
+      </c>
+      <c r="B81" s="9"/>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
       <c r="D81" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>81_19000100</v>
+        <v>520_19000100</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="1">
-        <v>82</v>
-      </c>
-      <c r="B82" s="2"/>
+      <c r="A82" s="9">
+        <v>521</v>
+      </c>
+      <c r="B82" s="11">
+        <v>44335</v>
+      </c>
       <c r="C82" s="1" t="s">
-        <v>80</v>
+        <v>245</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>82_19000100</v>
+        <v>521_20210519</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="1">
-        <v>83</v>
-      </c>
-      <c r="B83" s="2">
-        <v>44167</v>
-      </c>
+      <c r="A83" s="9">
+        <v>522</v>
+      </c>
+      <c r="B83" s="9"/>
       <c r="C83" s="1" t="s">
-        <v>81</v>
+        <v>246</v>
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>83_20201202</v>
+        <v>522_19000100</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="1">
-        <v>84</v>
-      </c>
-      <c r="B84" s="2">
-        <v>44165</v>
-      </c>
+      <c r="A84" s="9">
+        <v>523</v>
+      </c>
+      <c r="B84" s="9"/>
       <c r="C84" s="1" t="s">
-        <v>82</v>
+        <v>247</v>
       </c>
       <c r="D84" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>84_20201130</v>
+        <v>523_19000100</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="1">
-        <v>85</v>
-      </c>
-      <c r="B85" s="2">
-        <v>44179</v>
+      <c r="A85" s="9">
+        <v>524</v>
+      </c>
+      <c r="B85" s="11">
+        <v>44335</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>83</v>
+        <v>248</v>
       </c>
       <c r="D85" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>85_20201214</v>
+        <v>524_20210519</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="1">
-        <v>86</v>
-      </c>
-      <c r="B86" s="2">
-        <v>44218</v>
-      </c>
+      <c r="A86" s="9">
+        <v>525</v>
+      </c>
+      <c r="B86" s="9"/>
       <c r="C86" s="1" t="s">
-        <v>84</v>
+        <v>249</v>
       </c>
       <c r="D86" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>86_20210122</v>
+        <v>525_19000100</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="1">
-        <v>87</v>
-      </c>
-      <c r="B87" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A87" s="9">
+        <v>526</v>
+      </c>
+      <c r="B87" s="9"/>
       <c r="C87" s="1" t="s">
-        <v>85</v>
+        <v>250</v>
       </c>
       <c r="D87" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>87_20201214</v>
+        <v>526_19000100</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="1">
-        <v>88</v>
-      </c>
-      <c r="B88" s="2"/>
+      <c r="A88" s="9">
+        <v>527</v>
+      </c>
+      <c r="B88" s="9"/>
       <c r="C88" s="1" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>88_19000100</v>
+        <v>527_19000100</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="1">
-        <v>89</v>
-      </c>
-      <c r="B89" s="2"/>
+      <c r="A89" s="9">
+        <v>528</v>
+      </c>
+      <c r="B89" s="9"/>
       <c r="C89" s="1" t="s">
-        <v>87</v>
+        <v>252</v>
       </c>
       <c r="D89" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>89_19000100</v>
+        <v>528_19000100</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="1">
-        <v>90</v>
-      </c>
-      <c r="B90" s="2">
-        <v>44174</v>
-      </c>
+      <c r="A90" s="9">
+        <v>529</v>
+      </c>
+      <c r="B90" s="9"/>
       <c r="C90" s="1" t="s">
-        <v>88</v>
+        <v>253</v>
       </c>
       <c r="D90" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>90_20201209</v>
+        <v>529_19000100</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="1">
-        <v>91</v>
-      </c>
-      <c r="B91" s="2">
-        <v>44182</v>
-      </c>
+      <c r="A91" s="9">
+        <v>530</v>
+      </c>
+      <c r="B91" s="9"/>
       <c r="C91" s="1" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="D91" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>91_20201217</v>
+        <v>530_19000100</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="1">
-        <v>92</v>
-      </c>
-      <c r="B92" s="2">
-        <v>44174</v>
-      </c>
+      <c r="A92" s="9">
+        <v>531</v>
+      </c>
+      <c r="B92" s="9"/>
       <c r="C92" s="1" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>92_20201209</v>
+        <v>531_19000100</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="1">
-        <v>93</v>
-      </c>
-      <c r="B93" s="2"/>
+      <c r="A93" s="9">
+        <v>532</v>
+      </c>
+      <c r="B93" s="9"/>
       <c r="C93" s="1" t="s">
-        <v>91</v>
+        <v>256</v>
       </c>
       <c r="D93" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>93_19000100</v>
+        <v>532_19000100</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="1">
-        <v>94</v>
-      </c>
-      <c r="B94" s="2">
-        <v>44158</v>
-      </c>
+      <c r="A94" s="9">
+        <v>533</v>
+      </c>
+      <c r="B94" s="9"/>
       <c r="C94" s="1" t="s">
-        <v>92</v>
+        <v>257</v>
       </c>
       <c r="D94" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>94_20201123</v>
+        <v>533_19000100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="1">
-        <v>95</v>
-      </c>
-      <c r="B95" s="2"/>
+      <c r="A95" s="9">
+        <v>534</v>
+      </c>
+      <c r="B95" s="9"/>
       <c r="C95" s="1" t="s">
-        <v>93</v>
+        <v>258</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>95_19000100</v>
+        <v>534_19000100</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="1">
-        <v>96</v>
-      </c>
-      <c r="B96" s="2"/>
+      <c r="A96" s="9">
+        <v>535</v>
+      </c>
+      <c r="B96" s="9"/>
       <c r="C96" s="1" t="s">
-        <v>94</v>
+        <v>259</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>96_19000100</v>
+        <v>535_19000100</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="1">
-        <v>97</v>
-      </c>
-      <c r="B97" s="2"/>
+      <c r="A97" s="9">
+        <v>536</v>
+      </c>
+      <c r="B97" s="9"/>
       <c r="C97" s="1" t="s">
-        <v>95</v>
+        <v>260</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>97_19000100</v>
+        <v>536_19000100</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="1">
-        <v>98</v>
-      </c>
-      <c r="B98" s="2"/>
+      <c r="A98" s="9">
+        <v>537</v>
+      </c>
+      <c r="B98" s="9"/>
       <c r="C98" s="1" t="s">
-        <v>96</v>
+        <v>261</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>98_19000100</v>
+        <v>537_19000100</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="1">
-        <v>99</v>
-      </c>
-      <c r="B99" s="2">
-        <v>44175</v>
-      </c>
+      <c r="A99" s="9">
+        <v>538</v>
+      </c>
+      <c r="B99" s="9"/>
       <c r="C99" s="1" t="s">
-        <v>97</v>
+        <v>262</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>99_20201210</v>
+        <v>538_19000100</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="1">
-        <v>100</v>
-      </c>
-      <c r="B100" s="2"/>
+      <c r="A100" s="9">
+        <v>539</v>
+      </c>
+      <c r="B100" s="9"/>
       <c r="C100" s="1" t="s">
-        <v>98</v>
+        <v>263</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>100_19000100</v>
+        <v>539_19000100</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="1">
-        <v>101</v>
-      </c>
-      <c r="B101" s="2"/>
+      <c r="A101" s="9">
+        <v>540</v>
+      </c>
+      <c r="B101" s="9"/>
       <c r="C101" s="1" t="s">
-        <v>99</v>
+        <v>264</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>101_19000100</v>
+        <v>540_19000100</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="1">
-        <v>102</v>
-      </c>
-      <c r="B102" s="2">
-        <v>44191</v>
-      </c>
+      <c r="A102" s="9">
+        <v>541</v>
+      </c>
+      <c r="B102" s="9"/>
       <c r="C102" s="1" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>102_20201226</v>
+        <v>541_19000100</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="1">
-        <v>103</v>
-      </c>
-      <c r="B103" s="2"/>
+      <c r="A103" s="9">
+        <v>542</v>
+      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="D103" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>103_19000100</v>
+        <v>542_19000100</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="1">
-        <v>104</v>
-      </c>
-      <c r="B104" s="2"/>
+      <c r="A104" s="9">
+        <v>543</v>
+      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="1" t="s">
-        <v>102</v>
+        <v>267</v>
       </c>
       <c r="D104" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>104_19000100</v>
+        <v>543_19000100</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="1">
-        <v>105</v>
-      </c>
-      <c r="B105" s="2"/>
+      <c r="A105" s="9">
+        <v>544</v>
+      </c>
+      <c r="B105" s="9"/>
       <c r="C105" s="1" t="s">
-        <v>103</v>
+        <v>268</v>
       </c>
       <c r="D105" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>105_19000100</v>
+        <v>544_19000100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="1">
-        <v>106</v>
-      </c>
-      <c r="B106" s="2"/>
+      <c r="A106" s="9">
+        <v>545</v>
+      </c>
+      <c r="B106" s="9"/>
       <c r="C106" s="1" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="D106" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>106_19000100</v>
+        <v>545_19000100</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="1">
-        <v>107</v>
-      </c>
-      <c r="B107" s="2"/>
+      <c r="A107" s="9">
+        <v>546</v>
+      </c>
+      <c r="B107" s="11">
+        <v>44341</v>
+      </c>
       <c r="C107" s="1" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="D107" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>107_19000100</v>
+        <v>546_20210525</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="1">
-        <v>108</v>
-      </c>
-      <c r="B108" s="2"/>
+      <c r="A108" s="9">
+        <v>547</v>
+      </c>
+      <c r="B108" s="9"/>
       <c r="C108" s="1" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="D108" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>108_19000100</v>
+        <v>547_19000100</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="1">
-        <v>109</v>
-      </c>
-      <c r="B109" s="2"/>
+      <c r="A109" s="9">
+        <v>548</v>
+      </c>
+      <c r="B109" s="9"/>
       <c r="C109" s="1" t="s">
-        <v>107</v>
+        <v>272</v>
       </c>
       <c r="D109" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>109_19000100</v>
+        <v>548_19000100</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A110" s="1">
-        <v>110</v>
-      </c>
-      <c r="B110" s="2"/>
+      <c r="A110" s="9">
+        <v>549</v>
+      </c>
+      <c r="B110" s="9"/>
       <c r="C110" s="1" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="D110" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>110_19000100</v>
+        <v>549_19000100</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A111" s="1">
-        <v>111</v>
-      </c>
-      <c r="B111" s="2"/>
+      <c r="A111" s="9">
+        <v>550</v>
+      </c>
+      <c r="B111" s="9"/>
       <c r="C111" s="1" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="D111" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>111_19000100</v>
+        <v>550_19000100</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="1">
-        <v>112</v>
-      </c>
-      <c r="B112" s="2">
-        <v>44174</v>
+      <c r="A112" s="9">
+        <v>551</v>
+      </c>
+      <c r="B112" s="11">
+        <v>44354</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="D112" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>112_20201209</v>
+        <v>551_20210607</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="1">
-        <v>113</v>
-      </c>
-      <c r="B113" s="2"/>
+      <c r="A113" s="9">
+        <v>552</v>
+      </c>
+      <c r="B113" s="11">
+        <v>44355</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="D113" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>113_19000100</v>
+        <v>552_20210608</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="1">
-        <v>114</v>
-      </c>
-      <c r="B114" s="2"/>
+      <c r="A114" s="9">
+        <v>553</v>
+      </c>
+      <c r="B114" s="11">
+        <v>44355</v>
+      </c>
       <c r="C114" s="1" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="D114" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>114_19000100</v>
+        <v>553_20210608</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="1">
-        <v>115</v>
-      </c>
-      <c r="B115" s="2"/>
+      <c r="A115" s="9">
+        <v>554</v>
+      </c>
+      <c r="B115" s="9"/>
       <c r="C115" s="1" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="D115" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>115_19000100</v>
+        <v>554_19000100</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="1">
-        <v>116</v>
-      </c>
-      <c r="B116" s="2"/>
+      <c r="A116" s="9">
+        <v>555</v>
+      </c>
+      <c r="B116" s="9"/>
       <c r="C116" s="1" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="D116" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>116_19000100</v>
+        <v>555_19000100</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="1">
-        <v>117</v>
-      </c>
-      <c r="B117" s="2"/>
+      <c r="A117" s="9">
+        <v>556</v>
+      </c>
+      <c r="B117" s="11">
+        <v>44361</v>
+      </c>
       <c r="C117" s="1" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="D117" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>117_19000100</v>
+        <v>556_20210614</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="1">
-        <v>118</v>
-      </c>
-      <c r="B118" s="2"/>
+      <c r="A118" s="9">
+        <v>557</v>
+      </c>
+      <c r="B118" s="11">
+        <v>44349</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="D118" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>118_19000100</v>
+        <v>557_20210602</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="1">
-        <v>119</v>
-      </c>
-      <c r="B119" s="2"/>
+      <c r="A119" s="9">
+        <v>558</v>
+      </c>
+      <c r="B119" s="9"/>
       <c r="C119" s="1" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="D119" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>119_19000100</v>
+        <v>558_19000100</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A120" s="1">
-        <v>120</v>
-      </c>
-      <c r="B120" s="2"/>
+      <c r="A120" s="9">
+        <v>559</v>
+      </c>
+      <c r="B120" s="11">
+        <v>44370</v>
+      </c>
       <c r="C120" s="1" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="D120" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>120_19000100</v>
+        <v>559_20210623</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="1">
-        <v>121</v>
-      </c>
-      <c r="B121" s="2">
-        <v>44189</v>
+      <c r="A121" s="9">
+        <v>560</v>
+      </c>
+      <c r="B121" s="11">
+        <v>44361</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="D121" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>121_20201224</v>
+        <v>560_20210614</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A122" s="1">
-        <v>122</v>
-      </c>
-      <c r="B122" s="2"/>
+      <c r="A122" s="9">
+        <v>561</v>
+      </c>
+      <c r="B122" s="9"/>
       <c r="C122" s="1" t="s">
-        <v>120</v>
+        <v>285</v>
       </c>
       <c r="D122" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>122_19000100</v>
+        <v>561_19000100</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="1">
-        <v>123</v>
-      </c>
-      <c r="B123" s="2"/>
+      <c r="A123" s="9">
+        <v>562</v>
+      </c>
+      <c r="B123" s="9"/>
       <c r="C123" s="1" t="s">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="D123" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>123_19000100</v>
+        <v>562_19000100</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A124" s="1">
-        <v>124</v>
-      </c>
-      <c r="B124" s="2">
-        <v>44172</v>
-      </c>
+      <c r="A124" s="9">
+        <v>563</v>
+      </c>
+      <c r="B124" s="9"/>
       <c r="C124" s="1" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="D124" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>124_20201207</v>
+        <v>563_19000100</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A125" s="1">
-        <v>125</v>
-      </c>
-      <c r="B125" s="2">
-        <v>44187</v>
-      </c>
+      <c r="A125" s="9">
+        <v>564</v>
+      </c>
+      <c r="B125" s="9"/>
       <c r="C125" s="1" t="s">
-        <v>123</v>
+        <v>288</v>
       </c>
       <c r="D125" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>125_20201222</v>
+        <v>564_19000100</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="1">
-        <v>126</v>
-      </c>
-      <c r="B126" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A126" s="9">
+        <v>565</v>
+      </c>
+      <c r="B126" s="9"/>
       <c r="C126" s="1" t="s">
-        <v>124</v>
+        <v>289</v>
       </c>
       <c r="D126" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>126_20201214</v>
+        <v>565_19000100</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="1">
-        <v>127</v>
-      </c>
-      <c r="B127" s="2">
-        <v>44174</v>
+      <c r="A127" s="9">
+        <v>566</v>
+      </c>
+      <c r="B127" s="11">
+        <v>44370</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="D127" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>127_20201209</v>
+        <v>566_20210623</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="1">
-        <v>128</v>
-      </c>
-      <c r="B128" s="2"/>
+      <c r="A128" s="9">
+        <v>567</v>
+      </c>
+      <c r="B128" s="9"/>
       <c r="C128" s="1" t="s">
-        <v>126</v>
+        <v>291</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>128_19000100</v>
+        <v>567_19000100</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="1">
-        <v>129</v>
-      </c>
-      <c r="B129" s="2">
-        <v>44169</v>
-      </c>
+      <c r="A129" s="9">
+        <v>568</v>
+      </c>
+      <c r="B129" s="9"/>
       <c r="C129" s="1" t="s">
-        <v>127</v>
+        <v>292</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f t="shared" ref="D129:D162" si="2">A129&amp;"_"&amp;TEXT(B129,"aaaammjj")</f>
-        <v>129_20201204</v>
+        <f t="shared" si="1"/>
+        <v>568_19000100</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1">
-        <v>130</v>
-      </c>
-      <c r="B130" s="2">
-        <v>44202</v>
-      </c>
+      <c r="A130" s="9">
+        <v>569</v>
+      </c>
+      <c r="B130" s="9"/>
       <c r="C130" s="1" t="s">
-        <v>128</v>
+        <v>293</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>130_20210106</v>
+        <f t="shared" ref="D130:D193" si="2">A130&amp;"_"&amp;TEXT(B130,"aaaammjj")</f>
+        <v>569_19000100</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1">
-        <v>131</v>
-      </c>
-      <c r="B131" s="2">
-        <v>44200</v>
-      </c>
+      <c r="A131" s="9">
+        <v>570</v>
+      </c>
+      <c r="B131" s="9"/>
       <c r="C131" s="1" t="s">
-        <v>129</v>
+        <v>294</v>
       </c>
       <c r="D131" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>131_20210104</v>
+        <v>570_19000100</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="1">
-        <v>132</v>
-      </c>
-      <c r="B132" s="2"/>
+      <c r="A132" s="9">
+        <v>571</v>
+      </c>
+      <c r="B132" s="9"/>
       <c r="C132" s="1" t="s">
-        <v>130</v>
+        <v>295</v>
       </c>
       <c r="D132" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>132_19000100</v>
+        <v>571_19000100</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="1">
-        <v>133</v>
-      </c>
-      <c r="B133" s="2"/>
+      <c r="A133" s="9">
+        <v>572</v>
+      </c>
+      <c r="B133" s="11">
+        <v>44355</v>
+      </c>
       <c r="C133" s="1" t="s">
-        <v>131</v>
+        <v>296</v>
       </c>
       <c r="D133" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>133_19000100</v>
+        <v>572_20210608</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="1">
-        <v>134</v>
-      </c>
-      <c r="B134" s="2">
-        <v>44162</v>
-      </c>
+      <c r="A134" s="9">
+        <v>573</v>
+      </c>
+      <c r="B134" s="9"/>
       <c r="C134" s="1" t="s">
-        <v>132</v>
+        <v>297</v>
       </c>
       <c r="D134" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>134_20201127</v>
+        <v>573_19000100</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="1">
-        <v>135</v>
-      </c>
-      <c r="B135" s="2">
-        <v>44209</v>
-      </c>
+      <c r="A135" s="9">
+        <v>574</v>
+      </c>
+      <c r="B135" s="9"/>
       <c r="C135" s="1" t="s">
-        <v>133</v>
+        <v>298</v>
       </c>
       <c r="D135" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>135_20210113</v>
+        <v>574_19000100</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" s="1">
-        <v>136</v>
-      </c>
-      <c r="B136" s="2"/>
+      <c r="A136" s="9">
+        <v>575</v>
+      </c>
+      <c r="B136" s="9"/>
       <c r="C136" s="1" t="s">
-        <v>134</v>
+        <v>299</v>
       </c>
       <c r="D136" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>136_19000100</v>
+        <v>575_19000100</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A137" s="1">
-        <v>137</v>
-      </c>
-      <c r="B137" s="2">
-        <v>44182</v>
-      </c>
+      <c r="A137" s="9">
+        <v>576</v>
+      </c>
+      <c r="B137" s="9"/>
       <c r="C137" s="1" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="D137" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>137_20201217</v>
+        <v>576_19000100</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="1">
-        <v>138</v>
-      </c>
-      <c r="B138" s="2">
-        <v>44172</v>
-      </c>
+      <c r="A138" s="9">
+        <v>577</v>
+      </c>
+      <c r="B138" s="9"/>
       <c r="C138" s="1" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
       <c r="D138" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>138_20201207</v>
+        <v>577_19000100</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A139" s="1">
-        <v>139</v>
-      </c>
-      <c r="B139" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A139" s="9">
+        <v>578</v>
+      </c>
+      <c r="B139" s="9"/>
       <c r="C139" s="1" t="s">
-        <v>137</v>
+        <v>302</v>
       </c>
       <c r="D139" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>139_20201214</v>
+        <v>578_19000100</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A140" s="1">
-        <v>140</v>
-      </c>
-      <c r="B140" s="2"/>
+      <c r="A140" s="9">
+        <v>579</v>
+      </c>
+      <c r="B140" s="9"/>
       <c r="C140" s="1" t="s">
-        <v>138</v>
+        <v>303</v>
       </c>
       <c r="D140" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>140_19000100</v>
+        <v>579_19000100</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A141" s="1">
-        <v>141</v>
-      </c>
-      <c r="B141" s="2"/>
+      <c r="A141" s="9">
+        <v>580</v>
+      </c>
+      <c r="B141" s="11">
+        <v>44355</v>
+      </c>
       <c r="C141" s="1" t="s">
-        <v>139</v>
+        <v>304</v>
       </c>
       <c r="D141" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>141_19000100</v>
+        <v>580_20210608</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A142" s="1">
-        <v>142</v>
-      </c>
-      <c r="B142" s="2"/>
+      <c r="A142" s="9">
+        <v>581</v>
+      </c>
+      <c r="B142" s="9"/>
       <c r="C142" s="1" t="s">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="D142" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>142_19000100</v>
+        <v>581_19000100</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A143" s="1">
-        <v>143</v>
-      </c>
-      <c r="B143" s="2"/>
+      <c r="A143" s="9">
+        <v>582</v>
+      </c>
+      <c r="B143" s="9"/>
       <c r="C143" s="1" t="s">
-        <v>141</v>
+        <v>306</v>
       </c>
       <c r="D143" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>143_19000100</v>
+        <v>582_19000100</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A144" s="1">
-        <v>144</v>
-      </c>
-      <c r="B144" s="2"/>
+      <c r="A144" s="9">
+        <v>583</v>
+      </c>
+      <c r="B144" s="11">
+        <v>44370</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="D144" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>144_19000100</v>
+        <v>583_20210623</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A145" s="1">
-        <v>145</v>
-      </c>
-      <c r="B145" s="2">
-        <v>44179</v>
-      </c>
+      <c r="A145" s="9">
+        <v>584</v>
+      </c>
+      <c r="B145" s="9"/>
       <c r="C145" s="1" t="s">
-        <v>143</v>
+        <v>308</v>
       </c>
       <c r="D145" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>145_20201214</v>
+        <v>584_19000100</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A146" s="1">
-        <v>146</v>
-      </c>
-      <c r="B146" s="2"/>
+      <c r="A146" s="9">
+        <v>585</v>
+      </c>
+      <c r="B146" s="9"/>
       <c r="C146" s="1" t="s">
-        <v>144</v>
+        <v>309</v>
       </c>
       <c r="D146" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>146_19000100</v>
+        <v>585_19000100</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A147" s="1">
-        <v>147</v>
-      </c>
-      <c r="B147" s="2"/>
+      <c r="A147" s="9">
+        <v>586</v>
+      </c>
+      <c r="B147" s="9"/>
       <c r="C147" s="1" t="s">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="D147" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>147_19000100</v>
+        <v>586_19000100</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A148" s="1">
-        <v>148</v>
-      </c>
-      <c r="B148" s="2">
-        <v>44169</v>
-      </c>
+      <c r="A148" s="9">
+        <v>587</v>
+      </c>
+      <c r="B148" s="9"/>
       <c r="C148" s="1" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="D148" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>148_20201204</v>
+        <v>587_19000100</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A149" s="1">
-        <v>149</v>
-      </c>
-      <c r="B149" s="2"/>
+      <c r="A149" s="9">
+        <v>588</v>
+      </c>
+      <c r="B149" s="9"/>
       <c r="C149" s="1" t="s">
-        <v>147</v>
+        <v>312</v>
       </c>
       <c r="D149" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>149_19000100</v>
+        <v>588_19000100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A150" s="1">
-        <v>150</v>
-      </c>
-      <c r="B150" s="2"/>
+      <c r="A150" s="9">
+        <v>589</v>
+      </c>
+      <c r="B150" s="9"/>
       <c r="C150" s="1" t="s">
-        <v>148</v>
+        <v>313</v>
       </c>
       <c r="D150" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>150_19000100</v>
+        <v>589_19000100</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A151" s="1">
-        <v>151</v>
-      </c>
-      <c r="B151" s="2">
-        <v>44165</v>
-      </c>
+      <c r="A151" s="9">
+        <v>590</v>
+      </c>
+      <c r="B151" s="9"/>
       <c r="C151" s="1" t="s">
-        <v>149</v>
+        <v>314</v>
       </c>
       <c r="D151" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>151_20201130</v>
+        <v>590_19000100</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A152" s="1">
-        <v>152</v>
-      </c>
-      <c r="B152" s="2">
-        <v>44189</v>
-      </c>
+      <c r="A152" s="9">
+        <v>591</v>
+      </c>
+      <c r="B152" s="9"/>
       <c r="C152" s="1" t="s">
-        <v>150</v>
+        <v>315</v>
       </c>
       <c r="D152" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>152_20201224</v>
+        <v>591_19000100</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A153" s="1">
-        <v>153</v>
-      </c>
-      <c r="B153" s="2">
-        <v>44209</v>
-      </c>
+      <c r="A153" s="9">
+        <v>592</v>
+      </c>
+      <c r="B153" s="9"/>
       <c r="C153" s="1" t="s">
-        <v>151</v>
+        <v>316</v>
       </c>
       <c r="D153" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>153_20210113</v>
+        <v>592_19000100</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A154" s="1">
-        <v>154</v>
-      </c>
-      <c r="B154" s="2"/>
+      <c r="A154" s="9">
+        <v>593</v>
+      </c>
+      <c r="B154" s="9"/>
       <c r="C154" s="1" t="s">
-        <v>152</v>
+        <v>317</v>
       </c>
       <c r="D154" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>154_19000100</v>
+        <v>593_19000100</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A155" s="1">
-        <v>155</v>
-      </c>
-      <c r="B155" s="2"/>
+      <c r="A155" s="9">
+        <v>594</v>
+      </c>
+      <c r="B155" s="9"/>
       <c r="C155" s="1" t="s">
-        <v>153</v>
+        <v>318</v>
       </c>
       <c r="D155" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>155_19000100</v>
+        <v>594_19000100</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A156" s="1">
-        <v>156</v>
-      </c>
-      <c r="B156" s="2"/>
+      <c r="A156" s="9">
+        <v>595</v>
+      </c>
+      <c r="B156" s="9"/>
       <c r="C156" s="1" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
       <c r="D156" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>156_19000100</v>
+        <v>595_19000100</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A157" s="1">
-        <v>157</v>
-      </c>
-      <c r="B157" s="2"/>
+      <c r="A157" s="9">
+        <v>596</v>
+      </c>
+      <c r="B157" s="9"/>
       <c r="C157" s="1" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
       <c r="D157" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>157_19000100</v>
+        <v>596_19000100</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A158" s="1">
-        <v>158</v>
-      </c>
-      <c r="B158" s="2"/>
+      <c r="A158" s="9">
+        <v>597</v>
+      </c>
+      <c r="B158" s="9"/>
       <c r="C158" s="1" t="s">
-        <v>156</v>
+        <v>321</v>
       </c>
       <c r="D158" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>158_19000100</v>
+        <v>597_19000100</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A159" s="1">
-        <v>159</v>
-      </c>
-      <c r="B159" s="2">
-        <v>44189</v>
+      <c r="A159" s="9">
+        <v>598</v>
+      </c>
+      <c r="B159" s="11">
+        <v>44370</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
       <c r="D159" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>159_20201224</v>
+        <v>598_20210623</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A160" s="1">
-        <v>160</v>
-      </c>
-      <c r="B160" s="2"/>
+      <c r="A160" s="9">
+        <v>599</v>
+      </c>
+      <c r="B160" s="9"/>
       <c r="C160" s="1" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
       <c r="D160" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>160_19000100</v>
+        <v>599_19000100</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A161" s="1">
-        <v>161</v>
-      </c>
-      <c r="B161" s="2"/>
+      <c r="A161" s="9">
+        <v>600</v>
+      </c>
+      <c r="B161" s="11">
+        <v>44361</v>
+      </c>
       <c r="C161" s="1" t="s">
-        <v>159</v>
+        <v>324</v>
       </c>
       <c r="D161" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>161_19000100</v>
+        <v>600_20210614</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A162" s="1">
-        <v>162</v>
-      </c>
-      <c r="B162" s="2">
-        <v>44172</v>
+      <c r="A162" s="9">
+        <v>601</v>
+      </c>
+      <c r="B162" s="11">
+        <v>44349</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
       <c r="D162" s="3" t="str">
         <f t="shared" si="2"/>
+        <v>601_20210602</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="9">
+        <v>602</v>
+      </c>
+      <c r="B163" s="9"/>
+      <c r="C163" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D163" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>602_19000100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="9">
+        <v>603</v>
+      </c>
+      <c r="B164" s="11">
+        <v>44361</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D164" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>603_20210614</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="9">
+        <v>604</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D165" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>604_19000100</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="9">
+        <v>605</v>
+      </c>
+      <c r="B166" s="11">
+        <v>44361</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D166" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>605_20210614</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="9">
+        <v>606</v>
+      </c>
+      <c r="B167" s="9"/>
+      <c r="C167" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="D167" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>606_19000100</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="9">
+        <v>607</v>
+      </c>
+      <c r="B168" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="D168" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>607_20210623</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="9">
+        <v>608</v>
+      </c>
+      <c r="B169" s="11">
+        <v>44370</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D169" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>608_20210623</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="9">
+        <v>609</v>
+      </c>
+      <c r="B170" s="11">
+        <v>44361</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D170" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>609_20210614</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="9">
+        <v>610</v>
+      </c>
+      <c r="B171" s="11">
+        <v>44361</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="D171" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>610_20210614</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="9">
+        <v>611</v>
+      </c>
+      <c r="B172" s="9"/>
+      <c r="C172" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D172" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>611_19000100</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="9">
+        <v>612</v>
+      </c>
+      <c r="B173" s="9"/>
+      <c r="C173" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D173" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>612_19000100</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="9">
+        <v>613</v>
+      </c>
+      <c r="B174" s="9"/>
+      <c r="C174" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D174" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>613_19000100</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="9">
+        <v>614</v>
+      </c>
+      <c r="B175" s="9"/>
+      <c r="C175" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D175" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>614_19000100</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="9">
+        <v>615</v>
+      </c>
+      <c r="B176" s="9"/>
+      <c r="C176" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D176" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>615_19000100</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="9">
+        <v>616</v>
+      </c>
+      <c r="B177" s="9"/>
+      <c r="C177" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="D177" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>616_19000100</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="9">
+        <v>617</v>
+      </c>
+      <c r="B178" s="9"/>
+      <c r="C178" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D178" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>617_19000100</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="9">
+        <v>618</v>
+      </c>
+      <c r="B179" s="9"/>
+      <c r="C179" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D179" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>618_19000100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="9">
+        <v>619</v>
+      </c>
+      <c r="B180" s="9"/>
+      <c r="C180" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D180" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>619_19000100</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="9">
+        <v>620</v>
+      </c>
+      <c r="B181" s="9"/>
+      <c r="C181" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D181" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>620_19000100</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="9">
+        <v>621</v>
+      </c>
+      <c r="B182" s="9"/>
+      <c r="C182" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="D182" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>621_19000100</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="9">
+        <v>622</v>
+      </c>
+      <c r="B183" s="9"/>
+      <c r="C183" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D183" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>622_19000100</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="9">
+        <v>623</v>
+      </c>
+      <c r="B184" s="9"/>
+      <c r="C184" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D184" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>623_19000100</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="9">
+        <v>624</v>
+      </c>
+      <c r="B185" s="9"/>
+      <c r="C185" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="D185" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>624_19000100</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="9">
+        <v>625</v>
+      </c>
+      <c r="B186" s="9"/>
+      <c r="C186" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="D186" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>625_19000100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="9">
+        <v>626</v>
+      </c>
+      <c r="B187" s="9"/>
+      <c r="C187" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D187" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>626_19000100</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="9">
+        <v>627</v>
+      </c>
+      <c r="B188" s="9"/>
+      <c r="C188" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="D188" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>627_19000100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="9">
+        <v>628</v>
+      </c>
+      <c r="B189" s="9"/>
+      <c r="C189" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="D189" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>628_19000100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="9">
+        <v>629</v>
+      </c>
+      <c r="B190" s="9"/>
+      <c r="C190" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D190" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>629_19000100</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="9">
+        <v>630</v>
+      </c>
+      <c r="B191" s="9"/>
+      <c r="C191" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="D191" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>630_19000100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="9">
+        <v>631</v>
+      </c>
+      <c r="B192" s="9"/>
+      <c r="C192" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="D192" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>631_19000100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="9">
+        <v>632</v>
+      </c>
+      <c r="B193" s="9"/>
+      <c r="C193" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D193" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>632_19000100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="9">
+        <v>633</v>
+      </c>
+      <c r="B194" s="11">
+        <v>44355</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D194" s="3" t="str">
+        <f t="shared" ref="D194:D257" si="3">A194&amp;"_"&amp;TEXT(B194,"aaaammjj")</f>
+        <v>633_20210608</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="9">
+        <v>634</v>
+      </c>
+      <c r="B195" s="9"/>
+      <c r="C195" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="D195" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>634_19000100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="9">
+        <v>635</v>
+      </c>
+      <c r="B196" s="9"/>
+      <c r="C196" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D196" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>635_19000100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="9">
+        <v>636</v>
+      </c>
+      <c r="B197" s="9"/>
+      <c r="C197" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D197" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>636_19000100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="9">
+        <v>637</v>
+      </c>
+      <c r="B198" s="11">
+        <v>44354</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="D198" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>637_20210607</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="9">
+        <v>638</v>
+      </c>
+      <c r="B199" s="9"/>
+      <c r="C199" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D199" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>638_19000100</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="9">
+        <v>639</v>
+      </c>
+      <c r="B200" s="11">
+        <v>44344</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="D200" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>639_20210528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="9">
+        <v>640</v>
+      </c>
+      <c r="B201" s="11">
+        <v>44355</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D201" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>640_20210608</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="9">
+        <v>641</v>
+      </c>
+      <c r="B202" s="9"/>
+      <c r="C202" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D202" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>641_19000100</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="9">
+        <v>642</v>
+      </c>
+      <c r="B203" s="9"/>
+      <c r="C203" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D203" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>642_19000100</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="9">
+        <v>643</v>
+      </c>
+      <c r="B204" s="11">
+        <v>44344</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D204" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>643_20210528</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="9">
+        <v>644</v>
+      </c>
+      <c r="B205" s="9"/>
+      <c r="C205" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D205" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>644_19000100</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="9">
+        <v>645</v>
+      </c>
+      <c r="B206" s="9"/>
+      <c r="C206" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="D206" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>645_19000100</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="9">
+        <v>646</v>
+      </c>
+      <c r="B207" s="9"/>
+      <c r="C207" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="D207" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>646_19000100</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="9">
+        <v>647</v>
+      </c>
+      <c r="B208" s="9"/>
+      <c r="C208" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D208" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>647_19000100</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="9">
+        <v>648</v>
+      </c>
+      <c r="B209" s="9"/>
+      <c r="C209" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="D209" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>648_19000100</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="9">
+        <v>649</v>
+      </c>
+      <c r="B210" s="9"/>
+      <c r="C210" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D210" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>649_19000100</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="9">
+        <v>650</v>
+      </c>
+      <c r="B211" s="9"/>
+      <c r="C211" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D211" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>650_19000100</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="9">
+        <v>651</v>
+      </c>
+      <c r="B212" s="9"/>
+      <c r="C212" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="D212" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>651_19000100</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="9">
+        <v>652</v>
+      </c>
+      <c r="B213" s="9"/>
+      <c r="C213" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="D213" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>652_19000100</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="9">
+        <v>653</v>
+      </c>
+      <c r="B214" s="9"/>
+      <c r="C214" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D214" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>653_19000100</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="9">
+        <v>654</v>
+      </c>
+      <c r="B215" s="9"/>
+      <c r="C215" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D215" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>654_19000100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="9">
+        <v>655</v>
+      </c>
+      <c r="B216" s="9"/>
+      <c r="C216" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D216" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>655_19000100</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="9">
+        <v>656</v>
+      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D217" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>656_19000100</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="9">
+        <v>657</v>
+      </c>
+      <c r="B218" s="9"/>
+      <c r="C218" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D218" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>657_19000100</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="9">
+        <v>658</v>
+      </c>
+      <c r="B219" s="9"/>
+      <c r="C219" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D219" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>658_19000100</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="9">
+        <v>659</v>
+      </c>
+      <c r="B220" s="9"/>
+      <c r="C220" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D220" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>659_19000100</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="9">
+        <v>660</v>
+      </c>
+      <c r="B221" s="9"/>
+      <c r="C221" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="D221" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>660_19000100</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="9">
+        <v>661</v>
+      </c>
+      <c r="B222" s="9"/>
+      <c r="C222" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D222" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>661_19000100</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="9">
+        <v>662</v>
+      </c>
+      <c r="B223" s="9"/>
+      <c r="C223" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D223" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>662_19000100</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="9">
+        <v>663</v>
+      </c>
+      <c r="B224" s="9"/>
+      <c r="C224" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D224" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>663_19000100</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="9">
+        <v>664</v>
+      </c>
+      <c r="B225" s="9"/>
+      <c r="C225" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="D225" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>664_19000100</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="9">
+        <v>665</v>
+      </c>
+      <c r="B226" s="9"/>
+      <c r="C226" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D226" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>665_19000100</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="9">
+        <v>666</v>
+      </c>
+      <c r="B227" s="9"/>
+      <c r="C227" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="D227" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>666_19000100</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="9">
+        <v>667</v>
+      </c>
+      <c r="B228" s="9"/>
+      <c r="C228" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="D228" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>667_19000100</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="9">
+        <v>668</v>
+      </c>
+      <c r="B229" s="9"/>
+      <c r="C229" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D229" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>668_19000100</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="9">
+        <v>669</v>
+      </c>
+      <c r="B230" s="9"/>
+      <c r="C230" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="D230" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>669_19000100</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="9">
+        <v>670</v>
+      </c>
+      <c r="B231" s="9"/>
+      <c r="C231" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D231" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>670_19000100</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="9">
+        <v>671</v>
+      </c>
+      <c r="B232" s="9"/>
+      <c r="C232" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D232" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>671_19000100</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="9">
+        <v>672</v>
+      </c>
+      <c r="B233" s="9"/>
+      <c r="C233" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D233" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>672_19000100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="9">
+        <v>673</v>
+      </c>
+      <c r="B234" s="9"/>
+      <c r="C234" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="D234" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>673_19000100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="9">
+        <v>674</v>
+      </c>
+      <c r="B235" s="9"/>
+      <c r="C235" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D235" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>674_19000100</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="9">
+        <v>675</v>
+      </c>
+      <c r="B236" s="9"/>
+      <c r="C236" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D236" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>675_19000100</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="9">
+        <v>676</v>
+      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D237" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>676_19000100</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="9">
+        <v>677</v>
+      </c>
+      <c r="B238" s="9"/>
+      <c r="C238" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D238" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>677_19000100</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="9">
+        <v>678</v>
+      </c>
+      <c r="B239" s="9"/>
+      <c r="C239" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D239" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>678_19000100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="9">
+        <v>679</v>
+      </c>
+      <c r="B240" s="9"/>
+      <c r="C240" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D240" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>679_19000100</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="9">
+        <v>680</v>
+      </c>
+      <c r="B241" s="9"/>
+      <c r="C241" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D241" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>680_19000100</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="9">
+        <v>681</v>
+      </c>
+      <c r="B242" s="9"/>
+      <c r="C242" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D242" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>681_19000100</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="9">
+        <v>682</v>
+      </c>
+      <c r="B243" s="9"/>
+      <c r="C243" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D243" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>682_19000100</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="9">
+        <v>683</v>
+      </c>
+      <c r="B244" s="9"/>
+      <c r="C244" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D244" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>683_19000100</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="9">
+        <v>684</v>
+      </c>
+      <c r="B245" s="9"/>
+      <c r="C245" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D245" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>684_19000100</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="9">
+        <v>685</v>
+      </c>
+      <c r="B246" s="9"/>
+      <c r="C246" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D246" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>685_19000100</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="9">
+        <v>686</v>
+      </c>
+      <c r="B247" s="9"/>
+      <c r="C247" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D247" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>686_19000100</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="9">
+        <v>687</v>
+      </c>
+      <c r="B248" s="9"/>
+      <c r="C248" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="D248" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>687_19000100</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="9">
+        <v>688</v>
+      </c>
+      <c r="B249" s="9"/>
+      <c r="C249" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D249" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>688_19000100</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="9">
+        <v>689</v>
+      </c>
+      <c r="B250" s="9"/>
+      <c r="C250" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D250" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>689_19000100</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="9">
+        <v>690</v>
+      </c>
+      <c r="B251" s="9"/>
+      <c r="C251" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D251" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>690_19000100</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="9">
+        <v>691</v>
+      </c>
+      <c r="B252" s="9"/>
+      <c r="C252" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D252" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>691_19000100</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="9">
+        <v>692</v>
+      </c>
+      <c r="B253" s="9"/>
+      <c r="C253" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="D253" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>692_19000100</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="9">
+        <v>693</v>
+      </c>
+      <c r="B254" s="9"/>
+      <c r="C254" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D254" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>693_19000100</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="9">
+        <v>694</v>
+      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="D255" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>694_19000100</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="9">
+        <v>695</v>
+      </c>
+      <c r="B256" s="9"/>
+      <c r="C256" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="D256" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>695_19000100</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="9">
+        <v>696</v>
+      </c>
+      <c r="B257" s="9"/>
+      <c r="C257" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D257" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>696_19000100</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="9">
+        <v>697</v>
+      </c>
+      <c r="B258" s="9"/>
+      <c r="C258" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D258" s="3" t="str">
+        <f t="shared" ref="D258:D321" si="4">A258&amp;"_"&amp;TEXT(B258,"aaaammjj")</f>
+        <v>697_19000100</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="9">
+        <v>698</v>
+      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="D259" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>698_19000100</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="9">
+        <v>699</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D260" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>699_19000100</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="9">
+        <v>700</v>
+      </c>
+      <c r="B261" s="9"/>
+      <c r="C261" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D261" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>700_19000100</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="9">
+        <v>701</v>
+      </c>
+      <c r="B262" s="9"/>
+      <c r="C262" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="D262" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>701_19000100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="9">
+        <v>702</v>
+      </c>
+      <c r="B263" s="9"/>
+      <c r="C263" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D263" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>702_19000100</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="9">
+        <v>703</v>
+      </c>
+      <c r="B264" s="9"/>
+      <c r="C264" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="D264" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>703_19000100</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="9">
+        <v>704</v>
+      </c>
+      <c r="B265" s="9"/>
+      <c r="C265" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="D265" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>704_19000100</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="9">
+        <v>705</v>
+      </c>
+      <c r="B266" s="9"/>
+      <c r="C266" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D266" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>705_19000100</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="9">
+        <v>706</v>
+      </c>
+      <c r="B267" s="9"/>
+      <c r="C267" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="D267" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>706_19000100</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="9">
+        <v>707</v>
+      </c>
+      <c r="B268" s="9"/>
+      <c r="C268" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D268" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>707_19000100</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="9">
+        <v>708</v>
+      </c>
+      <c r="B269" s="9"/>
+      <c r="C269" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D269" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>708_19000100</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="9">
+        <v>709</v>
+      </c>
+      <c r="B270" s="11">
+        <v>44421</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D270" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>709_20210813</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="9">
+        <v>710</v>
+      </c>
+      <c r="B271" s="11">
+        <v>44439</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D271" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>710_20210831</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="9">
+        <v>711</v>
+      </c>
+      <c r="B272" s="11">
+        <v>44424</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D272" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>711_20210816</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="9">
+        <v>712</v>
+      </c>
+      <c r="B273" s="9"/>
+      <c r="C273" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="D273" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>712_19000100</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="9">
+        <v>713</v>
+      </c>
+      <c r="B274" s="9"/>
+      <c r="C274" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="D274" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>713_19000100</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="9">
+        <v>714</v>
+      </c>
+      <c r="B275" s="9"/>
+      <c r="C275" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D275" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>714_19000100</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="9">
+        <v>715</v>
+      </c>
+      <c r="B276" s="9"/>
+      <c r="C276" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="D276" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>715_19000100</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="9">
+        <v>716</v>
+      </c>
+      <c r="B277" s="9"/>
+      <c r="C277" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D277" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>716_19000100</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="9">
+        <v>717</v>
+      </c>
+      <c r="B278" s="9"/>
+      <c r="C278" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D278" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>717_19000100</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="9">
+        <v>718</v>
+      </c>
+      <c r="B279" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D279" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>718_20210818</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="9">
+        <v>719</v>
+      </c>
+      <c r="B280" s="11">
+        <v>44446</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D280" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>719_20210907</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="9">
+        <v>720</v>
+      </c>
+      <c r="B281" s="9"/>
+      <c r="C281" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D281" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>720_19000100</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="9">
+        <v>721</v>
+      </c>
+      <c r="B282" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D282" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>721_20210818</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="9">
+        <v>722</v>
+      </c>
+      <c r="B283" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D283" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>722_20210823</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="9">
+        <v>723</v>
+      </c>
+      <c r="B284" s="9"/>
+      <c r="C284" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D284" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>723_19000100</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="9">
+        <v>724</v>
+      </c>
+      <c r="B285" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D285" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>724_20210818</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="9">
+        <v>725</v>
+      </c>
+      <c r="B286" s="11">
+        <v>44421</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D286" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>725_20210813</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="9">
+        <v>726</v>
+      </c>
+      <c r="B287" s="9"/>
+      <c r="C287" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D287" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>726_19000100</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="9">
+        <v>727</v>
+      </c>
+      <c r="B288" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="D288" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>727_20210823</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="9">
+        <v>728</v>
+      </c>
+      <c r="B289" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="D289" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>728_20210823</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="9">
+        <v>729</v>
+      </c>
+      <c r="B290" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D290" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>729_20210827</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="9">
+        <v>730</v>
+      </c>
+      <c r="B291" s="9"/>
+      <c r="C291" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="D291" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>730_19000100</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="9">
+        <v>731</v>
+      </c>
+      <c r="B292" s="11">
+        <v>44469</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D292" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>731_20210930</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="9">
+        <v>732</v>
+      </c>
+      <c r="B293" s="9"/>
+      <c r="C293" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D293" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>732_19000100</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="9">
+        <v>733</v>
+      </c>
+      <c r="B294" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D294" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>733_20210827</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="9">
+        <v>734</v>
+      </c>
+      <c r="B295" s="11">
+        <v>44439</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D295" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>734_20210831</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="9">
+        <v>735</v>
+      </c>
+      <c r="B296" s="9"/>
+      <c r="C296" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D296" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>735_19000100</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="9">
+        <v>736</v>
+      </c>
+      <c r="B297" s="9"/>
+      <c r="C297" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D297" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>736_19000100</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="9">
+        <v>737</v>
+      </c>
+      <c r="B298" s="11">
+        <v>44440</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D298" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>737_20210901</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="9">
+        <v>738</v>
+      </c>
+      <c r="B299" s="11">
+        <v>44426</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D299" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>738_20210818</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="9">
+        <v>739</v>
+      </c>
+      <c r="B300" s="11">
+        <v>44428</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="D300" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>739_20210820</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="9">
+        <v>740</v>
+      </c>
+      <c r="B301" s="9"/>
+      <c r="C301" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D301" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>740_19000100</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="9">
+        <v>741</v>
+      </c>
+      <c r="B302" s="11">
+        <v>44454</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D302" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>741_20210915</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="9">
+        <v>742</v>
+      </c>
+      <c r="B303" s="11">
+        <v>44454</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D303" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>742_20210915</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="9">
+        <v>743</v>
+      </c>
+      <c r="B304" s="11">
+        <v>44433</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D304" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>743_20210825</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="9">
+        <v>744</v>
+      </c>
+      <c r="B305" s="11">
+        <v>44440</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D305" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>744_20210901</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="9">
+        <v>745</v>
+      </c>
+      <c r="B306" s="9"/>
+      <c r="C306" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D306" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>745_19000100</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="9">
+        <v>746</v>
+      </c>
+      <c r="B307" s="11">
+        <v>44431</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D307" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>746_20210823</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="9">
+        <v>747</v>
+      </c>
+      <c r="B308" s="11">
+        <v>44456</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D308" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>747_20210917</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="9">
+        <v>748</v>
+      </c>
+      <c r="B309" s="11">
+        <v>44456</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D309" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>748_20210917</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="9">
+        <v>749</v>
+      </c>
+      <c r="B310" s="9"/>
+      <c r="C310" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="D310" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>749_19000100</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="9">
+        <v>750</v>
+      </c>
+      <c r="B311" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D311" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>750_20210827</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="9">
+        <v>751</v>
+      </c>
+      <c r="B312" s="9"/>
+      <c r="C312" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D312" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>751_19000100</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="9">
+        <v>752</v>
+      </c>
+      <c r="B313" s="11">
+        <v>44435</v>
+      </c>
+      <c r="C313" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="D313" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>752_20210827</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="1">
+        <v>6</v>
+      </c>
+      <c r="B314" s="6">
+        <v>44456</v>
+      </c>
+      <c r="C314" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D314" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>6_20210917</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="1">
+        <v>9</v>
+      </c>
+      <c r="B315" s="1"/>
+      <c r="C315" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="D315" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>9_19000100</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="1">
+        <v>11</v>
+      </c>
+      <c r="B316" s="6">
+        <v>44481</v>
+      </c>
+      <c r="C316" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D316" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>11_20211012</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="1">
+        <v>15</v>
+      </c>
+      <c r="B317" s="6">
+        <v>44467</v>
+      </c>
+      <c r="C317" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D317" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>15_20210928</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="1">
+        <v>20</v>
+      </c>
+      <c r="B318" s="1"/>
+      <c r="C318" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D318" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>20_19000100</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="1">
+        <v>21</v>
+      </c>
+      <c r="B319" s="1"/>
+      <c r="C319" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D319" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>21_19000100</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="1">
+        <v>26</v>
+      </c>
+      <c r="B320" s="1"/>
+      <c r="C320" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D320" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>26_19000100</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="1">
+        <v>35</v>
+      </c>
+      <c r="B321" s="6">
+        <v>44476</v>
+      </c>
+      <c r="C321" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="D321" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>35_20211007</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="1">
+        <v>40</v>
+      </c>
+      <c r="B322" s="1"/>
+      <c r="C322" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D322" s="3" t="str">
+        <f t="shared" ref="D322:D385" si="5">A322&amp;"_"&amp;TEXT(B322,"aaaammjj")</f>
+        <v>40_19000100</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="1">
+        <v>44</v>
+      </c>
+      <c r="B323" s="6">
+        <v>44467</v>
+      </c>
+      <c r="C323" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D323" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>44_20210928</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="1">
+        <v>45</v>
+      </c>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="D324" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>45_19000100</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="1">
+        <v>49</v>
+      </c>
+      <c r="B325" s="1"/>
+      <c r="C325" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D325" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>49_19000100</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="1">
+        <v>76</v>
+      </c>
+      <c r="B326" s="1"/>
+      <c r="C326" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D326" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>76_19000100</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="1">
+        <v>88</v>
+      </c>
+      <c r="B327" s="6">
+        <v>44454</v>
+      </c>
+      <c r="C327" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="D327" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>88_20210915</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="1">
+        <v>92</v>
+      </c>
+      <c r="B328" s="1"/>
+      <c r="C328" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D328" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>92_19000100</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="1">
+        <v>98</v>
+      </c>
+      <c r="B329" s="1"/>
+      <c r="C329" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D329" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>98_19000100</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="1">
+        <v>99</v>
+      </c>
+      <c r="B330" s="1"/>
+      <c r="C330" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D330" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>99_19000100</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="1">
+        <v>100</v>
+      </c>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="D331" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>100_19000100</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="1">
+        <v>104</v>
+      </c>
+      <c r="B332" s="1"/>
+      <c r="C332" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D332" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>104_19000100</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="9">
+        <v>753</v>
+      </c>
+      <c r="B333" s="9"/>
+      <c r="C333" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D333" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>753_19000100</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="9">
+        <v>754</v>
+      </c>
+      <c r="B334" s="9"/>
+      <c r="C334" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D334" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>754_19000100</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="9">
+        <v>755</v>
+      </c>
+      <c r="B335" s="9"/>
+      <c r="C335" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D335" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>755_19000100</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="9">
+        <v>756</v>
+      </c>
+      <c r="B336" s="11">
+        <v>44446</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="D336" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>756_20210907</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="9">
+        <v>757</v>
+      </c>
+      <c r="B337" s="9"/>
+      <c r="C337" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D337" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>757_19000100</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A338" s="9">
+        <v>758</v>
+      </c>
+      <c r="B338" s="11">
+        <v>44476</v>
+      </c>
+      <c r="C338" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D338" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>758_20211007</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A339" s="9">
+        <v>759</v>
+      </c>
+      <c r="B339" s="9"/>
+      <c r="C339" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="D339" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>759_19000100</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A340" s="9">
+        <v>760</v>
+      </c>
+      <c r="B340" s="9"/>
+      <c r="C340" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="D340" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>760_19000100</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A341" s="9">
+        <v>761</v>
+      </c>
+      <c r="B341" s="9"/>
+      <c r="C341" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D341" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>761_19000100</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A342" s="9">
+        <v>762</v>
+      </c>
+      <c r="B342" s="9"/>
+      <c r="C342" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="D342" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>762_19000100</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A343" s="9">
+        <v>763</v>
+      </c>
+      <c r="B343" s="9"/>
+      <c r="C343" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="D343" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>763_19000100</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A344" s="9">
+        <v>764</v>
+      </c>
+      <c r="B344" s="9"/>
+      <c r="C344" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D344" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>764_19000100</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A345" s="9">
+        <v>765</v>
+      </c>
+      <c r="B345" s="9"/>
+      <c r="C345" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="D345" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>765_19000100</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A346" s="9">
+        <v>766</v>
+      </c>
+      <c r="B346" s="9"/>
+      <c r="C346" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="D346" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>766_19000100</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A347" s="9">
+        <v>767</v>
+      </c>
+      <c r="B347" s="9"/>
+      <c r="C347" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D347" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>767_19000100</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A348" s="9">
+        <v>768</v>
+      </c>
+      <c r="B348" s="9"/>
+      <c r="C348" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D348" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>768_19000100</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A349" s="9">
+        <v>769</v>
+      </c>
+      <c r="B349" s="9"/>
+      <c r="C349" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="D349" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>769_19000100</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A350" s="9">
+        <v>770</v>
+      </c>
+      <c r="B350" s="9"/>
+      <c r="C350" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D350" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>770_19000100</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A351" s="9">
+        <v>771</v>
+      </c>
+      <c r="B351" s="9"/>
+      <c r="C351" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="D351" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>771_19000100</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A352" s="9">
+        <v>772</v>
+      </c>
+      <c r="B352" s="9"/>
+      <c r="C352" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D352" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>772_19000100</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A353" s="9">
+        <v>773</v>
+      </c>
+      <c r="B353" s="9"/>
+      <c r="C353" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D353" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>773_19000100</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A354" s="9">
+        <v>774</v>
+      </c>
+      <c r="B354" s="9"/>
+      <c r="C354" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D354" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>774_19000100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A355" s="9">
+        <v>775</v>
+      </c>
+      <c r="B355" s="9"/>
+      <c r="C355" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D355" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>775_19000100</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A356" s="9">
+        <v>776</v>
+      </c>
+      <c r="B356" s="9"/>
+      <c r="C356" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D356" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>776_19000100</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A357" s="9">
+        <v>777</v>
+      </c>
+      <c r="B357" s="9"/>
+      <c r="C357" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D357" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>777_19000100</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A358" s="9">
+        <v>778</v>
+      </c>
+      <c r="B358" s="9"/>
+      <c r="C358" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D358" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>778_19000100</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A359" s="9">
+        <v>779</v>
+      </c>
+      <c r="B359" s="9"/>
+      <c r="C359" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D359" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>779_19000100</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A360" s="9">
+        <v>780</v>
+      </c>
+      <c r="B360" s="9"/>
+      <c r="C360" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D360" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>780_19000100</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A361" s="9">
+        <v>781</v>
+      </c>
+      <c r="B361" s="9"/>
+      <c r="C361" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="D361" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>781_19000100</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A362" s="9">
+        <v>782</v>
+      </c>
+      <c r="B362" s="9"/>
+      <c r="C362" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D362" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>782_19000100</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A363" s="9">
+        <v>783</v>
+      </c>
+      <c r="B363" s="9"/>
+      <c r="C363" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="D363" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>783_19000100</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A364" s="9">
+        <v>784</v>
+      </c>
+      <c r="B364" s="9"/>
+      <c r="C364" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="D364" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>784_19000100</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A365" s="9">
+        <v>785</v>
+      </c>
+      <c r="B365" s="11">
+        <v>44467</v>
+      </c>
+      <c r="C365" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D365" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>785_20210928</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A366" s="9">
+        <v>786</v>
+      </c>
+      <c r="B366" s="9"/>
+      <c r="C366" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="D366" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>786_19000100</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A367" s="9">
+        <v>787</v>
+      </c>
+      <c r="B367" s="11">
+        <v>44461</v>
+      </c>
+      <c r="C367" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D367" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>787_20210922</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A368" s="9">
+        <v>788</v>
+      </c>
+      <c r="B368" s="11">
+        <v>44456</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D368" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>788_20210917</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A369" s="9">
+        <v>789</v>
+      </c>
+      <c r="B369" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C369" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="D369" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>789_20211012</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A370" s="9">
+        <v>790</v>
+      </c>
+      <c r="B370" s="11">
+        <v>44446</v>
+      </c>
+      <c r="C370" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D370" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>790_20210907</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A371" s="9">
+        <v>791</v>
+      </c>
+      <c r="B371" s="9"/>
+      <c r="C371" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D371" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>791_19000100</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A372" s="9">
+        <v>792</v>
+      </c>
+      <c r="B372" s="11">
+        <v>44454</v>
+      </c>
+      <c r="C372" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="D372" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>792_20210915</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A373" s="9">
+        <v>793</v>
+      </c>
+      <c r="B373" s="11">
+        <v>44469</v>
+      </c>
+      <c r="C373" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="D373" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>793_20210930</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A374" s="9">
+        <v>794</v>
+      </c>
+      <c r="B374" s="9"/>
+      <c r="C374" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D374" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>794_19000100</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A375" s="9">
+        <v>795</v>
+      </c>
+      <c r="B375" s="9"/>
+      <c r="C375" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D375" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>795_19000100</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A376" s="9">
+        <v>796</v>
+      </c>
+      <c r="B376" s="9"/>
+      <c r="C376" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D376" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>796_19000100</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A377" s="9">
+        <v>797</v>
+      </c>
+      <c r="B377" s="9"/>
+      <c r="C377" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D377" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>797_19000100</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A378" s="9">
+        <v>798</v>
+      </c>
+      <c r="B378" s="9"/>
+      <c r="C378" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="D378" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>798_19000100</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A379" s="9">
+        <v>799</v>
+      </c>
+      <c r="B379" s="11">
+        <v>44470</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="D379" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>799_20211001</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A380" s="9">
+        <v>800</v>
+      </c>
+      <c r="B380" s="11">
+        <v>44467</v>
+      </c>
+      <c r="C380" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D380" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>800_20210928</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A381" s="9">
+        <v>801</v>
+      </c>
+      <c r="B381" s="9"/>
+      <c r="C381" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D381" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>801_19000100</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A382" s="9">
+        <v>802</v>
+      </c>
+      <c r="B382" s="9"/>
+      <c r="C382" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="D382" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>802_19000100</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A383" s="9">
+        <v>803</v>
+      </c>
+      <c r="B383" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C383" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D383" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>803_20211012</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A384" s="9">
+        <v>804</v>
+      </c>
+      <c r="B384" s="11">
+        <v>44456</v>
+      </c>
+      <c r="C384" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D384" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>804_20210917</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A385" s="9">
+        <v>805</v>
+      </c>
+      <c r="B385" s="9"/>
+      <c r="C385" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D385" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>805_19000100</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A386" s="9">
+        <v>806</v>
+      </c>
+      <c r="B386" s="9"/>
+      <c r="C386" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D386" s="3" t="str">
+        <f t="shared" ref="D386:D449" si="6">A386&amp;"_"&amp;TEXT(B386,"aaaammjj")</f>
+        <v>806_19000100</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A387" s="9">
+        <v>807</v>
+      </c>
+      <c r="B387" s="9"/>
+      <c r="C387" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D387" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>807_19000100</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A388" s="9">
+        <v>808</v>
+      </c>
+      <c r="B388" s="11">
+        <v>44467</v>
+      </c>
+      <c r="C388" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D388" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>808_20210928</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A389" s="9">
+        <v>809</v>
+      </c>
+      <c r="B389" s="11">
+        <v>44481</v>
+      </c>
+      <c r="C389" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D389" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>809_20211012</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A390" s="9">
+        <v>810</v>
+      </c>
+      <c r="B390" s="11">
+        <v>44482</v>
+      </c>
+      <c r="C390" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D390" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>810_20211013</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A391" s="9">
+        <v>811</v>
+      </c>
+      <c r="B391" s="9"/>
+      <c r="C391" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="D391" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>811_19000100</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A392" s="12">
+        <v>812</v>
+      </c>
+      <c r="B392" s="12"/>
+      <c r="C392" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="D392" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>812_19000100</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A393" s="1">
+        <v>1</v>
+      </c>
+      <c r="B393" s="2"/>
+      <c r="C393" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D393" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>1_19000100</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A394" s="1">
+        <v>2</v>
+      </c>
+      <c r="B394" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C394" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D394" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>2_20201209</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A395" s="1">
+        <v>3</v>
+      </c>
+      <c r="B395" s="2"/>
+      <c r="C395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>3_19000100</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A396" s="1">
+        <v>4</v>
+      </c>
+      <c r="B396" s="2"/>
+      <c r="C396" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D396" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>4_19000100</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A397" s="1">
+        <v>5</v>
+      </c>
+      <c r="B397" s="2">
+        <v>44200</v>
+      </c>
+      <c r="C397" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D397" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>5_20210104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A398" s="1">
+        <v>6</v>
+      </c>
+      <c r="B398" s="2"/>
+      <c r="C398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D398" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>6_19000100</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A399" s="1">
+        <v>7</v>
+      </c>
+      <c r="B399" s="2"/>
+      <c r="C399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D399" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>7_19000100</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A400" s="1">
+        <v>8</v>
+      </c>
+      <c r="B400" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C400" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>8_20201222</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A401" s="1">
+        <v>9</v>
+      </c>
+      <c r="B401" s="2">
+        <v>44211</v>
+      </c>
+      <c r="C401" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>9_20210115</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A402" s="1">
+        <v>10</v>
+      </c>
+      <c r="B402" s="2">
+        <v>44203</v>
+      </c>
+      <c r="C402" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>10_20210107</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A403" s="1">
+        <v>11</v>
+      </c>
+      <c r="B403" s="2"/>
+      <c r="C403" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D403" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>11_19000100</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A404" s="1">
+        <v>12</v>
+      </c>
+      <c r="B404" s="2"/>
+      <c r="C404" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D404" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>12_19000100</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A405" s="1">
+        <v>13</v>
+      </c>
+      <c r="B405" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C405" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D405" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>13_20201214</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A406" s="1">
+        <v>14</v>
+      </c>
+      <c r="B406" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C406" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D406" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>14_20210120</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A407" s="1">
+        <v>15</v>
+      </c>
+      <c r="B407" s="2"/>
+      <c r="C407" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D407" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>15_19000100</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A408" s="1">
+        <v>16</v>
+      </c>
+      <c r="B408" s="2"/>
+      <c r="C408" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D408" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>16_19000100</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A409" s="1">
+        <v>17</v>
+      </c>
+      <c r="B409" s="2"/>
+      <c r="C409" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D409" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>17_19000100</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A410" s="1">
+        <v>18</v>
+      </c>
+      <c r="B410" s="2"/>
+      <c r="C410" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D410" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>18_19000100</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A411" s="1">
+        <v>19</v>
+      </c>
+      <c r="B411" s="2"/>
+      <c r="C411" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D411" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>19_19000100</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A412" s="1">
+        <v>20</v>
+      </c>
+      <c r="B412" s="2"/>
+      <c r="C412" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D412" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>20_19000100</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A413" s="1">
+        <v>21</v>
+      </c>
+      <c r="B413" s="2"/>
+      <c r="C413" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D413" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>21_19000100</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A414" s="1">
+        <v>22</v>
+      </c>
+      <c r="B414" s="2">
+        <v>44203</v>
+      </c>
+      <c r="C414" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D414" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>22_20210107</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A415" s="1">
+        <v>23</v>
+      </c>
+      <c r="B415" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C415" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D415" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>23_20210120</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A416" s="1">
+        <v>24</v>
+      </c>
+      <c r="B416" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C416" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D416" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>24_20201222</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A417" s="1">
+        <v>25</v>
+      </c>
+      <c r="B417" s="2"/>
+      <c r="C417" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D417" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>25_19000100</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A418" s="1">
+        <v>26</v>
+      </c>
+      <c r="B418" s="2">
+        <v>44200</v>
+      </c>
+      <c r="C418" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D418" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>26_20210104</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A419" s="1">
+        <v>27</v>
+      </c>
+      <c r="B419" s="2"/>
+      <c r="C419" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D419" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>27_19000100</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A420" s="1">
+        <v>28</v>
+      </c>
+      <c r="B420" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C420" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D420" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>28_20201214</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A421" s="1">
+        <v>29</v>
+      </c>
+      <c r="B421" s="2"/>
+      <c r="C421" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D421" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>29_19000100</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A422" s="1">
+        <v>30</v>
+      </c>
+      <c r="B422" s="2"/>
+      <c r="C422" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D422" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>30_19000100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A423" s="1">
+        <v>31</v>
+      </c>
+      <c r="B423" s="2"/>
+      <c r="C423" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D423" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>31_19000100</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A424" s="1">
+        <v>32</v>
+      </c>
+      <c r="B424" s="2"/>
+      <c r="C424" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D424" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>32_19000100</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A425" s="1">
+        <v>33</v>
+      </c>
+      <c r="B425" s="2"/>
+      <c r="C425" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D425" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>33_19000100</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A426" s="1">
+        <v>34</v>
+      </c>
+      <c r="B426" s="2"/>
+      <c r="C426" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D426" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>34_19000100</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A427" s="1">
+        <v>35</v>
+      </c>
+      <c r="B427" s="2"/>
+      <c r="C427" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D427" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>35_19000100</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A428" s="1">
+        <v>36</v>
+      </c>
+      <c r="B428" s="2"/>
+      <c r="C428" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D428" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>36_19000100</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A429" s="1">
+        <v>37</v>
+      </c>
+      <c r="B429" s="2"/>
+      <c r="C429" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D429" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>37_19000100</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A430" s="1">
+        <v>38</v>
+      </c>
+      <c r="B430" s="2">
+        <v>44167</v>
+      </c>
+      <c r="C430" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D430" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>38_20201202</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A431" s="1">
+        <v>39</v>
+      </c>
+      <c r="B431" s="2"/>
+      <c r="C431" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D431" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>39_19000100</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A432" s="1">
+        <v>40</v>
+      </c>
+      <c r="B432" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C432" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D432" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>40_20201214</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A433" s="1">
+        <v>41</v>
+      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D433" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>41_19000100</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A434" s="1">
+        <v>42</v>
+      </c>
+      <c r="B434" s="2">
+        <v>44169</v>
+      </c>
+      <c r="C434" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D434" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>42_20201204</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A435" s="1">
+        <v>43</v>
+      </c>
+      <c r="B435" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C435" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D435" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>43_20201222</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A436" s="1">
+        <v>44</v>
+      </c>
+      <c r="B436" s="2">
+        <v>44189</v>
+      </c>
+      <c r="C436" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D436" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>44_20201224</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A437" s="1">
+        <v>45</v>
+      </c>
+      <c r="B437" s="2">
+        <v>44195</v>
+      </c>
+      <c r="C437" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D437" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>45_20201230</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A438" s="1">
+        <v>46</v>
+      </c>
+      <c r="B438" s="2"/>
+      <c r="C438" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D438" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>46_19000100</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A439" s="1">
+        <v>47</v>
+      </c>
+      <c r="B439" s="2"/>
+      <c r="C439" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D439" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>47_19000100</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440" s="1">
+        <v>48</v>
+      </c>
+      <c r="B440" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C440" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D440" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>48_20201207</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441" s="1">
+        <v>49</v>
+      </c>
+      <c r="B441" s="2"/>
+      <c r="C441" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D441" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>49_19000100</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442" s="1">
+        <v>50</v>
+      </c>
+      <c r="B442" s="2"/>
+      <c r="C442" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D442" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>50_19000100</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443" s="1">
+        <v>51</v>
+      </c>
+      <c r="B443" s="2"/>
+      <c r="C443" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D443" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>51_19000100</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444" s="1">
+        <v>52</v>
+      </c>
+      <c r="B444" s="2"/>
+      <c r="C444" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D444" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>52_19000100</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445" s="1">
+        <v>53</v>
+      </c>
+      <c r="B445" s="2"/>
+      <c r="C445" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D445" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>53_19000100</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446" s="1">
+        <v>54</v>
+      </c>
+      <c r="B446" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C446" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D446" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>54_20210113</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447" s="1">
+        <v>55</v>
+      </c>
+      <c r="B447" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C447" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D447" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>55_20210113</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448" s="1">
+        <v>56</v>
+      </c>
+      <c r="B448" s="2">
+        <v>44216</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D448" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>56_20210120</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A449" s="1">
+        <v>57</v>
+      </c>
+      <c r="B449" s="2"/>
+      <c r="C449" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D449" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>57_19000100</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A450" s="1">
+        <v>58</v>
+      </c>
+      <c r="B450" s="2"/>
+      <c r="C450" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D450" s="3" t="str">
+        <f t="shared" ref="D450:D513" si="7">A450&amp;"_"&amp;TEXT(B450,"aaaammjj")</f>
+        <v>58_19000100</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A451" s="1">
+        <v>59</v>
+      </c>
+      <c r="B451" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C451" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D451" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>59_20201126</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A452" s="1">
+        <v>60</v>
+      </c>
+      <c r="B452" s="2">
+        <v>44169</v>
+      </c>
+      <c r="C452" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D452" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>60_20201204</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A453" s="1">
+        <v>61</v>
+      </c>
+      <c r="B453" s="2"/>
+      <c r="C453" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D453" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>61_19000100</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A454" s="1">
+        <v>62</v>
+      </c>
+      <c r="B454" s="2"/>
+      <c r="C454" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D454" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>62_19000100</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A455" s="1">
+        <v>63</v>
+      </c>
+      <c r="B455" s="2">
+        <v>44161</v>
+      </c>
+      <c r="C455" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D455" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>63_20201126</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A456" s="1">
+        <v>64</v>
+      </c>
+      <c r="B456" s="2">
+        <v>44165</v>
+      </c>
+      <c r="C456" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D456" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>64_20201130</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A457" s="1">
+        <v>65</v>
+      </c>
+      <c r="B457" s="2"/>
+      <c r="C457" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D457" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>65_19000100</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A458" s="1">
+        <v>66</v>
+      </c>
+      <c r="B458" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D458" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>66_20201214</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A459" s="1">
+        <v>67</v>
+      </c>
+      <c r="B459" s="2">
+        <v>44167</v>
+      </c>
+      <c r="C459" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D459" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>67_20201202</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A460" s="1">
+        <v>68</v>
+      </c>
+      <c r="B460" s="2"/>
+      <c r="C460" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D460" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>68_19000100</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A461" s="1">
+        <v>69</v>
+      </c>
+      <c r="B461" s="2">
+        <v>44154</v>
+      </c>
+      <c r="C461" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D461" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>69_20201119</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A462" s="1">
+        <v>70</v>
+      </c>
+      <c r="B462" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C462" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D462" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>70_20201207</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A463" s="1">
+        <v>71</v>
+      </c>
+      <c r="B463" s="2">
+        <v>44169</v>
+      </c>
+      <c r="C463" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D463" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>71_20201204</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A464" s="1">
+        <v>72</v>
+      </c>
+      <c r="B464" s="2"/>
+      <c r="C464" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D464" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>72_19000100</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A465" s="1">
+        <v>73</v>
+      </c>
+      <c r="B465" s="2"/>
+      <c r="C465" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D465" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>73_19000100</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A466" s="1">
+        <v>74</v>
+      </c>
+      <c r="B466" s="2"/>
+      <c r="C466" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D466" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>74_19000100</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A467" s="1">
+        <v>75</v>
+      </c>
+      <c r="B467" s="2"/>
+      <c r="C467" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D467" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>75_19000100</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A468" s="1">
+        <v>76</v>
+      </c>
+      <c r="B468" s="2">
+        <v>44204</v>
+      </c>
+      <c r="C468" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D468" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>76_20210108</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A469" s="1">
+        <v>77</v>
+      </c>
+      <c r="B469" s="2"/>
+      <c r="C469" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D469" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>77_19000100</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A470" s="1">
+        <v>78</v>
+      </c>
+      <c r="B470" s="2"/>
+      <c r="C470" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D470" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>78_19000100</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A471" s="1">
+        <v>79</v>
+      </c>
+      <c r="B471" s="2"/>
+      <c r="C471" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D471" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>79_19000100</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A472" s="1">
+        <v>80</v>
+      </c>
+      <c r="B472" s="2">
+        <v>44162</v>
+      </c>
+      <c r="C472" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D472" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>80_20201127</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A473" s="1">
+        <v>81</v>
+      </c>
+      <c r="B473" s="2"/>
+      <c r="C473" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D473" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>81_19000100</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A474" s="1">
+        <v>82</v>
+      </c>
+      <c r="B474" s="2"/>
+      <c r="C474" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D474" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>82_19000100</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A475" s="1">
+        <v>83</v>
+      </c>
+      <c r="B475" s="2">
+        <v>44167</v>
+      </c>
+      <c r="C475" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D475" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>83_20201202</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A476" s="1">
+        <v>84</v>
+      </c>
+      <c r="B476" s="2">
+        <v>44165</v>
+      </c>
+      <c r="C476" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D476" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>84_20201130</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A477" s="1">
+        <v>85</v>
+      </c>
+      <c r="B477" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D477" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>85_20201214</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A478" s="1">
+        <v>86</v>
+      </c>
+      <c r="B478" s="2">
+        <v>44218</v>
+      </c>
+      <c r="C478" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D478" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>86_20210122</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A479" s="1">
+        <v>87</v>
+      </c>
+      <c r="B479" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C479" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D479" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>87_20201214</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A480" s="1">
+        <v>88</v>
+      </c>
+      <c r="B480" s="2"/>
+      <c r="C480" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D480" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>88_19000100</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A481" s="1">
+        <v>89</v>
+      </c>
+      <c r="B481" s="2"/>
+      <c r="C481" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D481" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>89_19000100</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A482" s="1">
+        <v>90</v>
+      </c>
+      <c r="B482" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C482" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D482" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>90_20201209</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A483" s="1">
+        <v>91</v>
+      </c>
+      <c r="B483" s="2">
+        <v>44182</v>
+      </c>
+      <c r="C483" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D483" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>91_20201217</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A484" s="1">
+        <v>92</v>
+      </c>
+      <c r="B484" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C484" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D484" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>92_20201209</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A485" s="1">
+        <v>93</v>
+      </c>
+      <c r="B485" s="2"/>
+      <c r="C485" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D485" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>93_19000100</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A486" s="1">
+        <v>94</v>
+      </c>
+      <c r="B486" s="2">
+        <v>44158</v>
+      </c>
+      <c r="C486" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D486" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>94_20201123</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A487" s="1">
+        <v>95</v>
+      </c>
+      <c r="B487" s="2"/>
+      <c r="C487" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D487" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>95_19000100</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A488" s="1">
+        <v>96</v>
+      </c>
+      <c r="B488" s="2"/>
+      <c r="C488" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D488" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>96_19000100</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A489" s="1">
+        <v>97</v>
+      </c>
+      <c r="B489" s="2"/>
+      <c r="C489" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D489" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>97_19000100</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A490" s="1">
+        <v>98</v>
+      </c>
+      <c r="B490" s="2"/>
+      <c r="C490" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D490" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>98_19000100</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A491" s="1">
+        <v>99</v>
+      </c>
+      <c r="B491" s="2">
+        <v>44175</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D491" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>99_20201210</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A492" s="1">
+        <v>100</v>
+      </c>
+      <c r="B492" s="2"/>
+      <c r="C492" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D492" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>100_19000100</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A493" s="1">
+        <v>101</v>
+      </c>
+      <c r="B493" s="2"/>
+      <c r="C493" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D493" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>101_19000100</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A494" s="1">
+        <v>102</v>
+      </c>
+      <c r="B494" s="2">
+        <v>44191</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D494" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>102_20201226</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A495" s="1">
+        <v>103</v>
+      </c>
+      <c r="B495" s="2"/>
+      <c r="C495" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D495" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>103_19000100</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A496" s="1">
+        <v>104</v>
+      </c>
+      <c r="B496" s="2"/>
+      <c r="C496" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D496" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>104_19000100</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A497" s="1">
+        <v>105</v>
+      </c>
+      <c r="B497" s="2"/>
+      <c r="C497" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D497" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>105_19000100</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A498" s="1">
+        <v>106</v>
+      </c>
+      <c r="B498" s="2"/>
+      <c r="C498" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D498" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>106_19000100</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A499" s="1">
+        <v>107</v>
+      </c>
+      <c r="B499" s="2"/>
+      <c r="C499" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D499" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>107_19000100</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A500" s="1">
+        <v>108</v>
+      </c>
+      <c r="B500" s="2"/>
+      <c r="C500" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D500" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>108_19000100</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A501" s="1">
+        <v>109</v>
+      </c>
+      <c r="B501" s="2"/>
+      <c r="C501" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D501" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>109_19000100</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A502" s="1">
+        <v>110</v>
+      </c>
+      <c r="B502" s="2"/>
+      <c r="C502" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D502" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>110_19000100</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A503" s="1">
+        <v>111</v>
+      </c>
+      <c r="B503" s="2"/>
+      <c r="C503" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D503" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>111_19000100</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A504" s="1">
+        <v>112</v>
+      </c>
+      <c r="B504" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D504" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>112_20201209</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A505" s="1">
+        <v>113</v>
+      </c>
+      <c r="B505" s="2"/>
+      <c r="C505" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D505" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>113_19000100</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A506" s="1">
+        <v>114</v>
+      </c>
+      <c r="B506" s="2"/>
+      <c r="C506" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D506" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>114_19000100</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A507" s="1">
+        <v>115</v>
+      </c>
+      <c r="B507" s="2"/>
+      <c r="C507" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D507" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>115_19000100</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A508" s="1">
+        <v>116</v>
+      </c>
+      <c r="B508" s="2"/>
+      <c r="C508" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D508" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>116_19000100</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A509" s="1">
+        <v>117</v>
+      </c>
+      <c r="B509" s="2"/>
+      <c r="C509" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D509" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>117_19000100</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A510" s="1">
+        <v>118</v>
+      </c>
+      <c r="B510" s="2"/>
+      <c r="C510" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D510" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>118_19000100</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A511" s="1">
+        <v>119</v>
+      </c>
+      <c r="B511" s="2"/>
+      <c r="C511" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D511" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>119_19000100</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A512" s="1">
+        <v>120</v>
+      </c>
+      <c r="B512" s="2"/>
+      <c r="C512" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D512" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>120_19000100</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A513" s="1">
+        <v>121</v>
+      </c>
+      <c r="B513" s="2">
+        <v>44189</v>
+      </c>
+      <c r="C513" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D513" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>121_20201224</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A514" s="1">
+        <v>122</v>
+      </c>
+      <c r="B514" s="2"/>
+      <c r="C514" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D514" s="3" t="str">
+        <f t="shared" ref="D514:D554" si="8">A514&amp;"_"&amp;TEXT(B514,"aaaammjj")</f>
+        <v>122_19000100</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A515" s="1">
+        <v>123</v>
+      </c>
+      <c r="B515" s="2"/>
+      <c r="C515" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D515" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>123_19000100</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A516" s="1">
+        <v>124</v>
+      </c>
+      <c r="B516" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C516" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D516" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>124_20201207</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A517" s="1">
+        <v>125</v>
+      </c>
+      <c r="B517" s="2">
+        <v>44187</v>
+      </c>
+      <c r="C517" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D517" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>125_20201222</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A518" s="1">
+        <v>126</v>
+      </c>
+      <c r="B518" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C518" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D518" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>126_20201214</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A519" s="1">
+        <v>127</v>
+      </c>
+      <c r="B519" s="2">
+        <v>44174</v>
+      </c>
+      <c r="C519" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D519" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>127_20201209</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A520" s="1">
+        <v>128</v>
+      </c>
+      <c r="B520" s="2"/>
+      <c r="C520" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D520" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>128_19000100</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A521" s="1">
+        <v>129</v>
+      </c>
+      <c r="B521" s="2">
+        <v>44169</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D521" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>129_20201204</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A522" s="1">
+        <v>130</v>
+      </c>
+      <c r="B522" s="2">
+        <v>44202</v>
+      </c>
+      <c r="C522" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D522" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>130_20210106</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A523" s="1">
+        <v>131</v>
+      </c>
+      <c r="B523" s="2">
+        <v>44200</v>
+      </c>
+      <c r="C523" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D523" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>131_20210104</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A524" s="1">
+        <v>132</v>
+      </c>
+      <c r="B524" s="2"/>
+      <c r="C524" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D524" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>132_19000100</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A525" s="1">
+        <v>133</v>
+      </c>
+      <c r="B525" s="2"/>
+      <c r="C525" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D525" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>133_19000100</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A526" s="1">
+        <v>134</v>
+      </c>
+      <c r="B526" s="2">
+        <v>44162</v>
+      </c>
+      <c r="C526" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D526" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>134_20201127</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A527" s="1">
+        <v>135</v>
+      </c>
+      <c r="B527" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C527" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D527" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>135_20210113</v>
+      </c>
+    </row>
+    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A528" s="1">
+        <v>136</v>
+      </c>
+      <c r="B528" s="2"/>
+      <c r="C528" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D528" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>136_19000100</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A529" s="1">
+        <v>137</v>
+      </c>
+      <c r="B529" s="2">
+        <v>44182</v>
+      </c>
+      <c r="C529" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D529" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>137_20201217</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A530" s="1">
+        <v>138</v>
+      </c>
+      <c r="B530" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C530" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D530" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>138_20201207</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A531" s="1">
+        <v>139</v>
+      </c>
+      <c r="B531" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C531" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D531" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>139_20201214</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A532" s="1">
+        <v>140</v>
+      </c>
+      <c r="B532" s="2"/>
+      <c r="C532" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D532" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>140_19000100</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A533" s="1">
+        <v>141</v>
+      </c>
+      <c r="B533" s="2"/>
+      <c r="C533" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D533" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>141_19000100</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A534" s="1">
+        <v>142</v>
+      </c>
+      <c r="B534" s="2"/>
+      <c r="C534" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D534" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>142_19000100</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A535" s="1">
+        <v>143</v>
+      </c>
+      <c r="B535" s="2"/>
+      <c r="C535" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D535" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>143_19000100</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A536" s="1">
+        <v>144</v>
+      </c>
+      <c r="B536" s="2"/>
+      <c r="C536" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D536" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>144_19000100</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A537" s="1">
+        <v>145</v>
+      </c>
+      <c r="B537" s="2">
+        <v>44179</v>
+      </c>
+      <c r="C537" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D537" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>145_20201214</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A538" s="1">
+        <v>146</v>
+      </c>
+      <c r="B538" s="2"/>
+      <c r="C538" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D538" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>146_19000100</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A539" s="1">
+        <v>147</v>
+      </c>
+      <c r="B539" s="2"/>
+      <c r="C539" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D539" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>147_19000100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A540" s="1">
+        <v>148</v>
+      </c>
+      <c r="B540" s="2">
+        <v>44169</v>
+      </c>
+      <c r="C540" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D540" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>148_20201204</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A541" s="1">
+        <v>149</v>
+      </c>
+      <c r="B541" s="2"/>
+      <c r="C541" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D541" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>149_19000100</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A542" s="1">
+        <v>150</v>
+      </c>
+      <c r="B542" s="2"/>
+      <c r="C542" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D542" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>150_19000100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A543" s="1">
+        <v>151</v>
+      </c>
+      <c r="B543" s="2">
+        <v>44165</v>
+      </c>
+      <c r="C543" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D543" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>151_20201130</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A544" s="1">
+        <v>152</v>
+      </c>
+      <c r="B544" s="2">
+        <v>44189</v>
+      </c>
+      <c r="C544" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D544" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>152_20201224</v>
+      </c>
+    </row>
+    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A545" s="1">
+        <v>153</v>
+      </c>
+      <c r="B545" s="2">
+        <v>44209</v>
+      </c>
+      <c r="C545" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D545" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>153_20210113</v>
+      </c>
+    </row>
+    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A546" s="1">
+        <v>154</v>
+      </c>
+      <c r="B546" s="2"/>
+      <c r="C546" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D546" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>154_19000100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A547" s="1">
+        <v>155</v>
+      </c>
+      <c r="B547" s="2"/>
+      <c r="C547" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D547" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>155_19000100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A548" s="1">
+        <v>156</v>
+      </c>
+      <c r="B548" s="2"/>
+      <c r="C548" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D548" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>156_19000100</v>
+      </c>
+    </row>
+    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A549" s="1">
+        <v>157</v>
+      </c>
+      <c r="B549" s="2"/>
+      <c r="C549" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D549" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>157_19000100</v>
+      </c>
+    </row>
+    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A550" s="1">
+        <v>158</v>
+      </c>
+      <c r="B550" s="2"/>
+      <c r="C550" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D550" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>158_19000100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A551" s="1">
+        <v>159</v>
+      </c>
+      <c r="B551" s="2">
+        <v>44189</v>
+      </c>
+      <c r="C551" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D551" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>159_20201224</v>
+      </c>
+    </row>
+    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A552" s="1">
+        <v>160</v>
+      </c>
+      <c r="B552" s="2"/>
+      <c r="C552" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D552" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>160_19000100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A553" s="1">
+        <v>161</v>
+      </c>
+      <c r="B553" s="2"/>
+      <c r="C553" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D553" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>161_19000100</v>
+      </c>
+    </row>
+    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A554" s="1">
+        <v>162</v>
+      </c>
+      <c r="B554" s="2">
+        <v>44172</v>
+      </c>
+      <c r="C554" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D554" s="3" t="str">
+        <f t="shared" si="8"/>
         <v>162_20201207</v>
       </c>
     </row>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G222"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,10 +460,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>UnderCellophane</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>In Data Base</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Migrating</t>
         </is>
@@ -491,6 +496,7 @@
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,6 +520,7 @@
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,6 +544,7 @@
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -560,6 +568,7 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,6 +592,7 @@
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -606,6 +616,7 @@
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +640,7 @@
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -652,6 +664,7 @@
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -675,6 +688,7 @@
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -698,6 +712,7 @@
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -721,6 +736,7 @@
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -744,6 +760,7 @@
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -767,6 +784,7 @@
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -790,6 +808,7 @@
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -813,6 +832,7 @@
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -836,6 +856,7 @@
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -859,6 +880,7 @@
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -882,6 +904,7 @@
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -905,6 +928,7 @@
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -928,6 +952,7 @@
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -951,6 +976,7 @@
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -974,6 +1000,7 @@
       </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -997,6 +1024,7 @@
       </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1020,6 +1048,7 @@
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1043,6 +1072,7 @@
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1066,6 +1096,7 @@
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1089,6 +1120,7 @@
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1112,6 +1144,7 @@
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1135,6 +1168,7 @@
       </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1158,6 +1192,7 @@
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1181,6 +1216,7 @@
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1204,6 +1240,7 @@
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1227,6 +1264,7 @@
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1250,6 +1288,7 @@
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1273,6 +1312,7 @@
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1296,6 +1336,7 @@
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1319,6 +1360,7 @@
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1342,6 +1384,7 @@
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1365,6 +1408,7 @@
       </c>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1388,6 +1432,7 @@
       </c>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1411,6 +1456,7 @@
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1434,6 +1480,7 @@
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1457,6 +1504,7 @@
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1480,6 +1528,7 @@
       </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1503,6 +1552,7 @@
       </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1526,6 +1576,7 @@
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1549,6 +1600,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1572,6 +1624,7 @@
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1595,6 +1648,7 @@
       </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1618,6 +1672,7 @@
       </c>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1641,6 +1696,7 @@
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1664,6 +1720,7 @@
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1687,6 +1744,7 @@
       </c>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1710,6 +1768,7 @@
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1733,6 +1792,7 @@
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1756,6 +1816,7 @@
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1779,6 +1840,7 @@
       </c>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1802,6 +1864,7 @@
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1825,6 +1888,7 @@
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1848,6 +1912,7 @@
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1871,6 +1936,7 @@
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1894,6 +1960,7 @@
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1917,6 +1984,7 @@
       </c>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1940,6 +2008,7 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1963,6 +2032,7 @@
       </c>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1986,6 +2056,7 @@
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2009,6 +2080,7 @@
       </c>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2032,6 +2104,7 @@
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2055,6 +2128,7 @@
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2078,6 +2152,7 @@
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2101,6 +2176,7 @@
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2124,6 +2200,7 @@
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2147,6 +2224,7 @@
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2170,6 +2248,7 @@
       </c>
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2193,6 +2272,7 @@
       </c>
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2216,6 +2296,7 @@
       </c>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2239,6 +2320,7 @@
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2262,6 +2344,7 @@
       </c>
       <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2285,6 +2368,7 @@
       </c>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2308,6 +2392,7 @@
       </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2331,6 +2416,7 @@
       </c>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2354,6 +2440,7 @@
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2377,6 +2464,7 @@
       </c>
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2400,6 +2488,7 @@
       </c>
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2423,6 +2512,7 @@
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2446,6 +2536,7 @@
       </c>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2469,6 +2560,7 @@
       </c>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2492,6 +2584,7 @@
       </c>
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2515,6 +2608,7 @@
       </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2538,6 +2632,7 @@
       </c>
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2561,6 +2656,7 @@
       </c>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2584,6 +2680,7 @@
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2607,6 +2704,7 @@
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2630,6 +2728,7 @@
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2653,6 +2752,7 @@
       </c>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2676,6 +2776,7 @@
       </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2699,6 +2800,7 @@
       </c>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2722,6 +2824,7 @@
       </c>
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2745,6 +2848,7 @@
       </c>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2768,6 +2872,7 @@
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2791,6 +2896,7 @@
       </c>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2814,6 +2920,7 @@
       </c>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2837,6 +2944,7 @@
       </c>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2860,6 +2968,7 @@
       </c>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2883,6 +2992,7 @@
       </c>
       <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2906,6 +3016,7 @@
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2929,6 +3040,7 @@
       </c>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2952,6 +3064,7 @@
       </c>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2975,6 +3088,7 @@
       </c>
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2998,6 +3112,7 @@
       </c>
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3021,6 +3136,7 @@
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3044,6 +3160,7 @@
       </c>
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3067,6 +3184,7 @@
       </c>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3090,6 +3208,7 @@
       </c>
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3113,6 +3232,7 @@
       </c>
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3136,6 +3256,7 @@
       </c>
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3159,6 +3280,7 @@
       </c>
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3182,6 +3304,7 @@
       </c>
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3205,6 +3328,7 @@
       </c>
       <c r="F120" t="inlineStr"/>
       <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3228,6 +3352,7 @@
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3251,6 +3376,7 @@
       </c>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3274,6 +3400,7 @@
       </c>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3297,6 +3424,7 @@
       </c>
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3320,6 +3448,7 @@
       </c>
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3343,6 +3472,7 @@
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3366,6 +3496,7 @@
       </c>
       <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3389,6 +3520,7 @@
       </c>
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3412,6 +3544,7 @@
       </c>
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3435,6 +3568,7 @@
       </c>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3458,6 +3592,7 @@
       </c>
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3481,6 +3616,7 @@
       </c>
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3504,6 +3640,7 @@
       </c>
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3527,6 +3664,7 @@
       </c>
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3550,6 +3688,7 @@
       </c>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3573,6 +3712,7 @@
       </c>
       <c r="F136" t="inlineStr"/>
       <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3596,6 +3736,7 @@
       </c>
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3619,6 +3760,7 @@
       </c>
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3642,6 +3784,7 @@
       </c>
       <c r="F139" t="inlineStr"/>
       <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3665,6 +3808,7 @@
       </c>
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3688,6 +3832,7 @@
       </c>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3711,6 +3856,7 @@
       </c>
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3734,6 +3880,7 @@
       </c>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3757,6 +3904,7 @@
       </c>
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3780,6 +3928,7 @@
       </c>
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3803,6 +3952,7 @@
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3826,6 +3976,7 @@
       </c>
       <c r="F147" t="inlineStr"/>
       <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3849,6 +4000,7 @@
       </c>
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3872,6 +4024,7 @@
       </c>
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3895,6 +4048,7 @@
       </c>
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3918,6 +4072,7 @@
       </c>
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3941,6 +4096,7 @@
       </c>
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3964,6 +4120,7 @@
       </c>
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3987,6 +4144,7 @@
       </c>
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4010,6 +4168,7 @@
       </c>
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4033,6 +4192,7 @@
       </c>
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4056,6 +4216,7 @@
       </c>
       <c r="F157" t="inlineStr"/>
       <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4079,6 +4240,7 @@
       </c>
       <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4102,6 +4264,7 @@
       </c>
       <c r="F159" t="inlineStr"/>
       <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4125,6 +4288,7 @@
       </c>
       <c r="F160" t="inlineStr"/>
       <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4148,6 +4312,7 @@
       </c>
       <c r="F161" t="inlineStr"/>
       <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4171,6 +4336,7 @@
       </c>
       <c r="F162" t="inlineStr"/>
       <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4194,6 +4360,7 @@
       </c>
       <c r="F163" t="inlineStr"/>
       <c r="G163" t="inlineStr"/>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4217,6 +4384,7 @@
       </c>
       <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4240,6 +4408,7 @@
       </c>
       <c r="F165" t="inlineStr"/>
       <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4263,6 +4432,7 @@
       </c>
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4286,6 +4456,7 @@
       </c>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4309,6 +4480,7 @@
       </c>
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4332,6 +4504,7 @@
       </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4355,6 +4528,7 @@
       </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4378,6 +4552,7 @@
       </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4401,6 +4576,7 @@
       </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4424,6 +4600,7 @@
       </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4447,6 +4624,7 @@
       </c>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4470,6 +4648,7 @@
       </c>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4493,6 +4672,7 @@
       </c>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4516,6 +4696,7 @@
       </c>
       <c r="F177" t="inlineStr"/>
       <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4539,6 +4720,7 @@
       </c>
       <c r="F178" t="inlineStr"/>
       <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4562,6 +4744,7 @@
       </c>
       <c r="F179" t="inlineStr"/>
       <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4585,6 +4768,7 @@
       </c>
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr"/>
+      <c r="H180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4608,6 +4792,7 @@
       </c>
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4631,6 +4816,7 @@
       </c>
       <c r="F182" t="inlineStr"/>
       <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4654,6 +4840,7 @@
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4677,6 +4864,7 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4700,6 +4888,7 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4723,6 +4912,7 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4746,6 +4936,7 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4769,6 +4960,7 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4792,6 +4984,7 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4815,6 +5008,7 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4838,6 +5032,7 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4861,6 +5056,7 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4884,6 +5080,7 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4907,6 +5104,7 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4930,6 +5128,7 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
+      <c r="H195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4953,6 +5152,7 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4976,6 +5176,7 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4999,6 +5200,7 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5022,6 +5224,7 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5045,6 +5248,7 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5068,6 +5272,7 @@
       </c>
       <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5091,6 +5296,7 @@
       </c>
       <c r="F202" t="inlineStr"/>
       <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5114,6 +5320,7 @@
       </c>
       <c r="F203" t="inlineStr"/>
       <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5137,6 +5344,7 @@
       </c>
       <c r="F204" t="inlineStr"/>
       <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5160,6 +5368,7 @@
       </c>
       <c r="F205" t="inlineStr"/>
       <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5183,6 +5392,7 @@
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5206,6 +5416,7 @@
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5229,6 +5440,7 @@
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5252,6 +5464,7 @@
       </c>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5275,6 +5488,7 @@
       </c>
       <c r="F210" t="inlineStr"/>
       <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5298,6 +5512,7 @@
       </c>
       <c r="F211" t="inlineStr"/>
       <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5321,6 +5536,7 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5344,6 +5560,7 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5367,6 +5584,7 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5390,6 +5608,7 @@
       </c>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
+      <c r="H215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5413,6 +5632,7 @@
       </c>
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5436,6 +5656,7 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5459,6 +5680,7 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5482,6 +5704,7 @@
       </c>
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5505,6 +5728,7 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5528,6 +5752,7 @@
       </c>
       <c r="F221" t="inlineStr"/>
       <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5551,6 +5776,295 @@
       </c>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>3554</v>
+      </c>
+      <c r="B223" t="n">
+        <v>45</v>
+      </c>
+      <c r="C223" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>MYR2203B045</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>45_20220310</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>3556</v>
+      </c>
+      <c r="B224" t="n">
+        <v>47</v>
+      </c>
+      <c r="C224" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>MYR2203B047</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>47_20220310</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>3558</v>
+      </c>
+      <c r="B225" t="n">
+        <v>49</v>
+      </c>
+      <c r="C225" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>MYR2203B049</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>49_20220310</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr"/>
+      <c r="H225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>3559</v>
+      </c>
+      <c r="B226" t="n">
+        <v>50</v>
+      </c>
+      <c r="C226" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>MYR2203B050</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>50_20220310</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>3564</v>
+      </c>
+      <c r="B227" t="n">
+        <v>55</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>MYR2203B055</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>55_20220310</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr"/>
+      <c r="H227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>3567</v>
+      </c>
+      <c r="B228" t="n">
+        <v>58</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>MYR2203B058</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>58_20220310</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>3569</v>
+      </c>
+      <c r="B229" t="n">
+        <v>60</v>
+      </c>
+      <c r="C229" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>MYR2203B060</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>60_20220310</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>3571</v>
+      </c>
+      <c r="B230" t="n">
+        <v>62</v>
+      </c>
+      <c r="C230" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>MYR2203B062</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>62_20220324</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>3609</v>
+      </c>
+      <c r="B231" t="n">
+        <v>100</v>
+      </c>
+      <c r="C231" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>MYR2203B100</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>100_20220324</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>3615</v>
+      </c>
+      <c r="B232" t="n">
+        <v>106</v>
+      </c>
+      <c r="C232" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>MYR2203B106</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>106_20220324</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>3618</v>
+      </c>
+      <c r="B233" t="n">
+        <v>109</v>
+      </c>
+      <c r="C233" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>MYR2203B109</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>109_20220324</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>3624</v>
+      </c>
+      <c r="B234" t="n">
+        <v>115</v>
+      </c>
+      <c r="C234" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>MYR2203B115</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>115_20220324</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
+++ b/prince_archiver/entrypoints/mock_prince/2025_DataMigration.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H234"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="B2" t="n">
-        <v>705</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>44848</v>
+        <v>45677</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ROT2209A005</t>
+          <t>EPY2412A081</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>705_20221014</t>
+          <t>81_20250120</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -500,22 +500,22 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>598</v>
       </c>
       <c r="B3" t="n">
-        <v>707</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>44883</v>
+        <v>45653</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ROT2209A007</t>
+          <t>ART2412A021</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>707_20221118</t>
+          <t>21_20241227</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -524,22 +524,22 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>8</v>
+        <v>663</v>
       </c>
       <c r="B4" t="n">
-        <v>709</v>
+        <v>42</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>44859</v>
+        <v>45397</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ROT2209A009</t>
+          <t>MYR2404B042</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>709_20221025</t>
+          <t>42_20240415</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -548,22 +548,22 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>9</v>
+        <v>666</v>
       </c>
       <c r="B5" t="n">
-        <v>710</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>44859</v>
+        <v>45397</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>ROT2209A010</t>
+          <t>MYR2404B045</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>710_20221025</t>
+          <t>45_20240415</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -572,22 +572,22 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>15</v>
+        <v>669</v>
       </c>
       <c r="B6" t="n">
-        <v>716</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>44873</v>
+        <v>45397</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ROT2209A016</t>
+          <t>MYR2404B048</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>716_20221108</t>
+          <t>48_20240415</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -596,22 +596,22 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>18</v>
+        <v>684</v>
       </c>
       <c r="B7" t="n">
-        <v>719</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>44837</v>
+        <v>45397</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ROT2209A019</t>
+          <t>MYR2404B063</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>719_20221003</t>
+          <t>63_20240415</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -620,22 +620,22 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>19</v>
+        <v>689</v>
       </c>
       <c r="B8" t="n">
-        <v>720</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>44875</v>
+        <v>45397</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ROT2209A020</t>
+          <t>MYR2404B068</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>720_20221110</t>
+          <t>68_20240415</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -644,22 +644,22 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>846</v>
       </c>
       <c r="B9" t="n">
-        <v>721</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>44834</v>
+        <v>45656</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ROT2209A021</t>
+          <t>LPD2412A001</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>721_20220930</t>
+          <t>1_20241230</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -668,22 +668,22 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>851</v>
       </c>
       <c r="B10" t="n">
-        <v>726</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>44839</v>
+        <v>45650</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ROT2209A026</t>
+          <t>LPD2412A008</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>726_20221005</t>
+          <t>8_20241224</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -692,22 +692,22 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>26</v>
+        <v>854</v>
       </c>
       <c r="B11" t="n">
-        <v>727</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>44839</v>
+        <v>45652</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ROT2209A027</t>
+          <t>LPD2412A012</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>727_20221005</t>
+          <t>12_20241226</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -716,22 +716,22 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>27</v>
+        <v>877</v>
       </c>
       <c r="B12" t="n">
-        <v>728</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>44859</v>
+        <v>45667</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ROT2209A028</t>
+          <t>LPD2412A043</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>728_20221025</t>
+          <t>43_20250110</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -740,22 +740,22 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>30</v>
+        <v>1056</v>
       </c>
       <c r="B13" t="n">
-        <v>731</v>
+        <v>395</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>44847</v>
+        <v>45261</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ROT2209A031</t>
+          <t>STR2310A179</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>731_20221013</t>
+          <t>395_20231201</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
@@ -764,22 +764,22 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>33</v>
+        <v>1062</v>
       </c>
       <c r="B14" t="n">
-        <v>734</v>
+        <v>401</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>44853</v>
+        <v>45253</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ROT2209A034</t>
+          <t>STR2310A185</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>734_20221019</t>
+          <t>401_20231123</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -788,22 +788,22 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>1064</v>
       </c>
       <c r="B15" t="n">
-        <v>737</v>
+        <v>403</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>44859</v>
+        <v>45264</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ROT2209A037</t>
+          <t>STR2310A187</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>737_20221025</t>
+          <t>403_20231204</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -812,22 +812,22 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>50</v>
+        <v>1065</v>
       </c>
       <c r="B16" t="n">
-        <v>751</v>
+        <v>404</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>44901</v>
+        <v>45257</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ROT2209A051</t>
+          <t>STR2310A188</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>751_20221206</t>
+          <t>404_20231127</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -836,22 +836,22 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>51</v>
+        <v>1068</v>
       </c>
       <c r="B17" t="n">
-        <v>752</v>
+        <v>407</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>44859</v>
+        <v>45293</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ROT2209A052</t>
+          <t>STR2310A191</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>752_20221025</t>
+          <t>407_20240102</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -860,22 +860,22 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>61</v>
+        <v>1079</v>
       </c>
       <c r="B18" t="n">
-        <v>762</v>
+        <v>418</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>44908</v>
+        <v>45296</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ROT2211A062</t>
+          <t>STR2310A202</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>762_20221213</t>
+          <t>418_20240105</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -884,22 +884,22 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>62</v>
+        <v>1081</v>
       </c>
       <c r="B19" t="n">
-        <v>763</v>
+        <v>420</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>44935</v>
+        <v>45285</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROT2211A063</t>
+          <t>STR2310A204</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>763_20230109</t>
+          <t>420_20231225</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
@@ -908,22 +908,22 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>63</v>
+        <v>1083</v>
       </c>
       <c r="B20" t="n">
-        <v>764</v>
+        <v>422</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>44914</v>
+        <v>45324</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ROT2211A064</t>
+          <t>STR2311A206</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>764_20221219</t>
+          <t>422_20240202</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
@@ -932,22 +932,22 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>74</v>
+        <v>1086</v>
       </c>
       <c r="B21" t="n">
-        <v>775</v>
+        <v>425</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>45017</v>
+        <v>45329</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ROT2302A005</t>
+          <t>STR2311A209</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>775_20230401</t>
+          <t>425_20240207</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -956,22 +956,22 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>75</v>
+        <v>1087</v>
       </c>
       <c r="B22" t="n">
-        <v>776</v>
+        <v>426</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>45012</v>
+        <v>45327</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ROT2302A006</t>
+          <t>STR2311A210</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>776_20230327</t>
+          <t>426_20240205</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -980,22 +980,22 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>77</v>
+        <v>1089</v>
       </c>
       <c r="B23" t="n">
-        <v>778</v>
+        <v>428</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>45033</v>
+        <v>45306</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ROT2302A008</t>
+          <t>STR2311A212</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>778_20230417</t>
+          <t>428_20240115</t>
         </is>
       </c>
       <c r="F23" t="inlineStr"/>
@@ -1004,22 +1004,22 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>80</v>
+        <v>1090</v>
       </c>
       <c r="B24" t="n">
-        <v>781</v>
+        <v>429</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>45005</v>
+        <v>45329</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ROT2302A011</t>
+          <t>STR2311A213</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>781_20230320</t>
+          <t>429_20240207</t>
         </is>
       </c>
       <c r="F24" t="inlineStr"/>
@@ -1028,22 +1028,22 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>90</v>
+        <v>1092</v>
       </c>
       <c r="B25" t="n">
-        <v>791</v>
+        <v>431</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>44998</v>
+        <v>45315</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROT2302A021</t>
+          <t>STR2311A215</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>791_20230313</t>
+          <t>431_20240124</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1052,22 +1052,22 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>105</v>
+        <v>1094</v>
       </c>
       <c r="B26" t="n">
-        <v>806</v>
+        <v>433</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>45005</v>
+        <v>45313</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROT2302A036</t>
+          <t>STR2311A217</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>806_20230320</t>
+          <t>433_20240122</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
@@ -1076,22 +1076,22 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>109</v>
+        <v>1095</v>
       </c>
       <c r="B27" t="n">
-        <v>810</v>
+        <v>434</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>45017</v>
+        <v>45348</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>ROT2302A040</t>
+          <t>STR2311A218</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>810_20230401</t>
+          <t>434_20240226</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -1100,22 +1100,22 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>129</v>
+        <v>1097</v>
       </c>
       <c r="B28" t="n">
-        <v>830</v>
+        <v>436</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>45013</v>
+        <v>45350</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ROT2302A060</t>
+          <t>STR2311A220</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>830_20230328</t>
+          <t>436_20240228</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -1124,22 +1124,22 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>133</v>
+        <v>1101</v>
       </c>
       <c r="B29" t="n">
-        <v>834</v>
+        <v>440</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>45054</v>
+        <v>45357</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ROT2302A064</t>
+          <t>STR2401A224</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>834_20230508</t>
+          <t>440_20240306</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -1148,22 +1148,22 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>139</v>
+        <v>1102</v>
       </c>
       <c r="B30" t="n">
-        <v>840</v>
+        <v>441</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>45020</v>
+        <v>45380</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ROT2302A070</t>
+          <t>STR2401A225</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>840_20230404</t>
+          <t>441_20240329</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -1172,22 +1172,22 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>141</v>
+        <v>1104</v>
       </c>
       <c r="B31" t="n">
-        <v>842</v>
+        <v>443</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>45005</v>
+        <v>45355</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ROT2302A072</t>
+          <t>STR2401A227</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>842_20230320</t>
+          <t>443_20240304</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -1196,22 +1196,22 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>152</v>
+        <v>1105</v>
       </c>
       <c r="B32" t="n">
-        <v>853</v>
+        <v>444</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>45043</v>
+        <v>45371</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ROT2302A083</t>
+          <t>STR2401A228</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>853_20230427</t>
+          <t>444_20240320</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
@@ -1220,22 +1220,22 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>154</v>
+        <v>1124</v>
       </c>
       <c r="B33" t="n">
-        <v>855</v>
+        <v>463</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>45009</v>
+        <v>45425</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>ROT2302A085</t>
+          <t>STR2402A247</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>855_20230324</t>
+          <t>463_20240513</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
@@ -1244,22 +1244,22 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>164</v>
+        <v>1130</v>
       </c>
       <c r="B34" t="n">
-        <v>865</v>
+        <v>469</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>45025</v>
+        <v>45397</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ROT2302A095</t>
+          <t>STR2402A253</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>865_20230409</t>
+          <t>469_20240415</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
@@ -1268,22 +1268,22 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>165</v>
+        <v>1139</v>
       </c>
       <c r="B35" t="n">
-        <v>866</v>
+        <v>478</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>45031</v>
+        <v>45394</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ROT2302A096</t>
+          <t>STR2402A262</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>866_20230415</t>
+          <t>478_20240412</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
@@ -1292,22 +1292,22 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>168</v>
+        <v>1154</v>
       </c>
       <c r="B36" t="n">
-        <v>869</v>
+        <v>493</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>45050</v>
+        <v>45453</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>ROT2302A099</t>
+          <t>STR2404A001</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>869_20230504</t>
+          <t>493_20240610</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
@@ -1316,22 +1316,22 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>169</v>
+        <v>1163</v>
       </c>
       <c r="B37" t="n">
-        <v>870</v>
+        <v>502</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>45043</v>
+        <v>45470</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>ROT2302A100</t>
+          <t>STR2404A010</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>870_20230427</t>
+          <t>502_20240627</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
@@ -1340,22 +1340,22 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>171</v>
+        <v>1164</v>
       </c>
       <c r="B38" t="n">
-        <v>872</v>
+        <v>503</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>45082</v>
+        <v>45470</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>ROT2302A102</t>
+          <t>STR2404A011</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>872_20230605</t>
+          <t>503_20240627</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -1364,22 +1364,22 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>178</v>
+        <v>1175</v>
       </c>
       <c r="B39" t="n">
-        <v>879</v>
+        <v>514</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>45065</v>
+        <v>45441</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ROT2302A109</t>
+          <t>STR2405A022</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>879_20230519</t>
+          <t>514_20240529</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
@@ -1388,22 +1388,22 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>180</v>
+        <v>1371</v>
       </c>
       <c r="B40" t="n">
-        <v>881</v>
+        <v>712</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>45054</v>
+        <v>45422</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ROT2302A111</t>
+          <t>CHC2404A113</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>881_20230508</t>
+          <t>712_20240510</t>
         </is>
       </c>
       <c r="F40" t="inlineStr"/>
@@ -1412,22 +1412,22 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>181</v>
+        <v>1610</v>
       </c>
       <c r="B41" t="n">
-        <v>882</v>
+        <v>423</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>45055</v>
+        <v>45443</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>ROT2302A112</t>
+          <t>CHC2404A352</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>882_20230509</t>
+          <t>423_20240531</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -1436,22 +1436,22 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>185</v>
+        <v>1728</v>
       </c>
       <c r="B42" t="n">
-        <v>886</v>
+        <v>497</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>45062</v>
+        <v>44928</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ROT2302A116</t>
+          <t>TRS2210A096</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>886_20230516</t>
+          <t>497_20230102</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
@@ -1460,22 +1460,22 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>187</v>
+        <v>1746</v>
       </c>
       <c r="B43" t="n">
-        <v>888</v>
+        <v>515</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>45048</v>
+        <v>44900</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>ROT2302A118</t>
+          <t>TRS2210A114</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>888_20230502</t>
+          <t>515_20221205</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
@@ -1484,22 +1484,22 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>195</v>
+        <v>1753</v>
       </c>
       <c r="B44" t="n">
-        <v>896</v>
+        <v>522</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>45040</v>
+        <v>44941</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>ROT2302A126</t>
+          <t>TRS2211A121</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>896_20230424</t>
+          <t>522_20230115</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
@@ -1508,22 +1508,22 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>201</v>
+        <v>1763</v>
       </c>
       <c r="B45" t="n">
-        <v>902</v>
+        <v>532</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>45082</v>
+        <v>44930</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>ROT2302A132</t>
+          <t>TRS2211A131</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>902_20230605</t>
+          <t>532_20230104</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>413</v>
+        <v>1775</v>
       </c>
       <c r="B46" t="n">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45611</v>
+        <v>44935</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CRC2412A005</t>
+          <t>TRS2211A143</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>404_20241115</t>
+          <t>544_20230109</t>
         </is>
       </c>
       <c r="F46" t="inlineStr"/>
@@ -1556,22 +1556,22 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>422</v>
+        <v>1783</v>
       </c>
       <c r="B47" t="n">
-        <v>413</v>
+        <v>552</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>45603</v>
+        <v>44937</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CRC2412A014</t>
+          <t>TRS2211A151</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>413_20241107</t>
+          <t>552_20230111</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
@@ -1580,22 +1580,22 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>445</v>
+        <v>1788</v>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>557</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>45611</v>
+        <v>44946</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CRC2412A005</t>
+          <t>TRS2211A156</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5_20241115</t>
+          <t>557_20230120</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
@@ -1604,22 +1604,22 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>454</v>
+        <v>1827</v>
       </c>
       <c r="B49" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>45603</v>
+        <v>44901</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CRC2412A014</t>
+          <t>EPY2210A004</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>14_20241107</t>
+          <t>4_20221206</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
@@ -1628,22 +1628,22 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>553</v>
+        <v>1845</v>
       </c>
       <c r="B50" t="n">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>45677</v>
+        <v>44923</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>EPY2412A081</t>
+          <t>EPY2210A022</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>81_20250120</t>
+          <t>22_20221228</t>
         </is>
       </c>
       <c r="F50" t="inlineStr"/>
@@ -1652,22 +1652,22 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>598</v>
+        <v>1860</v>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>45653</v>
+        <v>44937</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>ART2412A021</t>
+          <t>EPY2211A037</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>21_20241227</t>
+          <t>37_20230111</t>
         </is>
       </c>
       <c r="F51" t="inlineStr"/>
@@ -1676,22 +1676,22 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>651</v>
+        <v>1905</v>
       </c>
       <c r="B52" t="n">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>45362</v>
+        <v>45020</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>MYR2403B030</t>
+          <t>EPY2301A082</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>30_20240311</t>
+          <t>81_20230404</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
@@ -1700,22 +1700,22 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>662</v>
+        <v>1908</v>
       </c>
       <c r="B53" t="n">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>45397</v>
+        <v>45017</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>MYR2404B041</t>
+          <t>EPY2301A085</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>41_20240415</t>
+          <t>84_20230401</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
@@ -1724,22 +1724,22 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>663</v>
+        <v>1912</v>
       </c>
       <c r="B54" t="n">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>45397</v>
+        <v>45002</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>MYR2404B042</t>
+          <t>EPY2301A089</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>42_20240415</t>
+          <t>88_20230317</t>
         </is>
       </c>
       <c r="F54" t="inlineStr"/>
@@ -1748,22 +1748,22 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>666</v>
+        <v>2711</v>
       </c>
       <c r="B55" t="n">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>45397</v>
+        <v>45159</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>MYR2404B045</t>
+          <t>PNF2307A078</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>45_20240415</t>
+          <t>447_20230821</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
@@ -1772,22 +1772,22 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>669</v>
+        <v>2761</v>
       </c>
       <c r="B56" t="n">
-        <v>48</v>
+        <v>802</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>45397</v>
+        <v>45282</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>MYR2404B048</t>
+          <t>SPV2309A002</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>48_20240415</t>
+          <t>802_20231222</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
@@ -1796,22 +1796,22 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>674</v>
+        <v>2766</v>
       </c>
       <c r="B57" t="n">
-        <v>53</v>
+        <v>822</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>45397</v>
+        <v>45264</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>MYR2404B053</t>
+          <t>SPV2309A007</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>53_20240415</t>
+          <t>822_20231204</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
@@ -1820,22 +1820,22 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>675</v>
+        <v>2767</v>
       </c>
       <c r="B58" t="n">
-        <v>54</v>
+        <v>826</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>45397</v>
+        <v>45293</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>MYR2404B054</t>
+          <t>SPV2309A008</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>54_20240415</t>
+          <t>826_20240102</t>
         </is>
       </c>
       <c r="F58" t="inlineStr"/>
@@ -1844,22 +1844,22 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>678</v>
+        <v>2770</v>
       </c>
       <c r="B59" t="n">
-        <v>57</v>
+        <v>838</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>45397</v>
+        <v>45264</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>MYR2404B057</t>
+          <t>SPV2309A011</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>57_20240415</t>
+          <t>838_20231204</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
@@ -1868,22 +1868,22 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>679</v>
+        <v>2773</v>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>866</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>45397</v>
+        <v>45264</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>MYR2404B058</t>
+          <t>SPV2309A014</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>58_20240415</t>
+          <t>866_20231204</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
@@ -1892,22 +1892,22 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>681</v>
+        <v>2774</v>
       </c>
       <c r="B61" t="n">
-        <v>60</v>
+        <v>870</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>45397</v>
+        <v>45276</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>MYR2404B060</t>
+          <t>SPV2309A015</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>60_20240415</t>
+          <t>870_20231216</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
@@ -1916,22 +1916,22 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>682</v>
+        <v>2777</v>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>882</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>45397</v>
+        <v>45274</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MYR2404B061</t>
+          <t>SPV2309A018</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>61_20240415</t>
+          <t>882_20231214</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
@@ -1940,22 +1940,22 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>683</v>
+        <v>2781</v>
       </c>
       <c r="B63" t="n">
-        <v>62</v>
+        <v>906</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>45397</v>
+        <v>45223</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MYR2404B062</t>
+          <t>SPV2309A022</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>62_20240415</t>
+          <t>906_20231024</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
@@ -1964,22 +1964,22 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>684</v>
+        <v>2784</v>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>918</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>45397</v>
+        <v>45240</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MYR2404B063</t>
+          <t>SPV2309A025</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>63_20240415</t>
+          <t>918_20231110</t>
         </is>
       </c>
       <c r="F64" t="inlineStr"/>
@@ -1988,22 +1988,22 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>685</v>
+        <v>2785</v>
       </c>
       <c r="B65" t="n">
-        <v>64</v>
+        <v>922</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>45397</v>
+        <v>45259</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MYR2404B064</t>
+          <t>SPV2309A026</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>64_20240415</t>
+          <t>922_20231129</t>
         </is>
       </c>
       <c r="F65" t="inlineStr"/>
@@ -2012,22 +2012,22 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>686</v>
+        <v>2786</v>
       </c>
       <c r="B66" t="n">
-        <v>65</v>
+        <v>926</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>45397</v>
+        <v>45215</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MYR2404B065</t>
+          <t>SPV2309A027</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>65_20240415</t>
+          <t>926_20231016</t>
         </is>
       </c>
       <c r="F66" t="inlineStr"/>
@@ -2036,22 +2036,22 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>688</v>
+        <v>2793</v>
       </c>
       <c r="B67" t="n">
-        <v>67</v>
+        <v>804</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>45397</v>
+        <v>45248</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>MYR2404B067</t>
+          <t>SPV2309A034</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>67_20240415</t>
+          <t>804_20231118</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -2060,22 +2060,22 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>689</v>
+        <v>2794</v>
       </c>
       <c r="B68" t="n">
-        <v>68</v>
+        <v>808</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>45397</v>
+        <v>45281</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>MYR2404B068</t>
+          <t>SPV2309A035</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>68_20240415</t>
+          <t>808_20231221</t>
         </is>
       </c>
       <c r="F68" t="inlineStr"/>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>722</v>
+        <v>2797</v>
       </c>
       <c r="B69" t="n">
-        <v>101</v>
+        <v>820</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>45415</v>
+        <v>45254</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>MYR2405B101</t>
+          <t>SPV2309A038</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>101_20240503</t>
+          <t>820_20231124</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
@@ -2108,22 +2108,22 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>723</v>
+        <v>2800</v>
       </c>
       <c r="B70" t="n">
-        <v>102</v>
+        <v>832</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>45415</v>
+        <v>45307</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>MYR2405B102</t>
+          <t>SPV2309A041</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>102_20240503</t>
+          <t>832_20240116</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
@@ -2132,22 +2132,22 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>724</v>
+        <v>2801</v>
       </c>
       <c r="B71" t="n">
-        <v>103</v>
+        <v>836</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>45415</v>
+        <v>45253</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>MYR2405B103</t>
+          <t>SPV2309A042</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>103_20240503</t>
+          <t>836_20231123</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
@@ -2156,22 +2156,22 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>725</v>
+        <v>2807</v>
       </c>
       <c r="B72" t="n">
-        <v>104</v>
+        <v>844</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>45415</v>
+        <v>45251</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>MYR2405B104</t>
+          <t>SPV2309A048</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>104_20240503</t>
+          <t>844_20231121</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
@@ -2180,22 +2180,22 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>726</v>
+        <v>2808</v>
       </c>
       <c r="B73" t="n">
-        <v>105</v>
+        <v>864</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>45415</v>
+        <v>45264</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>MYR2405B105</t>
+          <t>SPV2309A049</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>105_20240503</t>
+          <t>864_20231204</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
@@ -2204,22 +2204,22 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>727</v>
+        <v>2810</v>
       </c>
       <c r="B74" t="n">
-        <v>106</v>
+        <v>876</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>45415</v>
+        <v>45276</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>MYR2405B106</t>
+          <t>SPV2309A051</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>106_20240503</t>
+          <t>876_20231216</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
@@ -2228,22 +2228,22 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>846</v>
+        <v>2812</v>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>884</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>45656</v>
+        <v>45261</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>LPD2412A001</t>
+          <t>SPV2309A053</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1_20241230</t>
+          <t>884_20231201</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -2252,22 +2252,22 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>851</v>
+        <v>2813</v>
       </c>
       <c r="B76" t="n">
-        <v>8</v>
+        <v>888</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>45650</v>
+        <v>45251</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>LPD2412A008</t>
+          <t>SPV2309A054</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>8_20241224</t>
+          <t>888_20231121</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -2276,22 +2276,22 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>854</v>
+        <v>2814</v>
       </c>
       <c r="B77" t="n">
-        <v>12</v>
+        <v>892</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>45652</v>
+        <v>45254</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LPD2412A012</t>
+          <t>SPV2309A055</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>12_20241226</t>
+          <t>892_20231124</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -2300,22 +2300,22 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>868</v>
+        <v>2816</v>
       </c>
       <c r="B78" t="n">
-        <v>29</v>
+        <v>900</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>45659</v>
+        <v>45282</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LPD2412A029</t>
+          <t>SPV2309A057</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>29_20250102</t>
+          <t>900_20231222</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
@@ -2324,22 +2324,22 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>877</v>
+        <v>2817</v>
       </c>
       <c r="B79" t="n">
-        <v>43</v>
+        <v>908</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>45667</v>
+        <v>45290</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>LPD2412A043</t>
+          <t>SPV2309A058</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>43_20250110</t>
+          <t>908_20231230</t>
         </is>
       </c>
       <c r="F79" t="inlineStr"/>
@@ -2348,22 +2348,22 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>896</v>
+        <v>2819</v>
       </c>
       <c r="B80" t="n">
-        <v>237</v>
+        <v>916</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>44992</v>
+        <v>45290</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>STR2301A019</t>
+          <t>SPV2309A060</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>237_20230307</t>
+          <t>916_20231230</t>
         </is>
       </c>
       <c r="F80" t="inlineStr"/>
@@ -2372,22 +2372,22 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>909</v>
+        <v>2842</v>
       </c>
       <c r="B81" t="n">
-        <v>206</v>
+        <v>829</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>44988</v>
+        <v>45240</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>STR2301A032</t>
+          <t>SPV2309A083</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>206_20230303</t>
+          <t>829_20231110</t>
         </is>
       </c>
       <c r="F81" t="inlineStr"/>
@@ -2396,22 +2396,22 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>926</v>
+        <v>2844</v>
       </c>
       <c r="B82" t="n">
-        <v>240</v>
+        <v>833</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>45013</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>STR2301A049</t>
+          <t>SPV2309A085</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>240_20230328</t>
+          <t>833_20231113</t>
         </is>
       </c>
       <c r="F82" t="inlineStr"/>
@@ -2420,22 +2420,22 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>927</v>
+        <v>2845</v>
       </c>
       <c r="B83" t="n">
-        <v>242</v>
+        <v>837</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>44992</v>
+        <v>45236</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>STR2301A050</t>
+          <t>SPV2309A086</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>242_20230307</t>
+          <t>837_20231106</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
@@ -2444,22 +2444,22 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>929</v>
+        <v>2847</v>
       </c>
       <c r="B84" t="n">
-        <v>246</v>
+        <v>865</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>45001</v>
+        <v>45255</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>STR2301A052</t>
+          <t>SPV2309A088</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>246_20230316</t>
+          <t>865_20231125</t>
         </is>
       </c>
       <c r="F84" t="inlineStr"/>
@@ -2468,22 +2468,22 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>931</v>
+        <v>2848</v>
       </c>
       <c r="B85" t="n">
-        <v>250</v>
+        <v>869</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>45054</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>STR2301A054</t>
+          <t>SPV2309A089</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>250_20230508</t>
+          <t>869_20231103</t>
         </is>
       </c>
       <c r="F85" t="inlineStr"/>
@@ -2492,22 +2492,22 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>933</v>
+        <v>2850</v>
       </c>
       <c r="B86" t="n">
-        <v>254</v>
+        <v>881</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>45012</v>
+        <v>45279</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>STR2301A056</t>
+          <t>SPV2309A091</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>254_20230327</t>
+          <t>881_20231219</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
@@ -2516,22 +2516,22 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>952</v>
+        <v>2853</v>
       </c>
       <c r="B87" t="n">
-        <v>275</v>
+        <v>897</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>45069</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>STR2303A075</t>
+          <t>SPV2309A094</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>275_20230523</t>
+          <t>897_20231103</t>
         </is>
       </c>
       <c r="F87" t="inlineStr"/>
@@ -2540,22 +2540,22 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>960</v>
+        <v>2854</v>
       </c>
       <c r="B88" t="n">
-        <v>283</v>
+        <v>905</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>45078</v>
+        <v>45239</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>STR2303A083</t>
+          <t>SPV2309A095</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>283_20230601</t>
+          <t>905_20231109</t>
         </is>
       </c>
       <c r="F88" t="inlineStr"/>
@@ -2564,22 +2564,22 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>966</v>
+        <v>2856</v>
       </c>
       <c r="B89" t="n">
-        <v>289</v>
+        <v>913</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>45078</v>
+        <v>45234</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>STR2303A089</t>
+          <t>SPV2309A097</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>289_20230601</t>
+          <t>913_20231104</t>
         </is>
       </c>
       <c r="F89" t="inlineStr"/>
@@ -2588,22 +2588,22 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>972</v>
+        <v>2858</v>
       </c>
       <c r="B90" t="n">
-        <v>295</v>
+        <v>929</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>45118</v>
+        <v>45253</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>STR2306A095</t>
+          <t>SPV2309A099</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>295_20230711</t>
+          <t>929_20231123</t>
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
@@ -2612,22 +2612,22 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>1032</v>
+        <v>2862</v>
       </c>
       <c r="B91" t="n">
-        <v>371</v>
+        <v>807</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>45202</v>
+        <v>45229</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>STR2308A155</t>
+          <t>SPV2309A103</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>371_20231003</t>
+          <t>807_20231030</t>
         </is>
       </c>
       <c r="F91" t="inlineStr"/>
@@ -2636,22 +2636,22 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>1033</v>
+        <v>2863</v>
       </c>
       <c r="B92" t="n">
-        <v>372</v>
+        <v>811</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>45198</v>
+        <v>45290</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>STR2308A156</t>
+          <t>SPV2309A104</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>372_20230929</t>
+          <t>811_20231230</t>
         </is>
       </c>
       <c r="F92" t="inlineStr"/>
@@ -2660,22 +2660,22 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>1034</v>
+        <v>2864</v>
       </c>
       <c r="B93" t="n">
-        <v>373</v>
+        <v>815</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>45189</v>
+        <v>45245</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>STR2308A157</t>
+          <t>SPV2309A105</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>373_20230920</t>
+          <t>815_20231115</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
@@ -2684,22 +2684,22 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>1038</v>
+        <v>2865</v>
       </c>
       <c r="B94" t="n">
-        <v>377</v>
+        <v>819</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>45198</v>
+        <v>45254</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>STR2308A161</t>
+          <t>SPV2309A106</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>377_20230929</t>
+          <t>819_20231124</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
@@ -2708,22 +2708,22 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>1040</v>
+        <v>2866</v>
       </c>
       <c r="B95" t="n">
-        <v>379</v>
+        <v>823</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>45202</v>
+        <v>45259</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>STR2308A163</t>
+          <t>SPV2309A107</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>379_20231003</t>
+          <t>823_20231129</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
@@ -2732,22 +2732,22 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>1041</v>
+        <v>2868</v>
       </c>
       <c r="B96" t="n">
-        <v>380</v>
+        <v>831</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>45205</v>
+        <v>45240</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>STR2308A164</t>
+          <t>SPV2309A109</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>380_20231006</t>
+          <t>831_20231110</t>
         </is>
       </c>
       <c r="F96" t="inlineStr"/>
@@ -2756,22 +2756,22 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>1043</v>
+        <v>2870</v>
       </c>
       <c r="B97" t="n">
-        <v>382</v>
+        <v>839</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>45222</v>
+        <v>45257</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>STR2308A166</t>
+          <t>SPV2309A111</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>382_20231023</t>
+          <t>839_20231127</t>
         </is>
       </c>
       <c r="F97" t="inlineStr"/>
@@ -2780,22 +2780,22 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>1045</v>
+        <v>2872</v>
       </c>
       <c r="B98" t="n">
-        <v>384</v>
+        <v>863</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>45230</v>
+        <v>45272</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>STR2308A168</t>
+          <t>SPV2309A113</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>384_20231031</t>
+          <t>863_20231212</t>
         </is>
       </c>
       <c r="F98" t="inlineStr"/>
@@ -2804,22 +2804,22 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>1054</v>
+        <v>2873</v>
       </c>
       <c r="B99" t="n">
-        <v>393</v>
+        <v>867</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>45259</v>
+        <v>45247</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>STR2310A177</t>
+          <t>SPV2309A114</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>393_20231129</t>
+          <t>867_20231117</t>
         </is>
       </c>
       <c r="F99" t="inlineStr"/>
@@ -2828,22 +2828,22 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>1055</v>
+        <v>2874</v>
       </c>
       <c r="B100" t="n">
-        <v>394</v>
+        <v>875</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>45281</v>
+        <v>45225</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>STR2310A178</t>
+          <t>SPV2309A115</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>394_20231221</t>
+          <t>875_20231026</t>
         </is>
       </c>
       <c r="F100" t="inlineStr"/>
@@ -2852,22 +2852,22 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>1056</v>
+        <v>2877</v>
       </c>
       <c r="B101" t="n">
-        <v>395</v>
+        <v>887</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>45261</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>STR2310A179</t>
+          <t>SPV2309A118</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>395_20231201</t>
+          <t>887_20231113</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
@@ -2876,22 +2876,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>1062</v>
+        <v>2879</v>
       </c>
       <c r="B102" t="n">
-        <v>401</v>
+        <v>895</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>45253</v>
+        <v>45281</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>STR2310A185</t>
+          <t>SPV2309A120</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>401_20231123</t>
+          <t>895_20231221</t>
         </is>
       </c>
       <c r="F102" t="inlineStr"/>
@@ -2900,22 +2900,22 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>1064</v>
+        <v>2881</v>
       </c>
       <c r="B103" t="n">
-        <v>403</v>
+        <v>907</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>45264</v>
+        <v>45257</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>STR2310A187</t>
+          <t>SPV2309A122</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>403_20231204</t>
+          <t>907_20231127</t>
         </is>
       </c>
       <c r="F103" t="inlineStr"/>
@@ -2924,22 +2924,22 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>1065</v>
+        <v>2883</v>
       </c>
       <c r="B104" t="n">
-        <v>404</v>
+        <v>915</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>45257</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>STR2310A188</t>
+          <t>SPV2309A124</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>404_20231127</t>
+          <t>915_20231113</t>
         </is>
       </c>
       <c r="F104" t="inlineStr"/>
@@ -2948,22 +2948,22 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>1068</v>
+        <v>2884</v>
       </c>
       <c r="B105" t="n">
-        <v>407</v>
+        <v>919</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>45293</v>
+        <v>45260</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>STR2310A191</t>
+          <t>SPV2309A125</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>407_20240102</t>
+          <t>919_20231130</t>
         </is>
       </c>
       <c r="F105" t="inlineStr"/>
@@ -2972,22 +2972,22 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>1079</v>
+        <v>2885</v>
       </c>
       <c r="B106" t="n">
-        <v>418</v>
+        <v>923</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>45296</v>
+        <v>45222</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>STR2310A202</t>
+          <t>SPV2309A126</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>418_20240105</t>
+          <t>923_20231023</t>
         </is>
       </c>
       <c r="F106" t="inlineStr"/>
@@ -2996,22 +2996,22 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>1081</v>
+        <v>2886</v>
       </c>
       <c r="B107" t="n">
-        <v>420</v>
+        <v>927</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>45285</v>
+        <v>45267</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>STR2310A204</t>
+          <t>SPV2309A127</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>420_20231225</t>
+          <t>927_20231207</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
@@ -3020,22 +3020,22 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>1083</v>
+        <v>2887</v>
       </c>
       <c r="B108" t="n">
-        <v>422</v>
+        <v>931</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>45324</v>
+        <v>45287</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>STR2311A206</t>
+          <t>SPV2309A128</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>422_20240202</t>
+          <t>931_20231227</t>
         </is>
       </c>
       <c r="F108" t="inlineStr"/>
@@ -3044,22 +3044,22 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>1086</v>
+        <v>3117</v>
       </c>
       <c r="B109" t="n">
-        <v>425</v>
+        <v>871</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>45329</v>
+        <v>44670</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>STR2311A209</t>
+          <t>CSR2112A063</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>425_20240207</t>
+          <t>871_20220419</t>
         </is>
       </c>
       <c r="F109" t="inlineStr"/>
@@ -3068,22 +3068,22 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>1087</v>
+        <v>3153</v>
       </c>
       <c r="B110" t="n">
-        <v>426</v>
+        <v>907</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>45327</v>
+        <v>44641</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>STR2311A210</t>
+          <t>CSR2112A099</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>426_20240205</t>
+          <t>907_20220321</t>
         </is>
       </c>
       <c r="F110" t="inlineStr"/>
@@ -3092,22 +3092,22 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>1089</v>
+        <v>3206</v>
       </c>
       <c r="B111" t="n">
-        <v>428</v>
+        <v>961</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>45306</v>
+        <v>44648</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>STR2311A212</t>
+          <t>CSR2112A152</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>428_20240115</t>
+          <t>961_20220328</t>
         </is>
       </c>
       <c r="F111" t="inlineStr"/>
@@ -3116,22 +3116,22 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>1090</v>
+        <v>3235</v>
       </c>
       <c r="B112" t="n">
-        <v>429</v>
+        <v>991</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>45329</v>
+        <v>44645</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>STR2311A213</t>
+          <t>CSR2112A181</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>429_20240207</t>
+          <t>991_20220325</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
@@ -3140,22 +3140,22 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>1092</v>
+        <v>3269</v>
       </c>
       <c r="B113" t="n">
-        <v>431</v>
+        <v>13</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>45315</v>
+        <v>44673</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>STR2311A215</t>
+          <t>CSR2202A215</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>431_20240124</t>
+          <t>13_20220422</t>
         </is>
       </c>
       <c r="F113" t="inlineStr"/>
@@ -3164,22 +3164,22 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>1094</v>
+        <v>3289</v>
       </c>
       <c r="B114" t="n">
-        <v>433</v>
+        <v>32</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>45313</v>
+        <v>44679</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>STR2311A217</t>
+          <t>CSR2202A235</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>433_20240122</t>
+          <t>32_20220428</t>
         </is>
       </c>
       <c r="F114" t="inlineStr"/>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>1095</v>
+        <v>3311</v>
       </c>
       <c r="B115" t="n">
-        <v>434</v>
+        <v>1032</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>45348</v>
+        <v>44679</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>STR2311A218</t>
+          <t>CSR2203A257</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>434_20240226</t>
+          <t>1032_20220428</t>
         </is>
       </c>
       <c r="F115" t="inlineStr"/>
@@ -3212,22 +3212,22 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>1097</v>
+        <v>3332</v>
       </c>
       <c r="B116" t="n">
-        <v>436</v>
+        <v>1053</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>45350</v>
+        <v>44664</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>STR2311A220</t>
+          <t>CSR2203A278</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>436_20240228</t>
+          <t>1053_20220413</t>
         </is>
       </c>
       <c r="F116" t="inlineStr"/>
@@ -3236,22 +3236,22 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>1101</v>
+        <v>3349</v>
       </c>
       <c r="B117" t="n">
-        <v>440</v>
+        <v>1070</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>45357</v>
+        <v>44683</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>STR2401A224</t>
+          <t>CSR2203A295</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>440_20240306</t>
+          <t>1070_20220502</t>
         </is>
       </c>
       <c r="F117" t="inlineStr"/>
@@ -3260,22 +3260,22 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>1102</v>
+        <v>3368</v>
       </c>
       <c r="B118" t="n">
-        <v>441</v>
+        <v>43</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>45380</v>
+        <v>44760</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>STR2401A225</t>
+          <t>CSR2204A314</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>441_20240329</t>
+          <t>43_20220718</t>
         </is>
       </c>
       <c r="F118" t="inlineStr"/>
@@ -3284,22 +3284,22 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>1104</v>
+        <v>3377</v>
       </c>
       <c r="B119" t="n">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>45355</v>
+        <v>44749</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>STR2401A227</t>
+          <t>CSR2204A323</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>443_20240304</t>
+          <t>52_20220707</t>
         </is>
       </c>
       <c r="F119" t="inlineStr"/>
@@ -3308,22 +3308,22 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>1105</v>
+        <v>3391</v>
       </c>
       <c r="B120" t="n">
-        <v>444</v>
+        <v>66</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>45371</v>
+        <v>44796</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>STR2401A228</t>
+          <t>CSR2204A337</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>444_20240320</t>
+          <t>66_20220823</t>
         </is>
       </c>
       <c r="F120" t="inlineStr"/>
@@ -3332,22 +3332,22 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>1124</v>
+        <v>3396</v>
       </c>
       <c r="B121" t="n">
-        <v>463</v>
+        <v>71</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>45425</v>
+        <v>44790</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>STR2402A247</t>
+          <t>CSR2204A342</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>463_20240513</t>
+          <t>71_20220817</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
@@ -3356,22 +3356,22 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>1130</v>
+        <v>3405</v>
       </c>
       <c r="B122" t="n">
-        <v>469</v>
+        <v>84</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>45397</v>
+        <v>44733</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>STR2402A253</t>
+          <t>CSR2205A351</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>469_20240415</t>
+          <t>84_20220621</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -3380,22 +3380,22 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>1139</v>
+        <v>3410</v>
       </c>
       <c r="B123" t="n">
-        <v>478</v>
+        <v>89</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>45394</v>
+        <v>44747</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>STR2402A262</t>
+          <t>CSR2205A356</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>478_20240412</t>
+          <t>89_20220705</t>
         </is>
       </c>
       <c r="F123" t="inlineStr"/>
@@ -3404,22 +3404,22 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>1154</v>
+        <v>3411</v>
       </c>
       <c r="B124" t="n">
-        <v>493</v>
+        <v>91</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>45453</v>
+        <v>44750</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>STR2404A001</t>
+          <t>CSR2205A357</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>493_20240610</t>
+          <t>91_20220708</t>
         </is>
       </c>
       <c r="F124" t="inlineStr"/>
@@ -3428,22 +3428,22 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>1163</v>
+        <v>3414</v>
       </c>
       <c r="B125" t="n">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>45470</v>
+        <v>44773</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>STR2404A010</t>
+          <t>CSR2205A360</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>502_20240627</t>
+          <t>80_20220731</t>
         </is>
       </c>
       <c r="F125" t="inlineStr"/>
@@ -3452,22 +3452,22 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>1164</v>
+        <v>3419</v>
       </c>
       <c r="B126" t="n">
-        <v>503</v>
+        <v>119</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>45470</v>
+        <v>44743</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>STR2404A011</t>
+          <t>CSR2205A365</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>503_20240627</t>
+          <t>119_20220701</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
@@ -3476,22 +3476,22 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>1175</v>
+        <v>3422</v>
       </c>
       <c r="B127" t="n">
-        <v>514</v>
+        <v>122</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>45441</v>
+        <v>44753</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>STR2405A022</t>
+          <t>CSR2205A368</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>514_20240529</t>
+          <t>122_20220711</t>
         </is>
       </c>
       <c r="F127" t="inlineStr"/>
@@ -3500,22 +3500,22 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>1371</v>
+        <v>3427</v>
       </c>
       <c r="B128" t="n">
-        <v>712</v>
+        <v>127</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>45422</v>
+        <v>44747</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>CHC2404A113</t>
+          <t>CSR2205A373</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>712_20240510</t>
+          <t>127_20220705</t>
         </is>
       </c>
       <c r="F128" t="inlineStr"/>
@@ -3524,22 +3524,22 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>1610</v>
+        <v>3428</v>
       </c>
       <c r="B129" t="n">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>45443</v>
+        <v>44760</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>CHC2404A352</t>
+          <t>CSR2205A374</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>423_20240531</t>
+          <t>128_20220718</t>
         </is>
       </c>
       <c r="F129" t="inlineStr"/>
@@ -3548,22 +3548,22 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>1728</v>
+        <v>3430</v>
       </c>
       <c r="B130" t="n">
-        <v>497</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>44928</v>
+        <v>44749</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>TRS2210A096</t>
+          <t>CSR2205A376</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>497_20230102</t>
+          <t>130_20220707</t>
         </is>
       </c>
       <c r="F130" t="inlineStr"/>
@@ -3572,22 +3572,22 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>1746</v>
+        <v>3447</v>
       </c>
       <c r="B131" t="n">
-        <v>515</v>
+        <v>105</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>44900</v>
+        <v>44790</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>TRS2210A114</t>
+          <t>CSR2206A393</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>515_20221205</t>
+          <t>105_20220817</t>
         </is>
       </c>
       <c r="F131" t="inlineStr"/>
@@ -3596,22 +3596,22 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>1753</v>
+        <v>3449</v>
       </c>
       <c r="B132" t="n">
-        <v>522</v>
+        <v>107</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>44941</v>
+        <v>44794</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>TRS2211A121</t>
+          <t>CSR2206A395</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>522_20230115</t>
+          <t>107_20220821</t>
         </is>
       </c>
       <c r="F132" t="inlineStr"/>
@@ -3620,22 +3620,22 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>1763</v>
+        <v>3450</v>
       </c>
       <c r="B133" t="n">
-        <v>532</v>
+        <v>108</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>44930</v>
+        <v>44796</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>TRS2211A131</t>
+          <t>CSR2206A396</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>532_20230104</t>
+          <t>108_20220823</t>
         </is>
       </c>
       <c r="F133" t="inlineStr"/>
@@ -3644,22 +3644,22 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>1775</v>
+        <v>3459</v>
       </c>
       <c r="B134" t="n">
-        <v>544</v>
+        <v>117</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>44935</v>
+        <v>44788</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>TRS2211A143</t>
+          <t>CSR2206A405</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>544_20230109</t>
+          <t>117_20220815</t>
         </is>
       </c>
       <c r="F134" t="inlineStr"/>
@@ -3668,22 +3668,22 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>1783</v>
+        <v>3554</v>
       </c>
       <c r="B135" t="n">
-        <v>552</v>
+        <v>45</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>44937</v>
+        <v>44630</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TRS2211A151</t>
+          <t>MYR2203B045</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>552_20230111</t>
+          <t>45_20220310</t>
         </is>
       </c>
       <c r="F135" t="inlineStr"/>
@@ -3692,22 +3692,22 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>1788</v>
+        <v>3556</v>
       </c>
       <c r="B136" t="n">
-        <v>557</v>
+        <v>47</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>44946</v>
+        <v>44630</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>TRS2211A156</t>
+          <t>MYR2203B047</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>557_20230120</t>
+          <t>47_20220310</t>
         </is>
       </c>
       <c r="F136" t="inlineStr"/>
@@ -3716,22 +3716,22 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>1827</v>
+        <v>3558</v>
       </c>
       <c r="B137" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>44901</v>
+        <v>44630</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>EPY2210A004</t>
+          <t>MYR2203B049</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4_20221206</t>
+          <t>49_20220310</t>
         </is>
       </c>
       <c r="F137" t="inlineStr"/>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>1845</v>
+        <v>3559</v>
       </c>
       <c r="B138" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>44923</v>
+        <v>44630</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>EPY2210A022</t>
+          <t>MYR2203B050</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>22_20221228</t>
+          <t>50_20220310</t>
         </is>
       </c>
       <c r="F138" t="inlineStr"/>
@@ -3764,22 +3764,22 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>1860</v>
+        <v>3564</v>
       </c>
       <c r="B139" t="n">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>44937</v>
+        <v>44630</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>EPY2211A037</t>
+          <t>MYR2203B055</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>37_20230111</t>
+          <t>55_20220310</t>
         </is>
       </c>
       <c r="F139" t="inlineStr"/>
@@ -3788,22 +3788,22 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>1905</v>
+        <v>3567</v>
       </c>
       <c r="B140" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>45020</v>
+        <v>44630</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>EPY2301A082</t>
+          <t>MYR2203B058</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>81_20230404</t>
+          <t>58_20220310</t>
         </is>
       </c>
       <c r="F140" t="inlineStr"/>
@@ -3812,22 +3812,22 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>1908</v>
+        <v>3569</v>
       </c>
       <c r="B141" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>45017</v>
+        <v>44630</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>EPY2301A085</t>
+          <t>MYR2203B060</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>84_20230401</t>
+          <t>60_20220310</t>
         </is>
       </c>
       <c r="F141" t="inlineStr"/>
@@ -3836,22 +3836,22 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>1912</v>
+        <v>3571</v>
       </c>
       <c r="B142" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>45002</v>
+        <v>44644</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>EPY2301A089</t>
+          <t>MYR2203B062</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>88_20230317</t>
+          <t>62_20220324</t>
         </is>
       </c>
       <c r="F142" t="inlineStr"/>
@@ -3860,22 +3860,22 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>2711</v>
+        <v>3609</v>
       </c>
       <c r="B143" t="n">
-        <v>447</v>
+        <v>100</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>45159</v>
+        <v>44644</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>PNF2307A078</t>
+          <t>MYR2203B100</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>447_20230821</t>
+          <t>100_20220324</t>
         </is>
       </c>
       <c r="F143" t="inlineStr"/>
@@ -3884,22 +3884,22 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>2761</v>
+        <v>3615</v>
       </c>
       <c r="B144" t="n">
-        <v>802</v>
+        <v>106</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>45282</v>
+        <v>44644</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SPV2309A002</t>
+          <t>MYR2203B106</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>802_20231222</t>
+          <t>106_20220324</t>
         </is>
       </c>
       <c r="F144" t="inlineStr"/>
@@ -3908,22 +3908,22 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>2766</v>
+        <v>3618</v>
       </c>
       <c r="B145" t="n">
-        <v>822</v>
+        <v>109</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>45264</v>
+        <v>44644</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>SPV2309A007</t>
+          <t>MYR2203B109</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>822_20231204</t>
+          <t>109_20220324</t>
         </is>
       </c>
       <c r="F145" t="inlineStr"/>
@@ -3932,2139 +3932,27 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>2767</v>
+        <v>3624</v>
       </c>
       <c r="B146" t="n">
-        <v>826</v>
+        <v>115</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>45293</v>
+        <v>44644</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SPV2309A008</t>
+          <t>MYR2203B115</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>826_20240102</t>
+          <t>115_20220324</t>
         </is>
       </c>
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>2770</v>
-      </c>
-      <c r="B147" t="n">
-        <v>838</v>
-      </c>
-      <c r="C147" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>SPV2309A011</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>838_20231204</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>2773</v>
-      </c>
-      <c r="B148" t="n">
-        <v>866</v>
-      </c>
-      <c r="C148" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>SPV2309A014</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>866_20231204</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>2774</v>
-      </c>
-      <c r="B149" t="n">
-        <v>870</v>
-      </c>
-      <c r="C149" s="2" t="n">
-        <v>45276</v>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>SPV2309A015</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>870_20231216</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>2777</v>
-      </c>
-      <c r="B150" t="n">
-        <v>882</v>
-      </c>
-      <c r="C150" s="2" t="n">
-        <v>45274</v>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>SPV2309A018</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>882_20231214</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>2781</v>
-      </c>
-      <c r="B151" t="n">
-        <v>906</v>
-      </c>
-      <c r="C151" s="2" t="n">
-        <v>45223</v>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>SPV2309A022</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>906_20231024</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>2784</v>
-      </c>
-      <c r="B152" t="n">
-        <v>918</v>
-      </c>
-      <c r="C152" s="2" t="n">
-        <v>45240</v>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>SPV2309A025</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>918_20231110</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>2785</v>
-      </c>
-      <c r="B153" t="n">
-        <v>922</v>
-      </c>
-      <c r="C153" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>SPV2309A026</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>922_20231129</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>2786</v>
-      </c>
-      <c r="B154" t="n">
-        <v>926</v>
-      </c>
-      <c r="C154" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>SPV2309A027</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>926_20231016</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>2793</v>
-      </c>
-      <c r="B155" t="n">
-        <v>804</v>
-      </c>
-      <c r="C155" s="2" t="n">
-        <v>45248</v>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>SPV2309A034</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>804_20231118</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>2794</v>
-      </c>
-      <c r="B156" t="n">
-        <v>808</v>
-      </c>
-      <c r="C156" s="2" t="n">
-        <v>45281</v>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>SPV2309A035</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>808_20231221</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>2797</v>
-      </c>
-      <c r="B157" t="n">
-        <v>820</v>
-      </c>
-      <c r="C157" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>SPV2309A038</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>820_20231124</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>2800</v>
-      </c>
-      <c r="B158" t="n">
-        <v>832</v>
-      </c>
-      <c r="C158" s="2" t="n">
-        <v>45307</v>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>SPV2309A041</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>832_20240116</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>2801</v>
-      </c>
-      <c r="B159" t="n">
-        <v>836</v>
-      </c>
-      <c r="C159" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>SPV2309A042</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>836_20231123</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>2807</v>
-      </c>
-      <c r="B160" t="n">
-        <v>844</v>
-      </c>
-      <c r="C160" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>SPV2309A048</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>844_20231121</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>2808</v>
-      </c>
-      <c r="B161" t="n">
-        <v>864</v>
-      </c>
-      <c r="C161" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>SPV2309A049</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>864_20231204</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>2810</v>
-      </c>
-      <c r="B162" t="n">
-        <v>876</v>
-      </c>
-      <c r="C162" s="2" t="n">
-        <v>45276</v>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>SPV2309A051</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>876_20231216</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>2812</v>
-      </c>
-      <c r="B163" t="n">
-        <v>884</v>
-      </c>
-      <c r="C163" s="2" t="n">
-        <v>45261</v>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>SPV2309A053</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>884_20231201</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>2813</v>
-      </c>
-      <c r="B164" t="n">
-        <v>888</v>
-      </c>
-      <c r="C164" s="2" t="n">
-        <v>45251</v>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>SPV2309A054</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>888_20231121</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>2814</v>
-      </c>
-      <c r="B165" t="n">
-        <v>892</v>
-      </c>
-      <c r="C165" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>SPV2309A055</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>892_20231124</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>2816</v>
-      </c>
-      <c r="B166" t="n">
-        <v>900</v>
-      </c>
-      <c r="C166" s="2" t="n">
-        <v>45282</v>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>SPV2309A057</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>900_20231222</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>2817</v>
-      </c>
-      <c r="B167" t="n">
-        <v>908</v>
-      </c>
-      <c r="C167" s="2" t="n">
-        <v>45290</v>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>SPV2309A058</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>908_20231230</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>2819</v>
-      </c>
-      <c r="B168" t="n">
-        <v>916</v>
-      </c>
-      <c r="C168" s="2" t="n">
-        <v>45290</v>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>SPV2309A060</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>916_20231230</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>2842</v>
-      </c>
-      <c r="B169" t="n">
-        <v>829</v>
-      </c>
-      <c r="C169" s="2" t="n">
-        <v>45240</v>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>SPV2309A083</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>829_20231110</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>2844</v>
-      </c>
-      <c r="B170" t="n">
-        <v>833</v>
-      </c>
-      <c r="C170" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>SPV2309A085</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>833_20231113</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>2845</v>
-      </c>
-      <c r="B171" t="n">
-        <v>837</v>
-      </c>
-      <c r="C171" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>SPV2309A086</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>837_20231106</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>2847</v>
-      </c>
-      <c r="B172" t="n">
-        <v>865</v>
-      </c>
-      <c r="C172" s="2" t="n">
-        <v>45255</v>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>SPV2309A088</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>865_20231125</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>2848</v>
-      </c>
-      <c r="B173" t="n">
-        <v>869</v>
-      </c>
-      <c r="C173" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>SPV2309A089</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>869_20231103</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>2850</v>
-      </c>
-      <c r="B174" t="n">
-        <v>881</v>
-      </c>
-      <c r="C174" s="2" t="n">
-        <v>45279</v>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>SPV2309A091</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>881_20231219</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>2853</v>
-      </c>
-      <c r="B175" t="n">
-        <v>897</v>
-      </c>
-      <c r="C175" s="2" t="n">
-        <v>45233</v>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>SPV2309A094</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>897_20231103</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>2854</v>
-      </c>
-      <c r="B176" t="n">
-        <v>905</v>
-      </c>
-      <c r="C176" s="2" t="n">
-        <v>45239</v>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>SPV2309A095</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>905_20231109</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>2856</v>
-      </c>
-      <c r="B177" t="n">
-        <v>913</v>
-      </c>
-      <c r="C177" s="2" t="n">
-        <v>45234</v>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>SPV2309A097</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>913_20231104</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>2858</v>
-      </c>
-      <c r="B178" t="n">
-        <v>929</v>
-      </c>
-      <c r="C178" s="2" t="n">
-        <v>45253</v>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>SPV2309A099</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>929_20231123</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>2862</v>
-      </c>
-      <c r="B179" t="n">
-        <v>807</v>
-      </c>
-      <c r="C179" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>SPV2309A103</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>807_20231030</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>2863</v>
-      </c>
-      <c r="B180" t="n">
-        <v>811</v>
-      </c>
-      <c r="C180" s="2" t="n">
-        <v>45290</v>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>SPV2309A104</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>811_20231230</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>2864</v>
-      </c>
-      <c r="B181" t="n">
-        <v>815</v>
-      </c>
-      <c r="C181" s="2" t="n">
-        <v>45245</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>SPV2309A105</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>815_20231115</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>2865</v>
-      </c>
-      <c r="B182" t="n">
-        <v>819</v>
-      </c>
-      <c r="C182" s="2" t="n">
-        <v>45254</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>SPV2309A106</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>819_20231124</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>2866</v>
-      </c>
-      <c r="B183" t="n">
-        <v>823</v>
-      </c>
-      <c r="C183" s="2" t="n">
-        <v>45259</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>SPV2309A107</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>823_20231129</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>2868</v>
-      </c>
-      <c r="B184" t="n">
-        <v>831</v>
-      </c>
-      <c r="C184" s="2" t="n">
-        <v>45240</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>SPV2309A109</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>831_20231110</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>2870</v>
-      </c>
-      <c r="B185" t="n">
-        <v>839</v>
-      </c>
-      <c r="C185" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>SPV2309A111</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>839_20231127</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>2872</v>
-      </c>
-      <c r="B186" t="n">
-        <v>863</v>
-      </c>
-      <c r="C186" s="2" t="n">
-        <v>45272</v>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>SPV2309A113</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>863_20231212</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>2873</v>
-      </c>
-      <c r="B187" t="n">
-        <v>867</v>
-      </c>
-      <c r="C187" s="2" t="n">
-        <v>45247</v>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>SPV2309A114</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>867_20231117</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>2874</v>
-      </c>
-      <c r="B188" t="n">
-        <v>875</v>
-      </c>
-      <c r="C188" s="2" t="n">
-        <v>45225</v>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>SPV2309A115</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>875_20231026</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>2877</v>
-      </c>
-      <c r="B189" t="n">
-        <v>887</v>
-      </c>
-      <c r="C189" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>SPV2309A118</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>887_20231113</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>2879</v>
-      </c>
-      <c r="B190" t="n">
-        <v>895</v>
-      </c>
-      <c r="C190" s="2" t="n">
-        <v>45281</v>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>SPV2309A120</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>895_20231221</t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>2881</v>
-      </c>
-      <c r="B191" t="n">
-        <v>907</v>
-      </c>
-      <c r="C191" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>SPV2309A122</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>907_20231127</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>2883</v>
-      </c>
-      <c r="B192" t="n">
-        <v>915</v>
-      </c>
-      <c r="C192" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>SPV2309A124</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>915_20231113</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>2884</v>
-      </c>
-      <c r="B193" t="n">
-        <v>919</v>
-      </c>
-      <c r="C193" s="2" t="n">
-        <v>45260</v>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>SPV2309A125</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>919_20231130</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>2885</v>
-      </c>
-      <c r="B194" t="n">
-        <v>923</v>
-      </c>
-      <c r="C194" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>SPV2309A126</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>923_20231023</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>2886</v>
-      </c>
-      <c r="B195" t="n">
-        <v>927</v>
-      </c>
-      <c r="C195" s="2" t="n">
-        <v>45267</v>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>SPV2309A127</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>927_20231207</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>2887</v>
-      </c>
-      <c r="B196" t="n">
-        <v>931</v>
-      </c>
-      <c r="C196" s="2" t="n">
-        <v>45287</v>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>SPV2309A128</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>931_20231227</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>3117</v>
-      </c>
-      <c r="B197" t="n">
-        <v>871</v>
-      </c>
-      <c r="C197" s="2" t="n">
-        <v>44670</v>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>CSR2112A063</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>871_20220419</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>3153</v>
-      </c>
-      <c r="B198" t="n">
-        <v>907</v>
-      </c>
-      <c r="C198" s="2" t="n">
-        <v>44641</v>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>CSR2112A099</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>907_20220321</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>3206</v>
-      </c>
-      <c r="B199" t="n">
-        <v>961</v>
-      </c>
-      <c r="C199" s="2" t="n">
-        <v>44648</v>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>CSR2112A152</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>961_20220328</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>3235</v>
-      </c>
-      <c r="B200" t="n">
-        <v>991</v>
-      </c>
-      <c r="C200" s="2" t="n">
-        <v>44645</v>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>CSR2112A181</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>991_20220325</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>3269</v>
-      </c>
-      <c r="B201" t="n">
-        <v>13</v>
-      </c>
-      <c r="C201" s="2" t="n">
-        <v>44673</v>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>CSR2202A215</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>13_20220422</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>3289</v>
-      </c>
-      <c r="B202" t="n">
-        <v>32</v>
-      </c>
-      <c r="C202" s="2" t="n">
-        <v>44679</v>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>CSR2202A235</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>32_20220428</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>3311</v>
-      </c>
-      <c r="B203" t="n">
-        <v>1032</v>
-      </c>
-      <c r="C203" s="2" t="n">
-        <v>44679</v>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>CSR2203A257</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>1032_20220428</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>3332</v>
-      </c>
-      <c r="B204" t="n">
-        <v>1053</v>
-      </c>
-      <c r="C204" s="2" t="n">
-        <v>44664</v>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>CSR2203A278</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>1053_20220413</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>3349</v>
-      </c>
-      <c r="B205" t="n">
-        <v>1070</v>
-      </c>
-      <c r="C205" s="2" t="n">
-        <v>44683</v>
-      </c>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>CSR2203A295</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>1070_20220502</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>3368</v>
-      </c>
-      <c r="B206" t="n">
-        <v>43</v>
-      </c>
-      <c r="C206" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="D206" t="inlineStr">
-        <is>
-          <t>CSR2204A314</t>
-        </is>
-      </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>43_20220718</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>3377</v>
-      </c>
-      <c r="B207" t="n">
-        <v>52</v>
-      </c>
-      <c r="C207" s="2" t="n">
-        <v>44749</v>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>CSR2204A323</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>52_20220707</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>3391</v>
-      </c>
-      <c r="B208" t="n">
-        <v>66</v>
-      </c>
-      <c r="C208" s="2" t="n">
-        <v>44796</v>
-      </c>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>CSR2204A337</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>66_20220823</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>3396</v>
-      </c>
-      <c r="B209" t="n">
-        <v>71</v>
-      </c>
-      <c r="C209" s="2" t="n">
-        <v>44790</v>
-      </c>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>CSR2204A342</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>71_20220817</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>3405</v>
-      </c>
-      <c r="B210" t="n">
-        <v>84</v>
-      </c>
-      <c r="C210" s="2" t="n">
-        <v>44733</v>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>CSR2205A351</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>84_20220621</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>3410</v>
-      </c>
-      <c r="B211" t="n">
-        <v>89</v>
-      </c>
-      <c r="C211" s="2" t="n">
-        <v>44747</v>
-      </c>
-      <c r="D211" t="inlineStr">
-        <is>
-          <t>CSR2205A356</t>
-        </is>
-      </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>89_20220705</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>3411</v>
-      </c>
-      <c r="B212" t="n">
-        <v>91</v>
-      </c>
-      <c r="C212" s="2" t="n">
-        <v>44750</v>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>CSR2205A357</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>91_20220708</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>3414</v>
-      </c>
-      <c r="B213" t="n">
-        <v>80</v>
-      </c>
-      <c r="C213" s="2" t="n">
-        <v>44773</v>
-      </c>
-      <c r="D213" t="inlineStr">
-        <is>
-          <t>CSR2205A360</t>
-        </is>
-      </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>80_20220731</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>3419</v>
-      </c>
-      <c r="B214" t="n">
-        <v>119</v>
-      </c>
-      <c r="C214" s="2" t="n">
-        <v>44743</v>
-      </c>
-      <c r="D214" t="inlineStr">
-        <is>
-          <t>CSR2205A365</t>
-        </is>
-      </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>119_20220701</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>3422</v>
-      </c>
-      <c r="B215" t="n">
-        <v>122</v>
-      </c>
-      <c r="C215" s="2" t="n">
-        <v>44753</v>
-      </c>
-      <c r="D215" t="inlineStr">
-        <is>
-          <t>CSR2205A368</t>
-        </is>
-      </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>122_20220711</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>3427</v>
-      </c>
-      <c r="B216" t="n">
-        <v>127</v>
-      </c>
-      <c r="C216" s="2" t="n">
-        <v>44747</v>
-      </c>
-      <c r="D216" t="inlineStr">
-        <is>
-          <t>CSR2205A373</t>
-        </is>
-      </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>127_20220705</t>
-        </is>
-      </c>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>3428</v>
-      </c>
-      <c r="B217" t="n">
-        <v>128</v>
-      </c>
-      <c r="C217" s="2" t="n">
-        <v>44760</v>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>CSR2205A374</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>128_20220718</t>
-        </is>
-      </c>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>3430</v>
-      </c>
-      <c r="B218" t="n">
-        <v>130</v>
-      </c>
-      <c r="C218" s="2" t="n">
-        <v>44749</v>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>CSR2205A376</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>130_20220707</t>
-        </is>
-      </c>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>3447</v>
-      </c>
-      <c r="B219" t="n">
-        <v>105</v>
-      </c>
-      <c r="C219" s="2" t="n">
-        <v>44790</v>
-      </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>CSR2206A393</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>105_20220817</t>
-        </is>
-      </c>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>3449</v>
-      </c>
-      <c r="B220" t="n">
-        <v>107</v>
-      </c>
-      <c r="C220" s="2" t="n">
-        <v>44794</v>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>CSR2206A395</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>107_20220821</t>
-        </is>
-      </c>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>3450</v>
-      </c>
-      <c r="B221" t="n">
-        <v>108</v>
-      </c>
-      <c r="C221" s="2" t="n">
-        <v>44796</v>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>CSR2206A396</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>108_20220823</t>
-        </is>
-      </c>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>3459</v>
-      </c>
-      <c r="B222" t="n">
-        <v>117</v>
-      </c>
-      <c r="C222" s="2" t="n">
-        <v>44788</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>CSR2206A405</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>117_20220815</t>
-        </is>
-      </c>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>3554</v>
-      </c>
-      <c r="B223" t="n">
-        <v>45</v>
-      </c>
-      <c r="C223" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>MYR2203B045</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>45_20220310</t>
-        </is>
-      </c>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>3556</v>
-      </c>
-      <c r="B224" t="n">
-        <v>47</v>
-      </c>
-      <c r="C224" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>MYR2203B047</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>47_20220310</t>
-        </is>
-      </c>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>3558</v>
-      </c>
-      <c r="B225" t="n">
-        <v>49</v>
-      </c>
-      <c r="C225" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>MYR2203B049</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>49_20220310</t>
-        </is>
-      </c>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>3559</v>
-      </c>
-      <c r="B226" t="n">
-        <v>50</v>
-      </c>
-      <c r="C226" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>MYR2203B050</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>50_20220310</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>3564</v>
-      </c>
-      <c r="B227" t="n">
-        <v>55</v>
-      </c>
-      <c r="C227" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D227" t="inlineStr">
-        <is>
-          <t>MYR2203B055</t>
-        </is>
-      </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>55_20220310</t>
-        </is>
-      </c>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>3567</v>
-      </c>
-      <c r="B228" t="n">
-        <v>58</v>
-      </c>
-      <c r="C228" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>MYR2203B058</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>58_20220310</t>
-        </is>
-      </c>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>3569</v>
-      </c>
-      <c r="B229" t="n">
-        <v>60</v>
-      </c>
-      <c r="C229" s="2" t="n">
-        <v>44630</v>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>MYR2203B060</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>60_20220310</t>
-        </is>
-      </c>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>3571</v>
-      </c>
-      <c r="B230" t="n">
-        <v>62</v>
-      </c>
-      <c r="C230" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>MYR2203B062</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>62_20220324</t>
-        </is>
-      </c>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>3609</v>
-      </c>
-      <c r="B231" t="n">
-        <v>100</v>
-      </c>
-      <c r="C231" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>MYR2203B100</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>100_20220324</t>
-        </is>
-      </c>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>3615</v>
-      </c>
-      <c r="B232" t="n">
-        <v>106</v>
-      </c>
-      <c r="C232" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>MYR2203B106</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>106_20220324</t>
-        </is>
-      </c>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>3618</v>
-      </c>
-      <c r="B233" t="n">
-        <v>109</v>
-      </c>
-      <c r="C233" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>MYR2203B109</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>109_20220324</t>
-        </is>
-      </c>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>3624</v>
-      </c>
-      <c r="B234" t="n">
-        <v>115</v>
-      </c>
-      <c r="C234" s="2" t="n">
-        <v>44644</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>MYR2203B115</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>115_20220324</t>
-        </is>
-      </c>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
